--- a/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
+++ b/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezheng/Documents/VEuPathDB-git/ApiCommonData/Load/ontology/harmonization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sshahsimpson/Documents/Git/ApiCommonData/Load/ontology/harmonization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3AD28E68-F2A3-F940-8930-E97363F153D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82A383E-E0E4-274A-896E-8A67A8CC0F95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="460" windowWidth="23460" windowHeight="16540" activeTab="3"/>
+    <workbookView xWindow="180" yWindow="500" windowWidth="23460" windowHeight="16300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="termWithDifferentLabels" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,15 @@
     <sheet name="termWithDifferentParent" sheetId="3" r:id="rId3"/>
     <sheet name="units" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">termWithDifferentParent!$A$1:$F$22</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="310">
   <si>
     <t>sid</t>
   </si>
@@ -836,13 +839,130 @@
   </si>
   <si>
     <t>NO_IRI|http://purl.obolibrary.org/obo/NCIT_C64387|http://purl.obolibrary.org/obo/UO_0010003|http://purl.obolibrary.org/obo/NCIT_C67015</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>Plasmodium, by microscopy result</t>
+  </si>
+  <si>
+    <t>Plasmodium falciparum gametocytes, by microscopy result</t>
+  </si>
+  <si>
+    <t>Plasmodium falciparum asexual stages, by microscopy result</t>
+  </si>
+  <si>
+    <t>Anemia (hemoglobin &lt; 11 g/dL)</t>
+  </si>
+  <si>
+    <t>Room count</t>
+  </si>
+  <si>
+    <t>1-2 convulsions over 24 h</t>
+  </si>
+  <si>
+    <t>More than 3 convulsions over 24h</t>
+  </si>
+  <si>
+    <t>Total female Anopheles count</t>
+  </si>
+  <si>
+    <t>Vacutainer sample (5mL)</t>
+  </si>
+  <si>
+    <t>Mother's living children count</t>
+  </si>
+  <si>
+    <t>Study timepoint</t>
+  </si>
+  <si>
+    <t>Participant</t>
+  </si>
+  <si>
+    <t>Household observation details</t>
+  </si>
+  <si>
+    <t>Maternal clinical history</t>
+  </si>
+  <si>
+    <t>should be in label, not unitLabel</t>
+  </si>
+  <si>
+    <t>should be C</t>
+  </si>
+  <si>
+    <t>Malaria diagnoses in the past year count</t>
+  </si>
+  <si>
+    <t>correct_label</t>
+  </si>
+  <si>
+    <t>PCR DNA sample source</t>
+  </si>
+  <si>
+    <t>Oocysts count</t>
+  </si>
+  <si>
+    <t>one is mg/L and the other is total mannitol (mg). Change label of EUPATH_0036400 to "Total mannitol excreted"</t>
+  </si>
+  <si>
+    <t>one is mg/L and the other is total lacutulose (mg). Change label of EUPATH_0036399 to "Total lactulose excreted"</t>
+  </si>
+  <si>
+    <t>Change to match all other projects</t>
+  </si>
+  <si>
+    <t>leave as is</t>
+  </si>
+  <si>
+    <t>map all variables to 1 IRI, Jay will have to merge the data when loading, so termType should also be updated to "variable,derived"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ontology team to choose IRI and apply </t>
+  </si>
+  <si>
+    <t>Changing the label for 20122 to be "Total female Anopheles count"</t>
+  </si>
+  <si>
+    <t>For EUPATH_0000537, change label to "Plasmodium, by microscopy result" and move under Raw eukaryota data for blood</t>
+  </si>
+  <si>
+    <t>For EUPATH_0000546, change label to "Plasmodium, by microscopy result" and move under Raw eukaryota data for blood</t>
+  </si>
+  <si>
+    <t>correct_parent</t>
+  </si>
+  <si>
+    <t>change label to "Plasmodium, by microscopy result" and move under Raw eukaryota data for blood</t>
+  </si>
+  <si>
+    <t>change label to "Plasmodium falciparum asexual stages, by microscopy result" and move under Raw eukaryota data for blood</t>
+  </si>
+  <si>
+    <t>change label to "Plasmodium vivax asexual stages, by microscopy result" and move under Raw eukaryota data for blood</t>
+  </si>
+  <si>
+    <t>change label to "Plasmodium vivax gametocytes, by microscopy result" and move under Raw eukaryota data for blood</t>
+  </si>
+  <si>
+    <t>Observation details</t>
+  </si>
+  <si>
+    <t>should be /uL</t>
+  </si>
+  <si>
+    <t>replace IRI with EUPATH_0000092, move to "Raw eukaryota data for blood", and add "result" to end of label. Move and add result to the label for the 2nd and 3rd variables too</t>
+  </si>
+  <si>
+    <t>replace IRI with EUPATH_0023018, move to "Raw eukaryota data for blood", and add "result" to end of label. Move and add result to the label for the 2nd and 3rd variables too</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -982,6 +1102,13 @@
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1325,12 +1452,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1685,21 +1813,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.83203125" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="75" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1712,8 +1841,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1726,8 +1858,11 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1740,8 +1875,11 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1754,8 +1892,11 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1768,8 +1909,11 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1782,8 +1926,11 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1796,8 +1943,11 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1810,8 +1960,11 @@
       <c r="D8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1824,8 +1977,11 @@
       <c r="D9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1838,8 +1994,11 @@
       <c r="D10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1852,8 +2011,11 @@
       <c r="D11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1866,8 +2028,11 @@
       <c r="D12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1880,8 +2045,11 @@
       <c r="D13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1894,8 +2062,11 @@
       <c r="D14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -1907,6 +2078,9 @@
       </c>
       <c r="D15" t="s">
         <v>38</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -1915,21 +2089,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45" customWidth="1"/>
     <col min="3" max="3" width="47.6640625" customWidth="1"/>
     <col min="4" max="4" width="33.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1946,7 +2121,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1959,8 +2134,11 @@
       <c r="E2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1976,8 +2154,11 @@
       <c r="E3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>51</v>
       </c>
@@ -1994,7 +2175,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>54</v>
       </c>
@@ -2011,7 +2192,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>56</v>
       </c>
@@ -2028,7 +2209,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>59</v>
       </c>
@@ -2045,7 +2226,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>62</v>
       </c>
@@ -2062,7 +2243,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -2078,8 +2259,11 @@
       <c r="E9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>67</v>
       </c>
@@ -2096,7 +2280,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -2112,8 +2296,11 @@
       <c r="E11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>73</v>
       </c>
@@ -2130,12 +2317,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>51</v>
       </c>
@@ -2145,8 +2332,11 @@
       <c r="C15" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="D15" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>54</v>
       </c>
@@ -2156,17 +2346,20 @@
       <c r="C16" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="D16" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="D17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>56</v>
       </c>
@@ -2177,7 +2370,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="C20" t="s">
         <v>90</v>
@@ -2186,7 +2379,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="C21" t="s">
         <v>91</v>
@@ -2194,11 +2387,15 @@
       <c r="D21" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -2208,24 +2405,34 @@
       <c r="C23" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>79</v>
       </c>
       <c r="D24" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>81</v>
       </c>
       <c r="D25" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E25" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -2235,24 +2442,34 @@
       <c r="C27" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>83</v>
       </c>
       <c r="D28" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>84</v>
       </c>
       <c r="D29" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E29" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -2262,16 +2479,23 @@
       <c r="C31" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>85</v>
       </c>
       <c r="D32" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E32" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -2281,39 +2505,46 @@
       <c r="C34" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>87</v>
       </c>
       <c r="D35" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="42.33203125" customWidth="1"/>
     <col min="4" max="4" width="52.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2329,8 +2560,11 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -2346,8 +2580,11 @@
       <c r="E2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -2363,8 +2600,11 @@
       <c r="E3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -2380,8 +2620,11 @@
       <c r="E4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -2397,8 +2640,11 @@
       <c r="E5" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -2414,8 +2660,11 @@
       <c r="E6" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>111</v>
       </c>
@@ -2431,8 +2680,11 @@
       <c r="E7" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -2448,8 +2700,11 @@
       <c r="E8" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>117</v>
       </c>
@@ -2465,8 +2720,11 @@
       <c r="E9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>120</v>
       </c>
@@ -2482,8 +2740,11 @@
       <c r="E10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>123</v>
       </c>
@@ -2499,8 +2760,11 @@
       <c r="E11" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -2516,8 +2780,11 @@
       <c r="E12" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>129</v>
       </c>
@@ -2533,8 +2800,11 @@
       <c r="E13" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2550,8 +2820,11 @@
       <c r="E14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>133</v>
       </c>
@@ -2567,8 +2840,11 @@
       <c r="E15" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>136</v>
       </c>
@@ -2584,8 +2860,11 @@
       <c r="E16" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2601,8 +2880,11 @@
       <c r="E17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>140</v>
       </c>
@@ -2618,8 +2900,11 @@
       <c r="E18" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>143</v>
       </c>
@@ -2635,8 +2920,11 @@
       <c r="E19" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>146</v>
       </c>
@@ -2652,8 +2940,11 @@
       <c r="E20" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>149</v>
       </c>
@@ -2669,8 +2960,11 @@
       <c r="E21" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -2686,29 +2980,34 @@
       <c r="E22" t="s">
         <v>38</v>
       </c>
+      <c r="F22" s="5" t="s">
+        <v>306</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F22" xr:uid="{7BECD99F-9EFF-CC49-9661-6B01821D2C04}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" customWidth="1"/>
     <col min="3" max="3" width="62" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>154</v>
       </c>
@@ -2721,8 +3020,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>157</v>
       </c>
@@ -2735,8 +3037,11 @@
       <c r="D2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>160</v>
       </c>
@@ -2750,7 +3055,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>163</v>
       </c>
@@ -2764,7 +3069,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>165</v>
       </c>
@@ -2778,7 +3083,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>168</v>
       </c>
@@ -2791,8 +3096,11 @@
       <c r="D6" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>170</v>
       </c>
@@ -2806,7 +3114,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>172</v>
       </c>
@@ -2820,7 +3128,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>175</v>
       </c>
@@ -2834,7 +3142,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>177</v>
       </c>
@@ -2848,7 +3156,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>179</v>
       </c>
@@ -2862,7 +3170,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>180</v>
       </c>
@@ -2876,7 +3184,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>181</v>
       </c>
@@ -2890,7 +3198,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>183</v>
       </c>
@@ -2904,7 +3212,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>184</v>
       </c>
@@ -2918,7 +3226,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>185</v>
       </c>
@@ -2932,7 +3240,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>188</v>
       </c>
@@ -2946,7 +3254,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>191</v>
       </c>
@@ -2960,7 +3268,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>194</v>
       </c>
@@ -2974,7 +3282,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>195</v>
       </c>
@@ -2988,7 +3296,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>198</v>
       </c>
@@ -3002,7 +3310,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>200</v>
       </c>
@@ -3016,7 +3324,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>202</v>
       </c>
@@ -3030,7 +3338,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>204</v>
       </c>
@@ -3044,7 +3352,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>207</v>
       </c>
@@ -3058,7 +3366,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>209</v>
       </c>
@@ -3072,7 +3380,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>211</v>
       </c>
@@ -3086,7 +3394,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>213</v>
       </c>
@@ -3100,7 +3408,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>216</v>
       </c>
@@ -3114,7 +3422,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>218</v>
       </c>
@@ -3128,7 +3436,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>221</v>
       </c>
@@ -3142,7 +3450,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>224</v>
       </c>
@@ -3156,7 +3464,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>226</v>
       </c>
@@ -3170,7 +3478,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>229</v>
       </c>
@@ -3183,8 +3491,11 @@
       <c r="D34" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>230</v>
       </c>
@@ -3198,7 +3509,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>232</v>
       </c>
@@ -3212,7 +3523,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>233</v>
       </c>
@@ -3226,7 +3537,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>235</v>
       </c>
@@ -3240,7 +3551,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>237</v>
       </c>
@@ -3254,7 +3565,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>239</v>
       </c>
@@ -3268,7 +3579,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>241</v>
       </c>
@@ -3282,7 +3593,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>244</v>
       </c>
@@ -3296,7 +3607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>245</v>
       </c>
@@ -3310,7 +3621,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>248</v>
       </c>
@@ -3323,8 +3634,11 @@
       <c r="D44" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>251</v>
       </c>
@@ -3338,7 +3652,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>253</v>
       </c>
@@ -3352,7 +3666,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>256</v>
       </c>
@@ -3366,7 +3680,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>258</v>
       </c>
@@ -3380,7 +3694,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>261</v>
       </c>
@@ -3394,7 +3708,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>263</v>
       </c>
@@ -3408,7 +3722,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>266</v>
       </c>
@@ -3422,7 +3736,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>269</v>
       </c>

--- a/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
+++ b/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sshahsimpson/Documents/Git/ApiCommonData/Load/ontology/harmonization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezheng/Documents/VEuPathDB-git/ApiCommonData/Load/ontology/harmonization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82A383E-E0E4-274A-896E-8A67A8CC0F95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F629F4-87A1-A64D-87EE-948D7CCF65A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="500" windowWidth="23460" windowHeight="16300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6440" yWindow="460" windowWidth="21820" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="termWithDifferentLabels" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="312">
   <si>
     <t>sid</t>
   </si>
@@ -956,13 +956,19 @@
   </si>
   <si>
     <t>replace IRI with EUPATH_0023018, move to "Raw eukaryota data for blood", and add "result" to end of label. Move and add result to the label for the 2nd and 3rd variables too</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>fixed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1814,21 +1820,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="5"/>
+    <col min="2" max="2" width="3.6640625" customWidth="1"/>
+    <col min="3" max="3" width="61.1640625" customWidth="1"/>
+    <col min="4" max="4" width="56.83203125" customWidth="1"/>
+    <col min="5" max="5" width="55.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1845,7 +1852,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1861,8 +1868,11 @@
       <c r="E2" s="5" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1878,8 +1888,11 @@
       <c r="E3" s="5" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1895,8 +1908,11 @@
       <c r="E4" s="5" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1912,8 +1928,11 @@
       <c r="E5" s="5" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1929,8 +1948,11 @@
       <c r="E6" s="5" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1946,8 +1968,11 @@
       <c r="E7" s="5" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1963,8 +1988,11 @@
       <c r="E8" s="5" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1980,8 +2008,11 @@
       <c r="E9" s="5" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1997,8 +2028,11 @@
       <c r="E10" s="5" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2014,8 +2048,11 @@
       <c r="E11" s="5" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -2031,8 +2068,11 @@
       <c r="E12" s="5" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -2049,7 +2089,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -2065,8 +2105,11 @@
       <c r="E14" s="5" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -2082,9 +2125,13 @@
       <c r="E15" s="5" t="s">
         <v>282</v>
       </c>
+      <c r="F15" t="s">
+        <v>310</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2093,10 +2140,10 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="45" customWidth="1"/>
     <col min="3" max="3" width="47.6640625" customWidth="1"/>
@@ -2104,7 +2151,7 @@
     <col min="6" max="6" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -2121,7 +2168,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -2138,7 +2185,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -2158,7 +2205,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>51</v>
       </c>
@@ -2175,7 +2222,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>54</v>
       </c>
@@ -2192,7 +2239,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>56</v>
       </c>
@@ -2209,7 +2256,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>59</v>
       </c>
@@ -2226,7 +2273,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>62</v>
       </c>
@@ -2243,7 +2290,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -2263,7 +2310,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>67</v>
       </c>
@@ -2280,7 +2327,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -2300,7 +2347,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>73</v>
       </c>
@@ -2317,12 +2364,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
         <v>51</v>
       </c>
@@ -2336,7 +2383,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
         <v>54</v>
       </c>
@@ -2350,16 +2397,16 @@
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="D17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
         <v>56</v>
       </c>
@@ -2370,7 +2417,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="1"/>
       <c r="C20" t="s">
         <v>90</v>
@@ -2379,7 +2426,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="1"/>
       <c r="C21" t="s">
         <v>91</v>
@@ -2391,11 +2438,11 @@
         <v>294</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="1"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -2407,7 +2454,7 @@
       </c>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="C24" t="s">
         <v>79</v>
       </c>
@@ -2418,7 +2465,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="C25" t="s">
         <v>81</v>
       </c>
@@ -2429,10 +2476,10 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -2444,7 +2491,7 @@
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="C28" t="s">
         <v>83</v>
       </c>
@@ -2455,7 +2502,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="C29" t="s">
         <v>84</v>
       </c>
@@ -2466,10 +2513,10 @@
         <v>295</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -2481,7 +2528,7 @@
       </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -2492,10 +2539,10 @@
         <v>296</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -2507,7 +2554,7 @@
       </c>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>87</v>
       </c>
@@ -2518,7 +2565,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="3"/>
     </row>
   </sheetData>
@@ -2531,11 +2578,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="42.33203125" customWidth="1"/>
@@ -2544,7 +2591,7 @@
     <col min="6" max="6" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2564,7 +2611,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -2584,7 +2631,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -2604,7 +2651,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -2624,7 +2671,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -2644,7 +2691,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -2664,7 +2711,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>111</v>
       </c>
@@ -2684,7 +2731,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -2704,7 +2751,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>117</v>
       </c>
@@ -2724,7 +2771,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>120</v>
       </c>
@@ -2744,7 +2791,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>123</v>
       </c>
@@ -2764,7 +2811,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -2784,7 +2831,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>129</v>
       </c>
@@ -2804,7 +2851,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2824,7 +2871,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>133</v>
       </c>
@@ -2844,7 +2891,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>136</v>
       </c>
@@ -2864,7 +2911,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2884,7 +2931,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>140</v>
       </c>
@@ -2904,7 +2951,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>143</v>
       </c>
@@ -2924,7 +2971,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>146</v>
       </c>
@@ -2944,7 +2991,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>149</v>
       </c>
@@ -2964,7 +3011,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -2992,22 +3039,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" customWidth="1"/>
-    <col min="3" max="3" width="62" customWidth="1"/>
+    <col min="3" max="3" width="47.83203125" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>154</v>
       </c>
@@ -3024,7 +3071,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>157</v>
       </c>
@@ -3041,7 +3088,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>160</v>
       </c>
@@ -3055,7 +3102,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>163</v>
       </c>
@@ -3069,7 +3116,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>165</v>
       </c>
@@ -3083,7 +3130,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>168</v>
       </c>
@@ -3100,7 +3147,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>170</v>
       </c>
@@ -3114,7 +3161,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>172</v>
       </c>
@@ -3128,7 +3175,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>175</v>
       </c>
@@ -3142,7 +3189,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>177</v>
       </c>
@@ -3156,7 +3203,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>179</v>
       </c>
@@ -3170,7 +3217,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>180</v>
       </c>
@@ -3184,7 +3231,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>181</v>
       </c>
@@ -3198,7 +3245,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>183</v>
       </c>
@@ -3212,7 +3259,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>184</v>
       </c>
@@ -3226,7 +3273,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>185</v>
       </c>
@@ -3240,7 +3287,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>188</v>
       </c>
@@ -3254,7 +3301,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>191</v>
       </c>
@@ -3268,7 +3315,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>194</v>
       </c>
@@ -3282,7 +3329,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>195</v>
       </c>
@@ -3296,7 +3343,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>198</v>
       </c>
@@ -3310,7 +3357,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>200</v>
       </c>
@@ -3324,7 +3371,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>202</v>
       </c>
@@ -3338,7 +3385,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>204</v>
       </c>
@@ -3352,7 +3399,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>207</v>
       </c>
@@ -3366,7 +3413,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>209</v>
       </c>
@@ -3380,7 +3427,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>211</v>
       </c>
@@ -3394,7 +3441,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>213</v>
       </c>
@@ -3408,7 +3455,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>216</v>
       </c>
@@ -3422,7 +3469,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>218</v>
       </c>
@@ -3436,7 +3483,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>221</v>
       </c>
@@ -3450,7 +3497,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>224</v>
       </c>
@@ -3464,7 +3511,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>226</v>
       </c>
@@ -3478,7 +3525,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>229</v>
       </c>
@@ -3494,8 +3541,11 @@
       <c r="E34" s="5" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>230</v>
       </c>
@@ -3509,7 +3559,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>232</v>
       </c>
@@ -3523,7 +3573,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>233</v>
       </c>
@@ -3537,7 +3587,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>235</v>
       </c>
@@ -3551,7 +3601,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>237</v>
       </c>
@@ -3565,7 +3615,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>239</v>
       </c>
@@ -3579,7 +3629,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>241</v>
       </c>
@@ -3593,7 +3643,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>244</v>
       </c>
@@ -3607,7 +3657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>245</v>
       </c>
@@ -3621,7 +3671,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>248</v>
       </c>
@@ -3638,7 +3688,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>251</v>
       </c>
@@ -3652,7 +3702,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>253</v>
       </c>
@@ -3666,7 +3716,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>256</v>
       </c>
@@ -3680,7 +3730,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>258</v>
       </c>
@@ -3694,7 +3744,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>261</v>
       </c>
@@ -3708,7 +3758,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>263</v>
       </c>
@@ -3722,7 +3772,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>266</v>
       </c>
@@ -3736,7 +3786,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>269</v>
       </c>

--- a/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
+++ b/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezheng/Documents/VEuPathDB-git/ApiCommonData/Load/ontology/harmonization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F629F4-87A1-A64D-87EE-948D7CCF65A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF41E40F-A72E-9F42-8E09-7E682EB30E8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="460" windowWidth="21820" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="460" windowWidth="25180" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="termWithDifferentLabels" sheetId="1" r:id="rId1"/>
     <sheet name="LabelsUsedMultipleTerms" sheetId="2" r:id="rId2"/>
     <sheet name="termWithDifferentParent" sheetId="3" r:id="rId3"/>
     <sheet name="units" sheetId="4" r:id="rId4"/>
+    <sheet name="units_latest" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">termWithDifferentParent!$A$1:$F$22</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="318">
   <si>
     <t>sid</t>
   </si>
@@ -961,7 +962,25 @@
     <t>Fixed</t>
   </si>
   <si>
-    <t>fixed</t>
+    <t>JZ comment</t>
+  </si>
+  <si>
+    <t>Any rule of using whitespace for value with unit? I saw two kinds, e.g. '1-2 convulsions over 24 h', 'More than 3 convulsions over 24h'</t>
+  </si>
+  <si>
+    <t>gates_provide | icemr_india_behavior | icemr_meghalaya</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000316|http://purl.obolibrary.org/obo/EUPATH_0024232</t>
+  </si>
+  <si>
+    <t>icemr_indian | icemr_prism | icemr_india_feverSurv | general/general_crompton | icemr_prism2 | gates_gamin | icemr_indian_cx | icemr_southAsia | icemr_india_behavior | icemr_westAfrica | icemr_prism2_border_cohort</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/EUPATH_0024232|http://purl.obolibrary.org/obo/UO_0000316</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0010003|http://purl.obolibrary.org/obo/NCIT_C67015|NO_IRI|http://purl.obolibrary.org/obo/NCIT_C64387</t>
   </si>
 </sst>
 </file>
@@ -1820,10 +1839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1851,6 +1870,9 @@
       <c r="E1" s="5" t="s">
         <v>289</v>
       </c>
+      <c r="F1" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -2127,6 +2149,11 @@
       </c>
       <c r="F15" t="s">
         <v>310</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -2137,21 +2164,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="45" customWidth="1"/>
+    <col min="1" max="1" width="37" customWidth="1"/>
     <col min="3" max="3" width="47.6640625" customWidth="1"/>
     <col min="4" max="4" width="33.83203125" customWidth="1"/>
+    <col min="5" max="5" width="39.1640625" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -2168,7 +2196,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -2184,8 +2212,11 @@
       <c r="F2" s="5" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -2204,8 +2235,11 @@
       <c r="F3" s="5" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>51</v>
       </c>
@@ -2221,8 +2255,11 @@
       <c r="E4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>54</v>
       </c>
@@ -2238,8 +2275,11 @@
       <c r="E5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>56</v>
       </c>
@@ -2255,8 +2295,11 @@
       <c r="E6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>59</v>
       </c>
@@ -2272,8 +2315,11 @@
       <c r="E7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>62</v>
       </c>
@@ -2289,8 +2335,11 @@
       <c r="E8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -2309,8 +2358,11 @@
       <c r="F9" s="5" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>67</v>
       </c>
@@ -2326,8 +2378,11 @@
       <c r="E10" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -2346,8 +2401,11 @@
       <c r="F11" s="5" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>73</v>
       </c>
@@ -2363,13 +2421,16 @@
       <c r="E12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
         <v>51</v>
       </c>
@@ -2383,7 +2444,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
         <v>54</v>
       </c>
@@ -2576,10 +2637,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2587,11 +2648,11 @@
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="42.33203125" customWidth="1"/>
     <col min="4" max="4" width="52.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="5"/>
+    <col min="5" max="5" width="33" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2611,7 +2672,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -2630,8 +2691,11 @@
       <c r="F2" s="5" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -2650,8 +2714,11 @@
       <c r="F3" s="5" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -2670,8 +2737,11 @@
       <c r="F4" s="5" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -2690,8 +2760,11 @@
       <c r="F5" s="5" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -2710,8 +2783,11 @@
       <c r="F6" s="5" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>111</v>
       </c>
@@ -2730,8 +2806,11 @@
       <c r="F7" s="5" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -2750,8 +2829,11 @@
       <c r="F8" s="5" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>117</v>
       </c>
@@ -2770,8 +2852,11 @@
       <c r="F9" s="5" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>120</v>
       </c>
@@ -2790,8 +2875,11 @@
       <c r="F10" s="5" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>123</v>
       </c>
@@ -2810,8 +2898,11 @@
       <c r="F11" s="5" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -2830,8 +2921,11 @@
       <c r="F12" s="5" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>129</v>
       </c>
@@ -2850,8 +2944,11 @@
       <c r="F13" s="5" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2870,8 +2967,11 @@
       <c r="F14" s="5" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>133</v>
       </c>
@@ -2890,8 +2990,11 @@
       <c r="F15" s="5" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>136</v>
       </c>
@@ -2910,8 +3013,11 @@
       <c r="F16" s="5" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2930,8 +3036,11 @@
       <c r="F17" s="5" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>140</v>
       </c>
@@ -2950,8 +3059,11 @@
       <c r="F18" s="5" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>143</v>
       </c>
@@ -2970,8 +3082,11 @@
       <c r="F19" s="5" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>146</v>
       </c>
@@ -2990,8 +3105,11 @@
       <c r="F20" s="5" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>149</v>
       </c>
@@ -3010,8 +3128,11 @@
       <c r="F21" s="5" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -3029,11 +3150,15 @@
       </c>
       <c r="F22" s="5" t="s">
         <v>306</v>
+      </c>
+      <c r="G22" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F22" xr:uid="{7BECD99F-9EFF-CC49-9661-6B01821D2C04}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3041,20 +3166,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" customWidth="1"/>
-    <col min="3" max="3" width="47.83203125" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="3" max="3" width="84.5" customWidth="1"/>
+    <col min="4" max="4" width="65.1640625" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>154</v>
       </c>
@@ -3070,8 +3195,11 @@
       <c r="E1" s="5" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>157</v>
       </c>
@@ -3087,8 +3215,11 @@
       <c r="E2" s="5" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>160</v>
       </c>
@@ -3102,7 +3233,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>163</v>
       </c>
@@ -3116,7 +3247,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>165</v>
       </c>
@@ -3130,7 +3261,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>168</v>
       </c>
@@ -3146,8 +3277,11 @@
       <c r="E6" s="5" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>170</v>
       </c>
@@ -3161,7 +3295,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>172</v>
       </c>
@@ -3175,7 +3309,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>175</v>
       </c>
@@ -3189,7 +3323,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>177</v>
       </c>
@@ -3203,7 +3337,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>179</v>
       </c>
@@ -3217,7 +3351,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>180</v>
       </c>
@@ -3231,7 +3365,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>181</v>
       </c>
@@ -3245,7 +3379,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>183</v>
       </c>
@@ -3259,7 +3393,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>184</v>
       </c>
@@ -3273,7 +3407,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>185</v>
       </c>
@@ -3541,8 +3675,8 @@
       <c r="E34" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>311</v>
+      <c r="F34" s="4" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3687,6 +3821,9 @@
       <c r="E44" s="5" t="s">
         <v>286</v>
       </c>
+      <c r="F44" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
@@ -3797,6 +3934,684 @@
         <v>270</v>
       </c>
       <c r="D52" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905C8918-D215-6643-9522-53B380C55A89}">
+  <dimension ref="A1:D47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="119.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>198</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>199</v>
+      </c>
+      <c r="D18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>207</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>208</v>
+      </c>
+      <c r="D21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>209</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>211</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>212</v>
+      </c>
+      <c r="D23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>213</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>214</v>
+      </c>
+      <c r="D24" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>216</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>218</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>221</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>222</v>
+      </c>
+      <c r="D27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>224</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>230</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>231</v>
+      </c>
+      <c r="D29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>232</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>233</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>234</v>
+      </c>
+      <c r="D31" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>235</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>236</v>
+      </c>
+      <c r="D32" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>237</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>238</v>
+      </c>
+      <c r="D33" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>239</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>240</v>
+      </c>
+      <c r="D34" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>241</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>242</v>
+      </c>
+      <c r="D35" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>244</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>164</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>160</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>314</v>
+      </c>
+      <c r="D37" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>245</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>246</v>
+      </c>
+      <c r="D38" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>251</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>252</v>
+      </c>
+      <c r="D39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>253</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>254</v>
+      </c>
+      <c r="D40" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>256</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>257</v>
+      </c>
+      <c r="D41" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>258</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>259</v>
+      </c>
+      <c r="D42" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>261</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>262</v>
+      </c>
+      <c r="D43" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>226</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>316</v>
+      </c>
+      <c r="D44" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>263</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>267</v>
+      </c>
+      <c r="D45" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>266</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>267</v>
+      </c>
+      <c r="D46" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>269</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>317</v>
+      </c>
+      <c r="D47" t="s">
         <v>159</v>
       </c>
     </row>

--- a/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
+++ b/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezheng/Documents/VEuPathDB-git/ApiCommonData/Load/ontology/harmonization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF41E40F-A72E-9F42-8E09-7E682EB30E8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE779E2-4F58-224C-928E-681648ED8E90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="25180" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6080" yWindow="520" windowWidth="25180" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="termWithDifferentLabels" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="319">
   <si>
     <t>sid</t>
   </si>
@@ -981,6 +981,9 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/UO_0010003|http://purl.obolibrary.org/obo/NCIT_C67015|NO_IRI|http://purl.obolibrary.org/obo/NCIT_C64387</t>
+  </si>
+  <si>
+    <t>Basically, units should have a space between what comes before and the unit</t>
   </si>
 </sst>
 </file>
@@ -1839,10 +1842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2110,6 +2113,9 @@
       <c r="E13" s="5" t="s">
         <v>280</v>
       </c>
+      <c r="F13" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
@@ -2154,6 +2160,11 @@
     <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
+++ b/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezheng/Documents/VEuPathDB-git/ApiCommonData/Load/ontology/harmonization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE779E2-4F58-224C-928E-681648ED8E90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB2053E-6920-A445-A12D-45BB7CDB565A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6080" yWindow="520" windowWidth="25180" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5340" yWindow="900" windowWidth="25180" windowHeight="11920" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="termWithDifferentLabels" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="termWithDifferentParent" sheetId="3" r:id="rId3"/>
     <sheet name="units" sheetId="4" r:id="rId4"/>
     <sheet name="units_latest" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">termWithDifferentParent!$A$1:$F$22</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="346">
   <si>
     <t>sid</t>
   </si>
@@ -962,9 +963,6 @@
     <t>Fixed</t>
   </si>
   <si>
-    <t>JZ comment</t>
-  </si>
-  <si>
     <t>Any rule of using whitespace for value with unit? I saw two kinds, e.g. '1-2 convulsions over 24 h', 'More than 3 convulsions over 24h'</t>
   </si>
   <si>
@@ -984,13 +982,97 @@
   </si>
   <si>
     <t>Basically, units should have a space between what comes before and the unit</t>
+  </si>
+  <si>
+    <t>JZ comments</t>
+  </si>
+  <si>
+    <t>EUPATH_0023011</t>
+  </si>
+  <si>
+    <t>Creatinine</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0010003</t>
+  </si>
+  <si>
+    <t>dataset</t>
+  </si>
+  <si>
+    <t>gates_elicit.owl</t>
+  </si>
+  <si>
+    <t>icemr_southAsia.owl</t>
+  </si>
+  <si>
+    <t>http://www.ebi.ac.uk/efo/EFO_0004374</t>
+  </si>
+  <si>
+    <t>EUPATH_0023005</t>
+  </si>
+  <si>
+    <t>Bicarbonate</t>
+  </si>
+  <si>
+    <t>Plasmodium asexual stages, by microscopy result</t>
+  </si>
+  <si>
+    <t>Plasmodium asexual stages, by microscopy result, 2nd</t>
+  </si>
+  <si>
+    <t>Plasmodium asexual stages, by microscopy result, 3rd</t>
+  </si>
+  <si>
+    <t>Plasmodium gametocytes, by microscopy result</t>
+  </si>
+  <si>
+    <t>Plasmodium gametocytes, by microscopy result, 2nd</t>
+  </si>
+  <si>
+    <t>Plasmodium gametocytes, by microscopy result, 3rd</t>
+  </si>
+  <si>
+    <t>icemr_southernAfrica.owl</t>
+  </si>
+  <si>
+    <t>in other OWL files, the unit is /uL</t>
+  </si>
+  <si>
+    <t>EFO_0004309</t>
+  </si>
+  <si>
+    <t>Platelet count</t>
+  </si>
+  <si>
+    <t>EUPATH_0024244</t>
+  </si>
+  <si>
+    <t>EUPATH_0024243</t>
+  </si>
+  <si>
+    <t>EUPATH_0023018</t>
+  </si>
+  <si>
+    <t>EUPATH_0024242</t>
+  </si>
+  <si>
+    <t>EUPATH_0024241</t>
+  </si>
+  <si>
+    <t>EUPATH_0000092</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Label</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1137,6 +1219,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF808080"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1436,7 +1532,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1479,16 +1575,19 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1522,6 +1621,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1844,8 +1944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1874,7 +1974,7 @@
         <v>289</v>
       </c>
       <c r="F1" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2159,12 +2259,12 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -2177,8 +2277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2206,6 +2306,9 @@
       <c r="E1" t="s">
         <v>43</v>
       </c>
+      <c r="G1" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
@@ -2650,8 +2753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2682,6 +2785,9 @@
       <c r="F1" s="5" t="s">
         <v>301</v>
       </c>
+      <c r="G1" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
@@ -3177,17 +3283,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" customWidth="1"/>
-    <col min="3" max="3" width="84.5" customWidth="1"/>
-    <col min="4" max="4" width="65.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="46" customWidth="1"/>
+    <col min="4" max="4" width="48" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="5"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3207,7 +3314,7 @@
         <v>271</v>
       </c>
       <c r="F1" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3958,8 +4065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905C8918-D215-6643-9522-53B380C55A89}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3984,91 +4091,91 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>313</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>245</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>178</v>
+        <v>246</v>
       </c>
       <c r="D7" t="s">
-        <v>174</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -4077,40 +4184,40 @@
         <v>158</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>263</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>267</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="D10" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -4119,158 +4226,158 @@
         <v>158</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D12" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="D13" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D14" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D15" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="D16" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>196</v>
+        <v>252</v>
       </c>
       <c r="D17" t="s">
-        <v>197</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D19" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D20" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>207</v>
+        <v>256</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="D21" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D22" t="s">
         <v>174</v>
@@ -4278,13 +4385,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D23" t="s">
         <v>174</v>
@@ -4301,7 +4408,7 @@
         <v>214</v>
       </c>
       <c r="D24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4320,83 +4427,83 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="D26" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D27" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D28" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="D29" t="s">
-        <v>174</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>164</v>
+        <v>262</v>
       </c>
       <c r="D30" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D31" t="s">
         <v>174</v>
@@ -4404,27 +4511,27 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>236</v>
+        <v>315</v>
       </c>
       <c r="D32" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D33" t="s">
         <v>174</v>
@@ -4432,201 +4539,447 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="D34" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D35" t="s">
-        <v>243</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>244</v>
+        <v>179</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>314</v>
+        <v>158</v>
       </c>
       <c r="D37" t="s">
-        <v>315</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>245</v>
+        <v>181</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>246</v>
+        <v>182</v>
       </c>
       <c r="D38" t="s">
-        <v>247</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="D39" t="s">
-        <v>97</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="D40" t="s">
-        <v>255</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="D41" t="s">
-        <v>223</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>259</v>
+        <v>316</v>
       </c>
       <c r="D42" t="s">
-        <v>260</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>261</v>
+        <v>183</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>262</v>
+        <v>158</v>
       </c>
       <c r="D43" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>316</v>
+        <v>158</v>
       </c>
       <c r="D44" t="s">
-        <v>228</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="D45" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>267</v>
+        <v>164</v>
       </c>
       <c r="D46" t="s">
-        <v>268</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
+        <v>266</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D47" t="s">
+        <v>268</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D47">
+    <sortCondition ref="A2:A47"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="C47" r:id="rId1" xr:uid="{FA0A87BC-A58C-754C-B782-FF9D321AE679}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84351FC9-A5B2-F24D-8B55-E6051DA9E552}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="41.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" t="s">
         <v>269</v>
       </c>
-      <c r="B47">
-        <v>4</v>
-      </c>
-      <c r="C47" t="s">
-        <v>317</v>
-      </c>
-      <c r="D47" t="s">
-        <v>159</v>
+      <c r="D2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="C3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="E3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="C5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>341</v>
+      </c>
+      <c r="B9" t="s">
+        <v>330</v>
+      </c>
+      <c r="C9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>340</v>
+      </c>
+      <c r="B10" t="s">
+        <v>331</v>
+      </c>
+      <c r="C10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B11" t="s">
+        <v>332</v>
+      </c>
+      <c r="C11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>338</v>
+      </c>
+      <c r="B12" t="s">
+        <v>333</v>
+      </c>
+      <c r="C12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>336</v>
+      </c>
+      <c r="B15" t="s">
+        <v>337</v>
+      </c>
+      <c r="C15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>336</v>
+      </c>
+      <c r="B16" t="s">
+        <v>337</v>
+      </c>
+      <c r="C16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
+++ b/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezheng/Documents/VEuPathDB-git/ApiCommonData/Load/ontology/harmonization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB2053E-6920-A445-A12D-45BB7CDB565A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D1E144-3DCE-8542-9651-AD2D982E56CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="900" windowWidth="25180" windowHeight="11920" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3620" yWindow="900" windowWidth="25180" windowHeight="11920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="termWithDifferentLabels" sheetId="1" r:id="rId1"/>
     <sheet name="LabelsUsedMultipleTerms" sheetId="2" r:id="rId2"/>
     <sheet name="termWithDifferentParent" sheetId="3" r:id="rId3"/>
-    <sheet name="units" sheetId="4" r:id="rId4"/>
-    <sheet name="units_latest" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="units_issues" sheetId="6" r:id="rId4"/>
+    <sheet name="units" sheetId="4" r:id="rId5"/>
+    <sheet name="units_latest" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">termWithDifferentParent!$A$1:$F$22</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="356">
   <si>
     <t>sid</t>
   </si>
@@ -969,18 +969,9 @@
     <t>gates_provide | icemr_india_behavior | icemr_meghalaya</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000316|http://purl.obolibrary.org/obo/EUPATH_0024232</t>
-  </si>
-  <si>
-    <t>icemr_indian | icemr_prism | icemr_india_feverSurv | general/general_crompton | icemr_prism2 | gates_gamin | icemr_indian_cx | icemr_southAsia | icemr_india_behavior | icemr_westAfrica | icemr_prism2_border_cohort</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/EUPATH_0024232|http://purl.obolibrary.org/obo/UO_0000316</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/UO_0010003|http://purl.obolibrary.org/obo/NCIT_C67015|NO_IRI|http://purl.obolibrary.org/obo/NCIT_C64387</t>
-  </si>
-  <si>
     <t>Basically, units should have a space between what comes before and the unit</t>
   </si>
   <si>
@@ -1066,6 +1057,45 @@
   </si>
   <si>
     <t>Label</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000179</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000015</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000009</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000035</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000275</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000033|http://purl.obolibrary.org/obo/UO_0000036</t>
+  </si>
+  <si>
+    <t>http://www.ebi.ac.uk/efo/EFO_0004374|http://purl.obolibrary.org/obo/UO_0010003</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0010003|http://purl.obolibrary.org/obo/NCIT_C64387</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/EUPATH_0023059|http://purl.obolibrary.org/obo/UO_0000316</t>
+  </si>
+  <si>
+    <t>gates_elicit | general/general_crompton | icemr_southAsia</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000316|http://purl.obolibrary.org/obo/EUPATH_0024232|http://purl.obolibrary.org/obo/EUPATH_0023059</t>
+  </si>
+  <si>
+    <t>icemr_indian | icemr_prism | gates_elicit | icemr_india_feverSurv | general/general_crompton | icemr_prism2 | gates_gamin | icemr_indian_cx | icemr_southAsia | icemr_india_behavior | icemr_westAfrica | icemr_prism2_border_cohort</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0010003|http://www.ebi.ac.uk/efo/EFO_0004374|http://purl.obolibrary.org/obo/NCIT_C64387</t>
   </si>
 </sst>
 </file>
@@ -1974,7 +2004,7 @@
         <v>289</v>
       </c>
       <c r="F1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2264,7 +2294,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -2307,7 +2337,7 @@
         <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2786,7 +2816,7 @@
         <v>301</v>
       </c>
       <c r="G1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3280,6 +3310,246 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84351FC9-A5B2-F24D-8B55-E6051DA9E552}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="41.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="C3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="E3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D4" t="s">
+        <v>318</v>
+      </c>
+      <c r="E4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="C5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>337</v>
+      </c>
+      <c r="B10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>336</v>
+      </c>
+      <c r="B11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>335</v>
+      </c>
+      <c r="B12" t="s">
+        <v>330</v>
+      </c>
+      <c r="C12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>333</v>
+      </c>
+      <c r="B15" t="s">
+        <v>334</v>
+      </c>
+      <c r="C15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>333</v>
+      </c>
+      <c r="B16" t="s">
+        <v>334</v>
+      </c>
+      <c r="C16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" t="s">
+        <v>321</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
@@ -3314,7 +3584,7 @@
         <v>271</v>
       </c>
       <c r="F1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4061,18 +4331,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905C8918-D215-6643-9522-53B380C55A89}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="119.83203125" customWidth="1"/>
+    <col min="3" max="3" width="47.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4091,133 +4361,133 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>313</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
-        <v>314</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D5" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>246</v>
+        <v>158</v>
       </c>
       <c r="D7" t="s">
-        <v>247</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>343</v>
       </c>
       <c r="D8" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>263</v>
+        <v>181</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>267</v>
+        <v>182</v>
       </c>
       <c r="D9" t="s">
-        <v>265</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="D10" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -4226,172 +4496,172 @@
         <v>158</v>
       </c>
       <c r="D11" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="D12" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D13" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>175</v>
+        <v>245</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>176</v>
+        <v>344</v>
       </c>
       <c r="D14" t="s">
-        <v>174</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D15" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="D16" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>251</v>
+        <v>195</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>252</v>
+        <v>196</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D18" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>204</v>
+        <v>251</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>205</v>
+        <v>345</v>
       </c>
       <c r="D19" t="s">
-        <v>206</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>256</v>
+        <v>204</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>257</v>
+        <v>205</v>
       </c>
       <c r="D21" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D22" t="s">
-        <v>174</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D23" t="s">
         <v>174</v>
@@ -4399,72 +4669,72 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D24" t="s">
-        <v>312</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D25" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="D26" t="s">
-        <v>255</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D27" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D28" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4472,10 +4742,10 @@
         <v>258</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>259</v>
+        <v>346</v>
       </c>
       <c r="D29" t="s">
         <v>260</v>
@@ -4486,10 +4756,10 @@
         <v>261</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="D30" t="s">
         <v>174</v>
@@ -4511,27 +4781,27 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>315</v>
+        <v>231</v>
       </c>
       <c r="D32" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D33" t="s">
         <v>174</v>
@@ -4539,27 +4809,27 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>164</v>
+        <v>236</v>
       </c>
       <c r="D34" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D35" t="s">
         <v>174</v>
@@ -4567,142 +4837,142 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>158</v>
+        <v>240</v>
       </c>
       <c r="D36" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>158</v>
+        <v>242</v>
       </c>
       <c r="D37" t="s">
-        <v>159</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>181</v>
+        <v>263</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>182</v>
+        <v>348</v>
       </c>
       <c r="D38" t="s">
-        <v>174</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>238</v>
+        <v>349</v>
       </c>
       <c r="D39" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>236</v>
+        <v>350</v>
       </c>
       <c r="D40" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>240</v>
+        <v>313</v>
       </c>
       <c r="D41" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="D42" t="s">
-        <v>159</v>
+        <v>352</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>183</v>
+        <v>266</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>158</v>
+        <v>348</v>
       </c>
       <c r="D43" t="s">
-        <v>159</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>158</v>
+        <v>353</v>
       </c>
       <c r="D44" t="s">
-        <v>159</v>
+        <v>354</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>242</v>
+        <v>355</v>
       </c>
       <c r="D45" t="s">
-        <v>243</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -4742,244 +5012,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84351FC9-A5B2-F24D-8B55-E6051DA9E552}">
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="41.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="C3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="E3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>326</v>
-      </c>
-      <c r="B4" t="s">
-        <v>327</v>
-      </c>
-      <c r="C4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D4" t="s">
-        <v>321</v>
-      </c>
-      <c r="E4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="C5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E5" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>343</v>
-      </c>
-      <c r="B7" t="s">
-        <v>328</v>
-      </c>
-      <c r="C7" t="s">
-        <v>226</v>
-      </c>
-      <c r="D7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B8" t="s">
-        <v>329</v>
-      </c>
-      <c r="C8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D8" t="s">
-        <v>227</v>
-      </c>
-      <c r="E8" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>341</v>
-      </c>
-      <c r="B9" t="s">
-        <v>330</v>
-      </c>
-      <c r="C9" t="s">
-        <v>226</v>
-      </c>
-      <c r="D9" t="s">
-        <v>227</v>
-      </c>
-      <c r="E9" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>340</v>
-      </c>
-      <c r="B10" t="s">
-        <v>331</v>
-      </c>
-      <c r="C10" t="s">
-        <v>226</v>
-      </c>
-      <c r="D10" t="s">
-        <v>227</v>
-      </c>
-      <c r="E10" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>339</v>
-      </c>
-      <c r="B11" t="s">
-        <v>332</v>
-      </c>
-      <c r="C11" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11" t="s">
-        <v>227</v>
-      </c>
-      <c r="E11" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>338</v>
-      </c>
-      <c r="B12" t="s">
-        <v>333</v>
-      </c>
-      <c r="C12" t="s">
-        <v>226</v>
-      </c>
-      <c r="D12" t="s">
-        <v>227</v>
-      </c>
-      <c r="E12" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="B13" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>336</v>
-      </c>
-      <c r="B15" t="s">
-        <v>337</v>
-      </c>
-      <c r="C15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D15" t="s">
-        <v>161</v>
-      </c>
-      <c r="E15" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>336</v>
-      </c>
-      <c r="B16" t="s">
-        <v>337</v>
-      </c>
-      <c r="C16" t="s">
-        <v>244</v>
-      </c>
-      <c r="D16" t="s">
-        <v>164</v>
-      </c>
-      <c r="E16" t="s">
-        <v>324</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
+++ b/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezheng/Documents/VEuPathDB-git/ApiCommonData/Load/ontology/harmonization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sshahsimpson/Documents/Git/ApiCommonData/Load/ontology/harmonization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D1E144-3DCE-8542-9651-AD2D982E56CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E990BCDB-CB7B-DE4C-9017-C0A75A2BDE47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="900" windowWidth="25180" windowHeight="11920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9980" yWindow="10220" windowWidth="25180" windowHeight="11920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="termWithDifferentLabels" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="358">
   <si>
     <t>sid</t>
   </si>
@@ -1096,13 +1096,19 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/UO_0010003|http://www.ebi.ac.uk/efo/EFO_0004374|http://purl.obolibrary.org/obo/NCIT_C64387</t>
+  </si>
+  <si>
+    <t>correct</t>
+  </si>
+  <si>
+    <t>/500 WBC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1974,11 +1980,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.83203125" customWidth="1"/>
     <col min="2" max="2" width="3.6640625" customWidth="1"/>
@@ -1987,7 +1993,7 @@
     <col min="5" max="5" width="55.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2007,7 +2013,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2027,7 +2033,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2047,7 +2053,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2067,7 +2073,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2087,7 +2093,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2107,7 +2113,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2127,7 +2133,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2147,7 +2153,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2167,7 +2173,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -2187,7 +2193,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2207,7 +2213,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -2227,7 +2233,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -2247,7 +2253,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -2267,7 +2273,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -2287,12 +2293,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>314</v>
       </c>
@@ -2307,11 +2313,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="3" max="3" width="47.6640625" customWidth="1"/>
@@ -2320,7 +2326,7 @@
     <col min="6" max="6" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -2340,7 +2346,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -2360,7 +2366,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -2383,7 +2389,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>51</v>
       </c>
@@ -2403,7 +2409,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>54</v>
       </c>
@@ -2423,7 +2429,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>56</v>
       </c>
@@ -2443,7 +2449,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>59</v>
       </c>
@@ -2463,7 +2469,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>62</v>
       </c>
@@ -2483,7 +2489,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -2506,7 +2512,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>67</v>
       </c>
@@ -2526,7 +2532,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -2549,7 +2555,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>73</v>
       </c>
@@ -2569,12 +2575,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>51</v>
       </c>
@@ -2588,7 +2594,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>54</v>
       </c>
@@ -2602,16 +2608,16 @@
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="D17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>56</v>
       </c>
@@ -2622,7 +2628,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="C20" t="s">
         <v>90</v>
@@ -2631,7 +2637,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="C21" t="s">
         <v>91</v>
@@ -2643,11 +2649,11 @@
         <v>294</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -2659,7 +2665,7 @@
       </c>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>79</v>
       </c>
@@ -2670,7 +2676,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>81</v>
       </c>
@@ -2681,10 +2687,10 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -2696,7 +2702,7 @@
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>83</v>
       </c>
@@ -2707,7 +2713,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>84</v>
       </c>
@@ -2718,10 +2724,10 @@
         <v>295</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -2733,7 +2739,7 @@
       </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -2744,10 +2750,10 @@
         <v>296</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -2759,7 +2765,7 @@
       </c>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>87</v>
       </c>
@@ -2770,7 +2776,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
     </row>
   </sheetData>
@@ -2783,11 +2789,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="42.33203125" customWidth="1"/>
@@ -2796,7 +2802,7 @@
     <col min="6" max="6" width="29.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2819,7 +2825,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -2842,7 +2848,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -2865,7 +2871,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -2888,7 +2894,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -2911,7 +2917,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -2934,7 +2940,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>111</v>
       </c>
@@ -2957,7 +2963,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -2980,7 +2986,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>117</v>
       </c>
@@ -3003,7 +3009,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>120</v>
       </c>
@@ -3026,7 +3032,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>123</v>
       </c>
@@ -3049,7 +3055,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -3072,7 +3078,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>129</v>
       </c>
@@ -3095,7 +3101,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -3118,7 +3124,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>133</v>
       </c>
@@ -3141,7 +3147,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>136</v>
       </c>
@@ -3164,7 +3170,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -3187,7 +3193,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>140</v>
       </c>
@@ -3210,7 +3216,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>143</v>
       </c>
@@ -3233,7 +3239,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>146</v>
       </c>
@@ -3256,7 +3262,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>149</v>
       </c>
@@ -3279,7 +3285,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -3311,13 +3317,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84351FC9-A5B2-F24D-8B55-E6051DA9E552}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="46.5" bestFit="1" customWidth="1"/>
@@ -3326,7 +3332,7 @@
     <col min="5" max="5" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>341</v>
       </c>
@@ -3343,7 +3349,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>316</v>
       </c>
@@ -3359,8 +3365,11 @@
       <c r="E2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>256</v>
       </c>
@@ -3370,8 +3379,11 @@
       <c r="E3" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>323</v>
       </c>
@@ -3387,8 +3399,11 @@
       <c r="E4" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>221</v>
       </c>
@@ -3398,11 +3413,15 @@
       <c r="E5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>340</v>
       </c>
@@ -3418,8 +3437,11 @@
       <c r="E7" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>339</v>
       </c>
@@ -3435,8 +3457,11 @@
       <c r="E8" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>338</v>
       </c>
@@ -3452,8 +3477,11 @@
       <c r="E9" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>337</v>
       </c>
@@ -3469,8 +3497,11 @@
       <c r="E10" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>336</v>
       </c>
@@ -3486,8 +3517,11 @@
       <c r="E11" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>335</v>
       </c>
@@ -3503,13 +3537,20 @@
       <c r="E12" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>333</v>
       </c>
@@ -3525,8 +3566,11 @@
       <c r="E15" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>333</v>
       </c>
@@ -3541,6 +3585,9 @@
       </c>
       <c r="E16" t="s">
         <v>321</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -3553,11 +3600,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
@@ -3567,7 +3614,7 @@
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>154</v>
       </c>
@@ -3587,7 +3634,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>157</v>
       </c>
@@ -3607,7 +3654,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>160</v>
       </c>
@@ -3621,7 +3668,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>163</v>
       </c>
@@ -3635,7 +3682,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>165</v>
       </c>
@@ -3649,7 +3696,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>168</v>
       </c>
@@ -3669,7 +3716,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>170</v>
       </c>
@@ -3683,7 +3730,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>172</v>
       </c>
@@ -3697,7 +3744,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>175</v>
       </c>
@@ -3711,7 +3758,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>177</v>
       </c>
@@ -3725,7 +3772,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>179</v>
       </c>
@@ -3739,7 +3786,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>180</v>
       </c>
@@ -3753,7 +3800,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>181</v>
       </c>
@@ -3767,7 +3814,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>183</v>
       </c>
@@ -3781,7 +3828,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>184</v>
       </c>
@@ -3795,7 +3842,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>185</v>
       </c>
@@ -3809,7 +3856,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>188</v>
       </c>
@@ -3823,7 +3870,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>191</v>
       </c>
@@ -3837,7 +3884,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>194</v>
       </c>
@@ -3851,7 +3898,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>195</v>
       </c>
@@ -3865,7 +3912,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>198</v>
       </c>
@@ -3879,7 +3926,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>200</v>
       </c>
@@ -3893,7 +3940,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>202</v>
       </c>
@@ -3907,7 +3954,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>204</v>
       </c>
@@ -3921,7 +3968,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>207</v>
       </c>
@@ -3935,7 +3982,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>209</v>
       </c>
@@ -3949,7 +3996,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>211</v>
       </c>
@@ -3963,7 +4010,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>213</v>
       </c>
@@ -3977,7 +4024,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>216</v>
       </c>
@@ -3991,7 +4038,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>218</v>
       </c>
@@ -4005,7 +4052,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>221</v>
       </c>
@@ -4019,7 +4066,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>224</v>
       </c>
@@ -4033,7 +4080,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>226</v>
       </c>
@@ -4047,7 +4094,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>229</v>
       </c>
@@ -4067,7 +4114,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>230</v>
       </c>
@@ -4081,7 +4128,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>232</v>
       </c>
@@ -4095,7 +4142,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>233</v>
       </c>
@@ -4109,7 +4156,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>235</v>
       </c>
@@ -4123,7 +4170,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>237</v>
       </c>
@@ -4137,7 +4184,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>239</v>
       </c>
@@ -4151,7 +4198,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>241</v>
       </c>
@@ -4165,7 +4212,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>244</v>
       </c>
@@ -4179,7 +4226,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>245</v>
       </c>
@@ -4193,7 +4240,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>248</v>
       </c>
@@ -4213,7 +4260,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>251</v>
       </c>
@@ -4227,7 +4274,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>253</v>
       </c>
@@ -4241,7 +4288,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>256</v>
       </c>
@@ -4255,7 +4302,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>258</v>
       </c>
@@ -4269,7 +4316,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>261</v>
       </c>
@@ -4283,7 +4330,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>263</v>
       </c>
@@ -4297,7 +4344,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>266</v>
       </c>
@@ -4311,7 +4358,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>269</v>
       </c>
@@ -4339,13 +4386,13 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="47.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>154</v>
       </c>
@@ -4359,7 +4406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>165</v>
       </c>
@@ -4373,7 +4420,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>170</v>
       </c>
@@ -4387,7 +4434,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>172</v>
       </c>
@@ -4401,7 +4448,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>175</v>
       </c>
@@ -4415,7 +4462,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>177</v>
       </c>
@@ -4429,7 +4476,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>179</v>
       </c>
@@ -4443,7 +4490,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>180</v>
       </c>
@@ -4457,7 +4504,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>181</v>
       </c>
@@ -4471,7 +4518,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>183</v>
       </c>
@@ -4485,7 +4532,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>184</v>
       </c>
@@ -4499,7 +4546,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>185</v>
       </c>
@@ -4513,7 +4560,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>188</v>
       </c>
@@ -4527,7 +4574,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>245</v>
       </c>
@@ -4541,7 +4588,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>191</v>
       </c>
@@ -4555,7 +4602,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>194</v>
       </c>
@@ -4569,7 +4616,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>195</v>
       </c>
@@ -4583,7 +4630,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>198</v>
       </c>
@@ -4597,7 +4644,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>251</v>
       </c>
@@ -4611,7 +4658,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>202</v>
       </c>
@@ -4625,7 +4672,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>204</v>
       </c>
@@ -4639,7 +4686,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>253</v>
       </c>
@@ -4653,7 +4700,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>207</v>
       </c>
@@ -4667,7 +4714,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>209</v>
       </c>
@@ -4681,7 +4728,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>211</v>
       </c>
@@ -4695,7 +4742,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>213</v>
       </c>
@@ -4709,7 +4756,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>216</v>
       </c>
@@ -4723,7 +4770,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>218</v>
       </c>
@@ -4737,7 +4784,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>258</v>
       </c>
@@ -4751,7 +4798,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>261</v>
       </c>
@@ -4765,7 +4812,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>224</v>
       </c>
@@ -4779,7 +4826,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>230</v>
       </c>
@@ -4793,7 +4840,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>233</v>
       </c>
@@ -4807,7 +4854,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>235</v>
       </c>
@@ -4821,7 +4868,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>237</v>
       </c>
@@ -4835,7 +4882,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>239</v>
       </c>
@@ -4849,7 +4896,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>241</v>
       </c>
@@ -4863,7 +4910,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>263</v>
       </c>
@@ -4877,7 +4924,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>256</v>
       </c>
@@ -4891,7 +4938,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>221</v>
       </c>
@@ -4905,7 +4952,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>226</v>
       </c>
@@ -4919,7 +4966,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>244</v>
       </c>
@@ -4933,7 +4980,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>266</v>
       </c>
@@ -4947,7 +4994,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>160</v>
       </c>
@@ -4961,7 +5008,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>269</v>
       </c>
@@ -4975,7 +5022,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>244</v>
       </c>
@@ -4989,7 +5036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>266</v>
       </c>

--- a/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
+++ b/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sshahsimpson/Documents/Git/ApiCommonData/Load/ontology/harmonization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezheng/Documents/VEuPathDB-git/ApiCommonData/Load/ontology/harmonization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E990BCDB-CB7B-DE4C-9017-C0A75A2BDE47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB998997-A227-EC4A-AF79-6567D3A21CF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9980" yWindow="10220" windowWidth="25180" windowHeight="11920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3700" yWindow="1520" windowWidth="25180" windowHeight="14380" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="termWithDifferentLabels" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="termWithDifferentParent" sheetId="3" r:id="rId3"/>
     <sheet name="units_issues" sheetId="6" r:id="rId4"/>
     <sheet name="units" sheetId="4" r:id="rId5"/>
-    <sheet name="units_latest" sheetId="5" r:id="rId6"/>
+    <sheet name="unit list" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">termWithDifferentParent!$A$1:$F$22</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="351">
   <si>
     <t>sid</t>
   </si>
@@ -966,12 +966,6 @@
     <t>Any rule of using whitespace for value with unit? I saw two kinds, e.g. '1-2 convulsions over 24 h', 'More than 3 convulsions over 24h'</t>
   </si>
   <si>
-    <t>gates_provide | icemr_india_behavior | icemr_meghalaya</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/EUPATH_0024232|http://purl.obolibrary.org/obo/UO_0000316</t>
-  </si>
-  <si>
     <t>Basically, units should have a space between what comes before and the unit</t>
   </si>
   <si>
@@ -1074,41 +1068,26 @@
     <t>http://purl.obolibrary.org/obo/UO_0000275</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000033|http://purl.obolibrary.org/obo/UO_0000036</t>
-  </si>
-  <si>
-    <t>http://www.ebi.ac.uk/efo/EFO_0004374|http://purl.obolibrary.org/obo/UO_0010003</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0010003|http://purl.obolibrary.org/obo/NCIT_C64387</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/EUPATH_0023059|http://purl.obolibrary.org/obo/UO_0000316</t>
-  </si>
-  <si>
-    <t>gates_elicit | general/general_crompton | icemr_southAsia</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000316|http://purl.obolibrary.org/obo/EUPATH_0024232|http://purl.obolibrary.org/obo/EUPATH_0023059</t>
-  </si>
-  <si>
-    <t>icemr_indian | icemr_prism | gates_elicit | icemr_india_feverSurv | general/general_crompton | icemr_prism2 | gates_gamin | icemr_indian_cx | icemr_southAsia | icemr_india_behavior | icemr_westAfrica | icemr_prism2_border_cohort</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0010003|http://www.ebi.ac.uk/efo/EFO_0004374|http://purl.obolibrary.org/obo/NCIT_C64387</t>
-  </si>
-  <si>
     <t>correct</t>
   </si>
   <si>
     <t>/500 WBC</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000033</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000036</t>
+  </si>
+  <si>
+    <t>no IRI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1252,14 +1231,6 @@
     <font>
       <sz val="12"/>
       <color theme="5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1568,7 +1539,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1611,19 +1582,17 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1657,7 +1626,6 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1984,7 +1952,7 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="19.83203125" customWidth="1"/>
     <col min="2" max="2" width="3.6640625" customWidth="1"/>
@@ -1993,7 +1961,7 @@
     <col min="5" max="5" width="55.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2010,10 +1978,10 @@
         <v>289</v>
       </c>
       <c r="F1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2033,7 +2001,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2053,7 +2021,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2073,7 +2041,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2093,7 +2061,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2113,7 +2081,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2133,7 +2101,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2153,7 +2121,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2173,7 +2141,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -2193,7 +2161,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2213,7 +2181,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -2233,7 +2201,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -2253,7 +2221,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -2273,7 +2241,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -2293,14 +2261,14 @@
         <v>310</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -2317,7 +2285,7 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="3" max="3" width="47.6640625" customWidth="1"/>
@@ -2326,7 +2294,7 @@
     <col min="6" max="6" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -2343,10 +2311,10 @@
         <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -2366,7 +2334,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -2389,7 +2357,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>51</v>
       </c>
@@ -2409,7 +2377,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>54</v>
       </c>
@@ -2429,7 +2397,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>56</v>
       </c>
@@ -2449,7 +2417,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>59</v>
       </c>
@@ -2469,7 +2437,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>62</v>
       </c>
@@ -2489,7 +2457,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -2512,7 +2480,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>67</v>
       </c>
@@ -2532,7 +2500,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -2555,7 +2523,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>73</v>
       </c>
@@ -2575,12 +2543,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
         <v>51</v>
       </c>
@@ -2594,7 +2562,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
         <v>54</v>
       </c>
@@ -2608,16 +2576,16 @@
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="D17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
         <v>56</v>
       </c>
@@ -2628,7 +2596,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="1"/>
       <c r="C20" t="s">
         <v>90</v>
@@ -2637,7 +2605,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="1"/>
       <c r="C21" t="s">
         <v>91</v>
@@ -2649,11 +2617,11 @@
         <v>294</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="1"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -2665,7 +2633,7 @@
       </c>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="C24" t="s">
         <v>79</v>
       </c>
@@ -2676,7 +2644,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="C25" t="s">
         <v>81</v>
       </c>
@@ -2687,10 +2655,10 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -2702,7 +2670,7 @@
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="C28" t="s">
         <v>83</v>
       </c>
@@ -2713,7 +2681,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="C29" t="s">
         <v>84</v>
       </c>
@@ -2724,10 +2692,10 @@
         <v>295</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -2739,7 +2707,7 @@
       </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -2750,10 +2718,10 @@
         <v>296</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -2765,7 +2733,7 @@
       </c>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>87</v>
       </c>
@@ -2776,7 +2744,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="3"/>
     </row>
   </sheetData>
@@ -2793,7 +2761,7 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="42.33203125" customWidth="1"/>
@@ -2802,7 +2770,7 @@
     <col min="6" max="6" width="29.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2822,10 +2790,10 @@
         <v>301</v>
       </c>
       <c r="G1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -2848,7 +2816,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -2871,7 +2839,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -2894,7 +2862,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -2917,7 +2885,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -2940,7 +2908,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>111</v>
       </c>
@@ -2963,7 +2931,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -2986,7 +2954,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>117</v>
       </c>
@@ -3009,7 +2977,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>120</v>
       </c>
@@ -3032,7 +3000,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>123</v>
       </c>
@@ -3055,7 +3023,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -3078,7 +3046,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>129</v>
       </c>
@@ -3101,7 +3069,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -3124,7 +3092,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>133</v>
       </c>
@@ -3147,7 +3115,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>136</v>
       </c>
@@ -3170,7 +3138,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -3193,7 +3161,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>140</v>
       </c>
@@ -3216,7 +3184,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>143</v>
       </c>
@@ -3239,7 +3207,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>146</v>
       </c>
@@ -3262,7 +3230,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>149</v>
       </c>
@@ -3285,7 +3253,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -3317,27 +3285,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84351FC9-A5B2-F24D-8B55-E6051DA9E552}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="46.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="41.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>154</v>
@@ -3346,87 +3314,87 @@
         <v>156</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C2" t="s">
         <v>269</v>
       </c>
       <c r="D2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E2" t="s">
         <v>318</v>
       </c>
-      <c r="E2" t="s">
-        <v>320</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="C3" t="s">
         <v>256</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" t="s">
         <v>322</v>
-      </c>
-      <c r="E3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>323</v>
-      </c>
-      <c r="B4" t="s">
-        <v>324</v>
       </c>
       <c r="C4" t="s">
         <v>269</v>
       </c>
       <c r="D4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E4" t="s">
         <v>318</v>
       </c>
-      <c r="E4" t="s">
-        <v>320</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="C5" t="s">
         <v>221</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>222</v>
       </c>
       <c r="E5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D6" s="7"/>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="D6" s="6"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C7" t="s">
         <v>226</v>
@@ -3435,18 +3403,21 @@
         <v>227</v>
       </c>
       <c r="E7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+      <c r="G7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C8" t="s">
         <v>226</v>
@@ -3455,18 +3426,18 @@
         <v>227</v>
       </c>
       <c r="E8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C9" t="s">
         <v>226</v>
@@ -3475,18 +3446,18 @@
         <v>227</v>
       </c>
       <c r="E9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C10" t="s">
         <v>226</v>
@@ -3495,18 +3466,18 @@
         <v>227</v>
       </c>
       <c r="E10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C11" t="s">
         <v>226</v>
@@ -3515,18 +3486,18 @@
         <v>227</v>
       </c>
       <c r="E11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C12" t="s">
         <v>226</v>
@@ -3535,27 +3506,27 @@
         <v>227</v>
       </c>
       <c r="E12" t="s">
+        <v>329</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" t="s">
+        <v>330</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
         <v>331</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>332</v>
-      </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>333</v>
-      </c>
-      <c r="B15" t="s">
-        <v>334</v>
       </c>
       <c r="C15" t="s">
         <v>160</v>
@@ -3564,18 +3535,21 @@
         <v>161</v>
       </c>
       <c r="E15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C16" t="s">
         <v>244</v>
@@ -3584,10 +3558,10 @@
         <v>164</v>
       </c>
       <c r="E16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -3600,11 +3574,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
@@ -3614,7 +3588,7 @@
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>154</v>
       </c>
@@ -3631,10 +3605,10 @@
         <v>271</v>
       </c>
       <c r="F1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>157</v>
       </c>
@@ -3654,7 +3628,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>160</v>
       </c>
@@ -3668,7 +3642,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>163</v>
       </c>
@@ -3682,7 +3656,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>165</v>
       </c>
@@ -3696,7 +3670,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>168</v>
       </c>
@@ -3716,7 +3690,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>170</v>
       </c>
@@ -3730,7 +3704,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>172</v>
       </c>
@@ -3744,7 +3718,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>175</v>
       </c>
@@ -3758,7 +3732,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>177</v>
       </c>
@@ -3772,7 +3746,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>179</v>
       </c>
@@ -3786,7 +3760,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>180</v>
       </c>
@@ -3800,7 +3774,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>181</v>
       </c>
@@ -3814,7 +3788,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>183</v>
       </c>
@@ -3828,7 +3802,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>184</v>
       </c>
@@ -3842,7 +3816,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>185</v>
       </c>
@@ -3856,7 +3830,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>188</v>
       </c>
@@ -3870,7 +3844,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>191</v>
       </c>
@@ -3884,7 +3858,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>194</v>
       </c>
@@ -3898,7 +3872,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>195</v>
       </c>
@@ -3912,7 +3886,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>198</v>
       </c>
@@ -3926,7 +3900,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>200</v>
       </c>
@@ -3940,7 +3914,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>202</v>
       </c>
@@ -3954,7 +3928,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>204</v>
       </c>
@@ -3968,7 +3942,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>207</v>
       </c>
@@ -3982,7 +3956,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>209</v>
       </c>
@@ -3996,7 +3970,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>211</v>
       </c>
@@ -4010,7 +3984,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>213</v>
       </c>
@@ -4024,7 +3998,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>216</v>
       </c>
@@ -4038,7 +4012,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>218</v>
       </c>
@@ -4052,7 +4026,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>221</v>
       </c>
@@ -4066,7 +4040,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>224</v>
       </c>
@@ -4080,7 +4054,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>226</v>
       </c>
@@ -4094,7 +4068,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>229</v>
       </c>
@@ -4114,7 +4088,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>230</v>
       </c>
@@ -4128,7 +4102,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>232</v>
       </c>
@@ -4142,7 +4116,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>233</v>
       </c>
@@ -4156,7 +4130,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>235</v>
       </c>
@@ -4170,7 +4144,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>237</v>
       </c>
@@ -4184,7 +4158,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>239</v>
       </c>
@@ -4198,7 +4172,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>241</v>
       </c>
@@ -4212,7 +4186,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>244</v>
       </c>
@@ -4226,7 +4200,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>245</v>
       </c>
@@ -4240,7 +4214,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>248</v>
       </c>
@@ -4260,7 +4234,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>251</v>
       </c>
@@ -4274,7 +4248,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>253</v>
       </c>
@@ -4288,7 +4262,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>256</v>
       </c>
@@ -4302,7 +4276,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>258</v>
       </c>
@@ -4316,7 +4290,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>261</v>
       </c>
@@ -4330,7 +4304,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>263</v>
       </c>
@@ -4344,7 +4318,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>266</v>
       </c>
@@ -4358,7 +4332,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>269</v>
       </c>
@@ -4379,684 +4353,374 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905C8918-D215-6643-9522-53B380C55A89}">
-  <dimension ref="A1:D47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E96E553-B9B7-3A43-9A19-9B2DEFC1133B}">
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="47.5" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>165</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B6" t="s">
         <v>166</v>
       </c>
-      <c r="D2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>172</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B10" t="s">
         <v>173</v>
       </c>
-      <c r="D4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>175</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B12" t="s">
         <v>176</v>
       </c>
-      <c r="D5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>177</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B14" t="s">
         <v>178</v>
       </c>
-      <c r="D6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>251</v>
+      </c>
+      <c r="B15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>204</v>
+      </c>
+      <c r="B17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>207</v>
+      </c>
+      <c r="B18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>256</v>
+      </c>
+      <c r="B19" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>211</v>
+      </c>
+      <c r="B20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>209</v>
+      </c>
+      <c r="B21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>213</v>
+      </c>
+      <c r="B22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>253</v>
+      </c>
+      <c r="B23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>218</v>
+      </c>
+      <c r="B24" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>221</v>
+      </c>
+      <c r="B25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>258</v>
+      </c>
+      <c r="B26" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>261</v>
+      </c>
+      <c r="B27" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>224</v>
+      </c>
+      <c r="B28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>230</v>
+      </c>
+      <c r="B29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>233</v>
+      </c>
+      <c r="B30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
         <v>180</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>343</v>
-      </c>
-      <c r="D8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B31" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
         <v>181</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B32" t="s">
         <v>182</v>
       </c>
-      <c r="D9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>184</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>185</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>186</v>
-      </c>
-      <c r="D12" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>188</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>189</v>
-      </c>
-      <c r="D13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>245</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>344</v>
-      </c>
-      <c r="D14" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>191</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>192</v>
-      </c>
-      <c r="D15" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>194</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>158</v>
-      </c>
-      <c r="D16" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>195</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>196</v>
-      </c>
-      <c r="D17" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>198</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>199</v>
-      </c>
-      <c r="D18" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>251</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>345</v>
-      </c>
-      <c r="D19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>202</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>203</v>
-      </c>
-      <c r="D20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>204</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>205</v>
-      </c>
-      <c r="D21" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>253</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>217</v>
-      </c>
-      <c r="D22" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>207</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>208</v>
-      </c>
-      <c r="D23" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>209</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>210</v>
-      </c>
-      <c r="D24" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>211</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>212</v>
-      </c>
-      <c r="D25" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>213</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>214</v>
-      </c>
-      <c r="D26" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>216</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>217</v>
-      </c>
-      <c r="D27" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>218</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>219</v>
-      </c>
-      <c r="D28" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>258</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>346</v>
-      </c>
-      <c r="D29" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>261</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>347</v>
-      </c>
-      <c r="D30" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>224</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>225</v>
-      </c>
-      <c r="D31" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>230</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>231</v>
-      </c>
-      <c r="D32" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>234</v>
-      </c>
-      <c r="D33" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="B33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>235</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B34" t="s">
         <v>236</v>
       </c>
-      <c r="D34" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>237</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>238</v>
-      </c>
-      <c r="D35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="B35" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>239</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>240</v>
-      </c>
-      <c r="D36" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+      <c r="B36" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>241</v>
       </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B37" t="s">
         <v>242</v>
       </c>
-      <c r="D37" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>263</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38" t="s">
-        <v>348</v>
-      </c>
-      <c r="D38" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+      <c r="B38" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>256</v>
-      </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="C39" t="s">
+        <v>266</v>
+      </c>
+      <c r="B39" t="s">
         <v>349</v>
       </c>
-      <c r="D39" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>221</v>
-      </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40" t="s">
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B42" t="s">
         <v>350</v>
       </c>
-      <c r="D40" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>226</v>
-      </c>
-      <c r="B41">
-        <v>2</v>
-      </c>
-      <c r="C41" t="s">
-        <v>313</v>
-      </c>
-      <c r="D41" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>244</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-      <c r="C42" t="s">
-        <v>351</v>
-      </c>
-      <c r="D42" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>266</v>
-      </c>
-      <c r="B43">
-        <v>2</v>
-      </c>
-      <c r="C43" t="s">
-        <v>348</v>
-      </c>
-      <c r="D43" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="B43" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>160</v>
-      </c>
-      <c r="B44">
-        <v>3</v>
-      </c>
-      <c r="C44" t="s">
-        <v>353</v>
-      </c>
-      <c r="D44" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+      <c r="B44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>269</v>
-      </c>
-      <c r="B45">
-        <v>3</v>
-      </c>
-      <c r="C45" t="s">
-        <v>355</v>
-      </c>
-      <c r="D45" t="s">
+        <v>183</v>
+      </c>
+      <c r="B45" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>244</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
-        <v>164</v>
-      </c>
-      <c r="D46" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>266</v>
-      </c>
-      <c r="B47">
-        <v>3</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="D47" t="s">
-        <v>268</v>
+        <v>184</v>
+      </c>
+      <c r="B46" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D47">
-    <sortCondition ref="A2:A47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B44">
+    <sortCondition ref="A2:A44"/>
   </sortState>
-  <hyperlinks>
-    <hyperlink ref="C47" r:id="rId1" xr:uid="{FA0A87BC-A58C-754C-B782-FF9D321AE679}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
+++ b/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezheng/Documents/VEuPathDB-git/ApiCommonData/Load/ontology/harmonization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB998997-A227-EC4A-AF79-6567D3A21CF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC4DB16-0F56-2144-963A-BBD0AF3E721B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3700" yWindow="1520" windowWidth="25180" windowHeight="14380" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-180" yWindow="1300" windowWidth="25180" windowHeight="14380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="termWithDifferentLabels" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,12 @@
     <sheet name="units" sheetId="4" r:id="rId5"/>
     <sheet name="unit list" sheetId="7" r:id="rId6"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">termWithDifferentParent!$A$1:$F$22</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="196">
   <si>
     <t>sid</t>
   </si>
@@ -42,111 +39,9 @@
     <t>datasets</t>
   </si>
   <si>
-    <t>EUPATH_0000426</t>
-  </si>
-  <si>
-    <t>Malaria diagnoses in the past year (count) | Malaria diagnoses in the past year | Malaria diagnoses in the past year count</t>
-  </si>
-  <si>
-    <t>icemr_indian | icemr_india_feverSurv | icemr_indian_cx | icemr_india_behavior | icemr_meghalaya</t>
-  </si>
-  <si>
-    <t>EUPATH_0000432</t>
-  </si>
-  <si>
-    <t>PCR DNA sample source (5 mL) | PCR DNA sample source</t>
-  </si>
-  <si>
-    <t>icemr_indian | icemr_indian_cx</t>
-  </si>
-  <si>
-    <t>EUPATH_0000537</t>
-  </si>
-  <si>
-    <t>Plasmodium, by microscopy | Plasmodium, by microscopy result</t>
-  </si>
-  <si>
     <t>general/general_crompton | icemr_southAsia</t>
   </si>
   <si>
-    <t>EUPATH_0000546</t>
-  </si>
-  <si>
-    <t>icemr_indian | icemr_india_feverSurv | icemr_indian_cx | icemr_india_behavior | icemr_westAfrica</t>
-  </si>
-  <si>
-    <t>EUPATH_0000550</t>
-  </si>
-  <si>
-    <t>EUPATH_0011161</t>
-  </si>
-  <si>
-    <t>Anemia (hemoglobin less than 11 g/dL) | Anemia (hemoglobin &lt; 11 g/dL)</t>
-  </si>
-  <si>
-    <t>icemr_prism2 | icemr_prism2_border_cohort</t>
-  </si>
-  <si>
-    <t>EUPATH_0011593</t>
-  </si>
-  <si>
-    <t>Rooms | Room count</t>
-  </si>
-  <si>
-    <t>gates_elicit | gates_provide</t>
-  </si>
-  <si>
-    <t>EUPATH_0020006</t>
-  </si>
-  <si>
-    <t>1-2 convulsions over 24h | 1-2 convulsions over 24 h</t>
-  </si>
-  <si>
-    <t>EUPATH_0020109</t>
-  </si>
-  <si>
-    <t>More than 3 convulsions over 24h | More than 3 convulsions over 24 h</t>
-  </si>
-  <si>
-    <t>EUPATH_0020122</t>
-  </si>
-  <si>
-    <t>Female Anopheles count | Total female Anopheles count</t>
-  </si>
-  <si>
-    <t>EUPATH_0020251</t>
-  </si>
-  <si>
-    <t>Oocysts count | Total oocysts</t>
-  </si>
-  <si>
-    <t>EUPATH_0021083</t>
-  </si>
-  <si>
-    <t>Vacutainer sample | Vacutainer sample (5 mL) | Vacutainer sample (5mL)</t>
-  </si>
-  <si>
-    <t>icemr_indian | icemr_india_feverSurv | icemr_indian_cx | icemr_meghalaya</t>
-  </si>
-  <si>
-    <t>EUPATH_0036218</t>
-  </si>
-  <si>
-    <t>Mother's living children | Mother's living children count</t>
-  </si>
-  <si>
-    <t>gates_elicit | gates_provide | gates_gamin</t>
-  </si>
-  <si>
-    <t>OBI_0001508</t>
-  </si>
-  <si>
-    <t>Study time point | Study timepoint</t>
-  </si>
-  <si>
-    <t>gates_elicit | gates_gamin | gates_scoreCrosssect | gates_gems</t>
-  </si>
-  <si>
     <t>label</t>
   </si>
   <si>
@@ -162,336 +57,21 @@
     <t>Parent_labels</t>
   </si>
   <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>IAO_0000414|EUPATH_0000732</t>
-  </si>
-  <si>
-    <t>Anthropometry</t>
-  </si>
-  <si>
-    <t>Female Anopheles count</t>
-  </si>
-  <si>
-    <t>EUPATH_0000135|EUPATH_0020122</t>
-  </si>
-  <si>
     <t>variable</t>
   </si>
   <si>
-    <t>Anopheles results|CDC light trap</t>
-  </si>
-  <si>
-    <t>Lactulose excreted</t>
-  </si>
-  <si>
-    <t>EUPATH_0036399|EUPATH_0036397</t>
-  </si>
-  <si>
-    <t>Urine test</t>
-  </si>
-  <si>
-    <t>Mannitol excreted</t>
-  </si>
-  <si>
-    <t>EUPATH_0036400|EUPATH_0036398</t>
-  </si>
-  <si>
-    <t>Mother's age</t>
-  </si>
-  <si>
-    <t>EUPATH_0035109|EUPATH_0036077</t>
-  </si>
-  <si>
-    <t>Individuals related to participant</t>
-  </si>
-  <si>
-    <t>Plasmodium asexual stages, by microscopy</t>
-  </si>
-  <si>
-    <t>EUPATH_0024315|EUPATH_0000048</t>
-  </si>
-  <si>
     <t>Plasmodium in blood</t>
   </si>
   <si>
-    <t>Plasmodium gametocytes, by microscopy</t>
-  </si>
-  <si>
-    <t>EUPATH_0024316|EUPATH_0000207</t>
-  </si>
-  <si>
-    <t>Plasmodium, by microscopy</t>
-  </si>
-  <si>
-    <t>EUPATH_0000537|EUPATH_0027009</t>
-  </si>
-  <si>
-    <t>Raw eukaryota data for blood|Plasmodium in blood</t>
-  </si>
-  <si>
-    <t>Time at current location</t>
-  </si>
-  <si>
-    <t>EUPATH_0024002|EUPATH_0024003</t>
-  </si>
-  <si>
-    <t>Household relocation</t>
-  </si>
-  <si>
-    <t>Plasmodium falciparum gametocytes, by microscopy</t>
-  </si>
-  <si>
-    <t>EUPATH_0000546|EUPATH_0027010</t>
-  </si>
-  <si>
-    <t>variable, derived|variable,derived|variable</t>
-  </si>
-  <si>
-    <t>Adverse event duration</t>
-  </si>
-  <si>
-    <t>EUPATH_0041170|EUPATH_0041153|EUPATH_0041152</t>
-  </si>
-  <si>
-    <t>variable,derived|derived|variable</t>
-  </si>
-  <si>
-    <t>Adverse events</t>
-  </si>
-  <si>
-    <t>Plasmodium falciparum gametocytes, by microscopy result | Plasmodium falciparum gametocytes, by microscopy</t>
-  </si>
-  <si>
-    <t>Plasmodium falciparum asexual stages, by microscopy result | Plasmodium falciparum asexual stages, by microscopy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EUPATH_0024315 </t>
-  </si>
-  <si>
-    <t>only in icemr_southernAfrica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EUPATH_0000048 </t>
-  </si>
-  <si>
-    <t>all other projects</t>
-  </si>
-  <si>
-    <t>EUPATH_0024316</t>
-  </si>
-  <si>
-    <t>EUPATH_0000207</t>
-  </si>
-  <si>
-    <t>One unit is month, the other is year</t>
-  </si>
-  <si>
-    <t>only used in icemr_southernAfrica</t>
-  </si>
-  <si>
-    <t>with different unit, min, hr, and days</t>
-  </si>
-  <si>
-    <t>only used in general_crompton</t>
-  </si>
-  <si>
-    <t>Notes on terms in red font</t>
-  </si>
-  <si>
-    <t>EUPATH_0035109</t>
-  </si>
-  <si>
-    <t>EUPATH_0036077</t>
-  </si>
-  <si>
-    <t>only in gates_provide.owl</t>
-  </si>
-  <si>
     <t>pid_count</t>
   </si>
   <si>
     <t>pLabels</t>
   </si>
   <si>
-    <t>EUPATH_0000649</t>
-  </si>
-  <si>
-    <t>Participant|Observation details</t>
-  </si>
-  <si>
     <t>icemr_indian | icemr_prism | gates_elicit | gates_provide | icemr_india_feverSurv | general/general_crompton | icemr_prism2 | gates_gamin | icemr_indian_cx | icemr_meghalaya | icemr_southernAfrica | general/general_umsp | icemr_westAfrica | icemr_prism2_border_cohort | gates_gems</t>
   </si>
   <si>
-    <t>OGMS_0000015</t>
-  </si>
-  <si>
-    <t>Clinical history</t>
-  </si>
-  <si>
-    <t>Participant|Participant study details</t>
-  </si>
-  <si>
-    <t>icemr_indian | gates_elicit | gates_provide | icemr_india_feverSurv | general/general_crompton | icemr_prism2 | gates_gamin | icemr_indian_cx | icemr_india_behavior | icemr_meghalaya | icemr_southernAfrica | general/general_umsp | icemr_westAfrica | icemr_prism2_border_cohort | gates_gems</t>
-  </si>
-  <si>
-    <t>EUPATH_0010981</t>
-  </si>
-  <si>
-    <t>Demographics</t>
-  </si>
-  <si>
-    <t>icemr_indian | icemr_prism | gates_elicit | gates_provide | icemr_india_feverSurv | general/general_crompton | icemr_prism2 | gates_gamin | icemr_indian_cx | icemr_southAsia | icemr_india_behavior | gates_scoreCrosssect | icemr_meghalaya | icemr_southernAfrica | general/general_umsp | icemr_westAfrica | icemr_prism2_border_cohort | gates_gems</t>
-  </si>
-  <si>
-    <t>OGMS_0000073</t>
-  </si>
-  <si>
-    <t>Diagnosis</t>
-  </si>
-  <si>
-    <t>icemr_indian | icemr_prism | gates_provide | icemr_india_feverSurv | icemr_prism2 | icemr_indian_cx | icemr_india_behavior | icemr_southernAfrica | general/general_umsp | icemr_prism2_border_cohort</t>
-  </si>
-  <si>
-    <t>EUPATH_0010016</t>
-  </si>
-  <si>
-    <t>Diarrheal episodes</t>
-  </si>
-  <si>
-    <t>gates_provide | icemr_southernAfrica | gates_gems</t>
-  </si>
-  <si>
-    <t>EUPATH_0021085</t>
-  </si>
-  <si>
-    <t>Household data collection date</t>
-  </si>
-  <si>
-    <t>Household observation details|Household</t>
-  </si>
-  <si>
-    <t>icemr_indian | gates_provide | general/general_crompton | icemr_prism2 | icemr_indian_cx | icemr_india_behavior | icemr_meghalaya | icemr_southernAfrica | icemr_prism2_border_cohort</t>
-  </si>
-  <si>
-    <t>EUPATH_0010037</t>
-  </si>
-  <si>
-    <t>gates_elicit | gates_provide | gates_gamin | icemr_india_behavior | icemr_meghalaya | icemr_southernAfrica | icemr_prism2_border_cohort | gates_gems</t>
-  </si>
-  <si>
-    <t>EUPATH_0024033</t>
-  </si>
-  <si>
-    <t>Malaria knowledge</t>
-  </si>
-  <si>
-    <t>icemr_india_behavior | icemr_meghalaya | icemr_southernAfrica</t>
-  </si>
-  <si>
-    <t>EUPATH_0036079</t>
-  </si>
-  <si>
-    <t>Maternal age at first pregnancy</t>
-  </si>
-  <si>
-    <t>Clinical history|Maternal clinical history</t>
-  </si>
-  <si>
-    <t>EUPATH_0042002</t>
-  </si>
-  <si>
-    <t>Obstetrics</t>
-  </si>
-  <si>
-    <t>gates_elicit | general/general_crompton | icemr_prism2 | icemr_meghalaya | icemr_southernAfrica | icemr_westAfrica | icemr_prism2_border_cohort</t>
-  </si>
-  <si>
-    <t>EUPATH_0021097</t>
-  </si>
-  <si>
-    <t>Personal vector intervention</t>
-  </si>
-  <si>
-    <t>icemr_indian | icemr_prism | icemr_prism2 | icemr_indian_cx | icemr_india_behavior | icemr_meghalaya | icemr_southernAfrica | icemr_prism2_border_cohort</t>
-  </si>
-  <si>
-    <t>OGMS_0000083</t>
-  </si>
-  <si>
-    <t>Physical examination</t>
-  </si>
-  <si>
-    <t>icemr_indian | icemr_prism | gates_provide | icemr_india_feverSurv | general/general_crompton | icemr_prism2 | gates_gamin | icemr_indian_cx | icemr_southAsia | icemr_meghalaya | icemr_southernAfrica | icemr_westAfrica | icemr_prism2_border_cohort | gates_gems</t>
-  </si>
-  <si>
-    <t>Plasmodium falciparum asexual stages, by microscopy|Plasmodium falciparum asexual stages, by microscopy result</t>
-  </si>
-  <si>
-    <t>EUPATH_0000551</t>
-  </si>
-  <si>
-    <t>Plasmodium vivax asexual stages, by microscopy</t>
-  </si>
-  <si>
-    <t>icemr_indian | icemr_india_feverSurv | icemr_indian_cx</t>
-  </si>
-  <si>
-    <t>EUPATH_0000547</t>
-  </si>
-  <si>
-    <t>Plasmodium vivax gametocytes, by microscopy</t>
-  </si>
-  <si>
-    <t>Plasmodium, by microscopy result|Plasmodium, by microscopy</t>
-  </si>
-  <si>
-    <t>Plasmodium in blood|Raw eukaryota data for blood</t>
-  </si>
-  <si>
-    <t>EUPATH_0023001</t>
-  </si>
-  <si>
-    <t>Relocation details</t>
-  </si>
-  <si>
-    <t>icemr_southAsia | icemr_southernAfrica</t>
-  </si>
-  <si>
-    <t>EUPATH_0000309</t>
-  </si>
-  <si>
-    <t>Signs and symptoms</t>
-  </si>
-  <si>
-    <t>icemr_indian | icemr_prism | gates_provide | icemr_india_feverSurv | general/general_crompton | icemr_prism2 | gates_gamin | icemr_indian_cx | icemr_southAsia | icemr_india_behavior | icemr_meghalaya | icemr_southernAfrica | general/general_umsp | icemr_westAfrica | icemr_prism2_border_cohort | gates_gems</t>
-  </si>
-  <si>
-    <t>EUPATH_0000340</t>
-  </si>
-  <si>
-    <t>Travel details</t>
-  </si>
-  <si>
-    <t>icemr_indian | icemr_india_feverSurv | icemr_prism2 | icemr_indian_cx | icemr_southAsia | icemr_meghalaya | icemr_southernAfrica | icemr_prism2_border_cohort</t>
-  </si>
-  <si>
-    <t>OGMS_0000090</t>
-  </si>
-  <si>
-    <t>Treatment</t>
-  </si>
-  <si>
-    <t>icemr_indian | icemr_prism | gates_provide | icemr_india_feverSurv | general/general_crompton | icemr_prism2 | gates_gamin | icemr_indian_cx | icemr_southAsia | icemr_southernAfrica | general/general_umsp | icemr_prism2_border_cohort | gates_gems</t>
-  </si>
-  <si>
-    <t>Study time point|Study timepoint</t>
-  </si>
-  <si>
-    <t>Anthropometry|Participant|Participant study details|Observation details</t>
-  </si>
-  <si>
     <t>unitLabel</t>
   </si>
   <si>
@@ -846,129 +426,18 @@
     <t>change</t>
   </si>
   <si>
-    <t>Plasmodium, by microscopy result</t>
-  </si>
-  <si>
-    <t>Plasmodium falciparum gametocytes, by microscopy result</t>
-  </si>
-  <si>
-    <t>Plasmodium falciparum asexual stages, by microscopy result</t>
-  </si>
-  <si>
-    <t>Anemia (hemoglobin &lt; 11 g/dL)</t>
-  </si>
-  <si>
-    <t>Room count</t>
-  </si>
-  <si>
-    <t>1-2 convulsions over 24 h</t>
-  </si>
-  <si>
-    <t>More than 3 convulsions over 24h</t>
-  </si>
-  <si>
-    <t>Total female Anopheles count</t>
-  </si>
-  <si>
-    <t>Vacutainer sample (5mL)</t>
-  </si>
-  <si>
-    <t>Mother's living children count</t>
-  </si>
-  <si>
-    <t>Study timepoint</t>
-  </si>
-  <si>
-    <t>Participant</t>
-  </si>
-  <si>
-    <t>Household observation details</t>
-  </si>
-  <si>
-    <t>Maternal clinical history</t>
-  </si>
-  <si>
     <t>should be in label, not unitLabel</t>
   </si>
   <si>
     <t>should be C</t>
   </si>
   <si>
-    <t>Malaria diagnoses in the past year count</t>
-  </si>
-  <si>
-    <t>correct_label</t>
-  </si>
-  <si>
-    <t>PCR DNA sample source</t>
-  </si>
-  <si>
-    <t>Oocysts count</t>
-  </si>
-  <si>
-    <t>one is mg/L and the other is total mannitol (mg). Change label of EUPATH_0036400 to "Total mannitol excreted"</t>
-  </si>
-  <si>
-    <t>one is mg/L and the other is total lacutulose (mg). Change label of EUPATH_0036399 to "Total lactulose excreted"</t>
-  </si>
-  <si>
-    <t>Change to match all other projects</t>
-  </si>
-  <si>
-    <t>leave as is</t>
-  </si>
-  <si>
-    <t>map all variables to 1 IRI, Jay will have to merge the data when loading, so termType should also be updated to "variable,derived"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ontology team to choose IRI and apply </t>
-  </si>
-  <si>
-    <t>Changing the label for 20122 to be "Total female Anopheles count"</t>
-  </si>
-  <si>
-    <t>For EUPATH_0000537, change label to "Plasmodium, by microscopy result" and move under Raw eukaryota data for blood</t>
-  </si>
-  <si>
-    <t>For EUPATH_0000546, change label to "Plasmodium, by microscopy result" and move under Raw eukaryota data for blood</t>
-  </si>
-  <si>
-    <t>correct_parent</t>
-  </si>
-  <si>
-    <t>change label to "Plasmodium, by microscopy result" and move under Raw eukaryota data for blood</t>
-  </si>
-  <si>
-    <t>change label to "Plasmodium falciparum asexual stages, by microscopy result" and move under Raw eukaryota data for blood</t>
-  </si>
-  <si>
-    <t>change label to "Plasmodium vivax asexual stages, by microscopy result" and move under Raw eukaryota data for blood</t>
-  </si>
-  <si>
-    <t>change label to "Plasmodium vivax gametocytes, by microscopy result" and move under Raw eukaryota data for blood</t>
-  </si>
-  <si>
-    <t>Observation details</t>
-  </si>
-  <si>
     <t>should be /uL</t>
   </si>
   <si>
-    <t>replace IRI with EUPATH_0000092, move to "Raw eukaryota data for blood", and add "result" to end of label. Move and add result to the label for the 2nd and 3rd variables too</t>
-  </si>
-  <si>
-    <t>replace IRI with EUPATH_0023018, move to "Raw eukaryota data for blood", and add "result" to end of label. Move and add result to the label for the 2nd and 3rd variables too</t>
-  </si>
-  <si>
     <t>Fixed</t>
   </si>
   <si>
-    <t>Any rule of using whitespace for value with unit? I saw two kinds, e.g. '1-2 convulsions over 24 h', 'More than 3 convulsions over 24h'</t>
-  </si>
-  <si>
-    <t>Basically, units should have a space between what comes before and the unit</t>
-  </si>
-  <si>
     <t>JZ comments</t>
   </si>
   <si>
@@ -1081,13 +550,76 @@
   </si>
   <si>
     <t>no IRI</t>
+  </si>
+  <si>
+    <t>Plasmodium falciparum, by qPCR</t>
+  </si>
+  <si>
+    <t>EUPATH_0022264|EUPATH_0022062</t>
+  </si>
+  <si>
+    <t>Plasmodium vivax, by qPCR</t>
+  </si>
+  <si>
+    <t>EUPATH_0022061|EUPATH_0022247</t>
+  </si>
+  <si>
+    <t>Primary occupation</t>
+  </si>
+  <si>
+    <t>EUPATH_0000366|EUPATH_0000350</t>
+  </si>
+  <si>
+    <t>Employment</t>
+  </si>
+  <si>
+    <t>Secondary occupation</t>
+  </si>
+  <si>
+    <t>EUPATH_0000367|EUPATH_0000355|EUPATH_0000351</t>
+  </si>
+  <si>
+    <t>Shall I merge the terms?</t>
+  </si>
+  <si>
+    <t>EUPATH_0000377</t>
+  </si>
+  <si>
+    <t>Time living in dwelling | Years living in dwelling</t>
+  </si>
+  <si>
+    <t>gates_provide | icemr_amazoniaPeru_long</t>
+  </si>
+  <si>
+    <t>Time living in dwelling</t>
+  </si>
+  <si>
+    <t>Years living in dwelling</t>
+  </si>
+  <si>
+    <t>Used in icemr_amazoniaPeru_long.owl, under 'Participant'</t>
+  </si>
+  <si>
+    <t>Used in gates_provide.owl, under 'Relocation'</t>
+  </si>
+  <si>
+    <t>They may not be same. If so, shall we provide unitLabel and unitIRI for the term?</t>
+  </si>
+  <si>
+    <t>Years living in dwelling|Time living in dwelling</t>
+  </si>
+  <si>
+    <t>Relocation|Participant</t>
+  </si>
+  <si>
+    <t>See comments on 'LabelsUsedMultipleTerms'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1240,6 +772,13 @@
       <color rgb="FF808080"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1583,7 +1122,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1591,6 +1130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1946,22 +1486,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
     <col min="3" max="3" width="61.1640625" customWidth="1"/>
     <col min="4" max="4" width="56.83203125" customWidth="1"/>
     <col min="5" max="5" width="55.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1974,301 +1514,39 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="F1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>185</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>186</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="F2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="F3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>187</v>
+      </c>
+      <c r="E2"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
+        <v>188</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="F4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
+        <v>189</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="F5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="F6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="F7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="F8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F9" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="F11" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="F12" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="F13" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="F14" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="F15" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>312</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2279,470 +1557,201 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="3" max="3" width="47.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="48" customWidth="1"/>
     <col min="4" max="4" width="33.83203125" customWidth="1"/>
     <col min="5" max="5" width="39.1640625" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>176</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="G2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="F2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>177</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="G3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>11</v>
+      </c>
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>179</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="G9" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="G11" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12">
+        <v>181</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="7">
         <v>3</v>
       </c>
-      <c r="C12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>292</v>
-      </c>
+      <c r="C5" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1"/>
-      <c r="D17" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>57</v>
-      </c>
+      <c r="A19" s="4"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1"/>
-      <c r="C20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1"/>
-      <c r="C21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>294</v>
-      </c>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1"/>
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>60</v>
-      </c>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="C24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>308</v>
-      </c>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="C25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>295</v>
-      </c>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5">
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>63</v>
-      </c>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="C28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>309</v>
-      </c>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="C29" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>295</v>
-      </c>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5">
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>68</v>
-      </c>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" t="s">
-        <v>86</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>296</v>
-      </c>
+      <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5">
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>74</v>
-      </c>
       <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" t="s">
-        <v>88</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>296</v>
-      </c>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3"/>
@@ -2755,10 +1764,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2770,514 +1779,48 @@
     <col min="6" max="6" width="29.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="G1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="F1"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="G2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="G3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>187</v>
+      </c>
+      <c r="F2"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="G4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="G5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="G6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="G7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="G8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="G9" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="G10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="G11" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" t="s">
-        <v>128</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="G12" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="G13" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="G14" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>134</v>
-      </c>
-      <c r="D15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" t="s">
-        <v>135</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="G15" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" t="s">
-        <v>135</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="G16" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>138</v>
-      </c>
-      <c r="D17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="G17" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>140</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>141</v>
-      </c>
-      <c r="D18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" t="s">
-        <v>142</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="G18" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>144</v>
-      </c>
-      <c r="D19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="G19" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>146</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>147</v>
-      </c>
-      <c r="D20" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="G20" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>149</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>150</v>
-      </c>
-      <c r="D21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" t="s">
-        <v>151</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="G21" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>152</v>
-      </c>
-      <c r="D22" t="s">
-        <v>153</v>
-      </c>
-      <c r="E22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="G22" t="s">
-        <v>310</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F22" xr:uid="{7BECD99F-9EFF-CC49-9661-6B01821D2C04}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -3287,8 +1830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84351FC9-A5B2-F24D-8B55-E6051DA9E552}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3302,87 +1845,87 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>339</v>
+        <v>163</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>340</v>
+        <v>164</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>317</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>314</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>315</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>269</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>316</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>318</v>
+        <v>142</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>346</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="C3" t="s">
-        <v>256</v>
+        <v>117</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>320</v>
+        <v>144</v>
       </c>
       <c r="E3" t="s">
-        <v>319</v>
+        <v>143</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>346</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>321</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>322</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>269</v>
+        <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>316</v>
+        <v>140</v>
       </c>
       <c r="E4" t="s">
-        <v>318</v>
+        <v>142</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>346</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="C5" t="s">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>222</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>319</v>
+        <v>143</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>346</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3391,130 +1934,130 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>338</v>
+        <v>162</v>
       </c>
       <c r="B7" t="s">
-        <v>323</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>226</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>227</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>329</v>
+        <v>153</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>347</v>
+        <v>171</v>
       </c>
       <c r="G7" t="s">
-        <v>310</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>337</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s">
-        <v>324</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
-        <v>226</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>227</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>329</v>
+        <v>153</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>347</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>336</v>
+        <v>160</v>
       </c>
       <c r="B9" t="s">
-        <v>325</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
-        <v>226</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>227</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
-        <v>329</v>
+        <v>153</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>347</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>335</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
-        <v>326</v>
+        <v>150</v>
       </c>
       <c r="C10" t="s">
-        <v>226</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>227</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>329</v>
+        <v>153</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>347</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>334</v>
+        <v>158</v>
       </c>
       <c r="B11" t="s">
-        <v>327</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>227</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>329</v>
+        <v>153</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>347</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>333</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s">
-        <v>328</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
-        <v>226</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>227</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>329</v>
+        <v>153</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>347</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="B13" t="s">
-        <v>330</v>
+        <v>154</v>
       </c>
       <c r="F13" s="5"/>
     </row>
@@ -3523,45 +2066,45 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>331</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s">
-        <v>332</v>
+        <v>156</v>
       </c>
       <c r="C15" t="s">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>318</v>
+        <v>142</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>244</v>
+        <v>105</v>
       </c>
       <c r="G15" t="s">
-        <v>310</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>331</v>
+        <v>155</v>
       </c>
       <c r="B16" t="s">
-        <v>332</v>
+        <v>156</v>
       </c>
       <c r="C16" t="s">
-        <v>244</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>319</v>
+        <v>143</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>346</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3590,760 +2133,760 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>271</v>
+        <v>132</v>
       </c>
       <c r="F1" t="s">
-        <v>313</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>286</v>
+        <v>133</v>
       </c>
       <c r="F2" t="s">
-        <v>310</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>167</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>287</v>
+        <v>134</v>
       </c>
       <c r="F6" t="s">
-        <v>310</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>171</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>174</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>36</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>176</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>174</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>174</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>182</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>174</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>183</v>
+        <v>44</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>184</v>
+        <v>45</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>46</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>186</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>187</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>188</v>
+        <v>49</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>189</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>190</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>191</v>
+        <v>52</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>192</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>193</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>194</v>
+        <v>55</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>193</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>195</v>
+        <v>56</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>196</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>197</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>198</v>
+        <v>59</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>199</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>174</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>200</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>199</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>201</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>202</v>
+        <v>63</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>203</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>171</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>204</v>
+        <v>65</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>205</v>
+        <v>66</v>
       </c>
       <c r="D24" t="s">
-        <v>206</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>174</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>209</v>
+        <v>70</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>174</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>211</v>
+        <v>72</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>212</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>174</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>213</v>
+        <v>74</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>214</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>215</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="D29" t="s">
-        <v>169</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>219</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>220</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>222</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>223</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>224</v>
+        <v>85</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>225</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>174</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>226</v>
+        <v>87</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>227</v>
+        <v>88</v>
       </c>
       <c r="D33" t="s">
-        <v>228</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>229</v>
+        <v>90</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>201</v>
+        <v>62</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>307</v>
+        <v>135</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>310</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>230</v>
+        <v>91</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>231</v>
+        <v>92</v>
       </c>
       <c r="D35" t="s">
-        <v>174</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>232</v>
+        <v>93</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>233</v>
+        <v>94</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>234</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s">
-        <v>174</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>235</v>
+        <v>96</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>236</v>
+        <v>97</v>
       </c>
       <c r="D38" t="s">
-        <v>174</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>237</v>
+        <v>98</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>238</v>
+        <v>99</v>
       </c>
       <c r="D39" t="s">
-        <v>174</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>239</v>
+        <v>100</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>240</v>
+        <v>101</v>
       </c>
       <c r="D40" t="s">
-        <v>174</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>241</v>
+        <v>102</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>242</v>
+        <v>103</v>
       </c>
       <c r="D41" t="s">
-        <v>243</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>244</v>
+        <v>105</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>245</v>
+        <v>106</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>246</v>
+        <v>107</v>
       </c>
       <c r="D43" t="s">
-        <v>247</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>248</v>
+        <v>109</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>249</v>
+        <v>110</v>
       </c>
       <c r="D44" t="s">
-        <v>250</v>
+        <v>111</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>286</v>
+        <v>133</v>
       </c>
       <c r="F44" t="s">
-        <v>310</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>251</v>
+        <v>112</v>
       </c>
       <c r="B45">
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>252</v>
+        <v>113</v>
       </c>
       <c r="D45" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>253</v>
+        <v>114</v>
       </c>
       <c r="B46">
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>254</v>
+        <v>115</v>
       </c>
       <c r="D46" t="s">
-        <v>255</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>256</v>
+        <v>117</v>
       </c>
       <c r="B47">
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>257</v>
+        <v>118</v>
       </c>
       <c r="D47" t="s">
-        <v>223</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>258</v>
+        <v>119</v>
       </c>
       <c r="B48">
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>259</v>
+        <v>120</v>
       </c>
       <c r="D48" t="s">
-        <v>260</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>261</v>
+        <v>122</v>
       </c>
       <c r="B49">
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>262</v>
+        <v>123</v>
       </c>
       <c r="D49" t="s">
-        <v>174</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>263</v>
+        <v>124</v>
       </c>
       <c r="B50">
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="D50" t="s">
-        <v>265</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>266</v>
+        <v>127</v>
       </c>
       <c r="B51">
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>267</v>
+        <v>128</v>
       </c>
       <c r="D51" t="s">
-        <v>268</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>269</v>
+        <v>130</v>
       </c>
       <c r="B52">
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>270</v>
+        <v>131</v>
       </c>
       <c r="D52" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4356,7 +2899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E96E553-B9B7-3A43-9A19-9B2DEFC1133B}">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
@@ -4367,354 +2910,354 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>156</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>347</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>227</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>245</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>342</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>263</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>348</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>191</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>196</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>176</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>198</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>199</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>251</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s">
-        <v>343</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>202</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>204</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>205</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>256</v>
+        <v>117</v>
       </c>
       <c r="B19" t="s">
-        <v>320</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>211</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>212</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>209</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>210</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>213</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>214</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>253</v>
+        <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>217</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>219</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>222</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>258</v>
+        <v>119</v>
       </c>
       <c r="B26" t="s">
-        <v>344</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>261</v>
+        <v>122</v>
       </c>
       <c r="B27" t="s">
-        <v>345</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>224</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>225</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>230</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
-        <v>231</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>233</v>
+        <v>94</v>
       </c>
       <c r="B30" t="s">
-        <v>234</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>341</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>182</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>237</v>
+        <v>98</v>
       </c>
       <c r="B33" t="s">
-        <v>238</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>235</v>
+        <v>96</v>
       </c>
       <c r="B34" t="s">
-        <v>236</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>239</v>
+        <v>100</v>
       </c>
       <c r="B35" t="s">
-        <v>240</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>269</v>
+        <v>130</v>
       </c>
       <c r="B36" t="s">
-        <v>316</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>241</v>
+        <v>102</v>
       </c>
       <c r="B37" t="s">
-        <v>242</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>244</v>
+        <v>105</v>
       </c>
       <c r="B38" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>266</v>
+        <v>127</v>
       </c>
       <c r="B39" t="s">
-        <v>349</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>350</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>194</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>193</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>183</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>184</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
+++ b/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezheng/Documents/VEuPathDB-git/ApiCommonData/Load/ontology/harmonization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC4DB16-0F56-2144-963A-BBD0AF3E721B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F605E5-8A58-F847-91FE-A2626C56A482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="1300" windowWidth="25180" windowHeight="14380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1300" windowWidth="25180" windowHeight="14380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="termWithDifferentLabels" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="206">
   <si>
     <t>sid</t>
   </si>
@@ -612,7 +612,37 @@
     <t>Relocation|Participant</t>
   </si>
   <si>
-    <t>See comments on 'LabelsUsedMultipleTerms'</t>
+    <t>copies/rxn</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/EUPATH_0022272</t>
+  </si>
+  <si>
+    <t>days/week</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C170633</t>
+  </si>
+  <si>
+    <t>hrs/day</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C176380</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000080</t>
+  </si>
+  <si>
+    <t>sols</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/EUPATH_0022271</t>
+  </si>
+  <si>
+    <t>See comments on 'TermWithDifferentLabels'</t>
   </si>
 </sst>
 </file>
@@ -1766,8 +1796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1817,7 +1847,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -1830,7 +1860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84351FC9-A5B2-F24D-8B55-E6051DA9E552}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -2897,16 +2927,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E96E553-B9B7-3A43-9A19-9B2DEFC1133B}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -2918,352 +2945,422 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>195</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>197</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B26" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>169</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>165</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>105</v>
+        <v>203</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>127</v>
-      </c>
-      <c r="B39" t="s">
-        <v>173</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="B42" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>127</v>
+      </c>
+      <c r="B50" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B44">
-    <sortCondition ref="A2:A44"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
+++ b/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezheng/Documents/VEuPathDB-git/ApiCommonData/Load/ontology/harmonization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F605E5-8A58-F847-91FE-A2626C56A482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC2CB8F-7CDD-6D42-A388-7B060DC71BB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1300" windowWidth="25180" windowHeight="14380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2420" yWindow="1560" windowWidth="25180" windowHeight="14380" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="termWithDifferentLabels" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="213">
   <si>
     <t>sid</t>
   </si>
@@ -643,6 +643,27 @@
   </si>
   <si>
     <t>See comments on 'TermWithDifferentLabels'</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/EUPATH_0015721</t>
+  </si>
+  <si>
+    <t>-&gt; epg</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/EUPATH_0030176</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C173109</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/EUPATH_0049454</t>
+  </si>
+  <si>
+    <t>epg</t>
+  </si>
+  <si>
+    <t>Assigned IDs to following units</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1173,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1161,6 +1182,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1796,7 +1819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -2147,7 +2170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -2927,13 +2950,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E96E553-B9B7-3A43-9A19-9B2DEFC1133B}">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="47.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -2945,422 +2972,440 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>124</v>
+      </c>
+      <c r="B10" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>197</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>211</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>199</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>200</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>201</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>201</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>202</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>169</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>203</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>203</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>165</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="B44" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>102</v>
+      </c>
+      <c r="B46" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>105</v>
+      </c>
+      <c r="B47" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>105</v>
-      </c>
-      <c r="B49" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>127</v>
-      </c>
-      <c r="B50" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="50" spans="1:4">
+      <c r="B50" s="8"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>31</v>
       </c>
       <c r="B53" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="D53" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>55</v>
       </c>
       <c r="B54" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>40</v>
       </c>
       <c r="B55" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="D55" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>44</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>45</v>
-      </c>
-      <c r="B57" t="s">
-        <v>20</v>
-      </c>
+      <c r="D56" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="D57" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
+++ b/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezheng/Documents/VEuPathDB-git/ApiCommonData/Load/ontology/harmonization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sshahsimpson/Documents/Git/ApiCommonData/Load/ontology/harmonization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F605E5-8A58-F847-91FE-A2626C56A482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A3A260-33B7-6949-A7E1-56D7A7939FDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1300" windowWidth="25180" windowHeight="14380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="12100" windowWidth="25180" windowHeight="14380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="termWithDifferentLabels" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="211">
   <si>
     <t>sid</t>
   </si>
@@ -643,13 +643,30 @@
   </si>
   <si>
     <t>See comments on 'TermWithDifferentLabels'</t>
+  </si>
+  <si>
+    <t>change to Time living in dwelling with units years</t>
+  </si>
+  <si>
+    <t>EUPATH_0022264 should be "Plasmodium falciparum, by qPCR result" and be moved under 'Raw eukaryota data for blood' with unit "/uL"
+EUPATH_0022062 should be "Plasmodium falciparum copies, by qPCR", moved under 'Raw eukaryota data for blood", with unit "/rxn"</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>EUPATH_0022247 should be "Plasmodium vivax, by qPCR result" and be moved under 'Raw eukaryota data for blood' with unit "/uL"
+EUPATH_0022061 should be "Plasmodium vivax copies, by qPCR", moved under 'Raw eukaryota data for blood", with unit "/rxn"</t>
+  </si>
+  <si>
+    <t>should be under Relocation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1152,7 +1169,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1161,6 +1178,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1519,10 +1539,10 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" customWidth="1"/>
@@ -1531,7 +1551,7 @@
     <col min="5" max="5" width="55.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1545,7 +1565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>185</v>
       </c>
@@ -1560,7 +1580,7 @@
       </c>
       <c r="E2"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>188</v>
       </c>
@@ -1571,12 +1591,15 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>189</v>
       </c>
       <c r="C5" t="s">
         <v>190</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -1589,20 +1612,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="48" customWidth="1"/>
     <col min="4" max="4" width="33.83203125" customWidth="1"/>
     <col min="5" max="5" width="39.1640625" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="5"/>
+    <col min="6" max="6" width="47.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1619,10 +1642,10 @@
         <v>9</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>175</v>
       </c>
@@ -1638,9 +1661,11 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>177</v>
       </c>
@@ -1656,9 +1681,11 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>179</v>
       </c>
@@ -1678,7 +1705,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>182</v>
       </c>
@@ -1698,92 +1725,92 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
     </row>
   </sheetData>
@@ -1796,11 +1823,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="42.33203125" customWidth="1"/>
@@ -1809,7 +1836,7 @@
     <col min="6" max="6" width="29.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1827,7 +1854,7 @@
       </c>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>185</v>
       </c>
@@ -1843,9 +1870,11 @@
       <c r="E2" t="s">
         <v>187</v>
       </c>
-      <c r="F2"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F2" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>205</v>
       </c>
@@ -1864,7 +1893,7 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="46.5" bestFit="1" customWidth="1"/>
@@ -1873,7 +1902,7 @@
     <col min="5" max="5" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>163</v>
       </c>
@@ -1890,7 +1919,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -1910,7 +1939,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>117</v>
       </c>
@@ -1924,7 +1953,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -1944,7 +1973,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>82</v>
       </c>
@@ -1958,11 +1987,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D6" s="6"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>162</v>
       </c>
@@ -1985,7 +2014,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>161</v>
       </c>
@@ -2005,7 +2034,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>160</v>
       </c>
@@ -2025,7 +2054,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>159</v>
       </c>
@@ -2045,7 +2074,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>158</v>
       </c>
@@ -2065,7 +2094,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>157</v>
       </c>
@@ -2085,16 +2114,16 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>154</v>
       </c>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>155</v>
       </c>
@@ -2117,7 +2146,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>155</v>
       </c>
@@ -2151,7 +2180,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
@@ -2161,7 +2190,7 @@
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2181,7 +2210,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2201,7 +2230,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -2215,7 +2244,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -2229,7 +2258,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2243,7 +2272,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2263,7 +2292,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -2277,7 +2306,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -2291,7 +2320,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -2305,7 +2334,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -2319,7 +2348,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -2333,7 +2362,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -2347,7 +2376,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -2361,7 +2390,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -2375,7 +2404,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -2389,7 +2418,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -2403,7 +2432,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -2417,7 +2446,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -2431,7 +2460,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -2445,7 +2474,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -2459,7 +2488,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -2473,7 +2502,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -2487,7 +2516,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -2501,7 +2530,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -2515,7 +2544,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -2529,7 +2558,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -2543,7 +2572,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -2557,7 +2586,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -2571,7 +2600,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -2585,7 +2614,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -2599,7 +2628,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>82</v>
       </c>
@@ -2613,7 +2642,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -2627,7 +2656,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>87</v>
       </c>
@@ -2641,7 +2670,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>90</v>
       </c>
@@ -2661,7 +2690,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>91</v>
       </c>
@@ -2675,7 +2704,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>93</v>
       </c>
@@ -2689,7 +2718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>94</v>
       </c>
@@ -2703,7 +2732,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>96</v>
       </c>
@@ -2717,7 +2746,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>98</v>
       </c>
@@ -2731,7 +2760,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>100</v>
       </c>
@@ -2745,7 +2774,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>102</v>
       </c>
@@ -2759,7 +2788,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>105</v>
       </c>
@@ -2773,7 +2802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>106</v>
       </c>
@@ -2787,7 +2816,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>109</v>
       </c>
@@ -2807,7 +2836,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>112</v>
       </c>
@@ -2821,7 +2850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>114</v>
       </c>
@@ -2835,7 +2864,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>117</v>
       </c>
@@ -2849,7 +2878,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>119</v>
       </c>
@@ -2863,7 +2892,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>122</v>
       </c>
@@ -2877,7 +2906,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>124</v>
       </c>
@@ -2891,7 +2920,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>127</v>
       </c>
@@ -2905,7 +2934,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>130</v>
       </c>
@@ -2933,9 +2962,9 @@
       <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2943,7 +2972,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2951,7 +2980,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>171</v>
       </c>
@@ -2959,7 +2988,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -2967,7 +2996,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -2975,7 +3004,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -2983,7 +3012,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2991,7 +3020,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -2999,7 +3028,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>195</v>
       </c>
@@ -3007,12 +3036,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -3020,7 +3049,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>197</v>
       </c>
@@ -3028,7 +3057,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -3036,12 +3065,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -3049,7 +3078,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -3057,7 +3086,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -3065,7 +3094,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -3073,7 +3102,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>199</v>
       </c>
@@ -3081,7 +3110,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -3089,7 +3118,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>112</v>
       </c>
@@ -3097,7 +3126,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -3105,7 +3134,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -3113,7 +3142,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>201</v>
       </c>
@@ -3121,7 +3150,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -3129,7 +3158,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>117</v>
       </c>
@@ -3137,7 +3166,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -3145,7 +3174,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -3153,7 +3182,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -3161,7 +3190,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>114</v>
       </c>
@@ -3169,7 +3198,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>79</v>
       </c>
@@ -3177,7 +3206,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -3185,7 +3214,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>119</v>
       </c>
@@ -3193,7 +3222,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>122</v>
       </c>
@@ -3201,7 +3230,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>85</v>
       </c>
@@ -3209,7 +3238,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>91</v>
       </c>
@@ -3217,7 +3246,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>94</v>
       </c>
@@ -3225,7 +3254,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>203</v>
       </c>
@@ -3233,12 +3262,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -3246,7 +3275,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -3254,7 +3283,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>98</v>
       </c>
@@ -3262,7 +3291,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -3270,7 +3299,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -3278,7 +3307,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>130</v>
       </c>
@@ -3286,17 +3315,17 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>102</v>
       </c>
@@ -3304,7 +3333,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>105</v>
       </c>
@@ -3312,7 +3341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>127</v>
       </c>
@@ -3320,7 +3349,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -3328,7 +3357,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -3336,7 +3365,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>40</v>
       </c>
@@ -3344,7 +3373,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>44</v>
       </c>
@@ -3352,7 +3381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>45</v>
       </c>

--- a/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
+++ b/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sshahsimpson/Documents/Git/ApiCommonData/Load/ontology/harmonization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezheng/Documents/VEuPathDB-git/ApiCommonData/Load/ontology/harmonization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A3A260-33B7-6949-A7E1-56D7A7939FDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F605E5-8A58-F847-91FE-A2626C56A482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12100" windowWidth="25180" windowHeight="14380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1300" windowWidth="25180" windowHeight="14380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="termWithDifferentLabels" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="206">
   <si>
     <t>sid</t>
   </si>
@@ -643,30 +643,13 @@
   </si>
   <si>
     <t>See comments on 'TermWithDifferentLabels'</t>
-  </si>
-  <si>
-    <t>change to Time living in dwelling with units years</t>
-  </si>
-  <si>
-    <t>EUPATH_0022264 should be "Plasmodium falciparum, by qPCR result" and be moved under 'Raw eukaryota data for blood' with unit "/uL"
-EUPATH_0022062 should be "Plasmodium falciparum copies, by qPCR", moved under 'Raw eukaryota data for blood", with unit "/rxn"</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>EUPATH_0022247 should be "Plasmodium vivax, by qPCR result" and be moved under 'Raw eukaryota data for blood' with unit "/uL"
-EUPATH_0022061 should be "Plasmodium vivax copies, by qPCR", moved under 'Raw eukaryota data for blood", with unit "/rxn"</t>
-  </si>
-  <si>
-    <t>should be under Relocation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1169,7 +1152,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1178,9 +1161,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1539,10 +1519,10 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" customWidth="1"/>
@@ -1551,7 +1531,7 @@
     <col min="5" max="5" width="55.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1565,7 +1545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>185</v>
       </c>
@@ -1580,7 +1560,7 @@
       </c>
       <c r="E2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>188</v>
       </c>
@@ -1591,15 +1571,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>189</v>
       </c>
       <c r="C5" t="s">
         <v>190</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -1612,20 +1589,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="48" customWidth="1"/>
     <col min="4" max="4" width="33.83203125" customWidth="1"/>
     <col min="5" max="5" width="39.1640625" customWidth="1"/>
-    <col min="6" max="6" width="47.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1642,10 +1619,10 @@
         <v>9</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>175</v>
       </c>
@@ -1661,11 +1638,9 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="F2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>177</v>
       </c>
@@ -1681,11 +1656,9 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>179</v>
       </c>
@@ -1705,7 +1678,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="7" t="s">
         <v>182</v>
       </c>
@@ -1725,92 +1698,92 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="4"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="4"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="1"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="1"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="3"/>
     </row>
   </sheetData>
@@ -1823,11 +1796,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="42.33203125" customWidth="1"/>
@@ -1836,7 +1809,7 @@
     <col min="6" max="6" width="29.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1854,7 +1827,7 @@
       </c>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>185</v>
       </c>
@@ -1870,11 +1843,9 @@
       <c r="E2" t="s">
         <v>187</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>205</v>
       </c>
@@ -1893,7 +1864,7 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="46.5" bestFit="1" customWidth="1"/>
@@ -1902,7 +1873,7 @@
     <col min="5" max="5" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>163</v>
       </c>
@@ -1919,7 +1890,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -1939,7 +1910,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="C3" t="s">
         <v>117</v>
       </c>
@@ -1953,7 +1924,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -1973,7 +1944,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="C5" t="s">
         <v>82</v>
       </c>
@@ -1987,11 +1958,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="D6" s="6"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>162</v>
       </c>
@@ -2014,7 +1985,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>161</v>
       </c>
@@ -2034,7 +2005,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>160</v>
       </c>
@@ -2054,7 +2025,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>159</v>
       </c>
@@ -2074,7 +2045,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>158</v>
       </c>
@@ -2094,7 +2065,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>157</v>
       </c>
@@ -2114,16 +2085,16 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="B13" t="s">
         <v>154</v>
       </c>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>155</v>
       </c>
@@ -2146,7 +2117,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>155</v>
       </c>
@@ -2180,7 +2151,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
@@ -2190,7 +2161,7 @@
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2210,7 +2181,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2230,7 +2201,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -2244,7 +2215,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -2258,7 +2229,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2272,7 +2243,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2292,7 +2263,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -2306,7 +2277,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -2320,7 +2291,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -2334,7 +2305,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -2348,7 +2319,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -2362,7 +2333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -2376,7 +2347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -2390,7 +2361,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -2404,7 +2375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -2418,7 +2389,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -2432,7 +2403,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -2446,7 +2417,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -2460,7 +2431,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -2474,7 +2445,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -2488,7 +2459,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -2502,7 +2473,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -2516,7 +2487,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -2530,7 +2501,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -2544,7 +2515,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -2558,7 +2529,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -2572,7 +2543,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -2586,7 +2557,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -2600,7 +2571,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -2614,7 +2585,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -2628,7 +2599,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>82</v>
       </c>
@@ -2642,7 +2613,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -2656,7 +2627,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>87</v>
       </c>
@@ -2670,7 +2641,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>90</v>
       </c>
@@ -2690,7 +2661,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>91</v>
       </c>
@@ -2704,7 +2675,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>93</v>
       </c>
@@ -2718,7 +2689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>94</v>
       </c>
@@ -2732,7 +2703,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>96</v>
       </c>
@@ -2746,7 +2717,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>98</v>
       </c>
@@ -2760,7 +2731,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>100</v>
       </c>
@@ -2774,7 +2745,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>102</v>
       </c>
@@ -2788,7 +2759,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>105</v>
       </c>
@@ -2802,7 +2773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>106</v>
       </c>
@@ -2816,7 +2787,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>109</v>
       </c>
@@ -2836,7 +2807,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>112</v>
       </c>
@@ -2850,7 +2821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>114</v>
       </c>
@@ -2864,7 +2835,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>117</v>
       </c>
@@ -2878,7 +2849,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>119</v>
       </c>
@@ -2892,7 +2863,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>122</v>
       </c>
@@ -2906,7 +2877,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>124</v>
       </c>
@@ -2920,7 +2891,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>127</v>
       </c>
@@ -2934,7 +2905,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>130</v>
       </c>
@@ -2962,9 +2933,9 @@
       <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2972,7 +2943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2980,7 +2951,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>171</v>
       </c>
@@ -2988,7 +2959,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -2996,7 +2967,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -3004,7 +2975,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -3012,7 +2983,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -3020,7 +2991,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -3028,7 +2999,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>195</v>
       </c>
@@ -3036,12 +3007,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -3049,7 +3020,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>197</v>
       </c>
@@ -3057,7 +3028,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -3065,12 +3036,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -3078,7 +3049,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -3086,7 +3057,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -3094,7 +3065,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -3102,7 +3073,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>199</v>
       </c>
@@ -3110,7 +3081,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -3118,7 +3089,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>112</v>
       </c>
@@ -3126,7 +3097,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -3134,7 +3105,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -3142,7 +3113,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>201</v>
       </c>
@@ -3150,7 +3121,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -3158,7 +3129,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>117</v>
       </c>
@@ -3166,7 +3137,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -3174,7 +3145,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -3182,7 +3153,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -3190,7 +3161,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>114</v>
       </c>
@@ -3198,7 +3169,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>79</v>
       </c>
@@ -3206,7 +3177,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -3214,7 +3185,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>119</v>
       </c>
@@ -3222,7 +3193,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>122</v>
       </c>
@@ -3230,7 +3201,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>85</v>
       </c>
@@ -3238,7 +3209,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>91</v>
       </c>
@@ -3246,7 +3217,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>94</v>
       </c>
@@ -3254,7 +3225,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>203</v>
       </c>
@@ -3262,12 +3233,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -3275,7 +3246,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -3283,7 +3254,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>98</v>
       </c>
@@ -3291,7 +3262,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -3299,7 +3270,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -3307,7 +3278,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>130</v>
       </c>
@@ -3315,17 +3286,17 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>102</v>
       </c>
@@ -3333,7 +3304,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>105</v>
       </c>
@@ -3341,7 +3312,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>127</v>
       </c>
@@ -3349,7 +3320,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -3357,7 +3328,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -3365,7 +3336,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>40</v>
       </c>
@@ -3373,7 +3344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>44</v>
       </c>
@@ -3381,7 +3352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>45</v>
       </c>

--- a/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
+++ b/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezheng/Documents/VEuPathDB-git/ApiCommonData/Load/ontology/harmonization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sshahsimpson/Documents/Git/ApiCommonData/Load/ontology/harmonization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC2CB8F-7CDD-6D42-A388-7B060DC71BB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632B746E-48FA-9D4C-93BC-F2976CFEB0EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="1560" windowWidth="25180" windowHeight="14380" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2420" yWindow="1560" windowWidth="25180" windowHeight="14380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="termWithDifferentLabels" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="220">
   <si>
     <t>sid</t>
   </si>
@@ -579,9 +579,6 @@
     <t>EUPATH_0000367|EUPATH_0000355|EUPATH_0000351</t>
   </si>
   <si>
-    <t>Shall I merge the terms?</t>
-  </si>
-  <si>
     <t>EUPATH_0000377</t>
   </si>
   <si>
@@ -664,13 +661,39 @@
   </si>
   <si>
     <t>Assigned IDs to following units</t>
+  </si>
+  <si>
+    <t>change to Time living in dwelling with units years</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>EUPATH_0022264 should be "Plasmodium falciparum, by qPCR result" and be moved under 'Raw eukaryota data for blood' with unit "/uL"
+EUPATH_0022062 should be "Plasmodium falciparum copies, by qPCR", moved under 'Raw eukaryota data for blood", with unit "/rxn"</t>
+  </si>
+  <si>
+    <t>EUPATH_0022247 should be "Plasmodium vivax, by qPCR result" and be moved under 'Raw eukaryota data for blood' with unit "/uL"
+EUPATH_0022061 should be "Plasmodium vivax copies, by qPCR", moved under 'Raw eukaryota data for blood", with unit "/rxn"</t>
+  </si>
+  <si>
+    <t>should be under Relocation</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>For EUPATH_0000350, change label to "Time spent in occupation every week" with units "days", for EUPATH_0000366 - change label to "Time spent in occupation every day" with unit "hrs"</t>
+  </si>
+  <si>
+    <t>For EUPATH_0000351, change label to "Time spent in secoondary occupation every week" with unit "days", for EUPATH_0000367 - change label to "Time spent in secondary occupation every day" with unit "hrs", and leave label for EUPATH_0000355 as is</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1173,7 +1196,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1184,6 +1207,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1542,10 +1568,10 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" customWidth="1"/>
@@ -1554,7 +1580,7 @@
     <col min="5" max="5" width="55.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1568,38 +1594,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" t="s">
         <v>186</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>187</v>
       </c>
-      <c r="E2"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>188</v>
       </c>
-      <c r="C4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
         <v>189</v>
       </c>
-      <c r="C5" t="s">
-        <v>190</v>
+      <c r="D5" s="5" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -1612,20 +1641,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="48" customWidth="1"/>
     <col min="4" max="4" width="33.83203125" customWidth="1"/>
     <col min="5" max="5" width="39.1640625" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="5"/>
+    <col min="6" max="6" width="75.1640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1642,10 +1671,10 @@
         <v>9</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="184" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>175</v>
       </c>
@@ -1661,9 +1690,11 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>177</v>
       </c>
@@ -1679,9 +1710,11 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>179</v>
       </c>
@@ -1697,11 +1730,11 @@
       <c r="E4" t="s">
         <v>181</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>182</v>
       </c>
@@ -1717,96 +1750,96 @@
       <c r="E5" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
     </row>
   </sheetData>
@@ -1820,10 +1853,10 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="42.33203125" customWidth="1"/>
@@ -1832,7 +1865,7 @@
     <col min="6" max="6" width="29.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1848,29 +1881,33 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1"/>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="F1" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" t="s">
         <v>193</v>
       </c>
-      <c r="D2" t="s">
-        <v>194</v>
-      </c>
       <c r="E2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F2"/>
-    </row>
-    <row r="4" spans="1:6">
+        <v>186</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -1887,7 +1924,7 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="46.5" bestFit="1" customWidth="1"/>
@@ -1896,7 +1933,7 @@
     <col min="5" max="5" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>163</v>
       </c>
@@ -1913,7 +1950,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -1933,7 +1970,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>117</v>
       </c>
@@ -1947,7 +1984,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -1967,7 +2004,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>82</v>
       </c>
@@ -1981,11 +2018,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D6" s="6"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>162</v>
       </c>
@@ -2008,7 +2045,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>161</v>
       </c>
@@ -2028,7 +2065,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>160</v>
       </c>
@@ -2048,7 +2085,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>159</v>
       </c>
@@ -2068,7 +2105,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>158</v>
       </c>
@@ -2088,7 +2125,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>157</v>
       </c>
@@ -2108,16 +2145,16 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>154</v>
       </c>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>155</v>
       </c>
@@ -2140,7 +2177,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>155</v>
       </c>
@@ -2170,11 +2207,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
@@ -2184,7 +2221,7 @@
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2204,7 +2241,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2224,7 +2261,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -2238,7 +2275,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -2252,7 +2289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2266,7 +2303,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2286,7 +2323,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -2300,7 +2337,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -2314,7 +2351,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -2328,7 +2365,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -2342,7 +2379,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -2356,7 +2393,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -2370,7 +2407,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -2384,7 +2421,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -2398,7 +2435,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -2412,7 +2449,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -2426,7 +2463,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -2440,7 +2477,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -2454,7 +2491,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -2468,7 +2505,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -2482,7 +2519,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -2496,7 +2533,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -2510,7 +2547,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -2524,7 +2561,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -2538,7 +2575,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -2552,7 +2589,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -2566,7 +2603,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -2580,7 +2617,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -2594,7 +2631,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -2608,7 +2645,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -2622,7 +2659,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>82</v>
       </c>
@@ -2636,7 +2673,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -2650,7 +2687,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>87</v>
       </c>
@@ -2664,7 +2701,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>90</v>
       </c>
@@ -2684,7 +2721,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>91</v>
       </c>
@@ -2698,7 +2735,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>93</v>
       </c>
@@ -2712,7 +2749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>94</v>
       </c>
@@ -2726,7 +2763,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>96</v>
       </c>
@@ -2740,7 +2777,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>98</v>
       </c>
@@ -2754,7 +2791,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>100</v>
       </c>
@@ -2768,7 +2805,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>102</v>
       </c>
@@ -2782,7 +2819,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>105</v>
       </c>
@@ -2796,7 +2833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>106</v>
       </c>
@@ -2810,7 +2847,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>109</v>
       </c>
@@ -2830,7 +2867,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>112</v>
       </c>
@@ -2844,7 +2881,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>114</v>
       </c>
@@ -2858,7 +2895,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>117</v>
       </c>
@@ -2872,7 +2909,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>119</v>
       </c>
@@ -2886,7 +2923,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>122</v>
       </c>
@@ -2900,7 +2937,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>124</v>
       </c>
@@ -2914,7 +2951,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>127</v>
       </c>
@@ -2928,7 +2965,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>130</v>
       </c>
@@ -2952,17 +2989,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E96E553-B9B7-3A43-9A19-9B2DEFC1133B}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
     <col min="2" max="2" width="47.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2970,7 +3007,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>171</v>
       </c>
@@ -2978,7 +3015,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -2986,7 +3023,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -2994,7 +3031,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -3002,7 +3039,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -3010,7 +3047,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -3018,23 +3055,23 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" t="s">
         <v>195</v>
       </c>
-      <c r="B8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>124</v>
       </c>
@@ -3042,15 +3079,15 @@
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" t="s">
         <v>197</v>
       </c>
-      <c r="B11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -3058,15 +3095,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B13" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -3074,7 +3111,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -3082,7 +3119,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -3090,7 +3127,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -3098,15 +3135,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>198</v>
+      </c>
+      <c r="B18" t="s">
         <v>199</v>
       </c>
-      <c r="B18" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -3114,7 +3151,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>112</v>
       </c>
@@ -3122,7 +3159,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -3130,7 +3167,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -3138,15 +3175,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" t="s">
         <v>201</v>
       </c>
-      <c r="B23" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -3154,7 +3191,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -3162,7 +3199,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -3170,7 +3207,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -3178,7 +3215,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -3186,7 +3223,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -3194,7 +3231,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -3202,7 +3239,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>82</v>
       </c>
@@ -3210,7 +3247,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>119</v>
       </c>
@@ -3218,7 +3255,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>122</v>
       </c>
@@ -3226,7 +3263,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>85</v>
       </c>
@@ -3234,7 +3271,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>91</v>
       </c>
@@ -3242,7 +3279,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>94</v>
       </c>
@@ -3250,23 +3287,23 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>202</v>
+      </c>
+      <c r="B37" t="s">
         <v>203</v>
       </c>
-      <c r="B37" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -3274,7 +3311,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -3282,7 +3319,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>98</v>
       </c>
@@ -3290,7 +3327,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>96</v>
       </c>
@@ -3298,7 +3335,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>100</v>
       </c>
@@ -3306,7 +3343,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>130</v>
       </c>
@@ -3314,15 +3351,15 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>102</v>
       </c>
@@ -3330,7 +3367,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>105</v>
       </c>
@@ -3338,7 +3375,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>127</v>
       </c>
@@ -3346,15 +3383,15 @@
         <v>173</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B50" s="8"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -3362,10 +3399,10 @@
         <v>174</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -3373,13 +3410,13 @@
         <v>54</v>
       </c>
       <c r="C54" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>40</v>
       </c>
@@ -3387,10 +3424,10 @@
         <v>20</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>44</v>
       </c>
@@ -3398,10 +3435,10 @@
         <v>20</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D57" s="8"/>
     </row>
   </sheetData>

--- a/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
+++ b/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sshahsimpson/Documents/Git/ApiCommonData/Load/ontology/harmonization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezheng/Documents/VEuPathDB-git/ApiCommonData/Load/ontology/harmonization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632B746E-48FA-9D4C-93BC-F2976CFEB0EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E296F80E-E51A-2B46-A8C6-5BF1ACD2AA19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="1560" windowWidth="25180" windowHeight="14380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="1460" windowWidth="23440" windowHeight="14380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="termWithDifferentLabels" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="220">
   <si>
     <t>sid</t>
   </si>
@@ -693,7 +693,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1567,11 +1567,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" customWidth="1"/>
@@ -1580,7 +1580,7 @@
     <col min="5" max="5" width="55.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>184</v>
       </c>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="E2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>187</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>188</v>
       </c>
@@ -1629,6 +1629,9 @@
       </c>
       <c r="D5" s="5" t="s">
         <v>212</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1639,13 +1642,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="48" customWidth="1"/>
@@ -1654,7 +1657,7 @@
     <col min="6" max="6" width="75.1640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1674,7 +1677,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="184" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="184" customHeight="1">
       <c r="A2" t="s">
         <v>175</v>
       </c>
@@ -1694,7 +1697,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="66" customHeight="1">
       <c r="A3" t="s">
         <v>177</v>
       </c>
@@ -1714,7 +1717,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="51">
       <c r="A4" t="s">
         <v>179</v>
       </c>
@@ -1734,7 +1737,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="68">
       <c r="A5" s="7" t="s">
         <v>182</v>
       </c>
@@ -1753,93 +1756,96 @@
       <c r="F5" s="10" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="4"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="4"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="1"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="1"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="3"/>
     </row>
   </sheetData>
@@ -1850,13 +1856,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="42.33203125" customWidth="1"/>
@@ -1865,7 +1871,7 @@
     <col min="6" max="6" width="29.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1885,7 +1891,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>184</v>
       </c>
@@ -1904,8 +1910,11 @@
       <c r="F2" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>204</v>
       </c>
@@ -1924,7 +1933,7 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="46.5" bestFit="1" customWidth="1"/>
@@ -1933,7 +1942,7 @@
     <col min="5" max="5" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>163</v>
       </c>
@@ -1950,7 +1959,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -1970,7 +1979,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="C3" t="s">
         <v>117</v>
       </c>
@@ -1984,7 +1993,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -2004,7 +2013,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="C5" t="s">
         <v>82</v>
       </c>
@@ -2018,11 +2027,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="D6" s="6"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>162</v>
       </c>
@@ -2045,7 +2054,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>161</v>
       </c>
@@ -2065,7 +2074,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>160</v>
       </c>
@@ -2085,7 +2094,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>159</v>
       </c>
@@ -2105,7 +2114,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>158</v>
       </c>
@@ -2125,7 +2134,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>157</v>
       </c>
@@ -2145,16 +2154,16 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="B13" t="s">
         <v>154</v>
       </c>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>155</v>
       </c>
@@ -2177,7 +2186,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>155</v>
       </c>
@@ -2211,7 +2220,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
@@ -2221,7 +2230,7 @@
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2241,7 +2250,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2261,7 +2270,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -2275,7 +2284,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -2289,7 +2298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2303,7 +2312,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2323,7 +2332,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -2337,7 +2346,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -2351,7 +2360,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -2365,7 +2374,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -2379,7 +2388,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -2393,7 +2402,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -2407,7 +2416,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -2421,7 +2430,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -2435,7 +2444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -2449,7 +2458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -2463,7 +2472,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -2477,7 +2486,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -2491,7 +2500,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -2505,7 +2514,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -2519,7 +2528,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -2533,7 +2542,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -2547,7 +2556,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -2561,7 +2570,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -2575,7 +2584,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -2589,7 +2598,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -2603,7 +2612,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -2617,7 +2626,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -2631,7 +2640,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -2645,7 +2654,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -2659,7 +2668,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>82</v>
       </c>
@@ -2673,7 +2682,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -2687,7 +2696,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>87</v>
       </c>
@@ -2701,7 +2710,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>90</v>
       </c>
@@ -2721,7 +2730,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>91</v>
       </c>
@@ -2735,7 +2744,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>93</v>
       </c>
@@ -2749,7 +2758,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>94</v>
       </c>
@@ -2763,7 +2772,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>96</v>
       </c>
@@ -2777,7 +2786,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>98</v>
       </c>
@@ -2791,7 +2800,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>100</v>
       </c>
@@ -2805,7 +2814,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>102</v>
       </c>
@@ -2819,7 +2828,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>105</v>
       </c>
@@ -2833,7 +2842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>106</v>
       </c>
@@ -2847,7 +2856,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>109</v>
       </c>
@@ -2867,7 +2876,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>112</v>
       </c>
@@ -2881,7 +2890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>114</v>
       </c>
@@ -2895,7 +2904,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>117</v>
       </c>
@@ -2909,7 +2918,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>119</v>
       </c>
@@ -2923,7 +2932,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>122</v>
       </c>
@@ -2937,7 +2946,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>124</v>
       </c>
@@ -2951,7 +2960,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>127</v>
       </c>
@@ -2965,7 +2974,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>130</v>
       </c>
@@ -2993,13 +3002,13 @@
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
     <col min="2" max="2" width="47.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3007,7 +3016,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>171</v>
       </c>
@@ -3015,7 +3024,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -3023,7 +3032,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -3031,7 +3040,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -3039,7 +3048,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -3047,7 +3056,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -3055,7 +3064,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>194</v>
       </c>
@@ -3063,7 +3072,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -3071,7 +3080,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>124</v>
       </c>
@@ -3079,7 +3088,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>196</v>
       </c>
@@ -3087,7 +3096,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -3095,7 +3104,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>210</v>
       </c>
@@ -3103,7 +3112,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -3111,7 +3120,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -3119,7 +3128,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -3127,7 +3136,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -3135,7 +3144,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>198</v>
       </c>
@@ -3143,7 +3152,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -3151,7 +3160,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>112</v>
       </c>
@@ -3159,7 +3168,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -3167,7 +3176,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -3175,7 +3184,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>200</v>
       </c>
@@ -3183,7 +3192,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -3191,7 +3200,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -3199,7 +3208,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -3207,7 +3216,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -3215,7 +3224,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -3223,7 +3232,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -3231,7 +3240,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -3239,7 +3248,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>82</v>
       </c>
@@ -3247,7 +3256,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>119</v>
       </c>
@@ -3255,7 +3264,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>122</v>
       </c>
@@ -3263,7 +3272,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>85</v>
       </c>
@@ -3271,7 +3280,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>91</v>
       </c>
@@ -3279,7 +3288,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>94</v>
       </c>
@@ -3287,7 +3296,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>202</v>
       </c>
@@ -3295,7 +3304,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -3303,7 +3312,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -3311,7 +3320,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -3319,7 +3328,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>98</v>
       </c>
@@ -3327,7 +3336,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>96</v>
       </c>
@@ -3335,7 +3344,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>100</v>
       </c>
@@ -3343,7 +3352,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>130</v>
       </c>
@@ -3351,7 +3360,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3359,7 +3368,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>102</v>
       </c>
@@ -3367,7 +3376,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>105</v>
       </c>
@@ -3375,7 +3384,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>127</v>
       </c>
@@ -3383,15 +3392,15 @@
         <v>173</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="B50" s="8"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -3402,7 +3411,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -3416,7 +3425,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>40</v>
       </c>
@@ -3427,7 +3436,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>44</v>
       </c>
@@ -3438,7 +3447,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="D57" s="8"/>
     </row>
   </sheetData>

--- a/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
+++ b/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezheng/Documents/VEuPathDB-git/ApiCommonData/Load/ontology/harmonization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E296F80E-E51A-2B46-A8C6-5BF1ACD2AA19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BD4D11-6362-194A-9428-E7F9AE453077}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="1460" windowWidth="23440" windowHeight="14380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="1240" windowWidth="24820" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="termWithDifferentLabels" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="468">
   <si>
     <t>sid</t>
   </si>
@@ -39,9 +39,6 @@
     <t>datasets</t>
   </si>
   <si>
-    <t>general/general_crompton | icemr_southAsia</t>
-  </si>
-  <si>
     <t>label</t>
   </si>
   <si>
@@ -60,18 +57,12 @@
     <t>variable</t>
   </si>
   <si>
-    <t>Plasmodium in blood</t>
-  </si>
-  <si>
     <t>pid_count</t>
   </si>
   <si>
     <t>pLabels</t>
   </si>
   <si>
-    <t>icemr_indian | icemr_prism | gates_elicit | gates_provide | icemr_india_feverSurv | general/general_crompton | icemr_prism2 | gates_gamin | icemr_indian_cx | icemr_meghalaya | icemr_southernAfrica | general/general_umsp | icemr_westAfrica | icemr_prism2_border_cohort | gates_gems</t>
-  </si>
-  <si>
     <t>unitLabel</t>
   </si>
   <si>
@@ -84,9 +75,6 @@
     <t>%</t>
   </si>
   <si>
-    <t>NO_IRI</t>
-  </si>
-  <si>
     <t>gates_elicit</t>
   </si>
   <si>
@@ -96,12 +84,6 @@
     <t>http://purl.obolibrary.org/obo/UO_0000316</t>
   </si>
   <si>
-    <t>icemr_indian | icemr_prism | icemr_india_feverSurv | icemr_prism2 | gates_gamin | icemr_indian_cx | icemr_southAsia | icemr_india_behavior | icemr_westAfrica | icemr_prism2_border_cohort</t>
-  </si>
-  <si>
-    <t>1000 cells/uL</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/EUPATH_0023059</t>
   </si>
   <si>
@@ -111,21 +93,12 @@
     <t>http://purl.obolibrary.org/obo/UO_0000027</t>
   </si>
   <si>
-    <t>icemr_indian | icemr_prism | gates_provide | icemr_india_feverSurv | general/general_crompton | icemr_prism2 | icemr_indian_cx | icemr_southAsia | icemr_meghalaya | icemr_southernAfrica | icemr_westAfrica | icemr_prism2_border_cohort | gates_gems</t>
-  </si>
-  <si>
-    <t>Celcius</t>
-  </si>
-  <si>
     <t>gates_gamin</t>
   </si>
   <si>
     <t>Ct value</t>
   </si>
   <si>
-    <t>gates_provide | gates_gems</t>
-  </si>
-  <si>
     <t>EU/mL</t>
   </si>
   <si>
@@ -162,60 +135,36 @@
     <t>USD</t>
   </si>
   <si>
-    <t>USD??</t>
-  </si>
-  <si>
     <t>bpm</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C49673</t>
   </si>
   <si>
-    <t>general/general_crompton | icemr_prism2 | icemr_southAsia | icemr_prism2_border_cohort</t>
-  </si>
-  <si>
     <t>breaths/min</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C49674</t>
   </si>
   <si>
-    <t>general/general_crompton | icemr_prism2 | icemr_southAsia | icemr_prism2_border_cohort | gates_gems</t>
-  </si>
-  <si>
     <t>degrees</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/UO_0000185</t>
   </si>
   <si>
-    <t>gates_scoreCrosssect</t>
-  </si>
-  <si>
-    <t>eggs/g</t>
-  </si>
-  <si>
     <t>g/dL</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/UO_0000208</t>
   </si>
   <si>
-    <t>icemr_indian | icemr_prism | gates_elicit | icemr_india_feverSurv | general/general_crompton | icemr_prism2 | icemr_indian_cx | icemr_southAsia | icemr_meghalaya | icemr_southernAfrica | icemr_westAfrica | icemr_prism2_border_cohort</t>
-  </si>
-  <si>
     <t>hours</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/UO_0000032</t>
   </si>
   <si>
-    <t>hr</t>
-  </si>
-  <si>
-    <t>general/general_crompton</t>
-  </si>
-  <si>
     <t>kg/m2</t>
   </si>
   <si>
@@ -228,9 +177,6 @@
     <t>http://purl.obolibrary.org/obo/EUPATH_0020269</t>
   </si>
   <si>
-    <t>icemr_prism2 | icemr_india_behavior | icemr_prism2_border_cohort</t>
-  </si>
-  <si>
     <t>mg</t>
   </si>
   <si>
@@ -255,9 +201,6 @@
     <t>http://purl.obolibrary.org/obo/UO_0000031</t>
   </si>
   <si>
-    <t>gates_provide | general/general_crompton | icemr_india_behavior | icemr_meghalaya</t>
-  </si>
-  <si>
     <t>ml</t>
   </si>
   <si>
@@ -270,9 +213,6 @@
     <t>http://purl.obolibrary.org/obo/UO_0000272</t>
   </si>
   <si>
-    <t>icemr_indian | icemr_india_feverSurv | general/general_crompton | icemr_prism2 | icemr_indian_cx | icemr_southAsia | icemr_prism2_border_cohort</t>
-  </si>
-  <si>
     <t>mmol/L</t>
   </si>
   <si>
@@ -288,27 +228,18 @@
     <t>http://purl.obolibrary.org/obo/EUPATH_0036573</t>
   </si>
   <si>
-    <t>per 500 WBC</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/EUPATH_0024232</t>
   </si>
   <si>
     <t>icemr_southernAfrica</t>
   </si>
   <si>
-    <t>per uL blood</t>
-  </si>
-  <si>
     <t>pg/mL</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/EUPATH_0036572</t>
   </si>
   <si>
-    <t>platelets/uL</t>
-  </si>
-  <si>
     <t>ppm</t>
   </si>
   <si>
@@ -339,189 +270,48 @@
     <t>http://purl.obolibrary.org/obo/UO_0000034</t>
   </si>
   <si>
-    <t>gates_provide | icemr_meghalaya</t>
-  </si>
-  <si>
     <t>x10^3/uL</t>
   </si>
   <si>
     <t>cm</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000015|NO_IRI</t>
-  </si>
-  <si>
-    <t>icemr_indian | icemr_prism | gates_elicit | gates_provide | icemr_india_feverSurv | general/general_crompton | icemr_prism2 | gates_gamin | icemr_indian_cx | icemr_meghalaya | general/general_umsp | icemr_prism2_border_cohort | gates_gems</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>NO_IRI|http://purl.obolibrary.org/obo/UO_0000189</t>
-  </si>
-  <si>
-    <t>gates_elicit | icemr_prism2</t>
-  </si>
-  <si>
     <t>kg</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000009|NO_IRI</t>
-  </si>
-  <si>
     <t>mL</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000032|http://purl.obolibrary.org/obo/UO_0000098</t>
-  </si>
-  <si>
-    <t>gates_provide | general/general_crompton | gates_gems</t>
-  </si>
-  <si>
     <t>mg/dL</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C67015|http://purl.obolibrary.org/obo/UO_0010003</t>
-  </si>
-  <si>
     <t>months</t>
   </si>
   <si>
-    <t>NO_IRI|http://purl.obolibrary.org/obo/UO_0000035</t>
-  </si>
-  <si>
-    <t>gates_elicit | icemr_india_behavior | icemr_southernAfrica | gates_gems</t>
-  </si>
-  <si>
     <t>ng/mL</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000275|http://purl.obolibrary.org/obo/EUPATH_0036572</t>
-  </si>
-  <si>
     <t>days</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000033|NO_IRI|http://purl.obolibrary.org/obo/UO_0000036</t>
-  </si>
-  <si>
-    <t>icemr_indian | icemr_prism | gates_elicit | gates_provide | icemr_india_feverSurv | general/general_crompton | icemr_prism2 | gates_gamin | icemr_indian_cx | icemr_india_behavior | icemr_meghalaya | icemr_southernAfrica | icemr_prism2_border_cohort | gates_gems</t>
-  </si>
-  <si>
     <t>years</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000033|http://purl.obolibrary.org/obo/UO_0000036|NO_IRI</t>
-  </si>
-  <si>
-    <t>icemr_indian | icemr_prism | gates_elicit | gates_provide | icemr_india_feverSurv | general/general_crompton | icemr_prism2 | gates_gamin | icemr_indian_cx | icemr_southAsia | icemr_india_behavior | gates_scoreCrosssect | icemr_meghalaya | icemr_southernAfrica | general/general_umsp | icemr_westAfrica | icemr_prism2_border_cohort</t>
-  </si>
-  <si>
     <t>umol/L</t>
   </si>
   <si>
-    <t>NO_IRI|http://purl.obolibrary.org/obo/NCIT_C64387|http://purl.obolibrary.org/obo/UO_0010003|http://purl.obolibrary.org/obo/NCIT_C67015</t>
-  </si>
-  <si>
-    <t>change</t>
-  </si>
-  <si>
-    <t>should be in label, not unitLabel</t>
-  </si>
-  <si>
-    <t>should be C</t>
-  </si>
-  <si>
-    <t>should be /uL</t>
-  </si>
-  <si>
-    <t>Fixed</t>
-  </si>
-  <si>
     <t>JZ comments</t>
   </si>
   <si>
-    <t>EUPATH_0023011</t>
-  </si>
-  <si>
-    <t>Creatinine</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/UO_0010003</t>
   </si>
   <si>
-    <t>dataset</t>
-  </si>
-  <si>
-    <t>gates_elicit.owl</t>
-  </si>
-  <si>
-    <t>icemr_southAsia.owl</t>
-  </si>
-  <si>
     <t>http://www.ebi.ac.uk/efo/EFO_0004374</t>
   </si>
   <si>
-    <t>EUPATH_0023005</t>
-  </si>
-  <si>
-    <t>Bicarbonate</t>
-  </si>
-  <si>
-    <t>Plasmodium asexual stages, by microscopy result</t>
-  </si>
-  <si>
-    <t>Plasmodium asexual stages, by microscopy result, 2nd</t>
-  </si>
-  <si>
-    <t>Plasmodium asexual stages, by microscopy result, 3rd</t>
-  </si>
-  <si>
-    <t>Plasmodium gametocytes, by microscopy result</t>
-  </si>
-  <si>
-    <t>Plasmodium gametocytes, by microscopy result, 2nd</t>
-  </si>
-  <si>
-    <t>Plasmodium gametocytes, by microscopy result, 3rd</t>
-  </si>
-  <si>
-    <t>icemr_southernAfrica.owl</t>
-  </si>
-  <si>
-    <t>in other OWL files, the unit is /uL</t>
-  </si>
-  <si>
     <t>EFO_0004309</t>
   </si>
   <si>
-    <t>Platelet count</t>
-  </si>
-  <si>
-    <t>EUPATH_0024244</t>
-  </si>
-  <si>
-    <t>EUPATH_0024243</t>
-  </si>
-  <si>
-    <t>EUPATH_0023018</t>
-  </si>
-  <si>
-    <t>EUPATH_0024242</t>
-  </si>
-  <si>
-    <t>EUPATH_0024241</t>
-  </si>
-  <si>
-    <t>EUPATH_0000092</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/UO_0000179</t>
   </si>
   <si>
@@ -537,9 +327,6 @@
     <t>http://purl.obolibrary.org/obo/UO_0000275</t>
   </si>
   <si>
-    <t>correct</t>
-  </si>
-  <si>
     <t>/500 WBC</t>
   </si>
   <si>
@@ -549,84 +336,12 @@
     <t>http://purl.obolibrary.org/obo/UO_0000036</t>
   </si>
   <si>
-    <t>no IRI</t>
-  </si>
-  <si>
-    <t>Plasmodium falciparum, by qPCR</t>
-  </si>
-  <si>
-    <t>EUPATH_0022264|EUPATH_0022062</t>
-  </si>
-  <si>
-    <t>Plasmodium vivax, by qPCR</t>
-  </si>
-  <si>
-    <t>EUPATH_0022061|EUPATH_0022247</t>
-  </si>
-  <si>
-    <t>Primary occupation</t>
-  </si>
-  <si>
-    <t>EUPATH_0000366|EUPATH_0000350</t>
-  </si>
-  <si>
-    <t>Employment</t>
-  </si>
-  <si>
-    <t>Secondary occupation</t>
-  </si>
-  <si>
-    <t>EUPATH_0000367|EUPATH_0000355|EUPATH_0000351</t>
-  </si>
-  <si>
-    <t>EUPATH_0000377</t>
-  </si>
-  <si>
-    <t>Time living in dwelling | Years living in dwelling</t>
-  </si>
-  <si>
-    <t>gates_provide | icemr_amazoniaPeru_long</t>
-  </si>
-  <si>
-    <t>Time living in dwelling</t>
-  </si>
-  <si>
-    <t>Years living in dwelling</t>
-  </si>
-  <si>
-    <t>Used in icemr_amazoniaPeru_long.owl, under 'Participant'</t>
-  </si>
-  <si>
-    <t>Used in gates_provide.owl, under 'Relocation'</t>
-  </si>
-  <si>
-    <t>They may not be same. If so, shall we provide unitLabel and unitIRI for the term?</t>
-  </si>
-  <si>
-    <t>Years living in dwelling|Time living in dwelling</t>
-  </si>
-  <si>
-    <t>Relocation|Participant</t>
-  </si>
-  <si>
     <t>copies/rxn</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/EUPATH_0022272</t>
   </si>
   <si>
-    <t>days/week</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C170633</t>
-  </si>
-  <si>
-    <t>hrs/day</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C176380</t>
-  </si>
-  <si>
     <t>m2</t>
   </si>
   <si>
@@ -639,15 +354,9 @@
     <t>http://purl.obolibrary.org/obo/EUPATH_0022271</t>
   </si>
   <si>
-    <t>See comments on 'TermWithDifferentLabels'</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/EUPATH_0015721</t>
   </si>
   <si>
-    <t>-&gt; epg</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/EUPATH_0030176</t>
   </si>
   <si>
@@ -660,40 +369,1073 @@
     <t>epg</t>
   </si>
   <si>
-    <t>Assigned IDs to following units</t>
-  </si>
-  <si>
-    <t>change to Time living in dwelling with units years</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>EUPATH_0022264 should be "Plasmodium falciparum, by qPCR result" and be moved under 'Raw eukaryota data for blood' with unit "/uL"
-EUPATH_0022062 should be "Plasmodium falciparum copies, by qPCR", moved under 'Raw eukaryota data for blood", with unit "/rxn"</t>
-  </si>
-  <si>
-    <t>EUPATH_0022247 should be "Plasmodium vivax, by qPCR result" and be moved under 'Raw eukaryota data for blood' with unit "/uL"
-EUPATH_0022061 should be "Plasmodium vivax copies, by qPCR", moved under 'Raw eukaryota data for blood", with unit "/rxn"</t>
-  </si>
-  <si>
-    <t>should be under Relocation</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>For EUPATH_0000350, change label to "Time spent in occupation every week" with units "days", for EUPATH_0000366 - change label to "Time spent in occupation every day" with unit "hrs"</t>
-  </si>
-  <si>
-    <t>For EUPATH_0000351, change label to "Time spent in secoondary occupation every week" with unit "days", for EUPATH_0000367 - change label to "Time spent in secondary occupation every day" with unit "hrs", and leave label for EUPATH_0000355 as is</t>
+    <t>Platelet count | Platelets</t>
+  </si>
+  <si>
+    <t>icemr_india_gujarat | icemr_southAsia | gates_elicit | general/general_promote | gates_sip</t>
+  </si>
+  <si>
+    <t>EFO_0004348</t>
+  </si>
+  <si>
+    <t>Hematocrit | Hematocrit (%)</t>
+  </si>
+  <si>
+    <t>icemr_india_gujarat | icemr_southAsia | gates_elicit | gates_sip | gates_provide</t>
+  </si>
+  <si>
+    <t>EUPATH_0000019</t>
+  </si>
+  <si>
+    <t>Persons living in house | Persons living in house count</t>
+  </si>
+  <si>
+    <t>gates_gems_huas | icemr_indian_cx | icemr_prism2_border_cohort | gates_gems1a | icemr_amazoniaBrazil | gates_gems | gates_vida | gates_elicit | icemr_malawi | gates_vida_hucs_kenya | icemr_prism2 | icemr_meghalaya | icemr_india_behavior | icemr_prism | gates_provide | gates_llineup | gates_vida_hucs_gambia_mali | icemr_indian</t>
+  </si>
+  <si>
+    <t>EUPATH_0000025</t>
+  </si>
+  <si>
+    <t>Sleeping rooms in dwelling | Sleeping rooms in dwelling count</t>
+  </si>
+  <si>
+    <t>gates_gems_huas | icemr_prism2_border_cohort | gates_gems1a | gates_gems | gates_vida | general/general_promote | icemr_prism2 | icemr_amazoniaPeru_long | icemr_prism | gates_llineup</t>
+  </si>
+  <si>
+    <t>EUPATH_0000378</t>
+  </si>
+  <si>
+    <t>Years living in settlement | Time living in settlement</t>
+  </si>
+  <si>
+    <t>icemr_amazoniaBrazil | icemr_amazoniaPeru_long</t>
+  </si>
+  <si>
+    <t>EUPATH_0000426</t>
+  </si>
+  <si>
+    <t>Malaria diagnoses in the past year | Malaria diagnoses in the past year count</t>
+  </si>
+  <si>
+    <t>icemr_india_gujarat | icemr_indian_cx | icemr_india_feverSurv | icemr_meghalaya | icemr_india_behavior | icemr_indian</t>
+  </si>
+  <si>
+    <t>EUPATH_0000714</t>
+  </si>
+  <si>
+    <t>Persons sleeping in dwelling | Persons sleeping in dwelling count</t>
+  </si>
+  <si>
+    <t>gates_gems1a | gates_gems | gates_vida | icemr_malawi | gates_provide | gates_llineup</t>
+  </si>
+  <si>
+    <t>EUPATH_0010135</t>
+  </si>
+  <si>
+    <t>Water trips daily | Water trips daily count</t>
+  </si>
+  <si>
+    <t>gates_gems1a | gates_gems | gates_vida</t>
+  </si>
+  <si>
+    <t>EUPATH_0010137</t>
+  </si>
+  <si>
+    <t>Water trips weekly | Water trips weekly count</t>
+  </si>
+  <si>
+    <t>EUPATH_0010232</t>
+  </si>
+  <si>
+    <t>Children under 60 months in dwelling | Children under 60 months in dwelling count</t>
+  </si>
+  <si>
+    <t>gates_gems_huas | gates_gems1a | gates_gems | gates_vida</t>
+  </si>
+  <si>
+    <t>EUPATH_0010236</t>
+  </si>
+  <si>
+    <t>Households sharing human waste disposal facility | Households sharing human waste disposal facility count</t>
+  </si>
+  <si>
+    <t>EUPATH_0010240</t>
+  </si>
+  <si>
+    <t>Max loose stools at episode | Max loose stools at episode count</t>
+  </si>
+  <si>
+    <t>gates_gems_huas | gates_gems1a | gates_gems | gates_vida | icemr_southernAfrica | gates_gems1a_huas | gates_vida_hucs_kenya | gates_provide | gates_vida_hucs_gambia_mali</t>
+  </si>
+  <si>
+    <t>EUPATH_0010243</t>
+  </si>
+  <si>
+    <t>Pharmacy, medical expenses | Pharmacy, medical expenses amount</t>
+  </si>
+  <si>
+    <t>gates_gems_huas | gates_gems1a | gates_gems</t>
+  </si>
+  <si>
+    <t>EUPATH_0010244</t>
+  </si>
+  <si>
+    <t>Pharmacy, transport expenses | Pharmacy, transport expenses amount</t>
+  </si>
+  <si>
+    <t>EUPATH_0010245</t>
+  </si>
+  <si>
+    <t>Traditional healer, medical expenses | Traditional healer, medical expenses amount</t>
+  </si>
+  <si>
+    <t>gates_gems1a | gates_gems</t>
+  </si>
+  <si>
+    <t>EUPATH_0010246</t>
+  </si>
+  <si>
+    <t>Traditional healer, transport expenses | Traditional healer, transport expenses amount</t>
+  </si>
+  <si>
+    <t>EUPATH_0010247</t>
+  </si>
+  <si>
+    <t>Unlicensed doctor, total expenses | Unlicensed doctor, medical expenses amount</t>
+  </si>
+  <si>
+    <t>EUPATH_0010248</t>
+  </si>
+  <si>
+    <t>Unlicensed doctor, transport expenses | Unlicensed doctor, transport expenses amount</t>
+  </si>
+  <si>
+    <t>EUPATH_0010249</t>
+  </si>
+  <si>
+    <t>Licensed doctor, medical expenses | Licensed doctor, medical expenses amount</t>
+  </si>
+  <si>
+    <t>EUPATH_0010250</t>
+  </si>
+  <si>
+    <t>Licensed doctor, transport expenses | Licensed doctor, transport expenses amount</t>
+  </si>
+  <si>
+    <t>EUPATH_0010251</t>
+  </si>
+  <si>
+    <t>Bought remedy or medicine, medical expenses | Bought remedy or medicine, medical expenses amount</t>
+  </si>
+  <si>
+    <t>EUPATH_0010252</t>
+  </si>
+  <si>
+    <t>Bought remedy or medicine, transport expenses | Bought remedy or medicine, transport expenses amount</t>
+  </si>
+  <si>
+    <t>EUPATH_0010253</t>
+  </si>
+  <si>
+    <t>1st choice hospital or health center, total expenses | 1st choice hospital or health center, medical expenses amount</t>
+  </si>
+  <si>
+    <t>EUPATH_0010254</t>
+  </si>
+  <si>
+    <t>1st choice hospital or health center, transport expenses | 1st choice hospital or health center, transport expenses amount</t>
+  </si>
+  <si>
+    <t>EUPATH_0010255</t>
+  </si>
+  <si>
+    <t>2nd choice hospital or health center, total expenses | 2nd choice hospital or health center, medical expenses amount</t>
+  </si>
+  <si>
+    <t>EUPATH_0010256</t>
+  </si>
+  <si>
+    <t>2nd choice hospital or health center, transport expenses | 2nd choice hospital or health center, transport expenses amount</t>
+  </si>
+  <si>
+    <t>EUPATH_0010257</t>
+  </si>
+  <si>
+    <t>3rd choice hospital or health center, total expenses | 3rd choice hospital or health center, medical expenses amount</t>
+  </si>
+  <si>
+    <t>EUPATH_0010258</t>
+  </si>
+  <si>
+    <t>3rd choice hospital or health center, transport expenses | 3rd choice hospital or health center, transport expenses amount</t>
+  </si>
+  <si>
+    <t>EUPATH_0010260</t>
+  </si>
+  <si>
+    <t>Previously sought care other expenses (amount) | Other medical expenses amount</t>
+  </si>
+  <si>
+    <t>EUPATH_0010261</t>
+  </si>
+  <si>
+    <t>Other transportation expenses | Other transportation expenses amount</t>
+  </si>
+  <si>
+    <t>EUPATH_0010263</t>
+  </si>
+  <si>
+    <t>Amount paid for initial transportation to clinic | Payment for initial transportation to clinic amount</t>
+  </si>
+  <si>
+    <t>EUPATH_0010264</t>
+  </si>
+  <si>
+    <t>Amount paid for trips to clinic after initial visit | Payment for trips to clinic after initial visit amount</t>
+  </si>
+  <si>
+    <t>EUPATH_0010265</t>
+  </si>
+  <si>
+    <t>Amount paid for transportation by other household members | Payment for transportation by other household members amount</t>
+  </si>
+  <si>
+    <t>EUPATH_0010266</t>
+  </si>
+  <si>
+    <t>Hospitalization or visit, consultation expenses | Hospitalization or visit, consultation expenses amount</t>
+  </si>
+  <si>
+    <t>EUPATH_0010267</t>
+  </si>
+  <si>
+    <t>Hospitalization or visit, drug expenses | Hospitalization or visit, drug expenses amount</t>
+  </si>
+  <si>
+    <t>EUPATH_0010268</t>
+  </si>
+  <si>
+    <t>Hospitalization or visit, diagnostic expenses | Hospitalization or visit, diagnostic expenses amount</t>
+  </si>
+  <si>
+    <t>EUPATH_0010269</t>
+  </si>
+  <si>
+    <t>Hospitalization or visit, food expenses | Hospitalization or visit, food expenses amount</t>
+  </si>
+  <si>
+    <t>EUPATH_0010270</t>
+  </si>
+  <si>
+    <t>Hospitalization or visit, other expenses (amount) | Hospitalization or visit, other expenses amount</t>
+  </si>
+  <si>
+    <t>EUPATH_0010271</t>
+  </si>
+  <si>
+    <t>Hospitalization or visit, other expenses | Hospitalization or visit, other expense type</t>
+  </si>
+  <si>
+    <t>EUPATH_0010272</t>
+  </si>
+  <si>
+    <t>Hospitalization or visit, total expenses | Hospitalization or visit, total expenses amount</t>
+  </si>
+  <si>
+    <t>EUPATH_0010275</t>
+  </si>
+  <si>
+    <t>Other lost earnings | Lost earnings due to care, other caregivers</t>
+  </si>
+  <si>
+    <t>EUPATH_0010276</t>
+  </si>
+  <si>
+    <t>Amount other lost earnings | Amount earnings lost due to care, other caregivers</t>
+  </si>
+  <si>
+    <t>EUPATH_0010277</t>
+  </si>
+  <si>
+    <t>Income days lost while seeking care | Earning time lost due to care</t>
+  </si>
+  <si>
+    <t>EUPATH_0010278</t>
+  </si>
+  <si>
+    <t>Other caregivers income days lost while seeking care | Earning time lost due to care, other caregivers</t>
+  </si>
+  <si>
+    <t>EUPATH_0011161</t>
+  </si>
+  <si>
+    <t>Anemia (hemoglobin &lt; 11 g/dL) | Anemia (hemoglobin &lt;11 g/dL)</t>
+  </si>
+  <si>
+    <t>icemr_prism2_border_cohort | icemr_prism2 | gates_llineup</t>
+  </si>
+  <si>
+    <t>EUPATH_0015341</t>
+  </si>
+  <si>
+    <t>Campylobacter jejuni or C. coli, by TAC result | Campylobacter jejuni or E. coli, by TAC result</t>
+  </si>
+  <si>
+    <t>gates_gems | gates_vida | gates_provide</t>
+  </si>
+  <si>
+    <t>EUPATH_0015669</t>
+  </si>
+  <si>
+    <t>Diarrhea treament | Diarrhea treatment</t>
+  </si>
+  <si>
+    <t>gates_gems_huas | gates_gems1a_huas | gates_vida_hucs_kenya | gates_provide | gates_vida_hucs_gambia_mali</t>
+  </si>
+  <si>
+    <t>EUPATH_0020209</t>
+  </si>
+  <si>
+    <t>Anemia (hemoglobin &lt; 10 g/dL) | Anemia (hemoglobin &lt;10 g/dL)</t>
+  </si>
+  <si>
+    <t>icemr_prism2 | gates_llineup</t>
+  </si>
+  <si>
+    <t>EUPATH_0022247</t>
+  </si>
+  <si>
+    <t>Plasmodium vivax, by qPCR | Plasmodium vivax, by qPCR result</t>
+  </si>
+  <si>
+    <t>EUPATH_0022264</t>
+  </si>
+  <si>
+    <t>Plasmodium falciparum, by qPCR | Plasmodium falciparum, by qPCR result</t>
+  </si>
+  <si>
+    <t>EUPATH_0030018</t>
+  </si>
+  <si>
+    <t>Percent school-age children treated in village | School-age children treated in village (%)</t>
+  </si>
+  <si>
+    <t>gates_scoreMoz | gates_scoreCrosssect | gates_scoreNig</t>
+  </si>
+  <si>
+    <t>EUPATH_0030021</t>
+  </si>
+  <si>
+    <t>Percent total population treated in village | Total population treated in village (%)</t>
+  </si>
+  <si>
+    <t>EUPATH_0030024</t>
+  </si>
+  <si>
+    <t>Mean Schistosoma mansoni count by microscopy | Mean Schistosoma mansoni count, by microscopy</t>
+  </si>
+  <si>
+    <t>gates_scoreCrosssect | gates_scoreSmCohort</t>
+  </si>
+  <si>
+    <t>EUPATH_0030124</t>
+  </si>
+  <si>
+    <t>Schistosoma haematobium eggs count, by microscopy | Schistosoma haematobium egg count, by microscopy | Schistosoma haematobium, by microscopy</t>
+  </si>
+  <si>
+    <t>gates_scoreMoz | gates_scoreSeasonal | gates_scoreNig | gates_scoreFiveCountry | gates_scoreZanzibar</t>
+  </si>
+  <si>
+    <t>EUPATH_0030145</t>
+  </si>
+  <si>
+    <t>School ID | School Id</t>
+  </si>
+  <si>
+    <t>gates_scoreBurundi | gates_scoreRwanda | gates_scoreFiveCountry</t>
+  </si>
+  <si>
+    <t>EUPATH_0030157</t>
+  </si>
+  <si>
+    <t>Schistosoma mansoni, by CCA | Schistosoma mansoni infection, by CCA</t>
+  </si>
+  <si>
+    <t>EUPATH_0031299</t>
+  </si>
+  <si>
+    <t>Date of onset of diarrhea | Diarrhea onset date</t>
+  </si>
+  <si>
+    <t>gates_vida | gates_provide</t>
+  </si>
+  <si>
+    <t>EUPATH_0032049</t>
+  </si>
+  <si>
+    <t>O2 saturation | O2 saturation (%)</t>
+  </si>
+  <si>
+    <t>icemr_india_gujarat | icemr_prism2_border_cohort | gates_perch | gates_sip</t>
+  </si>
+  <si>
+    <t>EUPATH_0042172</t>
+  </si>
+  <si>
+    <t>Low birth weight (&lt;2500 gms) | Low birth weight (&lt;2500 g)</t>
+  </si>
+  <si>
+    <t>gates_elicit | general/general_promote</t>
+  </si>
+  <si>
+    <t>EUPATH_0010035</t>
+  </si>
+  <si>
+    <t>Administrative information</t>
+  </si>
+  <si>
+    <t>Participant|Participant study details</t>
+  </si>
+  <si>
+    <t>gates_gamin | gates_gems_huas | gates_gems1a | gates_gems | gates_vida | gates_elicit | gates_gems1a_huas | gates_perch | icemr_malawi | general/general_promote | gates_vida_hucs_kenya | gates_sip | icemr_southeastAsia | icemr_prism2 | icemr_meghalaya | icemr_amazoniaPeru_long | icemr_india_behavior | gates_provide | gates_scoreNig | gates_scoreZanzibar | gates_llineup | gates_vida_hucs_gambia_mali | gates_scoreSmCohort</t>
+  </si>
+  <si>
+    <t>EUPATH_0025053</t>
+  </si>
+  <si>
+    <t>Anopheles results</t>
+  </si>
+  <si>
+    <t>Entomology|Entomology collection</t>
+  </si>
+  <si>
+    <t>icemr_prism2_border_cohort | icemr_malawi | icemr_prism2 | icemr_prism | gates_llineup</t>
+  </si>
+  <si>
+    <t>NCIT_C64593</t>
+  </si>
+  <si>
+    <t>Bed time</t>
+  </si>
+  <si>
+    <t>Activity|Sleeping habits</t>
+  </si>
+  <si>
+    <t>icemr_prism2_border_cohort | icemr_amazoniaBrazil | icemr_prism2 | icemr_meghalaya | icemr_india_behavior</t>
+  </si>
+  <si>
+    <t>EUPATH_0033155</t>
+  </si>
+  <si>
+    <t>Case-control sub-classification</t>
+  </si>
+  <si>
+    <t>Participant study details|Participant</t>
+  </si>
+  <si>
+    <t>gates_gems1a | gates_perch</t>
+  </si>
+  <si>
+    <t>EUPATH_0010111</t>
+  </si>
+  <si>
+    <t>Chlorine test result</t>
+  </si>
+  <si>
+    <t>Drinking water treatment|Household water</t>
+  </si>
+  <si>
+    <t>EUPATH_0010398</t>
+  </si>
+  <si>
+    <t>Chlorine treatment brand</t>
+  </si>
+  <si>
+    <t>EUPATH_0044160</t>
+  </si>
+  <si>
+    <t>Crowding</t>
+  </si>
+  <si>
+    <t>Assets|Socioeconomic factors</t>
+  </si>
+  <si>
+    <t>gates_elicit | gates_llineup</t>
+  </si>
+  <si>
+    <t>EUPATH_0010981</t>
+  </si>
+  <si>
+    <t>Demographics</t>
+  </si>
+  <si>
+    <t>gates_gamin | icemr_india_gujarat | gates_gems_huas | icemr_indian_cx | icemr_prism2_border_cohort | gates_gems1a | icemr_amazoniaBrazil | general/general_umsp | gates_gems | icemr_southAsia | gates_scoreBurundi | gates_vida | gates_scoreMoz | gates_elicit | icemr_southernAfrica | gates_gems1a_huas | gates_perch | icemr_malawi | gates_scoreCrosssect | gates_scoreRwanda | general/general_promote | icemr_india_feverSurv | gates_vida_hucs_kenya | gates_sip | icemr_southeastAsia | icemr_prism2 | icemr_meghalaya | icemr_amazoniaPeru_long | icemr_india_behavior | gates_scoreSeasonal | icemr_prism | gates_provide | gates_scoreNig | gates_scoreFiveCountry | gates_scoreZanzibar | gates_llineup | gates_vida_hucs_gambia_mali | gates_scoreSmCohort | icemr_westAfrica | general/general_crompton | icemr_indian</t>
+  </si>
+  <si>
+    <t>EUPATH_0000700</t>
+  </si>
+  <si>
+    <t>Drinking water treatment method</t>
+  </si>
+  <si>
+    <t>gates_gems1a | icemr_amazoniaBrazil | gates_gems</t>
+  </si>
+  <si>
+    <t>EUPATH_0025170</t>
+  </si>
+  <si>
+    <t>Entomology collection</t>
+  </si>
+  <si>
+    <t>Entomology|Specimen collection</t>
+  </si>
+  <si>
+    <t>EUPATH_0021085</t>
+  </si>
+  <si>
+    <t>Household data collection date</t>
+  </si>
+  <si>
+    <t>Household observation details|Household</t>
+  </si>
+  <si>
+    <t>icemr_indian_cx | icemr_prism2_border_cohort | icemr_southernAfrica | icemr_malawi | general/general_promote | icemr_southeastAsia | icemr_prism2 | icemr_meghalaya | icemr_amazoniaPeru_long | icemr_india_behavior | gates_provide | gates_llineup | general/general_crompton | icemr_indian</t>
+  </si>
+  <si>
+    <t>EUPATH_0024219</t>
+  </si>
+  <si>
+    <t>Household knowledge</t>
+  </si>
+  <si>
+    <t>icemr_amazoniaBrazil | icemr_southernAfrica</t>
+  </si>
+  <si>
+    <t>EUPATH_0025075</t>
+  </si>
+  <si>
+    <t>Household visit status</t>
+  </si>
+  <si>
+    <t>Household|Household observation details</t>
+  </si>
+  <si>
+    <t>icemr_malawi | general/general_promote</t>
+  </si>
+  <si>
+    <t>EUPATH_0010037</t>
+  </si>
+  <si>
+    <t>Individuals related to participant</t>
+  </si>
+  <si>
+    <t>gates_gamin | gates_gems_huas | icemr_prism2_border_cohort | gates_gems1a | gates_gems | gates_vida | gates_elicit | icemr_southernAfrica | gates_gems1a_huas | icemr_malawi | gates_sip | icemr_southeastAsia | icemr_meghalaya | icemr_amazoniaPeru_long | icemr_india_behavior | gates_provide | gates_llineup | gates_vida_hucs_gambia_mali</t>
+  </si>
+  <si>
+    <t>Low birth weight (&lt;2500 g)|Low birth weight (&lt;2500 gms)</t>
+  </si>
+  <si>
+    <t>Obstetrics|Labor and delivery</t>
+  </si>
+  <si>
+    <t>EUPATH_0000310</t>
+  </si>
+  <si>
+    <t>Observation details</t>
+  </si>
+  <si>
+    <t>gates_gamin | icemr_india_gujarat | gates_gems_huas | icemr_indian_cx | icemr_prism2_border_cohort | gates_gems1a | icemr_amazoniaBrazil | general/general_umsp | gates_gems | icemr_southAsia | gates_scoreBurundi | gates_vida | gates_scoreMoz | gates_elicit | icemr_southernAfrica | gates_gems1a_huas | gates_perch | gates_scoreCrosssect | gates_scoreRwanda | general/general_promote | icemr_india_feverSurv | gates_vida_hucs_kenya | gates_sip | icemr_southeastAsia | icemr_prism2 | icemr_meghalaya | icemr_amazoniaPeru_long | icemr_india_behavior | gates_scoreSeasonal | icemr_prism | gates_provide | gates_scoreNig | gates_scoreFiveCountry | gates_scoreZanzibar | gates_llineup | gates_vida_hucs_gambia_mali | gates_scoreSmCohort | icemr_westAfrica | general/general_crompton | icemr_indian</t>
+  </si>
+  <si>
+    <t>BFO_0000015</t>
+  </si>
+  <si>
+    <t>Observation type</t>
+  </si>
+  <si>
+    <t>Observation details|Participant</t>
+  </si>
+  <si>
+    <t>icemr_india_gujarat | icemr_indian_cx | icemr_prism2_border_cohort | gates_gems1a | gates_vida | gates_perch | general/general_promote | icemr_india_feverSurv | gates_sip | icemr_southeastAsia | icemr_prism2 | icemr_meghalaya | icemr_prism | gates_provide | icemr_westAfrica | general/general_crompton | icemr_indian</t>
+  </si>
+  <si>
+    <t>EUPATH_0020163</t>
+  </si>
+  <si>
+    <t>Out of bed time</t>
+  </si>
+  <si>
+    <t>EUPATH_0021097</t>
+  </si>
+  <si>
+    <t>Personal vector intervention</t>
+  </si>
+  <si>
+    <t>icemr_india_gujarat | icemr_indian_cx | icemr_prism2_border_cohort | icemr_amazoniaBrazil | icemr_southernAfrica | icemr_malawi | general/general_promote | icemr_prism2 | icemr_meghalaya | icemr_india_behavior | icemr_prism | gates_llineup | icemr_indian</t>
+  </si>
+  <si>
+    <t>Plasmodium falciparum, by qPCR result|Plasmodium falciparum, by qPCR</t>
+  </si>
+  <si>
+    <t>Plasmodium in blood|Raw eukaryota data for blood</t>
+  </si>
+  <si>
+    <t>Plasmodium vivax, by qPCR result|Plasmodium vivax, by qPCR</t>
+  </si>
+  <si>
+    <t>EUPATH_0010147</t>
+  </si>
+  <si>
+    <t>Preferred chlorine treatment brand</t>
+  </si>
+  <si>
+    <t>EUPATH_0010393</t>
+  </si>
+  <si>
+    <t>Previous diagnosis at 60 day follow-up visit</t>
+  </si>
+  <si>
+    <t>Participant|Clinical history</t>
+  </si>
+  <si>
+    <t>EUPATH_0000309</t>
+  </si>
+  <si>
+    <t>Signs and symptoms</t>
+  </si>
+  <si>
+    <t>gates_gamin | icemr_india_gujarat | gates_gems_huas | icemr_indian_cx | icemr_prism2_border_cohort | gates_gems1a | icemr_amazoniaBrazil | general/general_umsp | gates_gems | icemr_southAsia | gates_vida | icemr_southernAfrica | gates_gems1a_huas | gates_perch | icemr_malawi | general/general_promote | icemr_india_feverSurv | gates_vida_hucs_kenya | gates_sip | icemr_prism2 | icemr_meghalaya | icemr_amazoniaPeru_long | icemr_india_behavior | icemr_prism | gates_provide | gates_llineup | gates_vida_hucs_gambia_mali | icemr_westAfrica | general/general_crompton | icemr_indian</t>
+  </si>
+  <si>
+    <t>OBI_0001508</t>
+  </si>
+  <si>
+    <t>Study timepoint</t>
+  </si>
+  <si>
+    <t>Observation details|Participant study details</t>
+  </si>
+  <si>
+    <t>gates_gamin | icemr_amazoniaBrazil | gates_gems | gates_scoreMoz | gates_elicit | gates_scoreCrosssect | gates_vida_hucs_kenya | gates_scoreSeasonal | gates_scoreNig | gates_scoreZanzibar | gates_llineup | gates_scoreSmCohort</t>
+  </si>
+  <si>
+    <t>Time living in settlement|Years living in settlement</t>
+  </si>
+  <si>
+    <t>Participant|Relocation</t>
+  </si>
+  <si>
+    <t>EUPATH_0010401</t>
+  </si>
+  <si>
+    <t>Water treatment materials</t>
+  </si>
+  <si>
+    <t>gates_gems1a | gates_gems | gates_elicit</t>
+  </si>
+  <si>
+    <t>EUPATH_0015400</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Observation details|Participant study details|Participant</t>
+  </si>
+  <si>
+    <t>gates_gems_huas | gates_gems1a | gates_vida | gates_gems1a_huas | gates_perch | gates_vida_hucs_kenya | gates_vida_hucs_gambia_mali</t>
+  </si>
+  <si>
+    <t>EUPATH_0010367</t>
+  </si>
+  <si>
+    <t>Age group</t>
+  </si>
+  <si>
+    <t>gates_gems_huas | gates_gems1a | gates_gems | gates_vida | gates_gems1a_huas | gates_perch | gates_vida_hucs_kenya | gates_vida_hucs_gambia_mali</t>
+  </si>
+  <si>
+    <t>Age at follow-up</t>
+  </si>
+  <si>
+    <t>EUPATH_0031204|EUPATH_0031203</t>
+  </si>
+  <si>
+    <t>Participant study details</t>
+  </si>
+  <si>
+    <t>BMI</t>
+  </si>
+  <si>
+    <t>CMO_0000105|EUPATH_0000661</t>
+  </si>
+  <si>
+    <t>Anthropometry</t>
+  </si>
+  <si>
+    <t>Breastfeeding duration</t>
+  </si>
+  <si>
+    <t>EUPATH_0036396|EUPATH_0033152</t>
+  </si>
+  <si>
+    <t>Breastfeeding summary</t>
+  </si>
+  <si>
+    <t>Chills duration</t>
+  </si>
+  <si>
+    <t>EUPATH_0042171|EUPATH_0025018</t>
+  </si>
+  <si>
+    <t>Cough duration</t>
+  </si>
+  <si>
+    <t>EUPATH_0000156|EUPATH_0025165</t>
+  </si>
+  <si>
+    <t>Last personal bednet treatment</t>
+  </si>
+  <si>
+    <t>EUPATH_0024160|EUPATH_0025084</t>
+  </si>
+  <si>
+    <t>Respiratory rate, 2nd</t>
+  </si>
+  <si>
+    <t>EUPATH_0038714|EUPATH_0010097</t>
+  </si>
+  <si>
+    <t>Physical examination</t>
+  </si>
+  <si>
+    <t>Sodium</t>
+  </si>
+  <si>
+    <t>EUPATH_0021223|EUPATH_0049452</t>
+  </si>
+  <si>
+    <t>Blood test</t>
+  </si>
+  <si>
+    <t>Time in other home</t>
+  </si>
+  <si>
+    <t>EUPATH_0024015|EUPATH_0022187</t>
+  </si>
+  <si>
+    <t>Relocation details</t>
+  </si>
+  <si>
+    <t>Time owned personal bednet</t>
+  </si>
+  <si>
+    <t>EUPATH_0024266|EUPATH_0025148</t>
+  </si>
+  <si>
+    <t>Time since last malaria diagnosis</t>
+  </si>
+  <si>
+    <t>EUPATH_0000427|EUPATH_0022102</t>
+  </si>
+  <si>
+    <t>Clinical history</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>IAO_0000414|EUPATH_0000732</t>
+  </si>
+  <si>
+    <t>Time at current location</t>
+  </si>
+  <si>
+    <t>EUPATH_0024002|EUPATH_0025147</t>
+  </si>
+  <si>
+    <t>variable, derived|variable</t>
+  </si>
+  <si>
+    <t>Household relocation</t>
+  </si>
+  <si>
+    <t>OBI_0001169|EUPATH_0015400|EUPATH_0000579</t>
+  </si>
+  <si>
+    <t>variable, derived|variable|variable,derived</t>
+  </si>
+  <si>
+    <t>Observation details|Participant|Participant study details</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>ENVO_00000004|OBI_0001627|ENVO_00000009</t>
+  </si>
+  <si>
+    <t>variable|variable, derived|variable,derived|derived</t>
+  </si>
+  <si>
+    <t>Geographic location</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000187</t>
+  </si>
+  <si>
+    <t>icemr_india_gujarat</t>
+  </si>
+  <si>
+    <t>gates_gamin | icemr_india_gujarat | icemr_indian_cx | icemr_prism2_border_cohort | gates_gems1a | gates_gems | icemr_southAsia | gates_vida | icemr_southernAfrica | gates_perch | icemr_malawi | general/general_promote | icemr_india_feverSurv | gates_sip | icemr_southeastAsia | icemr_prism2 | icemr_meghalaya | icemr_amazoniaPeru_long | icemr_prism | gates_provide | icemr_westAfrica | general/general_crompton | icemr_indian</t>
+  </si>
+  <si>
+    <t>L/min</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C67388</t>
+  </si>
+  <si>
+    <t>gates_sip</t>
+  </si>
+  <si>
+    <t>icemr_india_gujarat | icemr_prism2_border_cohort | icemr_southAsia | gates_perch | general/general_promote | gates_sip | icemr_prism2 | general/general_crompton</t>
+  </si>
+  <si>
+    <t>icemr_prism2_border_cohort | gates_gems1a | gates_gems | icemr_southAsia | gates_vida | gates_perch | general/general_promote | gates_sip | icemr_prism2 | general/general_crompton</t>
+  </si>
+  <si>
+    <t>gates_gamin | icemr_india_gujarat | icemr_indian_cx | icemr_prism2_border_cohort | gates_gems1a | general/general_umsp | gates_gems | gates_vida | gates_elicit | gates_perch | general/general_promote | icemr_india_feverSurv | gates_sip | icemr_prism2 | icemr_meghalaya | icemr_prism | gates_provide | gates_scoreSmCohort | general/general_crompton | icemr_indian</t>
+  </si>
+  <si>
+    <t>copies/mL</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C100900</t>
+  </si>
+  <si>
+    <t>gates_perch</t>
+  </si>
+  <si>
+    <t>icemr_amazoniaPeru_long</t>
+  </si>
+  <si>
+    <t>gates_scoreMoz | gates_scoreCrosssect | gates_scoreSeasonal | gates_scoreNig</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000021</t>
+  </si>
+  <si>
+    <t>gates_gems1a | gates_vida</t>
+  </si>
+  <si>
+    <t>icemr_india_gujarat | icemr_indian_cx | icemr_prism2_border_cohort | icemr_amazoniaBrazil | icemr_southAsia | gates_elicit | icemr_southernAfrica | gates_perch | general/general_promote | icemr_india_feverSurv | gates_sip | icemr_prism2 | icemr_meghalaya | icemr_prism | gates_llineup | gates_scoreSmCohort | icemr_westAfrica | general/general_crompton | icemr_indian</t>
+  </si>
+  <si>
+    <t>gates_sip | icemr_amazoniaPeru_long | gates_provide</t>
+  </si>
+  <si>
+    <t>gates_gamin | icemr_india_gujarat | icemr_indian_cx | icemr_prism2_border_cohort | gates_gems1a | icemr_amazoniaBrazil | general/general_umsp | gates_gems | gates_vida | gates_elicit | icemr_southernAfrica | gates_perch | general/general_promote | icemr_india_feverSurv | gates_sip | icemr_prism2 | icemr_meghalaya | icemr_prism | gates_provide | gates_scoreSmCohort | icemr_westAfrica | general/general_crompton | icemr_indian</t>
+  </si>
+  <si>
+    <t>gates_gems1a | gates_gems | gates_vida | gates_provide</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000008</t>
+  </si>
+  <si>
+    <t>icemr_malawi</t>
+  </si>
+  <si>
+    <t>mEq/L</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C67474</t>
+  </si>
+  <si>
+    <t>gates_gems1a | gates_gems | gates_sip | gates_provide | general/general_crompton</t>
+  </si>
+  <si>
+    <t>gates_perch | gates_provide</t>
+  </si>
+  <si>
+    <t>gates_perch | gates_sip | icemr_meghalaya | icemr_india_behavior | gates_provide</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000016</t>
+  </si>
+  <si>
+    <t>mm/hr</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C67419</t>
+  </si>
+  <si>
+    <t>icemr_india_gujarat | icemr_indian_cx | icemr_prism2_border_cohort | icemr_southAsia | general/general_promote | icemr_india_feverSurv | gates_sip | icemr_prism2 | general/general_crompton | icemr_indian</t>
+  </si>
+  <si>
+    <t>gates_gems_huas | gates_gems1a | icemr_amazoniaBrazil | gates_gems | gates_vida | gates_elicit | icemr_southernAfrica | gates_gems1a_huas | gates_perch | icemr_malawi | general/general_promote | gates_vida_hucs_kenya | icemr_india_behavior | gates_vida_hucs_gambia_mali</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000028</t>
+  </si>
+  <si>
+    <t>general/general_promote</t>
+  </si>
+  <si>
+    <t>icemr_india_gujarat | gates_provide</t>
+  </si>
+  <si>
+    <t>sec</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000010</t>
+  </si>
+  <si>
+    <t>ug/dL</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C67326</t>
+  </si>
+  <si>
+    <t>general/general_promote | gates_sip | icemr_meghalaya | gates_provide</t>
+  </si>
+  <si>
+    <t>icemr_india_gujarat | icemr_southAsia | gates_elicit | gates_perch | general/general_promote | gates_sip | general/general_crompton</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/EUPATH_0024232|http://purl.obolibrary.org/obo/UO_0000316</t>
+  </si>
+  <si>
+    <t>gates_gamin | icemr_indian_cx | icemr_prism2_border_cohort | icemr_amazoniaBrazil | icemr_southAsia | icemr_malawi | general/general_promote | icemr_india_feverSurv | icemr_prism2 | icemr_amazoniaPeru_long | icemr_india_behavior | icemr_prism | gates_llineup | icemr_westAfrica | general/general_crompton | icemr_indian</t>
+  </si>
+  <si>
+    <t>IU/L</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C67376|http://purl.obolibrary.org/obo/UO_0000179</t>
+  </si>
+  <si>
+    <t>icemr_india_gujarat | general/general_promote</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000033|http://purl.obolibrary.org/obo/UO_0000036</t>
+  </si>
+  <si>
+    <t>gates_gamin | gates_gems_huas | icemr_indian_cx | icemr_prism2_border_cohort | gates_gems1a | icemr_amazoniaBrazil | gates_gems | gates_vida | gates_elicit | icemr_southernAfrica | gates_gems1a_huas | gates_perch | icemr_malawi | general/general_promote | icemr_india_feverSurv | gates_vida_hucs_kenya | gates_sip | icemr_prism2 | icemr_meghalaya | icemr_amazoniaPeru_long | icemr_india_behavior | icemr_prism | gates_provide | gates_llineup | gates_vida_hucs_gambia_mali | general/general_crompton | icemr_indian</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/EUPATH_0030176|http://purl.obolibrary.org/obo/EUPATH_0030168</t>
+  </si>
+  <si>
+    <t>gates_scoreBurundi | gates_scoreCrosssect | gates_scoreRwanda | gates_scoreFiveCountry | gates_scoreSmCohort</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/EUPATH_0020260|http://purl.obolibrary.org/obo/EUPATH_0020269</t>
+  </si>
+  <si>
+    <t>icemr_prism2_border_cohort | general/general_promote | icemr_prism2 | icemr_india_behavior | gates_llineup</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C64387|http://purl.obolibrary.org/obo/UO_0010003</t>
+  </si>
+  <si>
+    <t>icemr_india_gujarat | icemr_southAsia</t>
+  </si>
+  <si>
+    <t>per 10 ml urine</t>
+  </si>
+  <si>
+    <t>gates_scoreMoz | gates_scoreSeasonal | gates_scoreNig | gates_scoreZanzibar</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C67327|http://purl.obolibrary.org/obo/EUPATH_0036572</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000036|http://purl.obolibrary.org/obo/UO_0000033</t>
+  </si>
+  <si>
+    <t>gates_gamin | icemr_india_gujarat | icemr_indian_cx | icemr_prism2_border_cohort | icemr_amazoniaBrazil | general/general_umsp | icemr_southAsia | gates_scoreBurundi | gates_scoreMoz | gates_elicit | icemr_southernAfrica | gates_scoreCrosssect | gates_scoreRwanda | general/general_promote | icemr_india_feverSurv | gates_sip | icemr_prism2 | icemr_meghalaya | icemr_amazoniaPeru_long | icemr_india_behavior | gates_scoreSeasonal | icemr_prism | gates_provide | gates_scoreNig | gates_scoreFiveCountry | gates_scoreZanzibar | gates_llineup | gates_scoreSmCohort | icemr_westAfrica | general/general_crompton | icemr_indian</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C67015|http://www.ebi.ac.uk/efo/EFO_0004374|http://purl.obolibrary.org/obo/UO_0010003</t>
+  </si>
+  <si>
+    <t>icemr_india_gujarat | icemr_southAsia | gates_sip</t>
+  </si>
+  <si>
+    <t>http://www.ebi.ac.uk/efo/EFO_0004374|http://purl.obolibrary.org/obo/NCIT_C67015|http://purl.obolibrary.org/obo/UO_0010003|http://purl.obolibrary.org/obo/NCIT_C64387</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/EUPATH_0020260</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C67376</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C67015</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C67327</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/EUPATH_0030168</t>
+  </si>
+  <si>
+    <t>general_promote</t>
+  </si>
+  <si>
+    <t>gates_llineup</t>
+  </si>
+  <si>
+    <t>icemr_india_behavior</t>
+  </si>
+  <si>
+    <t>icemr_prism2_border_cohort</t>
+  </si>
+  <si>
+    <t>icemr_prism2</t>
+  </si>
+  <si>
+    <t>consider move to the label</t>
+  </si>
+  <si>
+    <t>may consider using EUPATH_0020269, so only need to change it in two other studies</t>
+  </si>
+  <si>
+    <t>need discuss in ontology team which external ontology should use</t>
+  </si>
+  <si>
+    <t>consider changing to http://purl.obolibrary.org/obo/NCIT_C67327</t>
+  </si>
+  <si>
+    <t>gates_scoreFiveCountry</t>
+  </si>
+  <si>
+    <t>wrong IRI, need change to http://purl.obolibrary.org/obo/UO_0000036</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -842,20 +1584,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="12"/>
-      <color rgb="FF808080"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1035,6 +1772,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1152,7 +1895,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1195,23 +1938,20 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1245,6 +1985,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1565,19 +2306,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="61.1640625" customWidth="1"/>
     <col min="4" max="4" width="56.83203125" customWidth="1"/>
-    <col min="5" max="5" width="55.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="55.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1596,42 +2337,829 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>94</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>186</v>
+        <v>116</v>
       </c>
       <c r="E2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>120</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>190</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>191</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>183</v>
+      </c>
+      <c r="D30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>185</v>
+      </c>
+      <c r="D31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>187</v>
+      </c>
+      <c r="D32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
         <v>188</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
         <v>189</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>190</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>191</v>
+      </c>
+      <c r="D34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>192</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>193</v>
+      </c>
+      <c r="D35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>195</v>
+      </c>
+      <c r="D36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>196</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>197</v>
+      </c>
+      <c r="D37" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>198</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>199</v>
+      </c>
+      <c r="D38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>200</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>201</v>
+      </c>
+      <c r="D39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>202</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>203</v>
+      </c>
+      <c r="D40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>204</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>205</v>
+      </c>
+      <c r="D41" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>206</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>208</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>209</v>
+      </c>
+      <c r="D43" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>210</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>211</v>
+      </c>
+      <c r="D44" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
         <v>212</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>136</v>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>213</v>
+      </c>
+      <c r="D45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>214</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>215</v>
+      </c>
+      <c r="D46" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>217</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>218</v>
+      </c>
+      <c r="D47" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>221</v>
+      </c>
+      <c r="D48" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>223</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>224</v>
+      </c>
+      <c r="D49" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>226</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>227</v>
+      </c>
+      <c r="D50" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>228</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>229</v>
+      </c>
+      <c r="D51" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>230</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>231</v>
+      </c>
+      <c r="D52" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>233</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>234</v>
+      </c>
+      <c r="D53" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>235</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>236</v>
+      </c>
+      <c r="D54" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>238</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>239</v>
+      </c>
+      <c r="D55" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>241</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>242</v>
+      </c>
+      <c r="D56" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>244</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>245</v>
+      </c>
+      <c r="D57" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>246</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>247</v>
+      </c>
+      <c r="D58" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>249</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>250</v>
+      </c>
+      <c r="D59" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>252</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>253</v>
+      </c>
+      <c r="D60" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -1642,10 +3170,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1654,137 +3182,298 @@
     <col min="3" max="3" width="48" customWidth="1"/>
     <col min="4" max="4" width="33.83203125" customWidth="1"/>
     <col min="5" max="5" width="39.1640625" customWidth="1"/>
-    <col min="6" max="6" width="75.1640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="75.1640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="184" customHeight="1">
-      <c r="A2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="66" customHeight="1">
+        <v>346</v>
+      </c>
+      <c r="F2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>347</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>348</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="51">
+        <v>349</v>
+      </c>
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>350</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>351</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>181</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="68">
-      <c r="A5" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B5" s="7">
+        <v>352</v>
+      </c>
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>326</v>
+      </c>
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>358</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>360</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>361</v>
+      </c>
+      <c r="F8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>364</v>
+      </c>
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>365</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>366</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>367</v>
+      </c>
+      <c r="F10"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>368</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>369</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>315</v>
+      </c>
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>370</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>371</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>372</v>
+      </c>
+      <c r="F12"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>373</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>374</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>349</v>
+      </c>
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>375</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>376</v>
+      </c>
+      <c r="D14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E14" t="s">
+        <v>378</v>
+      </c>
+      <c r="F14"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>338</v>
+      </c>
+      <c r="B15">
         <v>3</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="4"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="4"/>
-      <c r="D16" s="5"/>
+      <c r="C15" t="s">
+        <v>379</v>
+      </c>
+      <c r="D15" t="s">
+        <v>380</v>
+      </c>
+      <c r="E15" t="s">
+        <v>381</v>
+      </c>
+      <c r="F15"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>382</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>383</v>
+      </c>
+      <c r="D16" t="s">
+        <v>384</v>
+      </c>
+      <c r="E16" t="s">
+        <v>385</v>
+      </c>
+      <c r="F16"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1"/>
@@ -1793,60 +3482,60 @@
       <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="4"/>
+      <c r="A19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="E23" s="5"/>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="E24" s="5"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="E25" s="5"/>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="E26" s="5"/>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="E27" s="5"/>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="E28" s="5"/>
+      <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="E29" s="5"/>
+      <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="E30" s="5"/>
+      <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="E31" s="5"/>
+      <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="E32" s="5"/>
+      <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="E33" s="5"/>
+      <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="E34" s="5"/>
+      <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="E35" s="5"/>
+      <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="3"/>
+      <c r="A36" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1856,67 +3545,527 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="C11" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" customWidth="1"/>
-    <col min="4" max="4" width="52.6640625" customWidth="1"/>
-    <col min="5" max="5" width="33" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="34.5" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>255</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>256</v>
       </c>
       <c r="D2" t="s">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="E2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="G2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>263</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>283</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>286</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>287</v>
+      </c>
+      <c r="D11" t="s">
+        <v>288</v>
+      </c>
+      <c r="E11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>289</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>290</v>
+      </c>
+      <c r="D12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>293</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>294</v>
+      </c>
+      <c r="D13" t="s">
+        <v>257</v>
+      </c>
+      <c r="E13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>297</v>
+      </c>
+      <c r="D14" t="s">
+        <v>298</v>
+      </c>
+      <c r="E14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>301</v>
+      </c>
+      <c r="D15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>252</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>303</v>
+      </c>
+      <c r="D16" t="s">
+        <v>304</v>
+      </c>
+      <c r="E16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>305</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>306</v>
+      </c>
+      <c r="D17" t="s">
+        <v>257</v>
+      </c>
+      <c r="E17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>308</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D18" t="s">
+        <v>310</v>
+      </c>
+      <c r="E18" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>312</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>313</v>
+      </c>
+      <c r="D19" t="s">
+        <v>265</v>
+      </c>
+      <c r="E19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>314</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>315</v>
+      </c>
+      <c r="D20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E20" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>228</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>317</v>
+      </c>
+      <c r="D21" t="s">
+        <v>318</v>
+      </c>
+      <c r="E21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>226</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>319</v>
+      </c>
+      <c r="D22" t="s">
+        <v>318</v>
+      </c>
+      <c r="E22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>320</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>321</v>
+      </c>
+      <c r="D23" t="s">
+        <v>273</v>
+      </c>
+      <c r="E23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>322</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>323</v>
+      </c>
+      <c r="D24" t="s">
+        <v>324</v>
+      </c>
+      <c r="E24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>325</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>326</v>
+      </c>
+      <c r="D25" t="s">
+        <v>257</v>
+      </c>
+      <c r="E25" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>328</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>329</v>
+      </c>
+      <c r="D26" t="s">
+        <v>330</v>
+      </c>
+      <c r="E26" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>332</v>
+      </c>
+      <c r="D27" t="s">
+        <v>333</v>
+      </c>
+      <c r="E27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>334</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>335</v>
+      </c>
+      <c r="D28" t="s">
+        <v>273</v>
+      </c>
+      <c r="E28" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>337</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>338</v>
+      </c>
+      <c r="D29" t="s">
+        <v>339</v>
+      </c>
+      <c r="E29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>341</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>342</v>
+      </c>
+      <c r="D30" t="s">
+        <v>339</v>
+      </c>
+      <c r="E30" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -1927,284 +4076,186 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84351FC9-A5B2-F24D-8B55-E6051DA9E552}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="42.83203125" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
     <col min="4" max="4" width="41.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>138</v>
-      </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>386</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>387</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="C3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>462</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>452</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>457</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>452</v>
+      </c>
       <c r="C5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="D6" s="6"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:7">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="G7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" t="s">
-        <v>153</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" t="s">
-        <v>153</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>454</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>387</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" t="s">
-        <v>153</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" t="s">
-        <v>153</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="B13" t="s">
-        <v>154</v>
-      </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:7">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>156</v>
+        <v>455</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" t="s">
-        <v>142</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>155</v>
-      </c>
-      <c r="B16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" t="s">
-        <v>143</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>170</v>
-      </c>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" t="s">
+        <v>466</v>
+      </c>
+      <c r="D17" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="D18" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2214,778 +4265,858 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="48" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="5"/>
+    <col min="3" max="3" width="76.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="4"/>
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>386</v>
       </c>
       <c r="D2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>20</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>21</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>24</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>29</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>389</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>390</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>40</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>395</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>396</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>400</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>401</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>407</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>408</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>398</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>410</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>411</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>387</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>412</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>413</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>415</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>416</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>397</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>417</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>418</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>387</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>136</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
+        <v>420</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>421</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>422</v>
       </c>
       <c r="D36" t="s">
-        <v>20</v>
+        <v>423</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
+        <v>424</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>425</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>101</v>
+        <v>426</v>
       </c>
       <c r="D40" t="s">
-        <v>35</v>
+        <v>391</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D41" t="s">
-        <v>104</v>
+        <v>398</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="D42" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>106</v>
+        <v>427</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>428</v>
       </c>
       <c r="D43" t="s">
-        <v>108</v>
+        <v>387</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="D44" t="s">
-        <v>111</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F44" t="s">
-        <v>136</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="D46" t="s">
-        <v>116</v>
+        <v>429</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>84</v>
+        <v>430</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="B48">
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>120</v>
+        <v>431</v>
       </c>
       <c r="D48" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="B49">
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>123</v>
+        <v>431</v>
       </c>
       <c r="D49" t="s">
-        <v>35</v>
+        <v>432</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>124</v>
+        <v>433</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>125</v>
+        <v>434</v>
       </c>
       <c r="D50" t="s">
-        <v>126</v>
+        <v>435</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>128</v>
+        <v>434</v>
       </c>
       <c r="D51" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>436</v>
+      </c>
+      <c r="D52" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>438</v>
+      </c>
+      <c r="D53" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>440</v>
+      </c>
+      <c r="D54" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>442</v>
+      </c>
+      <c r="D55" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>444</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>438</v>
+      </c>
+      <c r="D56" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>446</v>
+      </c>
+      <c r="D57" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>447</v>
+      </c>
+      <c r="D58" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>449</v>
+      </c>
+      <c r="D59" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60">
         <v>4</v>
       </c>
-      <c r="C52" t="s">
-        <v>131</v>
-      </c>
-      <c r="D52" t="s">
-        <v>20</v>
+      <c r="C60" t="s">
+        <v>451</v>
+      </c>
+      <c r="D60" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2996,461 +5127,532 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E96E553-B9B7-3A43-9A19-9B2DEFC1133B}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="2" width="47.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="52.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>395</v>
       </c>
       <c r="B9" t="s">
-        <v>205</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>196</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>207</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>400</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>198</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>199</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>433</v>
       </c>
       <c r="B20" t="s">
-        <v>167</v>
+        <v>453</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>200</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>201</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" t="s">
-        <v>69</v>
+      <c r="A24" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" t="s">
-        <v>144</v>
+      <c r="A25" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>389</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>407</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>408</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>410</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>411</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" t="s">
-        <v>83</v>
+      <c r="A31" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>119</v>
-      </c>
-      <c r="B32" t="s">
-        <v>168</v>
+      <c r="A32" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>169</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>202</v>
+        <v>415</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>416</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>417</v>
       </c>
       <c r="B38" t="s">
-        <v>209</v>
+        <v>418</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>165</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" t="s">
         <v>98</v>
-      </c>
-      <c r="B41" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>421</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>422</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>140</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>444</v>
       </c>
       <c r="B45" t="s">
-        <v>208</v>
+        <v>456</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>102</v>
-      </c>
-      <c r="B46" t="s">
-        <v>103</v>
+      <c r="A46" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>105</v>
-      </c>
-      <c r="B47" t="s">
-        <v>25</v>
+      <c r="A47" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="B48" t="s">
-        <v>173</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>425</v>
+      </c>
+      <c r="B49" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="B50" s="8"/>
+      <c r="A50" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>211</v>
+        <v>32</v>
+      </c>
+      <c r="B52" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>174</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>205</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D53" s="5"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>427</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>207</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="5"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>209</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D55" s="5"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>208</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="D56" s="5"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="D57" s="8"/>
+      <c r="A57" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B1074">
+    <sortCondition ref="A2:A1074"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
+++ b/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezheng/Documents/VEuPathDB-git/ApiCommonData/Load/ontology/harmonization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sshahsimpson/Documents/Git/ApiCommonData/Load/ontology/harmonization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BD4D11-6362-194A-9428-E7F9AE453077}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDC8ED8-F056-984E-8B2F-50ED991A8E54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="1240" windowWidth="24820" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6720" yWindow="4080" windowWidth="24820" windowHeight="13380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="termWithDifferentLabels" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,15 @@
     <sheet name="units" sheetId="4" r:id="rId5"/>
     <sheet name="unit list" sheetId="7" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">termWithDifferentParent!$A$1:$F$30</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="562">
   <si>
     <t>sid</t>
   </si>
@@ -1429,13 +1432,295 @@
   </si>
   <si>
     <t>wrong IRI, need change to http://purl.obolibrary.org/obo/UO_0000036</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Platelets</t>
+  </si>
+  <si>
+    <t>Hematocrit (%)</t>
+  </si>
+  <si>
+    <t>Persons living in house count</t>
+  </si>
+  <si>
+    <t>Sleeping rooms in dwelling count</t>
+  </si>
+  <si>
+    <t>Time living in settlement and put the unit as Years</t>
+  </si>
+  <si>
+    <t>Persons sleeping in dwelling count</t>
+  </si>
+  <si>
+    <t>Water trips per day</t>
+  </si>
+  <si>
+    <t>Water trips per week</t>
+  </si>
+  <si>
+    <t>Children under 60 months in dwelling count</t>
+  </si>
+  <si>
+    <t>Households sharing human waste disposal facility count</t>
+  </si>
+  <si>
+    <t>Max loose stools at episode count</t>
+  </si>
+  <si>
+    <t>Pharmacy, transport expenses amount</t>
+  </si>
+  <si>
+    <t>Traditional healer, transport expenses amount</t>
+  </si>
+  <si>
+    <t>Unlicensed doctor, total expenses amount</t>
+  </si>
+  <si>
+    <t>Unlicensed doctor, transport expenses amount</t>
+  </si>
+  <si>
+    <t>Licensed doctor, transport expenses amount</t>
+  </si>
+  <si>
+    <t>Bought remedy or medicine, transport expenses amount</t>
+  </si>
+  <si>
+    <t>1st choice hospital or health center, total expenses amount</t>
+  </si>
+  <si>
+    <t>Licensed doctor, total expenses amount</t>
+  </si>
+  <si>
+    <t>Pharmacy, total expenses amount</t>
+  </si>
+  <si>
+    <t>Traditional healer, total expenses amount</t>
+  </si>
+  <si>
+    <t>Bought remedy or medicine, total expenses amount</t>
+  </si>
+  <si>
+    <t>1st choice hospital or health center, transport expenses amount</t>
+  </si>
+  <si>
+    <t>2nd choice hospital or health center, total expenses amount</t>
+  </si>
+  <si>
+    <t>2nd choice hospital or health center, transport expenses amount</t>
+  </si>
+  <si>
+    <t>3rd choice hospital or health center, total expenses amount</t>
+  </si>
+  <si>
+    <t>3rd choice hospital or health center, transport expenses amount</t>
+  </si>
+  <si>
+    <t>Other total medical expenses amount</t>
+  </si>
+  <si>
+    <t>Other transportation expenses amount</t>
+  </si>
+  <si>
+    <t>Payment for initial transportation to clinic amount</t>
+  </si>
+  <si>
+    <t>Payment for trips to clinic after initial visit amount</t>
+  </si>
+  <si>
+    <t>Payment for transportation by other household members amount</t>
+  </si>
+  <si>
+    <t>Hospitalization or visit, consultation expenses amount</t>
+  </si>
+  <si>
+    <t>Hospitalization or visit, drug expenses amount</t>
+  </si>
+  <si>
+    <t>Hospitalization or visit, diagnostic expenses amount</t>
+  </si>
+  <si>
+    <t>Hospitalization or visit, food expenses amount</t>
+  </si>
+  <si>
+    <t>Hospitalization or visit, other expenses amount</t>
+  </si>
+  <si>
+    <t>Hospitalization or visit, other expenses</t>
+  </si>
+  <si>
+    <t>Hospitalization or visit, total expenses amount</t>
+  </si>
+  <si>
+    <t>Lost earnings due to care, other caregivers</t>
+  </si>
+  <si>
+    <t>Lost earnings due to care amount, other caregivers</t>
+  </si>
+  <si>
+    <t>Earning time lost due to care</t>
+  </si>
+  <si>
+    <t>Earning time lost due to care, other caregivers</t>
+  </si>
+  <si>
+    <t>Diarrhea treament</t>
+  </si>
+  <si>
+    <t>Anemia (hemoglobin &lt;11 g/dL)</t>
+  </si>
+  <si>
+    <t>Anemia (hemoglobin &lt;10 g/dL)</t>
+  </si>
+  <si>
+    <t>Plasmodium vivax, by qPCR result</t>
+  </si>
+  <si>
+    <t>Plasmodium falciparum, by qPCR result</t>
+  </si>
+  <si>
+    <t>School-age children treated in village (%)</t>
+  </si>
+  <si>
+    <t>Total population treated in village (%)</t>
+  </si>
+  <si>
+    <t>Mean Schistosoma mansoni count, by microscopy</t>
+  </si>
+  <si>
+    <t>EUPATH_0030133</t>
+  </si>
+  <si>
+    <t>Percent school-age children treated in village, second treatment</t>
+  </si>
+  <si>
+    <t>School-age children treated in village, second treatment (%)</t>
+  </si>
+  <si>
+    <t>gates_scoreNig</t>
+  </si>
+  <si>
+    <t>Percent total population treated in village, second treatment</t>
+  </si>
+  <si>
+    <t>Total population treated in village, second treatment (%)</t>
+  </si>
+  <si>
+    <t>EUPATH_0030135</t>
+  </si>
+  <si>
+    <t>Schistosoma haematobium egg count, by microscopy</t>
+  </si>
+  <si>
+    <t>School ID</t>
+  </si>
+  <si>
+    <t>Schistosoma mansoni, by CCA</t>
+  </si>
+  <si>
+    <t>Diarrhea onset date</t>
+  </si>
+  <si>
+    <t>O2 saturation (%)</t>
+  </si>
+  <si>
+    <t>Low birth weight (&lt;2500 g)</t>
+  </si>
+  <si>
+    <t>Malaria diagnoses in the past year count</t>
+  </si>
+  <si>
+    <t>Campylobacter jejuni or C. coli, by TAC result</t>
+  </si>
+  <si>
+    <t>CMO_0000105</t>
+  </si>
+  <si>
+    <t>EUPATH_0033152 - used to have 2 terms because of different units</t>
+  </si>
+  <si>
+    <t>EUPATH_0042171</t>
+  </si>
+  <si>
+    <t>EUPATH_0000156</t>
+  </si>
+  <si>
+    <t>EUPATH_0024160, and change label to "Time since last personal bednet treatment"</t>
+  </si>
+  <si>
+    <t>EUPATH_0010097</t>
+  </si>
+  <si>
+    <t>EUPATH_0022187 - used to have 2 terms because of different units</t>
+  </si>
+  <si>
+    <t>EUPATH_0021223 - used to have 2 terms because of different units</t>
+  </si>
+  <si>
+    <t>EUPATH_0024266</t>
+  </si>
+  <si>
+    <t>EUPATH_0000427 - used to have 2 terms because of different units</t>
+  </si>
+  <si>
+    <t>IAO_0000414</t>
+  </si>
+  <si>
+    <t>EUPATH_0024002</t>
+  </si>
+  <si>
+    <t>OBI_0001169</t>
+  </si>
+  <si>
+    <t>ENVO_00000004</t>
+  </si>
+  <si>
+    <t>drop end_age and EUPATH_0031204 entirely from VIDA</t>
+  </si>
+  <si>
+    <t>Participant</t>
+  </si>
+  <si>
+    <t>Entomology - although I believe we might be changing this label and IRI to Specimen collection</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Relocation</t>
+  </si>
+  <si>
+    <t>Household observation details</t>
+  </si>
+  <si>
+    <t>Household water</t>
+  </si>
+  <si>
+    <t>Socioeconomic factors</t>
+  </si>
+  <si>
+    <t>Labor and delivery</t>
+  </si>
+  <si>
+    <t>Raw eukaryota data for blood</t>
+  </si>
+  <si>
+    <t>Clinical history - also change label to "Diagnosis prior to 60 day follow-up visit"</t>
+  </si>
+  <si>
+    <t>Yes, for EFO_0004348, label should be Hematocrit (%) and for EUPATH_0032049 label should be O2 saturation (%) with no units</t>
+  </si>
+  <si>
+    <t>agree</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1940,7 +2225,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1950,6 +2235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2306,13 +2592,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
@@ -2321,7 +2607,7 @@
     <col min="5" max="5" width="55.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2334,8 +2620,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="E1" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -2348,9 +2637,11 @@
       <c r="D2" t="s">
         <v>116</v>
       </c>
-      <c r="E2"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>117</v>
       </c>
@@ -2363,8 +2654,11 @@
       <c r="D3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>120</v>
       </c>
@@ -2377,8 +2671,11 @@
       <c r="D4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" s="4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>123</v>
       </c>
@@ -2391,8 +2688,11 @@
       <c r="D5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>126</v>
       </c>
@@ -2405,8 +2705,11 @@
       <c r="D6" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>129</v>
       </c>
@@ -2419,8 +2722,11 @@
       <c r="D7" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>132</v>
       </c>
@@ -2433,8 +2739,11 @@
       <c r="D8" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -2447,8 +2756,11 @@
       <c r="D9" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" s="4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>138</v>
       </c>
@@ -2461,8 +2773,11 @@
       <c r="D10" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>140</v>
       </c>
@@ -2475,8 +2790,11 @@
       <c r="D11" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>143</v>
       </c>
@@ -2489,8 +2807,11 @@
       <c r="D12" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>145</v>
       </c>
@@ -2503,8 +2824,11 @@
       <c r="D13" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>148</v>
       </c>
@@ -2517,8 +2841,11 @@
       <c r="D14" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" s="4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>151</v>
       </c>
@@ -2531,8 +2858,11 @@
       <c r="D15" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="E15" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>153</v>
       </c>
@@ -2545,8 +2875,11 @@
       <c r="D16" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>156</v>
       </c>
@@ -2559,8 +2892,11 @@
       <c r="D17" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>158</v>
       </c>
@@ -2573,8 +2909,11 @@
       <c r="D18" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="4" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>160</v>
       </c>
@@ -2587,8 +2926,11 @@
       <c r="D19" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>162</v>
       </c>
@@ -2601,8 +2943,11 @@
       <c r="D20" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="4" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>164</v>
       </c>
@@ -2615,8 +2960,11 @@
       <c r="D21" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>166</v>
       </c>
@@ -2629,8 +2977,11 @@
       <c r="D22" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>168</v>
       </c>
@@ -2643,8 +2994,11 @@
       <c r="D23" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>170</v>
       </c>
@@ -2657,8 +3011,11 @@
       <c r="D24" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>172</v>
       </c>
@@ -2671,8 +3028,11 @@
       <c r="D25" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>174</v>
       </c>
@@ -2685,8 +3045,11 @@
       <c r="D26" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>176</v>
       </c>
@@ -2699,8 +3062,11 @@
       <c r="D27" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>178</v>
       </c>
@@ -2713,8 +3079,11 @@
       <c r="D28" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>180</v>
       </c>
@@ -2727,8 +3096,11 @@
       <c r="D29" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>182</v>
       </c>
@@ -2741,8 +3113,11 @@
       <c r="D30" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" s="4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>184</v>
       </c>
@@ -2755,8 +3130,11 @@
       <c r="D31" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>186</v>
       </c>
@@ -2769,8 +3147,11 @@
       <c r="D32" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" s="4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>188</v>
       </c>
@@ -2783,8 +3164,11 @@
       <c r="D33" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" s="4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>190</v>
       </c>
@@ -2797,8 +3181,11 @@
       <c r="D34" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" s="4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>192</v>
       </c>
@@ -2811,8 +3198,11 @@
       <c r="D35" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>194</v>
       </c>
@@ -2825,8 +3215,11 @@
       <c r="D36" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" s="4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>196</v>
       </c>
@@ -2839,8 +3232,11 @@
       <c r="D37" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" s="4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>198</v>
       </c>
@@ -2853,8 +3249,11 @@
       <c r="D38" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>200</v>
       </c>
@@ -2867,8 +3266,11 @@
       <c r="D39" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" s="4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>202</v>
       </c>
@@ -2881,8 +3283,11 @@
       <c r="D40" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>204</v>
       </c>
@@ -2895,8 +3300,11 @@
       <c r="D41" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>206</v>
       </c>
@@ -2909,8 +3317,11 @@
       <c r="D42" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" s="4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>208</v>
       </c>
@@ -2923,8 +3334,11 @@
       <c r="D43" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" s="4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>210</v>
       </c>
@@ -2937,8 +3351,11 @@
       <c r="D44" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" s="4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>212</v>
       </c>
@@ -2951,8 +3368,11 @@
       <c r="D45" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" s="4" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>214</v>
       </c>
@@ -2965,8 +3385,11 @@
       <c r="D46" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" s="4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>217</v>
       </c>
@@ -2979,8 +3402,11 @@
       <c r="D47" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>220</v>
       </c>
@@ -2993,8 +3419,11 @@
       <c r="D48" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" s="4" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>223</v>
       </c>
@@ -3007,8 +3436,11 @@
       <c r="D49" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>226</v>
       </c>
@@ -3021,8 +3453,11 @@
       <c r="D50" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" s="4" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>228</v>
       </c>
@@ -3035,8 +3470,11 @@
       <c r="D51" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" s="4" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>230</v>
       </c>
@@ -3049,8 +3487,11 @@
       <c r="D52" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>233</v>
       </c>
@@ -3063,103 +3504,161 @@
       <c r="D53" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" s="4" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>520</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>521</v>
+      </c>
+      <c r="D54" t="s">
+        <v>523</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>526</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>524</v>
+      </c>
+      <c r="D55" t="s">
+        <v>523</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>235</v>
       </c>
-      <c r="B54">
-        <v>2</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
         <v>236</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D56" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
+      <c r="E56" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>238</v>
       </c>
-      <c r="B55">
+      <c r="B57">
         <v>3</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C57" t="s">
         <v>239</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D57" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
+      <c r="E57" s="4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>241</v>
       </c>
-      <c r="B56">
-        <v>2</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
         <v>242</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D58" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
+      <c r="E58" s="9" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>244</v>
       </c>
-      <c r="B57">
-        <v>2</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
         <v>245</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D59" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
+      <c r="E59" s="9" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>246</v>
       </c>
-      <c r="B58">
-        <v>2</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
         <v>247</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D60" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
+      <c r="E60" s="9" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>249</v>
       </c>
-      <c r="B59">
-        <v>2</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
         <v>250</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D61" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
+      <c r="E61" s="9" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>252</v>
       </c>
-      <c r="B60">
-        <v>2</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
         <v>253</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D62" t="s">
         <v>254</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -3172,20 +3671,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="48" customWidth="1"/>
-    <col min="4" max="4" width="33.83203125" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="39.1640625" customWidth="1"/>
-    <col min="6" max="6" width="75.1640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -3205,7 +3704,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>344</v>
       </c>
@@ -3221,9 +3720,11 @@
       <c r="E2" t="s">
         <v>346</v>
       </c>
-      <c r="F2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" s="4" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>347</v>
       </c>
@@ -3239,9 +3740,11 @@
       <c r="E3" t="s">
         <v>349</v>
       </c>
-      <c r="F3"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>350</v>
       </c>
@@ -3257,9 +3760,11 @@
       <c r="E4" t="s">
         <v>352</v>
       </c>
-      <c r="F4"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>353</v>
       </c>
@@ -3275,9 +3780,11 @@
       <c r="E5" t="s">
         <v>326</v>
       </c>
-      <c r="F5"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>355</v>
       </c>
@@ -3293,9 +3800,11 @@
       <c r="E6" t="s">
         <v>326</v>
       </c>
-      <c r="F6"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" s="4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>357</v>
       </c>
@@ -3311,9 +3820,11 @@
       <c r="E7" t="s">
         <v>315</v>
       </c>
-      <c r="F7"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" s="4" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>359</v>
       </c>
@@ -3329,9 +3840,11 @@
       <c r="E8" t="s">
         <v>361</v>
       </c>
-      <c r="F8"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8" s="4" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>362</v>
       </c>
@@ -3347,9 +3860,11 @@
       <c r="E9" t="s">
         <v>364</v>
       </c>
-      <c r="F9"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9" s="4" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>365</v>
       </c>
@@ -3365,9 +3880,11 @@
       <c r="E10" t="s">
         <v>367</v>
       </c>
-      <c r="F10"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>368</v>
       </c>
@@ -3383,9 +3900,11 @@
       <c r="E11" t="s">
         <v>315</v>
       </c>
-      <c r="F11"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11" s="4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>370</v>
       </c>
@@ -3401,9 +3920,11 @@
       <c r="E12" t="s">
         <v>372</v>
       </c>
-      <c r="F12"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12" s="4" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>373</v>
       </c>
@@ -3419,9 +3940,11 @@
       <c r="E13" t="s">
         <v>349</v>
       </c>
-      <c r="F13"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13" s="4" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>375</v>
       </c>
@@ -3437,9 +3960,11 @@
       <c r="E14" t="s">
         <v>378</v>
       </c>
-      <c r="F14"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14" s="4" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>338</v>
       </c>
@@ -3455,9 +3980,11 @@
       <c r="E15" t="s">
         <v>381</v>
       </c>
-      <c r="F15"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>382</v>
       </c>
@@ -3473,68 +4000,70 @@
       <c r="E16" t="s">
         <v>385</v>
       </c>
-      <c r="F16"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="4" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
     </row>
   </sheetData>
@@ -3545,20 +4074,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="C11" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="34.5" customWidth="1"/>
     <col min="4" max="4" width="45.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3574,8 +4104,11 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>255</v>
       </c>
@@ -3591,8 +4124,11 @@
       <c r="E2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>259</v>
       </c>
@@ -3608,8 +4144,11 @@
       <c r="E3" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>263</v>
       </c>
@@ -3625,8 +4164,11 @@
       <c r="E4" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="4" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>267</v>
       </c>
@@ -3642,8 +4184,11 @@
       <c r="E5" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>271</v>
       </c>
@@ -3659,8 +4204,11 @@
       <c r="E6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="4" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>274</v>
       </c>
@@ -3676,8 +4224,11 @@
       <c r="E7" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="4" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>276</v>
       </c>
@@ -3693,8 +4244,11 @@
       <c r="E8" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="4" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>280</v>
       </c>
@@ -3710,8 +4264,11 @@
       <c r="E9" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>283</v>
       </c>
@@ -3727,8 +4284,11 @@
       <c r="E10" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="4" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>286</v>
       </c>
@@ -3744,8 +4304,11 @@
       <c r="E11" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>289</v>
       </c>
@@ -3761,8 +4324,11 @@
       <c r="E12" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>293</v>
       </c>
@@ -3778,8 +4344,11 @@
       <c r="E13" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>296</v>
       </c>
@@ -3795,8 +4364,11 @@
       <c r="E14" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>300</v>
       </c>
@@ -3812,8 +4384,11 @@
       <c r="E15" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>252</v>
       </c>
@@ -3829,8 +4404,11 @@
       <c r="E16" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="4" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>305</v>
       </c>
@@ -3846,8 +4424,11 @@
       <c r="E17" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>308</v>
       </c>
@@ -3863,8 +4444,11 @@
       <c r="E18" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>312</v>
       </c>
@@ -3880,8 +4464,11 @@
       <c r="E19" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="4" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>314</v>
       </c>
@@ -3897,8 +4484,11 @@
       <c r="E20" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>228</v>
       </c>
@@ -3914,8 +4504,11 @@
       <c r="E21" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>226</v>
       </c>
@@ -3931,8 +4524,11 @@
       <c r="E22" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>320</v>
       </c>
@@ -3948,8 +4544,11 @@
       <c r="E23" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="4" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>322</v>
       </c>
@@ -3965,8 +4564,11 @@
       <c r="E24" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="4" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>325</v>
       </c>
@@ -3982,8 +4584,11 @@
       <c r="E25" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>328</v>
       </c>
@@ -3999,8 +4604,11 @@
       <c r="E26" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>126</v>
       </c>
@@ -4016,8 +4624,11 @@
       <c r="E27" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" s="4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>334</v>
       </c>
@@ -4033,8 +4644,11 @@
       <c r="E28" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" s="4" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>337</v>
       </c>
@@ -4050,8 +4664,11 @@
       <c r="E29" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>341</v>
       </c>
@@ -4067,8 +4684,12 @@
       <c r="E30" t="s">
         <v>343</v>
       </c>
+      <c r="F30" s="4" t="s">
+        <v>306</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F30" xr:uid="{3F2C9002-1B0A-C348-905C-32E2D16BAD66}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -4078,11 +4699,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84351FC9-A5B2-F24D-8B55-E6051DA9E552}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="42.83203125" customWidth="1"/>
@@ -4091,7 +4712,7 @@
     <col min="5" max="5" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -4104,9 +4725,11 @@
       <c r="D1" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="E1" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -4119,9 +4742,11 @@
       <c r="D2" t="s">
         <v>462</v>
       </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E2" s="4" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -4134,8 +4759,11 @@
       <c r="D4" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -4146,7 +4774,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -4157,7 +4785,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -4168,7 +4796,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -4179,7 +4807,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -4193,7 +4821,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -4204,7 +4832,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -4215,7 +4843,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -4228,8 +4856,11 @@
       <c r="D14" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>69</v>
       </c>
@@ -4240,7 +4871,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>89</v>
       </c>
@@ -4253,8 +4884,11 @@
       <c r="D17" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D18" s="7"/>
     </row>
   </sheetData>
@@ -4271,14 +4905,14 @@
       <selection activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="76.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="4"/>
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -4292,7 +4926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -4306,7 +4940,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4320,7 +4954,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -4334,7 +4968,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -4348,7 +4982,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -4362,7 +4996,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -4376,7 +5010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>389</v>
       </c>
@@ -4390,7 +5024,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -4404,7 +5038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -4418,7 +5052,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -4432,7 +5066,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -4446,7 +5080,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -4460,7 +5094,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -4474,7 +5108,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>395</v>
       </c>
@@ -4488,7 +5122,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -4502,7 +5136,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -4516,7 +5150,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>400</v>
       </c>
@@ -4530,7 +5164,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -4544,7 +5178,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -4558,7 +5192,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>83</v>
       </c>
@@ -4572,7 +5206,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -4586,7 +5220,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>407</v>
       </c>
@@ -4600,7 +5234,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>105</v>
       </c>
@@ -4614,7 +5248,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>410</v>
       </c>
@@ -4628,7 +5262,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -4642,7 +5276,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -4656,7 +5290,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -4670,7 +5304,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -4684,7 +5318,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -4698,7 +5332,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -4712,7 +5346,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>415</v>
       </c>
@@ -4726,7 +5360,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>417</v>
       </c>
@@ -4740,7 +5374,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -4755,7 +5389,7 @@
       </c>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -4769,7 +5403,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>421</v>
       </c>
@@ -4783,7 +5417,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>87</v>
       </c>
@@ -4797,7 +5431,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -4811,7 +5445,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -4825,7 +5459,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>425</v>
       </c>
@@ -4839,7 +5473,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>107</v>
       </c>
@@ -4853,7 +5487,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>73</v>
       </c>
@@ -4867,7 +5501,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>427</v>
       </c>
@@ -4881,7 +5515,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>75</v>
       </c>
@@ -4895,7 +5529,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>77</v>
       </c>
@@ -4909,7 +5543,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>79</v>
       </c>
@@ -4923,7 +5557,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>81</v>
       </c>
@@ -4937,7 +5571,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>100</v>
       </c>
@@ -4951,7 +5585,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -4965,7 +5599,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>433</v>
       </c>
@@ -4979,7 +5613,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>32</v>
       </c>
@@ -4993,7 +5627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>88</v>
       </c>
@@ -5007,7 +5641,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -5021,7 +5655,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -5035,7 +5669,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>62</v>
       </c>
@@ -5049,7 +5683,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>444</v>
       </c>
@@ -5063,7 +5697,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -5077,7 +5711,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>89</v>
       </c>
@@ -5091,7 +5725,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>85</v>
       </c>
@@ -5105,7 +5739,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>90</v>
       </c>
@@ -5129,17 +5763,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E96E553-B9B7-3A43-9A19-9B2DEFC1133B}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="52.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -5147,7 +5781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -5155,7 +5789,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -5163,7 +5797,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -5171,7 +5805,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -5179,7 +5813,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -5187,7 +5821,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -5195,7 +5829,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -5203,7 +5837,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>395</v>
       </c>
@@ -5211,7 +5845,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -5219,7 +5853,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -5227,7 +5861,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -5235,7 +5869,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -5243,7 +5877,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -5251,7 +5885,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -5259,7 +5893,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>400</v>
       </c>
@@ -5267,7 +5901,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -5275,7 +5909,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -5283,7 +5917,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -5291,7 +5925,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>433</v>
       </c>
@@ -5299,7 +5933,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -5307,7 +5941,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>83</v>
       </c>
@@ -5315,7 +5949,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -5323,7 +5957,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>48</v>
       </c>
@@ -5331,7 +5965,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>48</v>
       </c>
@@ -5339,7 +5973,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>389</v>
       </c>
@@ -5347,7 +5981,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>407</v>
       </c>
@@ -5355,7 +5989,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>105</v>
       </c>
@@ -5363,7 +5997,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>410</v>
       </c>
@@ -5371,7 +6005,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -5379,7 +6013,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>85</v>
       </c>
@@ -5387,7 +6021,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>85</v>
       </c>
@@ -5395,7 +6029,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -5403,7 +6037,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -5411,7 +6045,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -5419,7 +6053,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>84</v>
       </c>
@@ -5427,7 +6061,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>415</v>
       </c>
@@ -5435,7 +6069,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>417</v>
       </c>
@@ -5443,7 +6077,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -5451,7 +6085,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -5459,7 +6093,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -5467,7 +6101,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>421</v>
       </c>
@@ -5475,7 +6109,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>87</v>
       </c>
@@ -5483,7 +6117,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>65</v>
       </c>
@@ -5491,7 +6125,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>444</v>
       </c>
@@ -5499,7 +6133,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>69</v>
       </c>
@@ -5507,7 +6141,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>69</v>
       </c>
@@ -5515,7 +6149,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>71</v>
       </c>
@@ -5523,7 +6157,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>425</v>
       </c>
@@ -5531,7 +6165,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>107</v>
       </c>
@@ -5539,7 +6173,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>31</v>
       </c>
@@ -5547,7 +6181,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>32</v>
       </c>
@@ -5555,7 +6189,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>33</v>
       </c>
@@ -5564,7 +6198,7 @@
       </c>
       <c r="D53" s="5"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>427</v>
       </c>
@@ -5574,7 +6208,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="5"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>75</v>
       </c>
@@ -5583,7 +6217,7 @@
       </c>
       <c r="D55" s="5"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>73</v>
       </c>
@@ -5592,7 +6226,7 @@
       </c>
       <c r="D56" s="5"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>77</v>
       </c>
@@ -5601,7 +6235,7 @@
       </c>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>90</v>
       </c>
@@ -5609,7 +6243,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>35</v>
       </c>
@@ -5617,7 +6251,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -5625,7 +6259,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>81</v>
       </c>
@@ -5633,7 +6267,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>89</v>
       </c>
@@ -5641,7 +6275,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>89</v>
       </c>

--- a/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
+++ b/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sshahsimpson/Documents/Git/ApiCommonData/Load/ontology/harmonization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjudkins/Documents/GitHub/ApiCommonData/Load/ontology/harmonization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDC8ED8-F056-984E-8B2F-50ED991A8E54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4A6455-E9C8-CC4B-A981-6FDCF8250DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="4080" windowWidth="24820" windowHeight="13380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="520" yWindow="2900" windowWidth="31280" windowHeight="13380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="termWithDifferentLabels" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="564">
   <si>
     <t>sid</t>
   </si>
@@ -1674,9 +1674,6 @@
     <t>OBI_0001169</t>
   </si>
   <si>
-    <t>ENVO_00000004</t>
-  </si>
-  <si>
     <t>drop end_age and EUPATH_0031204 entirely from VIDA</t>
   </si>
   <si>
@@ -1714,6 +1711,15 @@
   </si>
   <si>
     <t>agree</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>ENVO_00000009</t>
   </si>
 </sst>
 </file>
@@ -2592,22 +2598,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="61.1640625" customWidth="1"/>
-    <col min="4" max="4" width="56.83203125" customWidth="1"/>
+    <col min="3" max="3" width="107.1640625" customWidth="1"/>
+    <col min="4" max="4" width="68.5" customWidth="1"/>
     <col min="5" max="5" width="55.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2624,7 +2630,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -2640,8 +2646,11 @@
       <c r="E2" s="4" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>117</v>
       </c>
@@ -2657,8 +2666,11 @@
       <c r="E3" s="4" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>120</v>
       </c>
@@ -2674,8 +2686,11 @@
       <c r="E4" s="4" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>123</v>
       </c>
@@ -2691,8 +2706,11 @@
       <c r="E5" s="4" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>126</v>
       </c>
@@ -2708,8 +2726,11 @@
       <c r="E6" s="4" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>129</v>
       </c>
@@ -2725,8 +2746,11 @@
       <c r="E7" s="4" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>132</v>
       </c>
@@ -2742,8 +2766,11 @@
       <c r="E8" s="4" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -2759,8 +2786,11 @@
       <c r="E9" s="4" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>138</v>
       </c>
@@ -2776,8 +2806,11 @@
       <c r="E10" s="4" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>140</v>
       </c>
@@ -2793,8 +2826,11 @@
       <c r="E11" s="4" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>143</v>
       </c>
@@ -2810,8 +2846,11 @@
       <c r="E12" s="4" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>145</v>
       </c>
@@ -2827,8 +2866,11 @@
       <c r="E13" s="4" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>148</v>
       </c>
@@ -2845,7 +2887,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>151</v>
       </c>
@@ -2862,7 +2904,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>153</v>
       </c>
@@ -3671,8 +3713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3721,7 +3763,7 @@
         <v>346</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -4001,7 +4043,7 @@
         <v>385</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -4077,7 +4119,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4125,7 +4167,7 @@
         <v>258</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -4145,7 +4187,7 @@
         <v>262</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -4165,7 +4207,7 @@
         <v>266</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -4205,7 +4247,7 @@
         <v>155</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -4225,7 +4267,7 @@
         <v>155</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -4245,7 +4287,7 @@
         <v>279</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -4265,7 +4307,7 @@
         <v>282</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -4285,7 +4327,7 @@
         <v>285</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -4305,7 +4347,7 @@
         <v>262</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -4325,7 +4367,7 @@
         <v>292</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -4345,7 +4387,7 @@
         <v>295</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -4365,7 +4407,7 @@
         <v>299</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -4385,7 +4427,7 @@
         <v>302</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -4405,7 +4447,7 @@
         <v>254</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -4425,7 +4467,7 @@
         <v>307</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -4465,7 +4507,7 @@
         <v>266</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -4485,7 +4527,7 @@
         <v>316</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -4505,7 +4547,7 @@
         <v>128</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -4525,7 +4567,7 @@
         <v>128</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -4545,7 +4587,7 @@
         <v>155</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -4565,7 +4607,7 @@
         <v>137</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -4585,7 +4627,7 @@
         <v>327</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -4625,7 +4667,7 @@
         <v>128</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -4645,7 +4687,7 @@
         <v>336</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -4699,8 +4741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84351FC9-A5B2-F24D-8B55-E6051DA9E552}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4708,7 +4750,7 @@
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="42.83203125" customWidth="1"/>
     <col min="3" max="3" width="34.33203125" customWidth="1"/>
-    <col min="4" max="4" width="41.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.6640625" customWidth="1"/>
     <col min="5" max="5" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4743,7 +4785,7 @@
         <v>462</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -4760,7 +4802,7 @@
         <v>463</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4857,7 +4899,7 @@
         <v>465</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -4885,7 +4927,7 @@
         <v>467</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -4901,7 +4943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>

--- a/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
+++ b/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjudkins/Documents/GitHub/ApiCommonData/Load/ontology/harmonization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezheng/Documents/VEuPathDB-git/ApiCommonData/Load/ontology/harmonization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4A6455-E9C8-CC4B-A981-6FDCF8250DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67931F96-409C-A74B-8D40-B0503B2168FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="2900" windowWidth="31280" windowHeight="13380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2840" yWindow="460" windowWidth="26240" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="termWithDifferentLabels" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="691">
   <si>
     <t>sid</t>
   </si>
@@ -96,9 +96,6 @@
     <t>http://purl.obolibrary.org/obo/UO_0000027</t>
   </si>
   <si>
-    <t>gates_gamin</t>
-  </si>
-  <si>
     <t>Ct value</t>
   </si>
   <si>
@@ -1194,9 +1191,6 @@
     <t>icemr_india_gujarat</t>
   </si>
   <si>
-    <t>gates_gamin | icemr_india_gujarat | icemr_indian_cx | icemr_prism2_border_cohort | gates_gems1a | gates_gems | icemr_southAsia | gates_vida | icemr_southernAfrica | gates_perch | icemr_malawi | general/general_promote | icemr_india_feverSurv | gates_sip | icemr_southeastAsia | icemr_prism2 | icemr_meghalaya | icemr_amazoniaPeru_long | icemr_prism | gates_provide | icemr_westAfrica | general/general_crompton | icemr_indian</t>
-  </si>
-  <si>
     <t>L/min</t>
   </si>
   <si>
@@ -1209,12 +1203,6 @@
     <t>icemr_india_gujarat | icemr_prism2_border_cohort | icemr_southAsia | gates_perch | general/general_promote | gates_sip | icemr_prism2 | general/general_crompton</t>
   </si>
   <si>
-    <t>icemr_prism2_border_cohort | gates_gems1a | gates_gems | icemr_southAsia | gates_vida | gates_perch | general/general_promote | gates_sip | icemr_prism2 | general/general_crompton</t>
-  </si>
-  <si>
-    <t>gates_gamin | icemr_india_gujarat | icemr_indian_cx | icemr_prism2_border_cohort | gates_gems1a | general/general_umsp | gates_gems | gates_vida | gates_elicit | gates_perch | general/general_promote | icemr_india_feverSurv | gates_sip | icemr_prism2 | icemr_meghalaya | icemr_prism | gates_provide | gates_scoreSmCohort | general/general_crompton | icemr_indian</t>
-  </si>
-  <si>
     <t>copies/mL</t>
   </si>
   <si>
@@ -1236,18 +1224,9 @@
     <t>http://purl.obolibrary.org/obo/UO_0000021</t>
   </si>
   <si>
-    <t>gates_gems1a | gates_vida</t>
-  </si>
-  <si>
-    <t>icemr_india_gujarat | icemr_indian_cx | icemr_prism2_border_cohort | icemr_amazoniaBrazil | icemr_southAsia | gates_elicit | icemr_southernAfrica | gates_perch | general/general_promote | icemr_india_feverSurv | gates_sip | icemr_prism2 | icemr_meghalaya | icemr_prism | gates_llineup | gates_scoreSmCohort | icemr_westAfrica | general/general_crompton | icemr_indian</t>
-  </si>
-  <si>
     <t>gates_sip | icemr_amazoniaPeru_long | gates_provide</t>
   </si>
   <si>
-    <t>gates_gamin | icemr_india_gujarat | icemr_indian_cx | icemr_prism2_border_cohort | gates_gems1a | icemr_amazoniaBrazil | general/general_umsp | gates_gems | gates_vida | gates_elicit | icemr_southernAfrica | gates_perch | general/general_promote | icemr_india_feverSurv | gates_sip | icemr_prism2 | icemr_meghalaya | icemr_prism | gates_provide | gates_scoreSmCohort | icemr_westAfrica | general/general_crompton | icemr_indian</t>
-  </si>
-  <si>
     <t>gates_gems1a | gates_gems | gates_vida | gates_provide</t>
   </si>
   <si>
@@ -1266,15 +1245,9 @@
     <t>http://purl.obolibrary.org/obo/NCIT_C67474</t>
   </si>
   <si>
-    <t>gates_gems1a | gates_gems | gates_sip | gates_provide | general/general_crompton</t>
-  </si>
-  <si>
     <t>gates_perch | gates_provide</t>
   </si>
   <si>
-    <t>gates_perch | gates_sip | icemr_meghalaya | icemr_india_behavior | gates_provide</t>
-  </si>
-  <si>
     <t>mm</t>
   </si>
   <si>
@@ -1287,12 +1260,6 @@
     <t>http://purl.obolibrary.org/obo/NCIT_C67419</t>
   </si>
   <si>
-    <t>icemr_india_gujarat | icemr_indian_cx | icemr_prism2_border_cohort | icemr_southAsia | general/general_promote | icemr_india_feverSurv | gates_sip | icemr_prism2 | general/general_crompton | icemr_indian</t>
-  </si>
-  <si>
-    <t>gates_gems_huas | gates_gems1a | icemr_amazoniaBrazil | gates_gems | gates_vida | gates_elicit | icemr_southernAfrica | gates_gems1a_huas | gates_perch | icemr_malawi | general/general_promote | gates_vida_hucs_kenya | icemr_india_behavior | gates_vida_hucs_gambia_mali</t>
-  </si>
-  <si>
     <t>ms</t>
   </si>
   <si>
@@ -1335,57 +1302,27 @@
     <t>http://purl.obolibrary.org/obo/NCIT_C67376|http://purl.obolibrary.org/obo/UO_0000179</t>
   </si>
   <si>
-    <t>icemr_india_gujarat | general/general_promote</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000033|http://purl.obolibrary.org/obo/UO_0000036</t>
-  </si>
-  <si>
-    <t>gates_gamin | gates_gems_huas | icemr_indian_cx | icemr_prism2_border_cohort | gates_gems1a | icemr_amazoniaBrazil | gates_gems | gates_vida | gates_elicit | icemr_southernAfrica | gates_gems1a_huas | gates_perch | icemr_malawi | general/general_promote | icemr_india_feverSurv | gates_vida_hucs_kenya | gates_sip | icemr_prism2 | icemr_meghalaya | icemr_amazoniaPeru_long | icemr_india_behavior | icemr_prism | gates_provide | gates_llineup | gates_vida_hucs_gambia_mali | general/general_crompton | icemr_indian</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/EUPATH_0030176|http://purl.obolibrary.org/obo/EUPATH_0030168</t>
   </si>
   <si>
     <t>gates_scoreBurundi | gates_scoreCrosssect | gates_scoreRwanda | gates_scoreFiveCountry | gates_scoreSmCohort</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/EUPATH_0020260|http://purl.obolibrary.org/obo/EUPATH_0020269</t>
-  </si>
-  <si>
     <t>icemr_prism2_border_cohort | general/general_promote | icemr_prism2 | icemr_india_behavior | gates_llineup</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C64387|http://purl.obolibrary.org/obo/UO_0010003</t>
   </si>
   <si>
-    <t>icemr_india_gujarat | icemr_southAsia</t>
-  </si>
-  <si>
     <t>per 10 ml urine</t>
   </si>
   <si>
     <t>gates_scoreMoz | gates_scoreSeasonal | gates_scoreNig | gates_scoreZanzibar</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C67327|http://purl.obolibrary.org/obo/EUPATH_0036572</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000036|http://purl.obolibrary.org/obo/UO_0000033</t>
-  </si>
-  <si>
-    <t>gates_gamin | icemr_india_gujarat | icemr_indian_cx | icemr_prism2_border_cohort | icemr_amazoniaBrazil | general/general_umsp | icemr_southAsia | gates_scoreBurundi | gates_scoreMoz | gates_elicit | icemr_southernAfrica | gates_scoreCrosssect | gates_scoreRwanda | general/general_promote | icemr_india_feverSurv | gates_sip | icemr_prism2 | icemr_meghalaya | icemr_amazoniaPeru_long | icemr_india_behavior | gates_scoreSeasonal | icemr_prism | gates_provide | gates_scoreNig | gates_scoreFiveCountry | gates_scoreZanzibar | gates_llineup | gates_scoreSmCohort | icemr_westAfrica | general/general_crompton | icemr_indian</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C67015|http://www.ebi.ac.uk/efo/EFO_0004374|http://purl.obolibrary.org/obo/UO_0010003</t>
   </si>
   <si>
-    <t>icemr_india_gujarat | icemr_southAsia | gates_sip</t>
-  </si>
-  <si>
-    <t>http://www.ebi.ac.uk/efo/EFO_0004374|http://purl.obolibrary.org/obo/NCIT_C67015|http://purl.obolibrary.org/obo/UO_0010003|http://purl.obolibrary.org/obo/NCIT_C64387</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/EUPATH_0020260</t>
   </si>
   <si>
@@ -1720,13 +1657,457 @@
   </si>
   <si>
     <t>ENVO_00000009</t>
+  </si>
+  <si>
+    <t>gates_gamin | gates_gems_huas | gates_gems1a | gates_gems | gates_vida | gates_elicit | gates_gems1a_huas | gates_perch | icemr_malawi | general/general_promote | gates_vida_hucs_kenya | gates_sip | gates_washbKenya | icemr_southeastAsia | icemr_prism2 | icemr_meghalaya | icemr_amazoniaPeru_long | gates_woman | icemr_india_behavior | gates_provide | gates_scoreNig | gates_scoreZanzibar | gates_llineup | gates_vida_hucs_gambia_mali | gates_scoreSmCohort | gates_maled | gates_washbBangladesh</t>
+  </si>
+  <si>
+    <t>EUPATH_0011049</t>
+  </si>
+  <si>
+    <t>Age last exclusively breastfed</t>
+  </si>
+  <si>
+    <t>Breastfeeding summary|Breastfeeding</t>
+  </si>
+  <si>
+    <t>gates_provide | gates_maled</t>
+  </si>
+  <si>
+    <t>Entomology|Arthropod collection</t>
+  </si>
+  <si>
+    <t>EUPATH_0011480</t>
+  </si>
+  <si>
+    <t>Antibodies</t>
+  </si>
+  <si>
+    <t>Blood antibody test|Blood test</t>
+  </si>
+  <si>
+    <t>EUPATH_0035114</t>
+  </si>
+  <si>
+    <t>Birth order</t>
+  </si>
+  <si>
+    <t>Clinical history|Obstetrics</t>
+  </si>
+  <si>
+    <t>gates_elicit | gates_shine | gates_provide | gates_washbBangladesh</t>
+  </si>
+  <si>
+    <t>EFO_0004344</t>
+  </si>
+  <si>
+    <t>Birth weight</t>
+  </si>
+  <si>
+    <t>gates_vida | gates_sip | gates_shine | gates_maled</t>
+  </si>
+  <si>
+    <t>EUPATH_0011730</t>
+  </si>
+  <si>
+    <t>Breastfeeding</t>
+  </si>
+  <si>
+    <t>Participant|Feeding</t>
+  </si>
+  <si>
+    <t>gates_gamin | gates_elicit | gates_sip | gates_shine | gates_provide | gates_maled</t>
+  </si>
+  <si>
+    <t>EUPATH_0020003</t>
+  </si>
+  <si>
+    <t>Collection date</t>
+  </si>
+  <si>
+    <t>Entomology collection|Arthropod collection process</t>
+  </si>
+  <si>
+    <t>icemr_prism2_border_cohort | icemr_prism2 | icemr_prism | gates_llineup</t>
+  </si>
+  <si>
+    <t>gates_gamin | icemr_india_gujarat | gates_gems_huas | icemr_indian_cx | icemr_prism2_border_cohort | gates_gems1a | icemr_amazoniaBrazil | general/general_umsp | gates_gems | icemr_southAsia | gates_scoreBurundi | gates_vida | gates_scoreMoz | gates_elicit | icemr_southernAfrica | gates_gems1a_huas | gates_perch | icemr_malawi | gates_scoreCrosssect | gates_scoreRwanda | general/general_promote | icemr_india_feverSurv | gates_vida_hucs_kenya | gates_sip | gates_washbKenya | icemr_southeastAsia | icemr_prism2 | gates_shine | icemr_meghalaya | icemr_amazoniaPeru_long | gates_woman | icemr_india_behavior | gates_scoreSeasonal | icemr_prism | gates_provide | gates_scoreNig | gates_scoreFiveCountry | gates_scoreZanzibar | gates_llineup | gates_vida_hucs_gambia_mali | gates_scoreSmCohort | icemr_westAfrica | gates_maled | gates_washbBangladesh | general/general_crompton | icemr_indian</t>
+  </si>
+  <si>
+    <t>ONTONEO_00000255</t>
+  </si>
+  <si>
+    <t>Gestational age</t>
+  </si>
+  <si>
+    <t>Pregnancy|Gestational age assessment</t>
+  </si>
+  <si>
+    <t>general/general_promote | gates_shine | icemr_meghalaya</t>
+  </si>
+  <si>
+    <t>icemr_indian_cx | icemr_prism2_border_cohort | icemr_southernAfrica | icemr_malawi | general/general_promote | icemr_southeastAsia | icemr_prism2 | icemr_meghalaya | icemr_amazoniaPeru_long | icemr_india_behavior | gates_provide | gates_llineup | gates_maled | general/general_crompton | icemr_indian</t>
+  </si>
+  <si>
+    <t>EUPATH_0044122</t>
+  </si>
+  <si>
+    <t>Household study timepoint</t>
+  </si>
+  <si>
+    <t>icemr_amazoniaBrazil | gates_gems | gates_vida_hucs_kenya | gates_washbKenya | gates_shine | gates_llineup | gates_washbBangladesh</t>
+  </si>
+  <si>
+    <t>EUPATH_0011601</t>
+  </si>
+  <si>
+    <t>Income score</t>
+  </si>
+  <si>
+    <t>Income|Socioeconomic status</t>
+  </si>
+  <si>
+    <t>gates_elicit | gates_maled</t>
+  </si>
+  <si>
+    <t>gates_gamin | gates_gems_huas | icemr_prism2_border_cohort | gates_gems1a | gates_gems | gates_vida | gates_elicit | icemr_southernAfrica | gates_gems1a_huas | icemr_malawi | gates_sip | gates_washbKenya | icemr_southeastAsia | gates_shine | icemr_meghalaya | icemr_amazoniaPeru_long | icemr_india_behavior | gates_provide | gates_llineup | gates_vida_hucs_gambia_mali | gates_washbBangladesh</t>
+  </si>
+  <si>
+    <t>gates_gamin | icemr_india_gujarat | gates_gems_huas | icemr_indian_cx | icemr_prism2_border_cohort | gates_gems1a | icemr_amazoniaBrazil | general/general_umsp | gates_gems | icemr_southAsia | gates_scoreBurundi | gates_vida | gates_scoreMoz | gates_elicit | icemr_southernAfrica | gates_gems1a_huas | gates_perch | gates_scoreCrosssect | gates_scoreRwanda | general/general_promote | icemr_india_feverSurv | gates_vida_hucs_kenya | gates_sip | gates_washbKenya | icemr_southeastAsia | icemr_prism2 | gates_shine | icemr_meghalaya | icemr_amazoniaPeru_long | gates_woman | icemr_india_behavior | gates_scoreSeasonal | icemr_prism | gates_provide | gates_scoreNig | gates_scoreFiveCountry | gates_scoreZanzibar | gates_llineup | gates_vida_hucs_gambia_mali | gates_scoreSmCohort | icemr_westAfrica | gates_maled | gates_washbBangladesh | general/general_crompton | icemr_indian</t>
+  </si>
+  <si>
+    <t>EUPATH_0011472</t>
+  </si>
+  <si>
+    <t>Raw antibody titer test result</t>
+  </si>
+  <si>
+    <t>DOID_1074</t>
+  </si>
+  <si>
+    <t>Renal failure</t>
+  </si>
+  <si>
+    <t>Symptoms|Signs and symptoms</t>
+  </si>
+  <si>
+    <t>icemr_indian_cx | gates_sip | gates_woman | icemr_indian</t>
+  </si>
+  <si>
+    <t>OBI_0001616</t>
+  </si>
+  <si>
+    <t>Sample ID</t>
+  </si>
+  <si>
+    <t>Sample|Sample details</t>
+  </si>
+  <si>
+    <t>icemr_prism2_border_cohort | gates_vida | gates_maled</t>
+  </si>
+  <si>
+    <t>OBI_0100051</t>
+  </si>
+  <si>
+    <t>Sample type</t>
+  </si>
+  <si>
+    <t>icemr_prism2_border_cohort | icemr_prism2 | icemr_prism | gates_maled</t>
+  </si>
+  <si>
+    <t>SYMP_0000124</t>
+  </si>
+  <si>
+    <t>Seizures</t>
+  </si>
+  <si>
+    <t>icemr_prism2_border_cohort | gates_sip | icemr_prism2 | gates_woman | icemr_prism</t>
+  </si>
+  <si>
+    <t>PATO_0000047</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Demographics|Obstetrics</t>
+  </si>
+  <si>
+    <t>gates_gamin | icemr_india_gujarat | gates_gems_huas | icemr_indian_cx | icemr_prism2_border_cohort | gates_gems1a | icemr_amazoniaBrazil | general/general_umsp | gates_gems | icemr_southAsia | gates_scoreBurundi | gates_vida | gates_scoreMoz | gates_elicit | icemr_southernAfrica | gates_gems1a_huas | gates_perch | icemr_malawi | gates_scoreCrosssect | gates_scoreRwanda | icemr_india_feverSurv | gates_vida_hucs_kenya | gates_sip | gates_washbKenya | icemr_southeastAsia | icemr_prism2 | gates_shine | icemr_meghalaya | icemr_amazoniaPeru_long | icemr_india_behavior | gates_scoreSeasonal | icemr_prism | gates_provide | gates_scoreNig | gates_scoreFiveCountry | gates_scoreZanzibar | gates_llineup | gates_vida_hucs_gambia_mali | gates_scoreSmCohort | icemr_westAfrica | gates_maled | gates_washbBangladesh | general/general_crompton | icemr_indian</t>
+  </si>
+  <si>
+    <t>gates_gamin | icemr_india_gujarat | gates_gems_huas | icemr_indian_cx | icemr_prism2_border_cohort | gates_gems1a | icemr_amazoniaBrazil | general/general_umsp | gates_gems | icemr_southAsia | gates_vida | icemr_southernAfrica | gates_gems1a_huas | gates_perch | icemr_malawi | general/general_promote | icemr_india_feverSurv | gates_vida_hucs_kenya | gates_sip | gates_washbKenya | icemr_prism2 | gates_shine | icemr_meghalaya | icemr_amazoniaPeru_long | gates_woman | icemr_india_behavior | icemr_prism | gates_provide | gates_llineup | gates_vida_hucs_gambia_mali | icemr_westAfrica | gates_maled | gates_washbBangladesh | general/general_crompton | icemr_indian</t>
+  </si>
+  <si>
+    <t>gates_gamin | icemr_amazoniaBrazil | gates_gems | gates_scoreMoz | gates_elicit | gates_scoreCrosssect | gates_vida_hucs_kenya | gates_washbKenya | gates_shine | gates_scoreSeasonal | gates_scoreNig | gates_scoreZanzibar | gates_llineup | gates_scoreSmCohort | gates_washbBangladesh</t>
+  </si>
+  <si>
+    <t>EUPATH_0035112</t>
+  </si>
+  <si>
+    <t>Target child or sibling/neighbor</t>
+  </si>
+  <si>
+    <t>gates_washbKenya | gates_washbBangladesh</t>
+  </si>
+  <si>
+    <t>EUPATH_0011267</t>
+  </si>
+  <si>
+    <t>Total Haemophilus influenzae type B vaccine doses</t>
+  </si>
+  <si>
+    <t>Aggregated immunization and prevention data|Immunization and prevention</t>
+  </si>
+  <si>
+    <t>gates_perch | gates_maled</t>
+  </si>
+  <si>
+    <t>EUPATH_0011234</t>
+  </si>
+  <si>
+    <t>Total diphtheria, pertussis, and tetanus (DPT) vaccine doses</t>
+  </si>
+  <si>
+    <t>EUPATH_0011394</t>
+  </si>
+  <si>
+    <t>Total pneumococcal conjugate vaccine (PCV) doses</t>
+  </si>
+  <si>
+    <t>EUPATH_0011427</t>
+  </si>
+  <si>
+    <t>Total rotavirus vaccine doses</t>
+  </si>
+  <si>
+    <t>gates_vida | gates_maled</t>
+  </si>
+  <si>
+    <t>EUPATH_0011166</t>
+  </si>
+  <si>
+    <t>Zinc</t>
+  </si>
+  <si>
+    <t>Maternal supplementation during pregnancy|Blood test</t>
+  </si>
+  <si>
+    <t>gates_gamin | gates_gems_huas | icemr_indian_cx | icemr_prism2_border_cohort | gates_gems1a | icemr_amazoniaBrazil | general/general_umsp | gates_gems | gates_scoreBurundi | gates_vida | gates_elicit | icemr_southernAfrica | gates_gems1a_huas | gates_perch | gates_scoreRwanda | general/general_promote | icemr_india_feverSurv | gates_vida_hucs_kenya | gates_sip | gates_washbKenya | icemr_prism2 | gates_shine | icemr_meghalaya | icemr_india_behavior | icemr_prism | gates_provide | gates_scoreFiveCountry | gates_llineup | gates_vida_hucs_gambia_mali | gates_scoreSmCohort | gates_maled | gates_washbBangladesh | icemr_indian</t>
+  </si>
+  <si>
+    <t>Checked on July 30, more inconsistent terms are found</t>
+  </si>
+  <si>
+    <t>EUPATH_0000727</t>
+  </si>
+  <si>
+    <t>Family income (local currency) | Family income, local currency</t>
+  </si>
+  <si>
+    <t>gates_elicit | gates_provide | gates_maled</t>
+  </si>
+  <si>
+    <t>Other transportation expenses amount | Other transportation expenses</t>
+  </si>
+  <si>
+    <t>EUPATH_0011014</t>
+  </si>
+  <si>
+    <t>Cumulative days exclusively breastfed | Cumulative time exclusive breastfeeding</t>
+  </si>
+  <si>
+    <t>Anemia (hemoglobin &lt;11 g/dL) | Anemia (hemoglobin less than 11g/dL)</t>
+  </si>
+  <si>
+    <t>icemr_prism2_border_cohort | icemr_prism2 | gates_llineup | gates_maled</t>
+  </si>
+  <si>
+    <t>EUPATH_0011606</t>
+  </si>
+  <si>
+    <t>Family income (USD) | Family income</t>
+  </si>
+  <si>
+    <t>EUPATH_0011868</t>
+  </si>
+  <si>
+    <t>Plesiomonas Ct value, by TAC result | Plesiomonas, by TAC result</t>
+  </si>
+  <si>
+    <t>EUPATH_0036091</t>
+  </si>
+  <si>
+    <t>Maternal Edinburgh Postnatal Depression Scale score | Edinburgh Postnatal Depression Scale score</t>
+  </si>
+  <si>
+    <t>gates_shine | gates_provide</t>
+  </si>
+  <si>
+    <t>Checked on July 30, still some inconsistency are found</t>
+  </si>
+  <si>
+    <t>Mode of birth</t>
+  </si>
+  <si>
+    <t>EUPATH_0036567|EUPATH_0048227</t>
+  </si>
+  <si>
+    <t>Clinical history|Labor and delivery</t>
+  </si>
+  <si>
+    <t>Checked on July 30, found one term need to be fixed</t>
+  </si>
+  <si>
+    <t>gates_gamin | icemr_india_gujarat | icemr_indian_cx | icemr_prism2_border_cohort | gates_gems1a | gates_gems | icemr_southAsia | gates_vida | icemr_southernAfrica | gates_perch | icemr_malawi | general/general_promote | icemr_india_feverSurv | gates_sip | icemr_southeastAsia | icemr_prism2 | icemr_meghalaya | icemr_amazoniaPeru_long | icemr_prism | gates_provide | icemr_westAfrica | gates_maled | general/general_crompton | icemr_indian</t>
+  </si>
+  <si>
+    <t>gates_gems | gates_vida | gates_provide | gates_maled</t>
+  </si>
+  <si>
+    <t>HHS</t>
+  </si>
+  <si>
+    <t>NO_IRI</t>
+  </si>
+  <si>
+    <t>gates_washbKenya</t>
+  </si>
+  <si>
+    <t>Kcal</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0010051</t>
+  </si>
+  <si>
+    <t>gates_maled</t>
+  </si>
+  <si>
+    <t>icemr_prism2_border_cohort | gates_gems1a | gates_gems | icemr_southAsia | gates_vida | gates_perch | general/general_promote | gates_sip | icemr_prism2 | gates_maled | general/general_crompton</t>
+  </si>
+  <si>
+    <t>gates_gems1a | gates_vida | gates_maled</t>
+  </si>
+  <si>
+    <t>icemr_india_gujarat | icemr_indian_cx | icemr_prism2_border_cohort | icemr_amazoniaBrazil | icemr_southAsia | gates_elicit | icemr_southernAfrica | gates_perch | general/general_promote | icemr_india_feverSurv | gates_sip | icemr_prism2 | gates_shine | icemr_meghalaya | icemr_prism | gates_llineup | gates_scoreSmCohort | icemr_westAfrica | gates_maled | general/general_crompton | icemr_indian</t>
+  </si>
+  <si>
+    <t>hrs</t>
+  </si>
+  <si>
+    <t>gates_gamin | icemr_india_gujarat | icemr_indian_cx | icemr_prism2_border_cohort | gates_gems1a | icemr_amazoniaBrazil | general/general_umsp | gates_gems | gates_vida | gates_elicit | icemr_southernAfrica | gates_perch | general/general_promote | icemr_india_feverSurv | gates_sip | icemr_prism2 | gates_shine | icemr_meghalaya | icemr_prism | gates_provide | gates_scoreSmCohort | icemr_westAfrica | gates_maled | gates_washbBangladesh | general/general_crompton | icemr_indian</t>
+  </si>
+  <si>
+    <t>gates_perch | gates_sip | gates_washbKenya | gates_shine | icemr_meghalaya | icemr_india_behavior | gates_provide | gates_washbBangladesh</t>
+  </si>
+  <si>
+    <t>gates_gamin | gates_woman</t>
+  </si>
+  <si>
+    <t>icemr_india_gujarat | icemr_indian_cx | icemr_prism2_border_cohort | icemr_southAsia | general/general_promote | icemr_india_feverSurv | gates_sip | icemr_prism2 | gates_woman | general/general_crompton | icemr_indian</t>
+  </si>
+  <si>
+    <t>icemr_india_gujarat | gates_provide | gates_maled</t>
+  </si>
+  <si>
+    <t>ug</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000039</t>
+  </si>
+  <si>
+    <t>icemr_india_gujarat | general/general_promote | gates_maled</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000015|http://purl.obolibrary.org/obo/UO_0000016</t>
+  </si>
+  <si>
+    <t>gates_gamin | icemr_india_gujarat | icemr_indian_cx | icemr_prism2_border_cohort | gates_gems1a | general/general_umsp | gates_gems | gates_vida | gates_elicit | gates_perch | general/general_promote | icemr_india_feverSurv | gates_sip | gates_washbKenya | icemr_prism2 | gates_shine | icemr_meghalaya | icemr_prism | gates_provide | gates_scoreSmCohort | gates_maled | gates_washbBangladesh | general/general_crompton | icemr_indian</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C67474|http://purl.obolibrary.org/obo/UO_0010003</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000098|http://purl.obolibrary.org/obo/UO_0000032</t>
+  </si>
+  <si>
+    <t>gates_gems1a | gates_gems | gates_sip | gates_provide | gates_maled | general/general_crompton</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000016|http://purl.obolibrary.org/obo/UO_0000015</t>
+  </si>
+  <si>
+    <t>gates_perch | gates_shine</t>
+  </si>
+  <si>
+    <t>icemr_india_gujarat | icemr_southAsia | gates_maled</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C67326|http://purl.obolibrary.org/obo/NCIT_C67305</t>
+  </si>
+  <si>
+    <t>icemr_india_gujarat | gates_maled</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000274|http://purl.obolibrary.org/obo/NCIT_C67305</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000034|http://purl.obolibrary.org/obo/UO_0000033</t>
+  </si>
+  <si>
+    <t>icemr_india_gujarat | icemr_southAsia | gates_sip | gates_maled</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000035|http://purl.obolibrary.org/obo/UO_0000033|http://purl.obolibrary.org/obo/UO_0000036</t>
+  </si>
+  <si>
+    <t>gates_gems_huas | gates_gems1a | icemr_amazoniaBrazil | gates_gems | gates_vida | gates_elicit | icemr_southernAfrica | gates_gems1a_huas | gates_perch | icemr_malawi | general/general_promote | gates_vida_hucs_kenya | gates_shine | icemr_india_behavior | gates_vida_hucs_gambia_mali</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000036|http://purl.obolibrary.org/obo/UO_0000033|http://purl.obolibrary.org/obo/UO_0000035</t>
+  </si>
+  <si>
+    <t>gates_gamin | icemr_india_gujarat | icemr_indian_cx | icemr_prism2_border_cohort | icemr_amazoniaBrazil | general/general_umsp | icemr_southAsia | gates_scoreBurundi | gates_scoreMoz | gates_elicit | icemr_southernAfrica | gates_scoreCrosssect | gates_scoreRwanda | general/general_promote | icemr_india_feverSurv | gates_sip | gates_washbKenya | icemr_prism2 | gates_shine | icemr_meghalaya | icemr_amazoniaPeru_long | icemr_india_behavior | gates_scoreSeasonal | icemr_prism | gates_provide | gates_scoreNig | gates_scoreFiveCountry | gates_scoreZanzibar | gates_llineup | gates_scoreSmCohort | icemr_westAfrica | gates_maled | gates_washbBangladesh | general/general_crompton | icemr_indian</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000035|http://purl.obolibrary.org/obo/UO_0000033|http://purl.obolibrary.org/obo/UO_0000036|http://purl.obolibrary.org/obo/UO_0000034</t>
+  </si>
+  <si>
+    <t>gates_gamin | gates_gems_huas | icemr_indian_cx | icemr_prism2_border_cohort | gates_gems1a | icemr_amazoniaBrazil | gates_gems | gates_vida | gates_elicit | icemr_southernAfrica | gates_gems1a_huas | gates_perch | icemr_malawi | general/general_promote | icemr_india_feverSurv | gates_vida_hucs_kenya | gates_sip | gates_washbKenya | icemr_prism2 | gates_shine | icemr_meghalaya | icemr_amazoniaPeru_long | gates_woman | icemr_india_behavior | icemr_prism | gates_provide | gates_llineup | gates_vida_hucs_gambia_mali | gates_maled | gates_washbBangladesh | general/general_crompton | icemr_indian</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C67474|http://purl.obolibrary.org/obo/UO_0010003|http://www.ebi.ac.uk/efo/EFO_0004374|http://purl.obolibrary.org/obo/NCIT_C67015|http://purl.obolibrary.org/obo/NCIT_C64387</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C67305</t>
+  </si>
+  <si>
+    <t>no IRI assigned</t>
+  </si>
+  <si>
+    <t>need use same label for same unit IRI</t>
+  </si>
+  <si>
+    <t>based on the ontology team meeting, we will use NCIT one now</t>
+  </si>
+  <si>
+    <t>wrong IRI, it is 'hour' need change to http://purl.obolibrary.org/obo/UO_0000098</t>
+  </si>
+  <si>
+    <t>wrong IRI, it is 'day' need change to http://purl.obolibrary.org/obo/UO_0000035</t>
+  </si>
+  <si>
+    <t>IRI should use UO one</t>
+  </si>
+  <si>
+    <t>wrong IRI, it is 'ng/dL', need change to http://purl.obolibrary.org/obo/NCIT_C67305</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1882,8 +2263,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2063,12 +2459,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -2231,7 +2621,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2240,8 +2630,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2598,13 +2989,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
@@ -2613,7 +3004,7 @@
     <col min="5" max="5" width="55.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2627,1081 +3018,1254 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="F2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="F3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="F4" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="F5" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="F6" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="F7" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="F8" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="F9" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="F10" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="F11" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F12" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="F13" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="4" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="F2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="4" t="s">
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D23" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="F3" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="4" t="s">
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>173</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="F4" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" s="4" t="s">
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="F5" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>178</v>
+      </c>
+      <c r="D28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>181</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>185</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>187</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>189</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>190</v>
+      </c>
+      <c r="D34" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>191</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>192</v>
+      </c>
+      <c r="D35" t="s">
+        <v>154</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>193</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>195</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>196</v>
+      </c>
+      <c r="D37" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>197</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D38" t="s">
+        <v>154</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>199</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>200</v>
+      </c>
+      <c r="D39" t="s">
+        <v>154</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>201</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>202</v>
+      </c>
+      <c r="D40" t="s">
+        <v>154</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>203</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>204</v>
+      </c>
+      <c r="D41" t="s">
+        <v>154</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>205</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>206</v>
+      </c>
+      <c r="D42" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>207</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>208</v>
+      </c>
+      <c r="D43" t="s">
+        <v>154</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>209</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>210</v>
+      </c>
+      <c r="D44" t="s">
+        <v>154</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>211</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>212</v>
+      </c>
+      <c r="D45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>213</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>214</v>
+      </c>
+      <c r="D46" t="s">
+        <v>215</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>216</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>217</v>
+      </c>
+      <c r="D47" t="s">
+        <v>218</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>219</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>220</v>
+      </c>
+      <c r="D48" t="s">
+        <v>221</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>222</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>223</v>
+      </c>
+      <c r="D49" t="s">
+        <v>224</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>225</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>226</v>
+      </c>
+      <c r="D50" t="s">
         <v>127</v>
       </c>
-      <c r="D6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="F6" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="F7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="F8" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="F9" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D10" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="F10" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>140</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="F11" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="F12" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>145</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="F13" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>148</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" t="s">
-        <v>150</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D15" t="s">
-        <v>150</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>153</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>154</v>
-      </c>
-      <c r="D16" t="s">
-        <v>155</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>157</v>
-      </c>
-      <c r="D17" t="s">
-        <v>150</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>158</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" t="s">
-        <v>150</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>160</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>161</v>
-      </c>
-      <c r="D19" t="s">
-        <v>150</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>162</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>163</v>
-      </c>
-      <c r="D20" t="s">
-        <v>150</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>164</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>165</v>
-      </c>
-      <c r="D21" t="s">
-        <v>150</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>166</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>167</v>
-      </c>
-      <c r="D22" t="s">
-        <v>150</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>168</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>169</v>
-      </c>
-      <c r="D23" t="s">
-        <v>150</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>170</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>171</v>
-      </c>
-      <c r="D24" t="s">
-        <v>150</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>172</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>173</v>
-      </c>
-      <c r="D25" t="s">
-        <v>150</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>174</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>175</v>
-      </c>
-      <c r="D26" t="s">
-        <v>150</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>176</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" t="s">
-        <v>150</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>178</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>179</v>
-      </c>
-      <c r="D28" t="s">
-        <v>150</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="E50" s="4" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>180</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29" t="s">
-        <v>181</v>
-      </c>
-      <c r="D29" t="s">
-        <v>150</v>
-      </c>
-      <c r="E29" s="4" t="s">
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>227</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>228</v>
+      </c>
+      <c r="D51" t="s">
+        <v>127</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>182</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30" t="s">
-        <v>183</v>
-      </c>
-      <c r="D30" t="s">
-        <v>150</v>
-      </c>
-      <c r="E30" s="4" t="s">
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>229</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>230</v>
+      </c>
+      <c r="D52" t="s">
+        <v>231</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>184</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>185</v>
-      </c>
-      <c r="D31" t="s">
-        <v>150</v>
-      </c>
-      <c r="E31" s="4" t="s">
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>232</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>233</v>
+      </c>
+      <c r="D53" t="s">
+        <v>231</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>186</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32" t="s">
-        <v>187</v>
-      </c>
-      <c r="D32" t="s">
-        <v>155</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>188</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33" t="s">
-        <v>189</v>
-      </c>
-      <c r="D33" t="s">
-        <v>155</v>
-      </c>
-      <c r="E33" s="4" t="s">
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
         <v>499</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>190</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
-        <v>191</v>
-      </c>
-      <c r="D34" t="s">
-        <v>155</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>192</v>
-      </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>193</v>
-      </c>
-      <c r="D35" t="s">
-        <v>155</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>194</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36" t="s">
-        <v>195</v>
-      </c>
-      <c r="D36" t="s">
-        <v>155</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>196</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>197</v>
-      </c>
-      <c r="D37" t="s">
-        <v>155</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>198</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38" t="s">
-        <v>199</v>
-      </c>
-      <c r="D38" t="s">
-        <v>155</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>200</v>
-      </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="C39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D39" t="s">
-        <v>155</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>202</v>
-      </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40" t="s">
-        <v>203</v>
-      </c>
-      <c r="D40" t="s">
-        <v>155</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>204</v>
-      </c>
-      <c r="B41">
-        <v>2</v>
-      </c>
-      <c r="C41" t="s">
-        <v>205</v>
-      </c>
-      <c r="D41" t="s">
-        <v>155</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>206</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-      <c r="C42" t="s">
-        <v>207</v>
-      </c>
-      <c r="D42" t="s">
-        <v>155</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>208</v>
-      </c>
-      <c r="B43">
-        <v>2</v>
-      </c>
-      <c r="C43" t="s">
-        <v>209</v>
-      </c>
-      <c r="D43" t="s">
-        <v>155</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>210</v>
-      </c>
-      <c r="B44">
-        <v>2</v>
-      </c>
-      <c r="C44" t="s">
-        <v>211</v>
-      </c>
-      <c r="D44" t="s">
-        <v>155</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>212</v>
-      </c>
-      <c r="B45">
-        <v>2</v>
-      </c>
-      <c r="C45" t="s">
-        <v>213</v>
-      </c>
-      <c r="D45" t="s">
-        <v>155</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>214</v>
-      </c>
-      <c r="B46">
-        <v>2</v>
-      </c>
-      <c r="C46" t="s">
-        <v>215</v>
-      </c>
-      <c r="D46" t="s">
-        <v>216</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>217</v>
-      </c>
-      <c r="B47">
-        <v>2</v>
-      </c>
-      <c r="C47" t="s">
-        <v>218</v>
-      </c>
-      <c r="D47" t="s">
-        <v>219</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>220</v>
-      </c>
-      <c r="B48">
-        <v>2</v>
-      </c>
-      <c r="C48" t="s">
-        <v>221</v>
-      </c>
-      <c r="D48" t="s">
-        <v>222</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>223</v>
-      </c>
-      <c r="B49">
-        <v>2</v>
-      </c>
-      <c r="C49" t="s">
-        <v>224</v>
-      </c>
-      <c r="D49" t="s">
-        <v>225</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>226</v>
-      </c>
-      <c r="B50">
-        <v>2</v>
-      </c>
-      <c r="C50" t="s">
-        <v>227</v>
-      </c>
-      <c r="D50" t="s">
-        <v>128</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>228</v>
-      </c>
-      <c r="B51">
-        <v>2</v>
-      </c>
-      <c r="C51" t="s">
-        <v>229</v>
-      </c>
-      <c r="D51" t="s">
-        <v>128</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>230</v>
-      </c>
-      <c r="B52">
-        <v>2</v>
-      </c>
-      <c r="C52" t="s">
-        <v>231</v>
-      </c>
-      <c r="D52" t="s">
-        <v>232</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>233</v>
-      </c>
-      <c r="B53">
-        <v>2</v>
-      </c>
-      <c r="C53" t="s">
-        <v>234</v>
-      </c>
-      <c r="D53" t="s">
-        <v>232</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>520</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
       <c r="D54" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
       <c r="D55" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
+        <v>234</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
         <v>235</v>
       </c>
-      <c r="B56">
-        <v>2</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>236</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" s="4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
         <v>237</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>238</v>
       </c>
       <c r="B57">
         <v>3</v>
       </c>
       <c r="C57" t="s">
+        <v>238</v>
+      </c>
+      <c r="D57" t="s">
         <v>239</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
         <v>240</v>
       </c>
-      <c r="E57" s="4" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
         <v>241</v>
       </c>
-      <c r="B58">
-        <v>2</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>242</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" s="8" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
         <v>243</v>
       </c>
-      <c r="E58" s="9" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
         <v>244</v>
       </c>
-      <c r="B59">
-        <v>2</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
+        <v>242</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
         <v>245</v>
       </c>
-      <c r="D59" t="s">
-        <v>243</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
         <v>246</v>
       </c>
-      <c r="B60">
-        <v>2</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>247</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" s="8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
         <v>248</v>
       </c>
-      <c r="E60" s="9" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
         <v>249</v>
       </c>
-      <c r="B61">
-        <v>2</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>250</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" s="8" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
         <v>251</v>
       </c>
-      <c r="E61" s="9" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
         <v>252</v>
       </c>
-      <c r="B62">
-        <v>2</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>253</v>
       </c>
-      <c r="D62" t="s">
-        <v>254</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>532</v>
-      </c>
+      <c r="E62" s="8" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="E63" s="8"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>126</v>
+      </c>
+      <c r="D68" t="s">
+        <v>127</v>
+      </c>
+      <c r="E68"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>623</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>624</v>
+      </c>
+      <c r="D69" t="s">
+        <v>625</v>
+      </c>
+      <c r="E69"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>183</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>626</v>
+      </c>
+      <c r="D70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E70"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>627</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>628</v>
+      </c>
+      <c r="D71" t="s">
+        <v>547</v>
+      </c>
+      <c r="E71"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>213</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>629</v>
+      </c>
+      <c r="D72" t="s">
+        <v>630</v>
+      </c>
+      <c r="E72"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>631</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>632</v>
+      </c>
+      <c r="D73" t="s">
+        <v>579</v>
+      </c>
+      <c r="E73"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>633</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>634</v>
+      </c>
+      <c r="D74" t="s">
+        <v>617</v>
+      </c>
+      <c r="E74"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>219</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>220</v>
+      </c>
+      <c r="D75" t="s">
+        <v>221</v>
+      </c>
+      <c r="E75"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>234</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>235</v>
+      </c>
+      <c r="D76" t="s">
+        <v>236</v>
+      </c>
+      <c r="E76"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>635</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>636</v>
+      </c>
+      <c r="D77" t="s">
+        <v>637</v>
+      </c>
+      <c r="E77"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3711,13 +4275,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="42.83203125" customWidth="1"/>
@@ -3726,7 +4290,7 @@
     <col min="6" max="6" width="30.1640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -3743,370 +4307,408 @@
         <v>8</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>344</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>345</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>346</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>347</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>348</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>349</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>350</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>351</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
+        <v>351</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>352</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
         <v>353</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>354</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
         <v>355</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>356</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>356</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
         <v>357</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>358</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
         <v>359</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>360</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
+        <v>360</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>361</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
         <v>362</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>363</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
+        <v>363</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>364</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
         <v>365</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>366</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>366</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
         <v>367</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
         <v>368</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>369</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>369</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
         <v>370</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>371</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
       <c r="E12" t="s">
+        <v>371</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
         <v>372</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
         <v>373</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>374</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>374</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
         <v>375</v>
       </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>376</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>377</v>
       </c>
-      <c r="E14" t="s">
-        <v>378</v>
-      </c>
       <c r="F14" s="4" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15" t="s">
+        <v>378</v>
+      </c>
+      <c r="D15" t="s">
         <v>379</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>380</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" s="4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
         <v>381</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>382</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" t="s">
+        <v>382</v>
+      </c>
+      <c r="D16" t="s">
         <v>383</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>384</v>
       </c>
-      <c r="E16" t="s">
-        <v>385</v>
-      </c>
       <c r="F16" s="4" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>639</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>640</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>641</v>
+      </c>
+      <c r="F22"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
+      <c r="A25" s="1"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
+    <row r="36" spans="1:5">
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4116,13 +4718,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="34.5" customWidth="1"/>
@@ -4130,7 +4732,7 @@
     <col min="6" max="6" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4147,588 +4749,1457 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>255</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>256</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>257</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>258</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>259</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>260</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>261</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="4" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>262</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>263</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>264</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>265</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>266</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
         <v>267</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>268</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>269</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>270</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
         <v>271</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>272</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>273</v>
       </c>
-      <c r="E6" t="s">
-        <v>155</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
         <v>274</v>
       </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>272</v>
+      </c>
+      <c r="E7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>275</v>
       </c>
-      <c r="D7" t="s">
-        <v>273</v>
-      </c>
-      <c r="E7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
         <v>276</v>
       </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>277</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>278</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>279</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
         <v>280</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E9" t="s">
         <v>281</v>
       </c>
-      <c r="D9" t="s">
-        <v>257</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>282</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
         <v>283</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>272</v>
+      </c>
+      <c r="E10" t="s">
         <v>284</v>
       </c>
-      <c r="D10" t="s">
-        <v>273</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
         <v>285</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
         <v>286</v>
       </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>287</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>261</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
         <v>288</v>
       </c>
-      <c r="E11" t="s">
-        <v>262</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
         <v>289</v>
       </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>290</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>291</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" s="4" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
         <v>292</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
         <v>293</v>
       </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>256</v>
+      </c>
+      <c r="E13" t="s">
         <v>294</v>
       </c>
-      <c r="D13" t="s">
-        <v>257</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
         <v>295</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
         <v>296</v>
       </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>297</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>298</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" s="4" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
         <v>299</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
         <v>300</v>
       </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E15" t="s">
         <v>301</v>
       </c>
-      <c r="D15" t="s">
-        <v>257</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>251</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
         <v>302</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>252</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>303</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>253</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
         <v>304</v>
       </c>
-      <c r="E16" t="s">
-        <v>254</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
         <v>305</v>
       </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>256</v>
+      </c>
+      <c r="E17" t="s">
         <v>306</v>
       </c>
-      <c r="D17" t="s">
-        <v>257</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
         <v>307</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
         <v>308</v>
       </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>309</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>310</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
         <v>311</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
         <v>312</v>
       </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>264</v>
+      </c>
+      <c r="E19" t="s">
+        <v>265</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
         <v>313</v>
       </c>
-      <c r="D19" t="s">
-        <v>265</v>
-      </c>
-      <c r="E19" t="s">
-        <v>266</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
         <v>314</v>
       </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>256</v>
+      </c>
+      <c r="E20" t="s">
         <v>315</v>
       </c>
-      <c r="D20" t="s">
-        <v>257</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F20" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>227</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
         <v>316</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>228</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>317</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>225</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
         <v>318</v>
       </c>
-      <c r="E21" t="s">
-        <v>128</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>226</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>317</v>
+      </c>
+      <c r="E22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
         <v>319</v>
       </c>
-      <c r="D22" t="s">
-        <v>318</v>
-      </c>
-      <c r="E22" t="s">
-        <v>128</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
         <v>320</v>
       </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>272</v>
+      </c>
+      <c r="E23" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
         <v>321</v>
       </c>
-      <c r="D23" t="s">
-        <v>273</v>
-      </c>
-      <c r="E23" t="s">
-        <v>155</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
         <v>322</v>
       </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>323</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
         <v>324</v>
       </c>
-      <c r="E24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
         <v>325</v>
       </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>256</v>
+      </c>
+      <c r="E25" t="s">
         <v>326</v>
       </c>
-      <c r="D25" t="s">
-        <v>257</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="F25" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
         <v>327</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
         <v>328</v>
       </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>329</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>330</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
         <v>331</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>126</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>332</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
         <v>333</v>
       </c>
-      <c r="E27" t="s">
-        <v>128</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
         <v>334</v>
       </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
+        <v>272</v>
+      </c>
+      <c r="E28" t="s">
         <v>335</v>
       </c>
-      <c r="D28" t="s">
-        <v>273</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="F28" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
         <v>336</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>337</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29" t="s">
+        <v>337</v>
+      </c>
+      <c r="D29" t="s">
         <v>338</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>339</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
         <v>340</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>341</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
       <c r="C30" t="s">
+        <v>341</v>
+      </c>
+      <c r="D30" t="s">
+        <v>338</v>
+      </c>
+      <c r="E30" t="s">
         <v>342</v>
       </c>
-      <c r="D30" t="s">
-        <v>339</v>
-      </c>
-      <c r="E30" t="s">
-        <v>343</v>
-      </c>
       <c r="F30" s="4" t="s">
-        <v>306</v>
-      </c>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>254</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>255</v>
+      </c>
+      <c r="D36" t="s">
+        <v>256</v>
+      </c>
+      <c r="E36" t="s">
+        <v>543</v>
+      </c>
+      <c r="F36"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>544</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>545</v>
+      </c>
+      <c r="D37" t="s">
+        <v>546</v>
+      </c>
+      <c r="E37" t="s">
+        <v>547</v>
+      </c>
+      <c r="F37"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>258</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>259</v>
+      </c>
+      <c r="D38" t="s">
+        <v>548</v>
+      </c>
+      <c r="E38" t="s">
+        <v>261</v>
+      </c>
+      <c r="F38"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>549</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>550</v>
+      </c>
+      <c r="D39" t="s">
+        <v>551</v>
+      </c>
+      <c r="E39" t="s">
+        <v>547</v>
+      </c>
+      <c r="F39"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>262</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>263</v>
+      </c>
+      <c r="D40" t="s">
+        <v>264</v>
+      </c>
+      <c r="E40" t="s">
+        <v>265</v>
+      </c>
+      <c r="F40"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>552</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>553</v>
+      </c>
+      <c r="D41" t="s">
+        <v>554</v>
+      </c>
+      <c r="E41" t="s">
+        <v>555</v>
+      </c>
+      <c r="F41"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>556</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>557</v>
+      </c>
+      <c r="D42" t="s">
+        <v>554</v>
+      </c>
+      <c r="E42" t="s">
+        <v>558</v>
+      </c>
+      <c r="F42"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>559</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>560</v>
+      </c>
+      <c r="D43" t="s">
+        <v>561</v>
+      </c>
+      <c r="E43" t="s">
+        <v>562</v>
+      </c>
+      <c r="F43"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>266</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>267</v>
+      </c>
+      <c r="D44" t="s">
+        <v>268</v>
+      </c>
+      <c r="E44" t="s">
+        <v>269</v>
+      </c>
+      <c r="F44"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>270</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>271</v>
+      </c>
+      <c r="D45" t="s">
+        <v>272</v>
+      </c>
+      <c r="E45" t="s">
+        <v>154</v>
+      </c>
+      <c r="F45"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>273</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>274</v>
+      </c>
+      <c r="D46" t="s">
+        <v>272</v>
+      </c>
+      <c r="E46" t="s">
+        <v>154</v>
+      </c>
+      <c r="F46"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>563</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>564</v>
+      </c>
+      <c r="D47" t="s">
+        <v>565</v>
+      </c>
+      <c r="E47" t="s">
+        <v>566</v>
+      </c>
+      <c r="F47"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>275</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>276</v>
+      </c>
+      <c r="D48" t="s">
+        <v>277</v>
+      </c>
+      <c r="E48" t="s">
+        <v>278</v>
+      </c>
+      <c r="F48"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>279</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>280</v>
+      </c>
+      <c r="D49" t="s">
+        <v>256</v>
+      </c>
+      <c r="E49" t="s">
+        <v>567</v>
+      </c>
+      <c r="F49"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>282</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>283</v>
+      </c>
+      <c r="D50" t="s">
+        <v>272</v>
+      </c>
+      <c r="E50" t="s">
+        <v>284</v>
+      </c>
+      <c r="F50"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>568</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>569</v>
+      </c>
+      <c r="D51" t="s">
+        <v>570</v>
+      </c>
+      <c r="E51" t="s">
+        <v>571</v>
+      </c>
+      <c r="F51"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>288</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>289</v>
+      </c>
+      <c r="D52" t="s">
+        <v>290</v>
+      </c>
+      <c r="E52" t="s">
+        <v>572</v>
+      </c>
+      <c r="F52"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>292</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>293</v>
+      </c>
+      <c r="D53" t="s">
+        <v>256</v>
+      </c>
+      <c r="E53" t="s">
+        <v>294</v>
+      </c>
+      <c r="F53"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>573</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>574</v>
+      </c>
+      <c r="D54" t="s">
+        <v>290</v>
+      </c>
+      <c r="E54" t="s">
+        <v>575</v>
+      </c>
+      <c r="F54"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>295</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>296</v>
+      </c>
+      <c r="D55" t="s">
+        <v>297</v>
+      </c>
+      <c r="E55" t="s">
+        <v>298</v>
+      </c>
+      <c r="F55"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>576</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>577</v>
+      </c>
+      <c r="D56" t="s">
+        <v>578</v>
+      </c>
+      <c r="E56" t="s">
+        <v>579</v>
+      </c>
+      <c r="F56"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>299</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>300</v>
+      </c>
+      <c r="D57" t="s">
+        <v>256</v>
+      </c>
+      <c r="E57" t="s">
+        <v>580</v>
+      </c>
+      <c r="F57"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>251</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>511</v>
+      </c>
+      <c r="D58" t="s">
+        <v>303</v>
+      </c>
+      <c r="E58" t="s">
+        <v>253</v>
+      </c>
+      <c r="F58"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>304</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>305</v>
+      </c>
+      <c r="D59" t="s">
+        <v>256</v>
+      </c>
+      <c r="E59" t="s">
+        <v>581</v>
+      </c>
+      <c r="F59"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>307</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>308</v>
+      </c>
+      <c r="D60" t="s">
+        <v>309</v>
+      </c>
+      <c r="E60" t="s">
+        <v>310</v>
+      </c>
+      <c r="F60"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>311</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>312</v>
+      </c>
+      <c r="D61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E61" t="s">
+        <v>265</v>
+      </c>
+      <c r="F61"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>313</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>314</v>
+      </c>
+      <c r="D62" t="s">
+        <v>256</v>
+      </c>
+      <c r="E62" t="s">
+        <v>315</v>
+      </c>
+      <c r="F62"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>319</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>320</v>
+      </c>
+      <c r="D63" t="s">
+        <v>272</v>
+      </c>
+      <c r="E63" t="s">
+        <v>154</v>
+      </c>
+      <c r="F63"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>321</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>322</v>
+      </c>
+      <c r="D64" t="s">
+        <v>323</v>
+      </c>
+      <c r="E64" t="s">
+        <v>136</v>
+      </c>
+      <c r="F64"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>582</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>583</v>
+      </c>
+      <c r="D65" t="s">
+        <v>551</v>
+      </c>
+      <c r="E65" t="s">
+        <v>547</v>
+      </c>
+      <c r="F65"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>584</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>585</v>
+      </c>
+      <c r="D66" t="s">
+        <v>586</v>
+      </c>
+      <c r="E66" t="s">
+        <v>587</v>
+      </c>
+      <c r="F66"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>588</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>589</v>
+      </c>
+      <c r="D67" t="s">
+        <v>590</v>
+      </c>
+      <c r="E67" t="s">
+        <v>591</v>
+      </c>
+      <c r="F67"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>592</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>593</v>
+      </c>
+      <c r="D68" t="s">
+        <v>590</v>
+      </c>
+      <c r="E68" t="s">
+        <v>594</v>
+      </c>
+      <c r="F68"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>595</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>596</v>
+      </c>
+      <c r="D69" t="s">
+        <v>586</v>
+      </c>
+      <c r="E69" t="s">
+        <v>597</v>
+      </c>
+      <c r="F69"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>598</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>599</v>
+      </c>
+      <c r="D70" t="s">
+        <v>600</v>
+      </c>
+      <c r="E70" t="s">
+        <v>601</v>
+      </c>
+      <c r="F70"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>324</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>325</v>
+      </c>
+      <c r="D71" t="s">
+        <v>256</v>
+      </c>
+      <c r="E71" t="s">
+        <v>602</v>
+      </c>
+      <c r="F71"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>327</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>328</v>
+      </c>
+      <c r="D72" t="s">
+        <v>329</v>
+      </c>
+      <c r="E72" t="s">
+        <v>603</v>
+      </c>
+      <c r="F72"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>604</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>605</v>
+      </c>
+      <c r="D73" t="s">
+        <v>256</v>
+      </c>
+      <c r="E73" t="s">
+        <v>606</v>
+      </c>
+      <c r="F73"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>125</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>331</v>
+      </c>
+      <c r="D74" t="s">
+        <v>332</v>
+      </c>
+      <c r="E74" t="s">
+        <v>127</v>
+      </c>
+      <c r="F74"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>607</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>608</v>
+      </c>
+      <c r="D75" t="s">
+        <v>609</v>
+      </c>
+      <c r="E75" t="s">
+        <v>610</v>
+      </c>
+      <c r="F75"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>611</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>612</v>
+      </c>
+      <c r="D76" t="s">
+        <v>609</v>
+      </c>
+      <c r="E76" t="s">
+        <v>610</v>
+      </c>
+      <c r="F76"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>613</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>614</v>
+      </c>
+      <c r="D77" t="s">
+        <v>609</v>
+      </c>
+      <c r="E77" t="s">
+        <v>610</v>
+      </c>
+      <c r="F77"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>615</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>616</v>
+      </c>
+      <c r="D78" t="s">
+        <v>609</v>
+      </c>
+      <c r="E78" t="s">
+        <v>617</v>
+      </c>
+      <c r="F78"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>333</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>334</v>
+      </c>
+      <c r="D79" t="s">
+        <v>272</v>
+      </c>
+      <c r="E79" t="s">
+        <v>335</v>
+      </c>
+      <c r="F79"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>618</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80" t="s">
+        <v>619</v>
+      </c>
+      <c r="D80" t="s">
+        <v>620</v>
+      </c>
+      <c r="E80" t="s">
+        <v>547</v>
+      </c>
+      <c r="F80"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>526</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>337</v>
+      </c>
+      <c r="D81" t="s">
+        <v>338</v>
+      </c>
+      <c r="E81" t="s">
+        <v>621</v>
+      </c>
+      <c r="F81"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>340</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>341</v>
+      </c>
+      <c r="D82" t="s">
+        <v>338</v>
+      </c>
+      <c r="E82" t="s">
+        <v>342</v>
+      </c>
+      <c r="F82"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F30" xr:uid="{3F2C9002-1B0A-C348-905C-32E2D16BAD66}"/>
@@ -4739,13 +6210,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84351FC9-A5B2-F24D-8B55-E6051DA9E552}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="42.83203125" customWidth="1"/>
@@ -4754,7 +6225,7 @@
     <col min="5" max="5" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -4765,173 +6236,300 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C2" t="s">
         <v>386</v>
       </c>
-      <c r="C2" t="s">
-        <v>387</v>
-      </c>
       <c r="D2" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C4" t="s">
+        <v>436</v>
+      </c>
+      <c r="D4" t="s">
+        <v>442</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B4" t="s">
-        <v>452</v>
-      </c>
-      <c r="C4" t="s">
-        <v>457</v>
-      </c>
-      <c r="D4" t="s">
-        <v>463</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
         <v>48</v>
       </c>
-      <c r="B5" t="s">
-        <v>452</v>
-      </c>
-      <c r="C5" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="C7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
       <c r="C8" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
+        <v>433</v>
+      </c>
+      <c r="C10" t="s">
+        <v>386</v>
+      </c>
+      <c r="D10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>444</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>434</v>
+      </c>
+      <c r="C15" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" t="s">
+        <v>445</v>
+      </c>
+      <c r="D17" t="s">
+        <v>446</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="D18" s="7"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="B22" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="D27" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B10" t="s">
-        <v>454</v>
-      </c>
-      <c r="C10" t="s">
-        <v>387</v>
-      </c>
-      <c r="D10" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B33" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>465</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" t="s">
-        <v>455</v>
-      </c>
-      <c r="C15" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" t="s">
-        <v>466</v>
-      </c>
-      <c r="D17" t="s">
-        <v>467</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D18" s="7"/>
+      <c r="B34" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="D37" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="D40" t="s">
+        <v>689</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4941,20 +6539,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD48"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="76.6640625" customWidth="1"/>
+    <col min="3" max="3" width="83.83203125" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="4"/>
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -4968,834 +6566,879 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>386</v>
+        <v>420</v>
       </c>
       <c r="D2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>420</v>
       </c>
       <c r="D3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>663</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D8" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>680</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>424</v>
       </c>
       <c r="D13" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D15" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>400</v>
+        <v>645</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>401</v>
+        <v>646</v>
       </c>
       <c r="D18" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>654</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>422</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>423</v>
       </c>
       <c r="D21" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>407</v>
+        <v>648</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>408</v>
+        <v>649</v>
       </c>
       <c r="D23" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>410</v>
+        <v>45</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>411</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>387</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>388</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>400</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>401</v>
       </c>
       <c r="D28" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="D29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>403</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>665</v>
       </c>
       <c r="D30" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>415</v>
+        <v>84</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="D32" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>417</v>
+        <v>53</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>418</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="D35" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>421</v>
+        <v>57</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>422</v>
+        <v>58</v>
       </c>
       <c r="D36" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>99</v>
+        <v>666</v>
       </c>
       <c r="D37" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>406</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>668</v>
       </c>
       <c r="D38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>408</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>409</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>425</v>
+        <v>59</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>426</v>
+        <v>60</v>
       </c>
       <c r="D40" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>108</v>
+        <v>427</v>
       </c>
       <c r="D41" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>74</v>
+        <v>676</v>
       </c>
       <c r="D42" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="D43" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="D44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D45" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>79</v>
+        <v>428</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>80</v>
+        <v>424</v>
       </c>
       <c r="D46" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>434</v>
       </c>
       <c r="D47" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>431</v>
+        <v>71</v>
       </c>
       <c r="D48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>414</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="D49" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>433</v>
+        <v>106</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>434</v>
+        <v>107</v>
       </c>
       <c r="D50" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>434</v>
+        <v>111</v>
       </c>
       <c r="D51" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>423</v>
+      </c>
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>660</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>661</v>
+      </c>
+      <c r="D54" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>416</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>671</v>
+      </c>
+      <c r="D55" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>673</v>
+      </c>
+      <c r="D58" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>682</v>
+      </c>
+      <c r="D59" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>674</v>
+      </c>
+      <c r="D61" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
         <v>88</v>
       </c>
-      <c r="B52">
-        <v>2</v>
-      </c>
-      <c r="C52" t="s">
-        <v>436</v>
-      </c>
-      <c r="D52" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>113</v>
-      </c>
-      <c r="B53">
-        <v>2</v>
-      </c>
-      <c r="C53" t="s">
-        <v>438</v>
-      </c>
-      <c r="D53" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>48</v>
-      </c>
-      <c r="B54">
-        <v>2</v>
-      </c>
-      <c r="C54" t="s">
-        <v>440</v>
-      </c>
-      <c r="D54" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>62</v>
-      </c>
-      <c r="B55">
-        <v>2</v>
-      </c>
-      <c r="C55" t="s">
-        <v>442</v>
-      </c>
-      <c r="D55" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>444</v>
-      </c>
-      <c r="B56">
-        <v>2</v>
-      </c>
-      <c r="C56" t="s">
-        <v>438</v>
-      </c>
-      <c r="D56" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>69</v>
-      </c>
-      <c r="B57">
-        <v>2</v>
-      </c>
-      <c r="C57" t="s">
-        <v>446</v>
-      </c>
-      <c r="D57" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>89</v>
-      </c>
-      <c r="B58">
-        <v>2</v>
-      </c>
-      <c r="C58" t="s">
-        <v>447</v>
-      </c>
-      <c r="D58" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>85</v>
-      </c>
-      <c r="B59">
+      <c r="B63">
         <v>3</v>
       </c>
-      <c r="C59" t="s">
-        <v>449</v>
-      </c>
-      <c r="D59" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>90</v>
-      </c>
-      <c r="B60">
-        <v>4</v>
-      </c>
-      <c r="C60" t="s">
-        <v>451</v>
-      </c>
-      <c r="D60" t="s">
-        <v>16</v>
+      <c r="C63" t="s">
+        <v>678</v>
+      </c>
+      <c r="D63" t="s">
+        <v>679</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D63">
+    <sortCondition ref="A2:A63"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5803,525 +7446,563 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E96E553-B9B7-3A43-9A19-9B2DEFC1133B}">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="52.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1">
+      <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B13" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="B19" s="9"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B25" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>395</v>
-      </c>
-      <c r="B9" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="9" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>400</v>
-      </c>
-      <c r="B16" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B30" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>433</v>
-      </c>
-      <c r="B20" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B26" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>407</v>
-      </c>
-      <c r="B27" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>410</v>
-      </c>
-      <c r="B29" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>415</v>
-      </c>
-      <c r="B37" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>417</v>
-      </c>
-      <c r="B38" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>421</v>
-      </c>
-      <c r="B42" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>444</v>
-      </c>
-      <c r="B45" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>71</v>
-      </c>
-      <c r="B48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>425</v>
-      </c>
-      <c r="B49" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>107</v>
-      </c>
-      <c r="B50" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>31</v>
-      </c>
-      <c r="B51" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>32</v>
-      </c>
-      <c r="B52" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53" t="s">
-        <v>34</v>
-      </c>
-      <c r="D53" s="5"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>427</v>
-      </c>
-      <c r="B54" t="s">
-        <v>428</v>
+      <c r="B54" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="5"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="55" spans="1:4">
+      <c r="A55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B55" t="s">
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D55" s="5"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>73</v>
-      </c>
-      <c r="B56" t="s">
-        <v>74</v>
-      </c>
-      <c r="D56" s="5"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="B62" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B57" t="s">
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="5"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>90</v>
-      </c>
-      <c r="B58" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>35</v>
-      </c>
-      <c r="B59" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="B66" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B60" t="s">
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="9" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>81</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="B67" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>89</v>
-      </c>
-      <c r="B62" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>89</v>
-      </c>
-      <c r="B63" t="s">
+    <row r="68" spans="1:2">
+      <c r="A68" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" s="9" t="s">
         <v>101</v>
       </c>
     </row>

--- a/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
+++ b/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezheng/Documents/VEuPathDB-git/ApiCommonData/Load/ontology/harmonization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sshahsimpson/Documents/Git/ApiCommonData/Load/ontology/harmonization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67931F96-409C-A74B-8D40-B0503B2168FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F053B3-5672-B048-A594-C440E8EF0187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="460" windowWidth="26240" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2560" yWindow="500" windowWidth="26240" windowHeight="13380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="termWithDifferentLabels" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="708">
   <si>
     <t>sid</t>
   </si>
@@ -1617,9 +1617,6 @@
     <t>Participant</t>
   </si>
   <si>
-    <t>Entomology - although I believe we might be changing this label and IRI to Specimen collection</t>
-  </si>
-  <si>
     <t>Activity</t>
   </si>
   <si>
@@ -2101,13 +2098,67 @@
   </si>
   <si>
     <t>wrong IRI, it is 'ng/dL', need change to http://purl.obolibrary.org/obo/NCIT_C67305</t>
+  </si>
+  <si>
+    <t>Diarrhea treatment</t>
+  </si>
+  <si>
+    <t>Edinburgh Postnatal Depression Scale score</t>
+  </si>
+  <si>
+    <t>EUPATH_0036567</t>
+  </si>
+  <si>
+    <t>Arthropod collection</t>
+  </si>
+  <si>
+    <t>Feeding</t>
+  </si>
+  <si>
+    <t>Arthropod collection process</t>
+  </si>
+  <si>
+    <t>Pregnancy</t>
+  </si>
+  <si>
+    <t>Sample details</t>
+  </si>
+  <si>
+    <t>Immunization and prevention</t>
+  </si>
+  <si>
+    <t>use hrs</t>
+  </si>
+  <si>
+    <t>Family income in local currency</t>
+  </si>
+  <si>
+    <t>Cumulative time exclusive breastfeeding with unit days</t>
+  </si>
+  <si>
+    <t>Socioeconomic status</t>
+  </si>
+  <si>
+    <t>Symptoms</t>
+  </si>
+  <si>
+    <t>Family income in USD' - make sure there are no units entered</t>
+  </si>
+  <si>
+    <t>Plesiomonas, by TAC result - should have units of 'CT value'</t>
+  </si>
+  <si>
+    <t>Time living in settlement - should have units of 'years'</t>
+  </si>
+  <si>
+    <t>Arthropod collection' EUPATH_0044177</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2621,7 +2672,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2633,6 +2684,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2991,11 +3043,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
@@ -3004,7 +3056,7 @@
     <col min="5" max="5" width="55.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3021,7 +3073,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -3038,10 +3090,10 @@
         <v>448</v>
       </c>
       <c r="F2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -3058,10 +3110,10 @@
         <v>449</v>
       </c>
       <c r="F3" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -3078,10 +3130,10 @@
         <v>450</v>
       </c>
       <c r="F4" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>122</v>
       </c>
@@ -3098,10 +3150,10 @@
         <v>451</v>
       </c>
       <c r="F5" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>125</v>
       </c>
@@ -3118,10 +3170,10 @@
         <v>452</v>
       </c>
       <c r="F6" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>128</v>
       </c>
@@ -3138,10 +3190,10 @@
         <v>512</v>
       </c>
       <c r="F7" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>131</v>
       </c>
@@ -3158,10 +3210,10 @@
         <v>453</v>
       </c>
       <c r="F8" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>134</v>
       </c>
@@ -3178,10 +3230,10 @@
         <v>454</v>
       </c>
       <c r="F9" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>137</v>
       </c>
@@ -3198,10 +3250,10 @@
         <v>455</v>
       </c>
       <c r="F10" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>139</v>
       </c>
@@ -3218,10 +3270,10 @@
         <v>456</v>
       </c>
       <c r="F11" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>142</v>
       </c>
@@ -3238,10 +3290,10 @@
         <v>457</v>
       </c>
       <c r="F12" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>144</v>
       </c>
@@ -3258,10 +3310,10 @@
         <v>458</v>
       </c>
       <c r="F13" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>147</v>
       </c>
@@ -3278,7 +3330,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>150</v>
       </c>
@@ -3295,7 +3347,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>152</v>
       </c>
@@ -3312,7 +3364,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>155</v>
       </c>
@@ -3329,7 +3381,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>157</v>
       </c>
@@ -3346,7 +3398,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>159</v>
       </c>
@@ -3363,7 +3415,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>161</v>
       </c>
@@ -3380,7 +3432,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>163</v>
       </c>
@@ -3397,7 +3449,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>165</v>
       </c>
@@ -3414,7 +3466,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>167</v>
       </c>
@@ -3431,7 +3483,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>169</v>
       </c>
@@ -3448,7 +3500,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>171</v>
       </c>
@@ -3465,7 +3517,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>173</v>
       </c>
@@ -3482,7 +3534,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>175</v>
       </c>
@@ -3499,7 +3551,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>177</v>
       </c>
@@ -3516,7 +3568,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>179</v>
       </c>
@@ -3533,7 +3585,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>181</v>
       </c>
@@ -3550,7 +3602,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>183</v>
       </c>
@@ -3567,7 +3619,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>185</v>
       </c>
@@ -3584,7 +3636,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>187</v>
       </c>
@@ -3601,7 +3653,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>189</v>
       </c>
@@ -3618,7 +3670,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>191</v>
       </c>
@@ -3635,7 +3687,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>193</v>
       </c>
@@ -3652,7 +3704,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>195</v>
       </c>
@@ -3669,7 +3721,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>197</v>
       </c>
@@ -3686,7 +3738,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>199</v>
       </c>
@@ -3703,7 +3755,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>201</v>
       </c>
@@ -3720,7 +3772,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>203</v>
       </c>
@@ -3737,7 +3789,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>205</v>
       </c>
@@ -3754,7 +3806,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>207</v>
       </c>
@@ -3771,7 +3823,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>209</v>
       </c>
@@ -3788,7 +3840,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>211</v>
       </c>
@@ -3805,7 +3857,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>213</v>
       </c>
@@ -3822,7 +3874,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>216</v>
       </c>
@@ -3839,7 +3891,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>219</v>
       </c>
@@ -3856,7 +3908,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>222</v>
       </c>
@@ -3873,7 +3925,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>225</v>
       </c>
@@ -3890,7 +3942,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>227</v>
       </c>
@@ -3907,7 +3959,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>229</v>
       </c>
@@ -3924,7 +3976,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>232</v>
       </c>
@@ -3941,7 +3993,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>499</v>
       </c>
@@ -3958,7 +4010,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>505</v>
       </c>
@@ -3975,7 +4027,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>234</v>
       </c>
@@ -3992,7 +4044,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>237</v>
       </c>
@@ -4009,7 +4061,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>240</v>
       </c>
@@ -4026,7 +4078,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>243</v>
       </c>
@@ -4043,7 +4095,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>245</v>
       </c>
@@ -4060,7 +4112,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>248</v>
       </c>
@@ -4077,7 +4129,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>251</v>
       </c>
@@ -4094,15 +4146,15 @@
         <v>511</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E63" s="8"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -4115,9 +4167,8 @@
       <c r="D67" t="s">
         <v>3</v>
       </c>
-      <c r="E67"/>
-    </row>
-    <row r="68" spans="1:5">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>125</v>
       </c>
@@ -4130,24 +4181,28 @@
       <c r="D68" t="s">
         <v>127</v>
       </c>
-      <c r="E68"/>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="E68" s="4" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>622</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
         <v>623</v>
       </c>
-      <c r="B69">
-        <v>2</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>624</v>
       </c>
-      <c r="D69" t="s">
-        <v>625</v>
-      </c>
-      <c r="E69"/>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="E69" s="4" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>183</v>
       </c>
@@ -4155,29 +4210,33 @@
         <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D70" t="s">
         <v>149</v>
       </c>
-      <c r="E70"/>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="E70" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>626</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
         <v>627</v>
       </c>
-      <c r="B71">
-        <v>2</v>
-      </c>
-      <c r="C71" t="s">
-        <v>628</v>
-      </c>
       <c r="D71" t="s">
-        <v>547</v>
-      </c>
-      <c r="E71"/>
-    </row>
-    <row r="72" spans="1:5">
+        <v>546</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>213</v>
       </c>
@@ -4185,44 +4244,50 @@
         <v>2</v>
       </c>
       <c r="C72" t="s">
+        <v>628</v>
+      </c>
+      <c r="D72" t="s">
         <v>629</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>630</v>
       </c>
-      <c r="E72"/>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="s">
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
         <v>631</v>
       </c>
-      <c r="B73">
-        <v>2</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
+        <v>578</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>632</v>
       </c>
-      <c r="D73" t="s">
-        <v>579</v>
-      </c>
-      <c r="E73"/>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="s">
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
         <v>633</v>
       </c>
-      <c r="B74">
-        <v>2</v>
-      </c>
-      <c r="C74" t="s">
-        <v>634</v>
-      </c>
       <c r="D74" t="s">
-        <v>617</v>
-      </c>
-      <c r="E74"/>
-    </row>
-    <row r="75" spans="1:5">
+        <v>616</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>219</v>
       </c>
@@ -4235,9 +4300,11 @@
       <c r="D75" t="s">
         <v>221</v>
       </c>
-      <c r="E75"/>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="E75" s="4" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>234</v>
       </c>
@@ -4250,22 +4317,26 @@
       <c r="D76" t="s">
         <v>236</v>
       </c>
-      <c r="E76"/>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="E76" s="4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>634</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
         <v>635</v>
       </c>
-      <c r="B77">
-        <v>2</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>636</v>
       </c>
-      <c r="D77" t="s">
-        <v>637</v>
-      </c>
-      <c r="E77"/>
+      <c r="E77" s="4" t="s">
+        <v>691</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4277,11 +4348,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="42.83203125" customWidth="1"/>
@@ -4290,7 +4361,7 @@
     <col min="6" max="6" width="30.1640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -4310,7 +4381,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>343</v>
       </c>
@@ -4330,7 +4401,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>346</v>
       </c>
@@ -4350,7 +4421,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>349</v>
       </c>
@@ -4370,7 +4441,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>352</v>
       </c>
@@ -4390,7 +4461,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>354</v>
       </c>
@@ -4410,7 +4481,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>356</v>
       </c>
@@ -4430,7 +4501,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>358</v>
       </c>
@@ -4450,7 +4521,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>361</v>
       </c>
@@ -4470,7 +4541,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>364</v>
       </c>
@@ -4490,7 +4561,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>367</v>
       </c>
@@ -4510,7 +4581,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>369</v>
       </c>
@@ -4530,7 +4601,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>372</v>
       </c>
@@ -4550,7 +4621,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>374</v>
       </c>
@@ -4570,7 +4641,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>337</v>
       </c>
@@ -4590,7 +4661,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>381</v>
       </c>
@@ -4607,21 +4678,21 @@
         <v>384</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -4639,75 +4710,77 @@
       </c>
       <c r="F21"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>638</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
         <v>639</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>640</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>641</v>
-      </c>
-      <c r="F22"/>
-    </row>
-    <row r="23" spans="1:6">
+        <v>640</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
     </row>
   </sheetData>
@@ -4720,11 +4793,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="34.5" customWidth="1"/>
@@ -4732,7 +4805,7 @@
     <col min="6" max="6" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4752,7 +4825,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>254</v>
       </c>
@@ -4772,7 +4845,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>258</v>
       </c>
@@ -4788,11 +4861,11 @@
       <c r="E3" t="s">
         <v>261</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3" s="11" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>262</v>
       </c>
@@ -4809,10 +4882,10 @@
         <v>265</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>266</v>
       </c>
@@ -4832,7 +4905,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>270</v>
       </c>
@@ -4849,10 +4922,10 @@
         <v>154</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>273</v>
       </c>
@@ -4869,10 +4942,10 @@
         <v>154</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>275</v>
       </c>
@@ -4889,10 +4962,10 @@
         <v>278</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>279</v>
       </c>
@@ -4912,7 +4985,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>282</v>
       </c>
@@ -4929,10 +5002,10 @@
         <v>284</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>285</v>
       </c>
@@ -4948,11 +5021,11 @@
       <c r="E11" t="s">
         <v>261</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11" s="11" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>288</v>
       </c>
@@ -4969,10 +5042,10 @@
         <v>291</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>292</v>
       </c>
@@ -4992,7 +5065,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>295</v>
       </c>
@@ -5009,10 +5082,10 @@
         <v>298</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>299</v>
       </c>
@@ -5032,7 +5105,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>251</v>
       </c>
@@ -5049,10 +5122,10 @@
         <v>253</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>304</v>
       </c>
@@ -5072,7 +5145,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>307</v>
       </c>
@@ -5092,7 +5165,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>311</v>
       </c>
@@ -5109,10 +5182,10 @@
         <v>265</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>313</v>
       </c>
@@ -5132,7 +5205,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>227</v>
       </c>
@@ -5149,10 +5222,10 @@
         <v>127</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>225</v>
       </c>
@@ -5169,10 +5242,10 @@
         <v>127</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>319</v>
       </c>
@@ -5189,10 +5262,10 @@
         <v>154</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>321</v>
       </c>
@@ -5209,10 +5282,10 @@
         <v>136</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>324</v>
       </c>
@@ -5232,7 +5305,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>327</v>
       </c>
@@ -5252,7 +5325,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>125</v>
       </c>
@@ -5269,10 +5342,10 @@
         <v>127</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>333</v>
       </c>
@@ -5289,10 +5362,10 @@
         <v>335</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>336</v>
       </c>
@@ -5312,7 +5385,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>340</v>
       </c>
@@ -5332,12 +5405,12 @@
         <v>305</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -5353,9 +5426,8 @@
       <c r="E35" t="s">
         <v>3</v>
       </c>
-      <c r="F35"/>
-    </row>
-    <row r="36" spans="1:6">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>254</v>
       </c>
@@ -5369,29 +5441,33 @@
         <v>256</v>
       </c>
       <c r="E36" t="s">
+        <v>542</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>543</v>
       </c>
-      <c r="F36"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
         <v>544</v>
       </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>545</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>546</v>
       </c>
-      <c r="E37" t="s">
-        <v>547</v>
-      </c>
-      <c r="F37"/>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="F37" s="4" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>258</v>
       </c>
@@ -5402,32 +5478,36 @@
         <v>259</v>
       </c>
       <c r="D38" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E38" t="s">
         <v>261</v>
       </c>
-      <c r="F38"/>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="F38" s="4" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>548</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
         <v>549</v>
       </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>550</v>
       </c>
-      <c r="D39" t="s">
-        <v>551</v>
-      </c>
       <c r="E39" t="s">
-        <v>547</v>
-      </c>
-      <c r="F39"/>
-    </row>
-    <row r="40" spans="1:6">
+        <v>546</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>262</v>
       </c>
@@ -5443,63 +5523,71 @@
       <c r="E40" t="s">
         <v>265</v>
       </c>
-      <c r="F40"/>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="F40" s="4" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>551</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
         <v>552</v>
       </c>
-      <c r="B41">
-        <v>2</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>553</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>554</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>555</v>
       </c>
-      <c r="F41"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
         <v>556</v>
       </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>553</v>
+      </c>
+      <c r="E42" t="s">
         <v>557</v>
       </c>
-      <c r="D42" t="s">
-        <v>554</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="F42" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>558</v>
       </c>
-      <c r="F42"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
         <v>559</v>
       </c>
-      <c r="B43">
-        <v>2</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>560</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>561</v>
       </c>
-      <c r="E43" t="s">
-        <v>562</v>
-      </c>
-      <c r="F43"/>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="F43" s="4" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>266</v>
       </c>
@@ -5515,9 +5603,11 @@
       <c r="E44" t="s">
         <v>269</v>
       </c>
-      <c r="F44"/>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="F44" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>270</v>
       </c>
@@ -5533,9 +5623,11 @@
       <c r="E45" t="s">
         <v>154</v>
       </c>
-      <c r="F45"/>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="F45" s="4" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>273</v>
       </c>
@@ -5551,27 +5643,31 @@
       <c r="E46" t="s">
         <v>154</v>
       </c>
-      <c r="F46"/>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="F46" s="4" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>562</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
         <v>563</v>
       </c>
-      <c r="B47">
-        <v>2</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>564</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>565</v>
       </c>
-      <c r="E47" t="s">
-        <v>566</v>
-      </c>
-      <c r="F47"/>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="F47" s="4" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>275</v>
       </c>
@@ -5587,9 +5683,11 @@
       <c r="E48" t="s">
         <v>278</v>
       </c>
-      <c r="F48"/>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="F48" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>279</v>
       </c>
@@ -5603,11 +5701,13 @@
         <v>256</v>
       </c>
       <c r="E49" t="s">
-        <v>567</v>
-      </c>
-      <c r="F49"/>
-    </row>
-    <row r="50" spans="1:6">
+        <v>566</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>282</v>
       </c>
@@ -5623,27 +5723,31 @@
       <c r="E50" t="s">
         <v>284</v>
       </c>
-      <c r="F50"/>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="F50" s="4" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>567</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
         <v>568</v>
       </c>
-      <c r="B51">
-        <v>2</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>569</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>570</v>
       </c>
-      <c r="E51" t="s">
-        <v>571</v>
-      </c>
-      <c r="F51"/>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="F51" s="4" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>288</v>
       </c>
@@ -5657,11 +5761,13 @@
         <v>290</v>
       </c>
       <c r="E52" t="s">
-        <v>572</v>
-      </c>
-      <c r="F52"/>
-    </row>
-    <row r="53" spans="1:6">
+        <v>571</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>292</v>
       </c>
@@ -5677,27 +5783,31 @@
       <c r="E53" t="s">
         <v>294</v>
       </c>
-      <c r="F53"/>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="F53" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>572</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
         <v>573</v>
-      </c>
-      <c r="B54">
-        <v>2</v>
-      </c>
-      <c r="C54" t="s">
-        <v>574</v>
       </c>
       <c r="D54" t="s">
         <v>290</v>
       </c>
       <c r="E54" t="s">
-        <v>575</v>
-      </c>
-      <c r="F54"/>
-    </row>
-    <row r="55" spans="1:6">
+        <v>574</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>295</v>
       </c>
@@ -5713,27 +5823,31 @@
       <c r="E55" t="s">
         <v>298</v>
       </c>
-      <c r="F55"/>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="F55" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>575</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
         <v>576</v>
       </c>
-      <c r="B56">
-        <v>2</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>577</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>578</v>
       </c>
-      <c r="E56" t="s">
-        <v>579</v>
-      </c>
-      <c r="F56"/>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="F56" s="4" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>299</v>
       </c>
@@ -5747,11 +5861,13 @@
         <v>256</v>
       </c>
       <c r="E57" t="s">
-        <v>580</v>
-      </c>
-      <c r="F57"/>
-    </row>
-    <row r="58" spans="1:6">
+        <v>579</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>251</v>
       </c>
@@ -5767,9 +5883,8 @@
       <c r="E58" t="s">
         <v>253</v>
       </c>
-      <c r="F58"/>
-    </row>
-    <row r="59" spans="1:6">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>304</v>
       </c>
@@ -5783,11 +5898,13 @@
         <v>256</v>
       </c>
       <c r="E59" t="s">
-        <v>581</v>
-      </c>
-      <c r="F59"/>
-    </row>
-    <row r="60" spans="1:6">
+        <v>580</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>307</v>
       </c>
@@ -5803,9 +5920,11 @@
       <c r="E60" t="s">
         <v>310</v>
       </c>
-      <c r="F60"/>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="F60" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>311</v>
       </c>
@@ -5821,9 +5940,11 @@
       <c r="E61" t="s">
         <v>265</v>
       </c>
-      <c r="F61"/>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="F61" s="4" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>313</v>
       </c>
@@ -5839,9 +5960,11 @@
       <c r="E62" t="s">
         <v>315</v>
       </c>
-      <c r="F62"/>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="F62" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>319</v>
       </c>
@@ -5857,9 +5980,11 @@
       <c r="E63" t="s">
         <v>154</v>
       </c>
-      <c r="F63"/>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="F63" s="4" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>321</v>
       </c>
@@ -5875,117 +6000,128 @@
       <c r="E64" t="s">
         <v>136</v>
       </c>
-      <c r="F64"/>
-    </row>
-    <row r="65" spans="1:6">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>581</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
         <v>582</v>
       </c>
-      <c r="B65">
-        <v>2</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
+        <v>550</v>
+      </c>
+      <c r="E65" t="s">
+        <v>546</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>583</v>
       </c>
-      <c r="D65" t="s">
-        <v>551</v>
-      </c>
-      <c r="E65" t="s">
-        <v>547</v>
-      </c>
-      <c r="F65"/>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" t="s">
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
         <v>584</v>
       </c>
-      <c r="B66">
-        <v>2</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>585</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>586</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>587</v>
       </c>
-      <c r="F66"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" t="s">
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
         <v>588</v>
       </c>
-      <c r="B67">
-        <v>2</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>589</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>590</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" s="4" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>591</v>
       </c>
-      <c r="F67"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" t="s">
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
         <v>592</v>
       </c>
-      <c r="B68">
-        <v>2</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
+        <v>589</v>
+      </c>
+      <c r="E68" t="s">
         <v>593</v>
       </c>
-      <c r="D68" t="s">
-        <v>590</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="F68" s="4" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>594</v>
       </c>
-      <c r="F68"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" t="s">
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
         <v>595</v>
       </c>
-      <c r="B69">
-        <v>2</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
+        <v>585</v>
+      </c>
+      <c r="E69" t="s">
         <v>596</v>
       </c>
-      <c r="D69" t="s">
-        <v>586</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="F69" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>597</v>
       </c>
-      <c r="F69"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" t="s">
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
         <v>598</v>
       </c>
-      <c r="B70">
-        <v>2</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>599</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>600</v>
       </c>
-      <c r="E70" t="s">
-        <v>601</v>
-      </c>
-      <c r="F70"/>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="F70" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>324</v>
       </c>
@@ -5999,11 +6135,13 @@
         <v>256</v>
       </c>
       <c r="E71" t="s">
-        <v>602</v>
-      </c>
-      <c r="F71"/>
-    </row>
-    <row r="72" spans="1:6">
+        <v>601</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>327</v>
       </c>
@@ -6017,29 +6155,33 @@
         <v>329</v>
       </c>
       <c r="E72" t="s">
+        <v>602</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>603</v>
       </c>
-      <c r="F72"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" t="s">
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
         <v>604</v>
-      </c>
-      <c r="B73">
-        <v>2</v>
-      </c>
-      <c r="C73" t="s">
-        <v>605</v>
       </c>
       <c r="D73" t="s">
         <v>256</v>
       </c>
       <c r="E73" t="s">
-        <v>606</v>
-      </c>
-      <c r="F73"/>
-    </row>
-    <row r="74" spans="1:6">
+        <v>605</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>125</v>
       </c>
@@ -6055,81 +6197,91 @@
       <c r="E74" t="s">
         <v>127</v>
       </c>
-      <c r="F74"/>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="F74" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>606</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
         <v>607</v>
       </c>
-      <c r="B75">
-        <v>2</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>608</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>609</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" s="4" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>610</v>
       </c>
-      <c r="F75"/>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" t="s">
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s">
         <v>611</v>
       </c>
-      <c r="B76">
-        <v>2</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
+        <v>608</v>
+      </c>
+      <c r="E76" t="s">
+        <v>609</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>612</v>
       </c>
-      <c r="D76" t="s">
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>613</v>
+      </c>
+      <c r="D77" t="s">
+        <v>608</v>
+      </c>
+      <c r="E77" t="s">
         <v>609</v>
       </c>
-      <c r="E76" t="s">
-        <v>610</v>
-      </c>
-      <c r="F76"/>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" t="s">
-        <v>613</v>
-      </c>
-      <c r="B77">
-        <v>2</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="F77" s="4" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>614</v>
       </c>
-      <c r="D77" t="s">
-        <v>609</v>
-      </c>
-      <c r="E77" t="s">
-        <v>610</v>
-      </c>
-      <c r="F77"/>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" t="s">
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s">
         <v>615</v>
       </c>
-      <c r="B78">
-        <v>2</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
+        <v>608</v>
+      </c>
+      <c r="E78" t="s">
         <v>616</v>
       </c>
-      <c r="D78" t="s">
-        <v>609</v>
-      </c>
-      <c r="E78" t="s">
-        <v>617</v>
-      </c>
-      <c r="F78"/>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="F78" s="4" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>333</v>
       </c>
@@ -6145,27 +6297,28 @@
       <c r="E79" t="s">
         <v>335</v>
       </c>
-      <c r="F79"/>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="F79" s="4" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>617</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80" t="s">
         <v>618</v>
       </c>
-      <c r="B80">
-        <v>2</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>619</v>
       </c>
-      <c r="D80" t="s">
-        <v>620</v>
-      </c>
       <c r="E80" t="s">
-        <v>547</v>
-      </c>
-      <c r="F80"/>
-    </row>
-    <row r="81" spans="1:6">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>526</v>
       </c>
@@ -6179,11 +6332,13 @@
         <v>338</v>
       </c>
       <c r="E81" t="s">
-        <v>621</v>
-      </c>
-      <c r="F81"/>
-    </row>
-    <row r="82" spans="1:6">
+        <v>620</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>340</v>
       </c>
@@ -6199,7 +6354,9 @@
       <c r="E82" t="s">
         <v>342</v>
       </c>
-      <c r="F82"/>
+      <c r="F82" s="4" t="s">
+        <v>305</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F30" xr:uid="{3F2C9002-1B0A-C348-905C-32E2D16BAD66}"/>
@@ -6212,11 +6369,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84351FC9-A5B2-F24D-8B55-E6051DA9E552}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="42.83203125" customWidth="1"/>
@@ -6225,7 +6382,7 @@
     <col min="5" max="5" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -6242,7 +6399,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -6256,10 +6413,10 @@
         <v>441</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -6273,10 +6430,10 @@
         <v>442</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -6287,7 +6444,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -6298,7 +6455,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -6309,7 +6466,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -6320,7 +6477,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -6334,7 +6491,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -6345,7 +6502,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -6356,7 +6513,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -6370,10 +6527,10 @@
         <v>444</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -6384,7 +6541,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>88</v>
       </c>
@@ -6398,26 +6555,26 @@
         <v>446</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D18" s="7"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B22" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>43</v>
       </c>
@@ -6425,18 +6582,21 @@
         <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>684</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>84</v>
       </c>
@@ -6444,10 +6604,10 @@
         <v>433</v>
       </c>
       <c r="D27" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>84</v>
       </c>
@@ -6455,7 +6615,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>83</v>
       </c>
@@ -6463,7 +6623,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>83</v>
       </c>
@@ -6471,10 +6631,10 @@
         <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>85</v>
       </c>
@@ -6482,7 +6642,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>85</v>
       </c>
@@ -6490,18 +6650,18 @@
         <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>416</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>416</v>
       </c>
@@ -6509,10 +6669,10 @@
         <v>417</v>
       </c>
       <c r="D37" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>76</v>
       </c>
@@ -6520,15 +6680,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>76</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D40" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>
@@ -6545,14 +6705,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="83.83203125" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="4"/>
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -6566,7 +6726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -6580,7 +6740,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -6594,7 +6754,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -6608,7 +6768,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -6619,10 +6779,10 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -6633,10 +6793,10 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -6644,13 +6804,13 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
+        <v>662</v>
+      </c>
+      <c r="D7" t="s">
         <v>663</v>
       </c>
-      <c r="D7" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>391</v>
       </c>
@@ -6664,7 +6824,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -6678,7 +6838,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -6689,10 +6849,10 @@
         <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -6700,13 +6860,13 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
+        <v>679</v>
+      </c>
+      <c r="D11" t="s">
         <v>680</v>
       </c>
-      <c r="D11" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -6720,7 +6880,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>112</v>
       </c>
@@ -6734,7 +6894,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -6748,7 +6908,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>396</v>
       </c>
@@ -6759,10 +6919,10 @@
         <v>397</v>
       </c>
       <c r="D15" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -6773,10 +6933,10 @@
         <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -6790,21 +6950,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
+        <v>645</v>
+      </c>
+      <c r="D18" t="s">
         <v>646</v>
       </c>
-      <c r="D18" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -6818,9 +6978,9 @@
         <v>398</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -6829,10 +6989,10 @@
         <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>422</v>
       </c>
@@ -6843,10 +7003,10 @@
         <v>423</v>
       </c>
       <c r="D21" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -6860,21 +7020,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
+        <v>648</v>
+      </c>
+      <c r="D23" t="s">
         <v>649</v>
       </c>
-      <c r="D23" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>82</v>
       </c>
@@ -6885,10 +7045,10 @@
         <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -6902,7 +7062,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -6916,7 +7076,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>387</v>
       </c>
@@ -6930,7 +7090,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>400</v>
       </c>
@@ -6944,7 +7104,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>104</v>
       </c>
@@ -6958,7 +7118,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>403</v>
       </c>
@@ -6966,13 +7126,13 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D30" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -6983,10 +7143,10 @@
         <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>84</v>
       </c>
@@ -6997,10 +7157,10 @@
         <v>430</v>
       </c>
       <c r="D32" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -7011,10 +7171,10 @@
         <v>54</v>
       </c>
       <c r="D33" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -7029,7 +7189,7 @@
       </c>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -7040,10 +7200,10 @@
         <v>56</v>
       </c>
       <c r="D35" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>57</v>
       </c>
@@ -7054,10 +7214,10 @@
         <v>58</v>
       </c>
       <c r="D36" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -7065,13 +7225,13 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
+        <v>665</v>
+      </c>
+      <c r="D37" t="s">
         <v>666</v>
       </c>
-      <c r="D37" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>406</v>
       </c>
@@ -7079,13 +7239,13 @@
         <v>2</v>
       </c>
       <c r="C38" t="s">
+        <v>667</v>
+      </c>
+      <c r="D38" t="s">
         <v>668</v>
       </c>
-      <c r="D38" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>408</v>
       </c>
@@ -7099,7 +7259,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -7110,10 +7270,10 @@
         <v>60</v>
       </c>
       <c r="D40" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -7124,10 +7284,10 @@
         <v>427</v>
       </c>
       <c r="D41" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -7135,13 +7295,13 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
+        <v>675</v>
+      </c>
+      <c r="D42" t="s">
         <v>676</v>
       </c>
-      <c r="D42" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>410</v>
       </c>
@@ -7155,7 +7315,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -7166,10 +7326,10 @@
         <v>98</v>
       </c>
       <c r="D44" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -7180,10 +7340,10 @@
         <v>65</v>
       </c>
       <c r="D45" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>428</v>
       </c>
@@ -7197,7 +7357,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>68</v>
       </c>
@@ -7211,7 +7371,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -7225,7 +7385,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>414</v>
       </c>
@@ -7239,7 +7399,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>106</v>
       </c>
@@ -7253,7 +7413,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -7267,7 +7427,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>31</v>
       </c>
@@ -7281,7 +7441,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>32</v>
       </c>
@@ -7292,24 +7452,24 @@
         <v>33</v>
       </c>
       <c r="D53" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D54" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>416</v>
       </c>
@@ -7317,13 +7477,13 @@
         <v>2</v>
       </c>
       <c r="C55" t="s">
+        <v>670</v>
+      </c>
+      <c r="D55" t="s">
         <v>671</v>
       </c>
-      <c r="D55" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>74</v>
       </c>
@@ -7337,7 +7497,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -7348,10 +7508,10 @@
         <v>73</v>
       </c>
       <c r="D57" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>76</v>
       </c>
@@ -7359,13 +7519,13 @@
         <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D58" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>89</v>
       </c>
@@ -7373,13 +7533,13 @@
         <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D59" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -7390,10 +7550,10 @@
         <v>110</v>
       </c>
       <c r="D60" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -7401,13 +7561,13 @@
         <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D61" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>80</v>
       </c>
@@ -7421,7 +7581,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>88</v>
       </c>
@@ -7429,10 +7589,10 @@
         <v>3</v>
       </c>
       <c r="C63" t="s">
+        <v>677</v>
+      </c>
+      <c r="D63" t="s">
         <v>678</v>
-      </c>
-      <c r="D63" t="s">
-        <v>679</v>
       </c>
     </row>
   </sheetData>
@@ -7452,13 +7612,13 @@
       <selection activeCell="A62" sqref="A62:B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="52.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
@@ -7466,7 +7626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>99</v>
       </c>
@@ -7474,7 +7634,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>17</v>
       </c>
@@ -7482,7 +7642,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>35</v>
       </c>
@@ -7490,7 +7650,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>37</v>
       </c>
@@ -7498,7 +7658,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
@@ -7506,7 +7666,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>81</v>
       </c>
@@ -7514,7 +7674,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>391</v>
       </c>
@@ -7522,7 +7682,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>102</v>
       </c>
@@ -7530,7 +7690,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>22</v>
       </c>
@@ -7538,7 +7698,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>87</v>
       </c>
@@ -7546,7 +7706,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>87</v>
       </c>
@@ -7554,7 +7714,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>39</v>
       </c>
@@ -7562,7 +7722,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>112</v>
       </c>
@@ -7570,7 +7730,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>23</v>
       </c>
@@ -7578,7 +7738,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>396</v>
       </c>
@@ -7586,7 +7746,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>41</v>
       </c>
@@ -7594,7 +7754,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>26</v>
       </c>
@@ -7602,13 +7762,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>43</v>
       </c>
@@ -7616,15 +7776,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>422</v>
       </c>
@@ -7632,7 +7792,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>28</v>
       </c>
@@ -7640,15 +7800,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>82</v>
       </c>
@@ -7656,7 +7816,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>45</v>
       </c>
@@ -7664,7 +7824,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>47</v>
       </c>
@@ -7672,7 +7832,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>387</v>
       </c>
@@ -7680,7 +7840,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>400</v>
       </c>
@@ -7688,7 +7848,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>104</v>
       </c>
@@ -7696,7 +7856,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>403</v>
       </c>
@@ -7704,7 +7864,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>49</v>
       </c>
@@ -7712,7 +7872,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>84</v>
       </c>
@@ -7720,7 +7880,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>84</v>
       </c>
@@ -7728,7 +7888,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>53</v>
       </c>
@@ -7736,7 +7896,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>51</v>
       </c>
@@ -7744,7 +7904,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>55</v>
       </c>
@@ -7752,7 +7912,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>83</v>
       </c>
@@ -7760,7 +7920,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>83</v>
       </c>
@@ -7768,7 +7928,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>406</v>
       </c>
@@ -7776,7 +7936,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>408</v>
       </c>
@@ -7784,7 +7944,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>59</v>
       </c>
@@ -7792,7 +7952,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>61</v>
       </c>
@@ -7800,7 +7960,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>85</v>
       </c>
@@ -7808,7 +7968,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>85</v>
       </c>
@@ -7816,7 +7976,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>410</v>
       </c>
@@ -7824,7 +7984,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>86</v>
       </c>
@@ -7832,7 +7992,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>64</v>
       </c>
@@ -7840,7 +8000,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>428</v>
       </c>
@@ -7848,7 +8008,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>68</v>
       </c>
@@ -7856,7 +8016,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>70</v>
       </c>
@@ -7864,7 +8024,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>414</v>
       </c>
@@ -7872,7 +8032,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>106</v>
       </c>
@@ -7881,7 +8041,7 @@
       </c>
       <c r="D53" s="5"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>30</v>
       </c>
@@ -7891,7 +8051,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="5"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>31</v>
       </c>
@@ -7900,7 +8060,7 @@
       </c>
       <c r="D55" s="5"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>32</v>
       </c>
@@ -7909,24 +8069,24 @@
       </c>
       <c r="D56" s="5"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="B57" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>661</v>
-      </c>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>416</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>416</v>
       </c>
@@ -7934,7 +8094,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>74</v>
       </c>
@@ -7942,7 +8102,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
         <v>72</v>
       </c>
@@ -7950,7 +8110,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>76</v>
       </c>
@@ -7958,15 +8118,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>76</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
         <v>89</v>
       </c>
@@ -7974,7 +8134,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>34</v>
       </c>
@@ -7982,7 +8142,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>78</v>
       </c>
@@ -7990,7 +8150,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>80</v>
       </c>
@@ -7998,7 +8158,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>88</v>
       </c>

--- a/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
+++ b/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezheng/Documents/VEuPathDB-git/ApiCommonData/Load/ontology/harmonization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sshahsimpson/Documents/Git/ApiCommonData/Load/ontology/harmonization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB10AD3-00BF-D142-845C-8040B5F826EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD7C542-BBA6-BF45-BAD7-5D2EF4E5DB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="26240" windowHeight="13380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="1660" windowWidth="26240" windowHeight="13380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="termWithDifferentLabels" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="808">
   <si>
     <t>sid</t>
   </si>
@@ -2395,13 +2395,70 @@
   </si>
   <si>
     <t>all other studies</t>
+  </si>
+  <si>
+    <t>Anopheles gambiae sensu lato results</t>
+  </si>
+  <si>
+    <t>Occupation 2</t>
+  </si>
+  <si>
+    <t>ITN bednet count, treated &lt;6 months ago</t>
+  </si>
+  <si>
+    <t>ITN bednet count, treated &gt;6 months ago</t>
+  </si>
+  <si>
+    <t>Children &lt;60 months in dwelling count</t>
+  </si>
+  <si>
+    <t>Diarrhea treatment</t>
+  </si>
+  <si>
+    <t>Regular ITN, treated &gt;6 months ago</t>
+  </si>
+  <si>
+    <t>Regular ITN, treated &lt;6 months ago</t>
+  </si>
+  <si>
+    <t>Microvette sample</t>
+  </si>
+  <si>
+    <t>Vacutainer sample</t>
+  </si>
+  <si>
+    <t>Water source type within 5 km of school</t>
+  </si>
+  <si>
+    <t>Maternal Edinburgh Postnatal Depression Scale score</t>
+  </si>
+  <si>
+    <t>Laboratory test</t>
+  </si>
+  <si>
+    <t>Diagnostic imaging</t>
+  </si>
+  <si>
+    <t>Obstetrics</t>
+  </si>
+  <si>
+    <t>EUPATH_0023057 should be changed to EUPATH_0000667</t>
+  </si>
+  <si>
+    <t>EUPATH_0011991 label should be "Norovirus genogroup, by qRT-PCR result"</t>
+  </si>
+  <si>
+    <t>EUPATH_0000364 should be Occupation salary, EUPATH_0000365 should be Occupation 2 salary</t>
+  </si>
+  <si>
+    <t>Use EUPATH_0000165 for all and update replaces annottation where needed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3277,11 +3334,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
@@ -3290,7 +3347,7 @@
     <col min="5" max="5" width="55.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3307,7 +3364,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -3327,7 +3384,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -3347,7 +3404,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -3367,7 +3424,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -3387,7 +3444,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -3407,7 +3464,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -3427,7 +3484,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>130</v>
       </c>
@@ -3447,7 +3504,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>133</v>
       </c>
@@ -3467,7 +3524,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -3487,7 +3544,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>138</v>
       </c>
@@ -3507,7 +3564,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>141</v>
       </c>
@@ -3527,7 +3584,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>143</v>
       </c>
@@ -3547,7 +3604,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>146</v>
       </c>
@@ -3564,7 +3621,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>149</v>
       </c>
@@ -3581,7 +3638,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>151</v>
       </c>
@@ -3598,7 +3655,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>154</v>
       </c>
@@ -3615,7 +3672,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>156</v>
       </c>
@@ -3632,7 +3689,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>158</v>
       </c>
@@ -3649,7 +3706,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>160</v>
       </c>
@@ -3666,7 +3723,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>162</v>
       </c>
@@ -3683,7 +3740,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>164</v>
       </c>
@@ -3700,7 +3757,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>166</v>
       </c>
@@ -3717,7 +3774,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>168</v>
       </c>
@@ -3734,7 +3791,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>170</v>
       </c>
@@ -3751,7 +3808,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>172</v>
       </c>
@@ -3768,7 +3825,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>174</v>
       </c>
@@ -3785,7 +3842,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>176</v>
       </c>
@@ -3802,7 +3859,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>178</v>
       </c>
@@ -3819,7 +3876,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>180</v>
       </c>
@@ -3836,7 +3893,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>182</v>
       </c>
@@ -3853,7 +3910,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>184</v>
       </c>
@@ -3870,7 +3927,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>186</v>
       </c>
@@ -3887,7 +3944,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>188</v>
       </c>
@@ -3904,7 +3961,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>190</v>
       </c>
@@ -3921,7 +3978,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>192</v>
       </c>
@@ -3938,7 +3995,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>194</v>
       </c>
@@ -3955,7 +4012,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>196</v>
       </c>
@@ -3972,7 +4029,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>198</v>
       </c>
@@ -3989,7 +4046,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>200</v>
       </c>
@@ -4006,7 +4063,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>202</v>
       </c>
@@ -4023,7 +4080,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>204</v>
       </c>
@@ -4040,7 +4097,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>206</v>
       </c>
@@ -4057,7 +4114,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>208</v>
       </c>
@@ -4074,7 +4131,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>210</v>
       </c>
@@ -4091,7 +4148,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>212</v>
       </c>
@@ -4108,7 +4165,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>215</v>
       </c>
@@ -4125,7 +4182,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>218</v>
       </c>
@@ -4142,7 +4199,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>221</v>
       </c>
@@ -4159,7 +4216,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>224</v>
       </c>
@@ -4176,7 +4233,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>226</v>
       </c>
@@ -4193,7 +4250,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>228</v>
       </c>
@@ -4210,7 +4267,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>231</v>
       </c>
@@ -4227,7 +4284,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>493</v>
       </c>
@@ -4244,7 +4301,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>499</v>
       </c>
@@ -4261,7 +4318,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>233</v>
       </c>
@@ -4278,7 +4335,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>236</v>
       </c>
@@ -4295,7 +4352,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>239</v>
       </c>
@@ -4312,7 +4369,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>242</v>
       </c>
@@ -4329,7 +4386,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>244</v>
       </c>
@@ -4346,7 +4403,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>247</v>
       </c>
@@ -4363,7 +4420,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>250</v>
       </c>
@@ -4380,15 +4437,15 @@
         <v>505</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E63" s="8"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -4403,7 +4460,7 @@
       </c>
       <c r="E67"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>676</v>
       </c>
@@ -4416,9 +4473,11 @@
       <c r="D68" t="s">
         <v>559</v>
       </c>
-      <c r="E68"/>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="E68" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>678</v>
       </c>
@@ -4431,9 +4490,11 @@
       <c r="D69" t="s">
         <v>126</v>
       </c>
-      <c r="E69"/>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="E69" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>680</v>
       </c>
@@ -4446,9 +4507,11 @@
       <c r="D70" t="s">
         <v>682</v>
       </c>
-      <c r="E70"/>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="E70" s="4" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>683</v>
       </c>
@@ -4461,9 +4524,11 @@
       <c r="D71" t="s">
         <v>682</v>
       </c>
-      <c r="E71"/>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="E71" s="4" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>138</v>
       </c>
@@ -4476,9 +4541,11 @@
       <c r="D72" t="s">
         <v>140</v>
       </c>
-      <c r="E72"/>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="E72" s="4" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>182</v>
       </c>
@@ -4491,9 +4558,11 @@
       <c r="D73" t="s">
         <v>148</v>
       </c>
-      <c r="E73"/>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="E73" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>686</v>
       </c>
@@ -4506,9 +4575,11 @@
       <c r="D74" t="s">
         <v>688</v>
       </c>
-      <c r="E74"/>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="E74" s="4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>218</v>
       </c>
@@ -4521,9 +4592,11 @@
       <c r="D75" t="s">
         <v>220</v>
       </c>
-      <c r="E75"/>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="E75" s="4" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>689</v>
       </c>
@@ -4536,9 +4609,11 @@
       <c r="D76" t="s">
         <v>691</v>
       </c>
-      <c r="E76"/>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="E76" s="4" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>692</v>
       </c>
@@ -4551,9 +4626,11 @@
       <c r="D77" t="s">
         <v>691</v>
       </c>
-      <c r="E77"/>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="E77" s="4" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>694</v>
       </c>
@@ -4566,9 +4643,11 @@
       <c r="D78" t="s">
         <v>696</v>
       </c>
-      <c r="E78"/>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="E78" s="4" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>697</v>
       </c>
@@ -4581,9 +4660,11 @@
       <c r="D79" t="s">
         <v>696</v>
       </c>
-      <c r="E79"/>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="E79" s="4" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>233</v>
       </c>
@@ -4596,9 +4677,8 @@
       <c r="D80" t="s">
         <v>235</v>
       </c>
-      <c r="E80"/>
-    </row>
-    <row r="81" spans="1:5">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>699</v>
       </c>
@@ -4611,9 +4691,11 @@
       <c r="D81" t="s">
         <v>701</v>
       </c>
-      <c r="E81"/>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="E81" s="4" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>702</v>
       </c>
@@ -4626,9 +4708,8 @@
       <c r="D82" t="s">
         <v>25</v>
       </c>
-      <c r="E82"/>
-    </row>
-    <row r="83" spans="1:5">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>617</v>
       </c>
@@ -4641,9 +4722,11 @@
       <c r="D83" t="s">
         <v>619</v>
       </c>
-      <c r="E83"/>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="E83" s="4" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E84"/>
     </row>
   </sheetData>
@@ -4656,11 +4739,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="42.83203125" customWidth="1"/>
@@ -4669,7 +4752,7 @@
     <col min="6" max="6" width="30.1640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -4689,7 +4772,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>342</v>
       </c>
@@ -4709,7 +4792,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>345</v>
       </c>
@@ -4729,7 +4812,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>348</v>
       </c>
@@ -4749,7 +4832,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>351</v>
       </c>
@@ -4769,7 +4852,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>353</v>
       </c>
@@ -4789,7 +4872,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>355</v>
       </c>
@@ -4809,7 +4892,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>357</v>
       </c>
@@ -4829,7 +4912,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>360</v>
       </c>
@@ -4849,7 +4932,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>363</v>
       </c>
@@ -4869,7 +4952,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>366</v>
       </c>
@@ -4889,7 +4972,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>368</v>
       </c>
@@ -4909,7 +4992,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>371</v>
       </c>
@@ -4929,7 +5012,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>373</v>
       </c>
@@ -4949,7 +5032,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>336</v>
       </c>
@@ -4969,7 +5052,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>380</v>
       </c>
@@ -4989,18 +5072,18 @@
         <v>535</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -5018,7 +5101,7 @@
       </c>
       <c r="F21"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>657</v>
       </c>
@@ -5034,8 +5117,11 @@
       <c r="E22" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="F22" s="4" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>660</v>
       </c>
@@ -5052,7 +5138,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>663</v>
       </c>
@@ -5068,8 +5154,11 @@
       <c r="E24" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="F24" s="4" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>666</v>
       </c>
@@ -5085,8 +5174,11 @@
       <c r="E25" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="F25" s="4" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>488</v>
       </c>
@@ -5103,7 +5195,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>670</v>
       </c>
@@ -5119,8 +5211,11 @@
       <c r="E27" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="F27" s="4" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>672</v>
       </c>
@@ -5137,37 +5232,37 @@
         <v>675</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
     </row>
   </sheetData>
@@ -5180,19 +5275,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="34.5" customWidth="1"/>
     <col min="4" max="4" width="45.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5212,7 +5308,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>253</v>
       </c>
@@ -5232,7 +5328,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>257</v>
       </c>
@@ -5252,7 +5348,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>261</v>
       </c>
@@ -5272,7 +5368,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>265</v>
       </c>
@@ -5292,7 +5388,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>269</v>
       </c>
@@ -5312,7 +5408,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>272</v>
       </c>
@@ -5332,7 +5428,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>274</v>
       </c>
@@ -5352,7 +5448,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>278</v>
       </c>
@@ -5372,7 +5468,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>281</v>
       </c>
@@ -5392,7 +5488,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>284</v>
       </c>
@@ -5412,7 +5508,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>287</v>
       </c>
@@ -5432,7 +5528,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>291</v>
       </c>
@@ -5452,7 +5548,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>294</v>
       </c>
@@ -5472,7 +5568,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>298</v>
       </c>
@@ -5492,7 +5588,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>250</v>
       </c>
@@ -5512,7 +5608,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>303</v>
       </c>
@@ -5532,7 +5628,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>306</v>
       </c>
@@ -5552,7 +5648,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>310</v>
       </c>
@@ -5572,7 +5668,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>312</v>
       </c>
@@ -5592,7 +5688,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>226</v>
       </c>
@@ -5612,7 +5708,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>224</v>
       </c>
@@ -5632,7 +5728,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>318</v>
       </c>
@@ -5652,7 +5748,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>320</v>
       </c>
@@ -5672,7 +5768,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>323</v>
       </c>
@@ -5692,7 +5788,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>326</v>
       </c>
@@ -5712,7 +5808,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>124</v>
       </c>
@@ -5732,7 +5828,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>332</v>
       </c>
@@ -5752,7 +5848,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>335</v>
       </c>
@@ -5772,7 +5868,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>339</v>
       </c>
@@ -5792,12 +5888,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -5814,7 +5910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>253</v>
       </c>
@@ -5834,7 +5930,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>537</v>
       </c>
@@ -5854,7 +5950,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>257</v>
       </c>
@@ -5874,7 +5970,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>542</v>
       </c>
@@ -5894,7 +5990,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>261</v>
       </c>
@@ -5914,7 +6010,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>545</v>
       </c>
@@ -5934,7 +6030,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>549</v>
       </c>
@@ -5954,7 +6050,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>552</v>
       </c>
@@ -5974,7 +6070,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>265</v>
       </c>
@@ -5994,7 +6090,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>269</v>
       </c>
@@ -6014,7 +6110,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>272</v>
       </c>
@@ -6034,7 +6130,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>556</v>
       </c>
@@ -6054,7 +6150,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>274</v>
       </c>
@@ -6074,7 +6170,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>278</v>
       </c>
@@ -6094,7 +6190,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>281</v>
       </c>
@@ -6114,7 +6210,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>561</v>
       </c>
@@ -6134,7 +6230,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>287</v>
       </c>
@@ -6154,7 +6250,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>291</v>
       </c>
@@ -6174,7 +6270,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>566</v>
       </c>
@@ -6194,7 +6290,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>294</v>
       </c>
@@ -6214,7 +6310,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>569</v>
       </c>
@@ -6234,7 +6330,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>298</v>
       </c>
@@ -6254,7 +6350,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>250</v>
       </c>
@@ -6271,7 +6367,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>303</v>
       </c>
@@ -6291,7 +6387,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>306</v>
       </c>
@@ -6311,7 +6407,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>310</v>
       </c>
@@ -6331,7 +6427,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>312</v>
       </c>
@@ -6351,7 +6447,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>318</v>
       </c>
@@ -6371,7 +6467,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>320</v>
       </c>
@@ -6388,7 +6484,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>575</v>
       </c>
@@ -6408,7 +6504,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>577</v>
       </c>
@@ -6428,7 +6524,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>581</v>
       </c>
@@ -6448,7 +6544,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>585</v>
       </c>
@@ -6468,7 +6564,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>588</v>
       </c>
@@ -6488,7 +6584,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>591</v>
       </c>
@@ -6508,7 +6604,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>323</v>
       </c>
@@ -6528,7 +6624,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>326</v>
       </c>
@@ -6548,7 +6644,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>597</v>
       </c>
@@ -6568,7 +6664,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>124</v>
       </c>
@@ -6588,7 +6684,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>600</v>
       </c>
@@ -6608,7 +6704,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>604</v>
       </c>
@@ -6628,7 +6724,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>606</v>
       </c>
@@ -6648,7 +6744,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>608</v>
       </c>
@@ -6668,7 +6764,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>332</v>
       </c>
@@ -6688,7 +6784,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>611</v>
       </c>
@@ -6705,7 +6801,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>520</v>
       </c>
@@ -6725,7 +6821,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>339</v>
       </c>
@@ -6745,12 +6841,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -6768,7 +6864,7 @@
       </c>
       <c r="F89"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>257</v>
       </c>
@@ -6784,9 +6880,11 @@
       <c r="E90" t="s">
         <v>260</v>
       </c>
-      <c r="F90"/>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="F90" s="4" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>706</v>
       </c>
@@ -6802,9 +6900,11 @@
       <c r="E91" t="s">
         <v>709</v>
       </c>
-      <c r="F91"/>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="F91" s="4" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>686</v>
       </c>
@@ -6820,9 +6920,11 @@
       <c r="E92" t="s">
         <v>688</v>
       </c>
-      <c r="F92"/>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="F92" s="4" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>711</v>
       </c>
@@ -6838,9 +6940,11 @@
       <c r="E93" t="s">
         <v>714</v>
       </c>
-      <c r="F93"/>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="F93" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>715</v>
       </c>
@@ -6856,9 +6960,11 @@
       <c r="E94" t="s">
         <v>718</v>
       </c>
-      <c r="F94"/>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="F94" s="4" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>719</v>
       </c>
@@ -6874,9 +6980,11 @@
       <c r="E95" t="s">
         <v>721</v>
       </c>
-      <c r="F95"/>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="F95" s="4" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>274</v>
       </c>
@@ -6892,9 +7000,11 @@
       <c r="E96" t="s">
         <v>277</v>
       </c>
-      <c r="F96"/>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="F96" s="4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>722</v>
       </c>
@@ -6910,9 +7020,11 @@
       <c r="E97" t="s">
         <v>724</v>
       </c>
-      <c r="F97"/>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="F97" s="4" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>725</v>
       </c>
@@ -6928,9 +7040,11 @@
       <c r="E98" t="s">
         <v>727</v>
       </c>
-      <c r="F98"/>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="F98" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>561</v>
       </c>
@@ -6946,9 +7060,11 @@
       <c r="E99" t="s">
         <v>564</v>
       </c>
-      <c r="F99"/>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="F99" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>728</v>
       </c>
@@ -6964,9 +7080,11 @@
       <c r="E100" t="s">
         <v>731</v>
       </c>
-      <c r="F100"/>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="F100" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>291</v>
       </c>
@@ -6982,9 +7100,11 @@
       <c r="E101" t="s">
         <v>293</v>
       </c>
-      <c r="F101"/>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="F101" s="4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>733</v>
       </c>
@@ -7000,9 +7120,11 @@
       <c r="E102" t="s">
         <v>735</v>
       </c>
-      <c r="F102"/>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="F102" s="4" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>569</v>
       </c>
@@ -7018,9 +7140,8 @@
       <c r="E103" t="s">
         <v>572</v>
       </c>
-      <c r="F103"/>
-    </row>
-    <row r="104" spans="1:6">
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>736</v>
       </c>
@@ -7036,9 +7157,11 @@
       <c r="E104" t="s">
         <v>739</v>
       </c>
-      <c r="F104"/>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="F104" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>702</v>
       </c>
@@ -7054,9 +7177,8 @@
       <c r="E105" t="s">
         <v>25</v>
       </c>
-      <c r="F105"/>
-    </row>
-    <row r="106" spans="1:6">
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>742</v>
       </c>
@@ -7072,9 +7194,11 @@
       <c r="E106" t="s">
         <v>744</v>
       </c>
-      <c r="F106"/>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="F106" s="4" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>577</v>
       </c>
@@ -7090,9 +7214,8 @@
       <c r="E107" t="s">
         <v>745</v>
       </c>
-      <c r="F107"/>
-    </row>
-    <row r="108" spans="1:6">
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>588</v>
       </c>
@@ -7108,9 +7231,8 @@
       <c r="E108" t="s">
         <v>590</v>
       </c>
-      <c r="F108"/>
-    </row>
-    <row r="109" spans="1:6">
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>746</v>
       </c>
@@ -7126,9 +7248,11 @@
       <c r="E109" t="s">
         <v>749</v>
       </c>
-      <c r="F109"/>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="F109" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>326</v>
       </c>
@@ -7144,9 +7268,11 @@
       <c r="E110" t="s">
         <v>596</v>
       </c>
-      <c r="F110"/>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="F110" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>750</v>
       </c>
@@ -7162,9 +7288,11 @@
       <c r="E111" t="s">
         <v>753</v>
       </c>
-      <c r="F111"/>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="F111" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>754</v>
       </c>
@@ -7180,9 +7308,8 @@
       <c r="E112" t="s">
         <v>559</v>
       </c>
-      <c r="F112"/>
-    </row>
-    <row r="113" spans="1:6">
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>756</v>
       </c>
@@ -7198,7 +7325,9 @@
       <c r="E113" t="s">
         <v>759</v>
       </c>
-      <c r="F113"/>
+      <c r="F113" s="4" t="s">
+        <v>254</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F30" xr:uid="{3F2C9002-1B0A-C348-905C-32E2D16BAD66}"/>
@@ -7211,11 +7340,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84351FC9-A5B2-F24D-8B55-E6051DA9E552}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="2" width="42.83203125" customWidth="1"/>
@@ -7224,7 +7353,7 @@
     <col min="5" max="5" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -7241,7 +7370,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -7258,7 +7387,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -7275,7 +7404,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -7286,7 +7415,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -7297,7 +7426,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -7308,7 +7437,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -7319,7 +7448,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -7333,7 +7462,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -7344,7 +7473,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -7355,7 +7484,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -7372,7 +7501,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -7383,7 +7512,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>88</v>
       </c>
@@ -7400,15 +7529,15 @@
         <v>532</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D18" s="7"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>760</v>
       </c>
@@ -7419,7 +7548,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>620</v>
       </c>
@@ -7430,7 +7559,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>769</v>
       </c>
@@ -7441,7 +7570,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>763</v>
       </c>
@@ -7453,10 +7582,10 @@
       </c>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -7470,7 +7599,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>87</v>
       </c>
@@ -7484,7 +7613,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -7495,7 +7624,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>628</v>
       </c>
@@ -7509,10 +7638,10 @@
         <v>787</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D31" s="7"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>336</v>
       </c>
@@ -7526,23 +7655,23 @@
         <v>786</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="B33" s="5"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="5"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
     </row>
@@ -7560,7 +7689,7 @@
       <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="83.83203125" customWidth="1"/>
@@ -7568,7 +7697,7 @@
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -7582,7 +7711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -7596,7 +7725,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -7610,7 +7739,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>105</v>
       </c>
@@ -7624,7 +7753,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>761</v>
       </c>
@@ -7638,7 +7767,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -7652,7 +7781,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>99</v>
       </c>
@@ -7666,7 +7795,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -7680,7 +7809,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>111</v>
       </c>
@@ -7694,7 +7823,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>423</v>
       </c>
@@ -7708,7 +7837,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -7722,7 +7851,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -7736,7 +7865,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -7750,7 +7879,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -7764,7 +7893,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -7778,7 +7907,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -7792,7 +7921,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -7806,7 +7935,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -7820,7 +7949,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -7834,7 +7963,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -7848,7 +7977,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -7862,7 +7991,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>413</v>
       </c>
@@ -7876,7 +8005,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -7890,7 +8019,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>417</v>
       </c>
@@ -7904,7 +8033,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -7918,7 +8047,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>386</v>
       </c>
@@ -7932,7 +8061,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>405</v>
       </c>
@@ -7946,7 +8075,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>400</v>
       </c>
@@ -7960,7 +8089,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>89</v>
       </c>
@@ -7974,7 +8103,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>397</v>
       </c>
@@ -7988,7 +8117,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>82</v>
       </c>
@@ -8002,7 +8131,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>411</v>
       </c>
@@ -8016,7 +8145,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -8030,7 +8159,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>403</v>
       </c>
@@ -8045,7 +8174,7 @@
       </c>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>393</v>
       </c>
@@ -8059,7 +8188,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -8073,7 +8202,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -8087,7 +8216,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>407</v>
       </c>
@@ -8101,7 +8230,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -8115,7 +8244,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -8129,7 +8258,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>628</v>
       </c>
@@ -8143,7 +8272,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>78</v>
       </c>
@@ -8157,7 +8286,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>765</v>
       </c>
@@ -8171,7 +8300,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>88</v>
       </c>
@@ -8185,7 +8314,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -8199,7 +8328,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>87</v>
       </c>
@@ -8213,7 +8342,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>632</v>
       </c>
@@ -8227,7 +8356,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>103</v>
       </c>
@@ -8241,7 +8370,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -8255,7 +8384,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>83</v>
       </c>
@@ -8269,7 +8398,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -8283,7 +8412,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>70</v>
       </c>
@@ -8297,7 +8426,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>32</v>
       </c>
@@ -8311,7 +8440,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>39</v>
       </c>
@@ -8325,7 +8454,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>41</v>
       </c>
@@ -8339,7 +8468,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -8353,7 +8482,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>51</v>
       </c>
@@ -8367,7 +8496,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>76</v>
       </c>
@@ -8381,7 +8510,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>86</v>
       </c>
@@ -8395,7 +8524,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -8409,7 +8538,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>623</v>
       </c>
@@ -8423,7 +8552,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>28</v>
       </c>
@@ -8437,7 +8566,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>760</v>
       </c>
@@ -8451,7 +8580,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>620</v>
       </c>
@@ -8465,7 +8594,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>763</v>
       </c>
@@ -8479,7 +8608,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>769</v>
       </c>
@@ -8510,12 +8639,12 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -8526,7 +8655,7 @@
       <c r="F1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -8534,12 +8663,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>761</v>
       </c>
@@ -8547,7 +8676,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -8555,7 +8684,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -8563,7 +8692,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -8571,7 +8700,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -8579,7 +8708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -8587,7 +8716,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -8595,7 +8724,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -8603,7 +8732,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -8611,7 +8740,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>111</v>
       </c>
@@ -8619,7 +8748,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -8627,7 +8756,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>393</v>
       </c>
@@ -8635,7 +8764,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -8643,7 +8772,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -8651,12 +8780,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -8664,7 +8793,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>417</v>
       </c>
@@ -8672,7 +8801,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -8680,7 +8809,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>623</v>
       </c>
@@ -8688,7 +8817,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -8696,7 +8825,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -8704,7 +8833,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -8712,12 +8841,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>386</v>
       </c>
@@ -8725,7 +8854,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>397</v>
       </c>
@@ -8733,7 +8862,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>103</v>
       </c>
@@ -8741,7 +8870,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>400</v>
       </c>
@@ -8749,7 +8878,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -8757,7 +8886,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>84</v>
       </c>
@@ -8765,7 +8894,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -8773,7 +8902,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -8781,7 +8910,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -8789,7 +8918,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>83</v>
       </c>
@@ -8797,7 +8926,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>403</v>
       </c>
@@ -8805,7 +8934,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>405</v>
       </c>
@@ -8813,7 +8942,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -8821,7 +8950,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -8829,7 +8958,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -8837,7 +8966,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>407</v>
       </c>
@@ -8845,7 +8974,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -8853,7 +8982,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>64</v>
       </c>
@@ -8861,7 +8990,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>423</v>
       </c>
@@ -8869,12 +8998,12 @@
         <v>429</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>68</v>
       </c>
@@ -8882,7 +9011,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -8890,7 +9019,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>411</v>
       </c>
@@ -8898,7 +9027,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>105</v>
       </c>
@@ -8906,7 +9035,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -8914,7 +9043,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>31</v>
       </c>
@@ -8922,7 +9051,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>32</v>
       </c>
@@ -8931,7 +9060,7 @@
       </c>
       <c r="D53" s="5"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>632</v>
       </c>
@@ -8941,7 +9070,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="5"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>413</v>
       </c>
@@ -8950,7 +9079,7 @@
       </c>
       <c r="D55" s="5"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>74</v>
       </c>
@@ -8959,7 +9088,7 @@
       </c>
       <c r="D56" s="5"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -8968,7 +9097,7 @@
       </c>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>76</v>
       </c>
@@ -8976,7 +9105,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>89</v>
       </c>
@@ -8984,7 +9113,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -8992,7 +9121,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -9000,7 +9129,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>80</v>
       </c>
@@ -9008,7 +9137,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>88</v>
       </c>

--- a/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
+++ b/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sshahsimpson/Documents/Git/ApiCommonData/Load/ontology/harmonization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD7C542-BBA6-BF45-BAD7-5D2EF4E5DB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B0490B-8633-9C44-8DDE-14B64C4DE0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="1660" windowWidth="26240" windowHeight="13380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="1960" windowWidth="26240" windowHeight="13380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="termWithDifferentLabels" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="812">
   <si>
     <t>sid</t>
   </si>
@@ -2452,6 +2452,18 @@
   </si>
   <si>
     <t>Use EUPATH_0000165 for all and update replaces annottation where needed</t>
+  </si>
+  <si>
+    <t>by qPCR calculation (units /uL), by qPCR result (units CT value)</t>
+  </si>
+  <si>
+    <t>Have Danica check that we can drop one of the terms</t>
+  </si>
+  <si>
+    <t>shouldn't be a unit</t>
+  </si>
+  <si>
+    <t>Should be days</t>
   </si>
 </sst>
 </file>
@@ -3334,8 +3346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView topLeftCell="C60" workbookViewId="0">
+      <selection activeCell="C80" sqref="A80:XFD80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4739,8 +4751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5194,6 +5206,9 @@
       <c r="E26" t="s">
         <v>529</v>
       </c>
+      <c r="F26" s="4" t="s">
+        <v>808</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -5230,6 +5245,9 @@
       </c>
       <c r="E28" t="s">
         <v>675</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -5275,8 +5293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="F102" sqref="F102"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107:XFD108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7340,8 +7358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84351FC9-A5B2-F24D-8B55-E6051DA9E552}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7558,6 +7576,9 @@
       <c r="C22" t="s">
         <v>622</v>
       </c>
+      <c r="E22" s="4" t="s">
+        <v>810</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -7653,6 +7674,9 @@
       </c>
       <c r="D32" t="s">
         <v>786</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -7685,8 +7709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
+++ b/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezheng/Documents/VEuPathDB-git/ApiCommonData/Load/ontology/harmonization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sshahsimpson/Documents/Git/ApiCommonData/Load/ontology/harmonization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12032E0-C3FA-A641-8277-7DEDBFAA3438}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF24A69B-59DE-384B-9535-5B9D78F0A0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="2500" windowWidth="26240" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="2500" windowWidth="26240" windowHeight="13380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="termWithDifferentLabels" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="881">
   <si>
     <t>sid</t>
   </si>
@@ -2632,13 +2632,52 @@
   </si>
   <si>
     <t>Fixed</t>
+  </si>
+  <si>
+    <t>Fever at episode &gt;37.5 C</t>
+  </si>
+  <si>
+    <t>Persistent diarrheal episode (&gt;14 days)</t>
+  </si>
+  <si>
+    <t>Maximum loose stools at episode count</t>
+  </si>
+  <si>
+    <t>Severe anemia (hemoglobin &lt;5 mg/dL)</t>
+  </si>
+  <si>
+    <t>Persons enrolled in study count</t>
+  </si>
+  <si>
+    <t>Persons &lt;=18 years living in house</t>
+  </si>
+  <si>
+    <t>Eukaryota in stool</t>
+  </si>
+  <si>
+    <t>Eukaryota in urine</t>
+  </si>
+  <si>
+    <t>Schistosoma haematobium infection intensity, by microscopy</t>
+  </si>
+  <si>
+    <t>Use EUPATH_0033152, should be under Breastfeeding. Remove Breastfeeding summary category</t>
+  </si>
+  <si>
+    <t>Shouldn't exist anymore. All variables should be moved under Breastfeeding EUPATH_0011730 instead</t>
+  </si>
+  <si>
+    <t>Village observation details</t>
+  </si>
+  <si>
+    <t>remove unit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3506,11 +3545,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
@@ -3519,7 +3558,7 @@
     <col min="5" max="5" width="55.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3536,7 +3575,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -3556,7 +3595,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -3576,7 +3615,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -3596,7 +3635,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -3616,7 +3655,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>122</v>
       </c>
@@ -3636,7 +3675,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -3656,7 +3695,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>128</v>
       </c>
@@ -3676,7 +3715,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>131</v>
       </c>
@@ -3696,7 +3735,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>134</v>
       </c>
@@ -3716,7 +3755,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -3736,7 +3775,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>139</v>
       </c>
@@ -3756,7 +3795,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>141</v>
       </c>
@@ -3776,7 +3815,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>144</v>
       </c>
@@ -3793,7 +3832,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>147</v>
       </c>
@@ -3810,7 +3849,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>149</v>
       </c>
@@ -3827,7 +3866,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>152</v>
       </c>
@@ -3844,7 +3883,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>154</v>
       </c>
@@ -3861,7 +3900,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>156</v>
       </c>
@@ -3878,7 +3917,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>158</v>
       </c>
@@ -3895,7 +3934,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>160</v>
       </c>
@@ -3912,7 +3951,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>162</v>
       </c>
@@ -3929,7 +3968,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>164</v>
       </c>
@@ -3946,7 +3985,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>166</v>
       </c>
@@ -3963,7 +4002,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>168</v>
       </c>
@@ -3980,7 +4019,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>170</v>
       </c>
@@ -3997,7 +4036,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>172</v>
       </c>
@@ -4014,7 +4053,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>174</v>
       </c>
@@ -4031,7 +4070,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>176</v>
       </c>
@@ -4048,7 +4087,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>178</v>
       </c>
@@ -4065,7 +4104,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>180</v>
       </c>
@@ -4082,7 +4121,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>182</v>
       </c>
@@ -4099,7 +4138,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>184</v>
       </c>
@@ -4116,7 +4155,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>186</v>
       </c>
@@ -4133,7 +4172,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>188</v>
       </c>
@@ -4150,7 +4189,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>190</v>
       </c>
@@ -4167,7 +4206,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>192</v>
       </c>
@@ -4184,7 +4223,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>194</v>
       </c>
@@ -4201,7 +4240,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>196</v>
       </c>
@@ -4218,7 +4257,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>198</v>
       </c>
@@ -4235,7 +4274,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>200</v>
       </c>
@@ -4252,7 +4291,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>202</v>
       </c>
@@ -4269,7 +4308,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>204</v>
       </c>
@@ -4286,7 +4325,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>206</v>
       </c>
@@ -4303,7 +4342,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>208</v>
       </c>
@@ -4320,7 +4359,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>210</v>
       </c>
@@ -4337,7 +4376,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>213</v>
       </c>
@@ -4354,7 +4393,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>216</v>
       </c>
@@ -4371,7 +4410,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>219</v>
       </c>
@@ -4388,7 +4427,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>222</v>
       </c>
@@ -4405,7 +4444,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>224</v>
       </c>
@@ -4422,7 +4461,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>226</v>
       </c>
@@ -4439,7 +4478,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>229</v>
       </c>
@@ -4456,7 +4495,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>486</v>
       </c>
@@ -4473,7 +4512,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>492</v>
       </c>
@@ -4490,7 +4529,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>231</v>
       </c>
@@ -4507,7 +4546,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>234</v>
       </c>
@@ -4524,7 +4563,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>237</v>
       </c>
@@ -4541,7 +4580,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>240</v>
       </c>
@@ -4558,7 +4597,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>242</v>
       </c>
@@ -4575,7 +4614,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>245</v>
       </c>
@@ -4592,7 +4631,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>248</v>
       </c>
@@ -4609,15 +4648,15 @@
         <v>498</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E63" s="6"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -4632,7 +4671,7 @@
       </c>
       <c r="E67"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>662</v>
       </c>
@@ -4649,7 +4688,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>664</v>
       </c>
@@ -4666,7 +4705,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>666</v>
       </c>
@@ -4683,7 +4722,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>669</v>
       </c>
@@ -4700,7 +4739,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>136</v>
       </c>
@@ -4717,7 +4756,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>180</v>
       </c>
@@ -4734,7 +4773,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>672</v>
       </c>
@@ -4751,7 +4790,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>216</v>
       </c>
@@ -4768,7 +4807,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>675</v>
       </c>
@@ -4785,7 +4824,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>678</v>
       </c>
@@ -4802,7 +4841,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>680</v>
       </c>
@@ -4819,7 +4858,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>683</v>
       </c>
@@ -4836,7 +4875,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>231</v>
       </c>
@@ -4850,7 +4889,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>685</v>
       </c>
@@ -4867,7 +4906,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>688</v>
       </c>
@@ -4881,7 +4920,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>610</v>
       </c>
@@ -4898,15 +4937,15 @@
         <v>775</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E84"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -4923,7 +4962,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>662</v>
       </c>
@@ -4940,7 +4979,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>136</v>
       </c>
@@ -4954,10 +4993,10 @@
         <v>138</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>141</v>
       </c>
@@ -4971,10 +5010,10 @@
         <v>817</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>180</v>
       </c>
@@ -4991,7 +5030,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>818</v>
       </c>
@@ -5004,8 +5043,11 @@
       <c r="D93" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="E93" s="2" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>821</v>
       </c>
@@ -5018,8 +5060,11 @@
       <c r="D94" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="E94" s="2" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>672</v>
       </c>
@@ -5036,7 +5081,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>216</v>
       </c>
@@ -5050,10 +5095,10 @@
         <v>218</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>823</v>
       </c>
@@ -5066,8 +5111,11 @@
       <c r="D97" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="E97" s="2" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>826</v>
       </c>
@@ -5080,8 +5128,11 @@
       <c r="D98" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="E98" s="2" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>680</v>
       </c>
@@ -5098,7 +5149,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>683</v>
       </c>
@@ -5115,7 +5166,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>231</v>
       </c>
@@ -5129,10 +5180,10 @@
         <v>233</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>830</v>
       </c>
@@ -5145,8 +5196,11 @@
       <c r="D102" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="E102" s="2" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>234</v>
       </c>
@@ -5160,10 +5214,10 @@
         <v>236</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>834</v>
       </c>
@@ -5176,8 +5230,11 @@
       <c r="D104" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="E104" s="2" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>685</v>
       </c>
@@ -5194,7 +5251,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>837</v>
       </c>
@@ -5206,6 +5263,9 @@
       </c>
       <c r="D106" t="s">
         <v>592</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>873</v>
       </c>
     </row>
   </sheetData>
@@ -5218,11 +5278,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.1640625" customWidth="1"/>
     <col min="3" max="3" width="42.83203125" customWidth="1"/>
@@ -5231,7 +5291,7 @@
     <col min="6" max="6" width="30.1640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -5251,7 +5311,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>340</v>
       </c>
@@ -5271,7 +5331,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>343</v>
       </c>
@@ -5291,7 +5351,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>346</v>
       </c>
@@ -5311,7 +5371,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>349</v>
       </c>
@@ -5331,7 +5391,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>351</v>
       </c>
@@ -5351,7 +5411,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -5371,7 +5431,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>355</v>
       </c>
@@ -5391,7 +5451,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>358</v>
       </c>
@@ -5411,7 +5471,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>361</v>
       </c>
@@ -5431,7 +5491,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>364</v>
       </c>
@@ -5451,7 +5511,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>366</v>
       </c>
@@ -5471,7 +5531,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>369</v>
       </c>
@@ -5491,7 +5551,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>371</v>
       </c>
@@ -5511,7 +5571,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>334</v>
       </c>
@@ -5531,7 +5591,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>378</v>
       </c>
@@ -5551,18 +5611,18 @@
         <v>528</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -5580,7 +5640,7 @@
       </c>
       <c r="F21"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>643</v>
       </c>
@@ -5600,7 +5660,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>646</v>
       </c>
@@ -5617,7 +5677,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>649</v>
       </c>
@@ -5637,7 +5697,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>652</v>
       </c>
@@ -5657,7 +5717,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>481</v>
       </c>
@@ -5677,7 +5737,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>656</v>
       </c>
@@ -5697,7 +5757,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>658</v>
       </c>
@@ -5717,19 +5777,19 @@
         <v>784</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>814</v>
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -5749,7 +5809,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>346</v>
       </c>
@@ -5766,10 +5826,10 @@
         <v>532</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>646</v>
       </c>
@@ -5786,7 +5846,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>840</v>
       </c>
@@ -5803,7 +5863,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>482</v>
       </c>
@@ -5820,7 +5880,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>481</v>
       </c>
@@ -5840,7 +5900,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>842</v>
       </c>
@@ -5857,7 +5917,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>844</v>
       </c>
@@ -5874,7 +5934,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>656</v>
       </c>
@@ -5894,7 +5954,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>658</v>
       </c>
@@ -5914,7 +5974,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>378</v>
       </c>
@@ -5944,11 +6004,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="F137" sqref="F137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="34.5" customWidth="1"/>
@@ -5957,7 +6017,7 @@
     <col min="6" max="6" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5977,7 +6037,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>251</v>
       </c>
@@ -5997,7 +6057,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>255</v>
       </c>
@@ -6017,7 +6077,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>259</v>
       </c>
@@ -6037,7 +6097,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>263</v>
       </c>
@@ -6057,7 +6117,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>267</v>
       </c>
@@ -6077,7 +6137,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>270</v>
       </c>
@@ -6097,7 +6157,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>272</v>
       </c>
@@ -6117,7 +6177,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>276</v>
       </c>
@@ -6137,7 +6197,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>279</v>
       </c>
@@ -6157,7 +6217,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>282</v>
       </c>
@@ -6177,7 +6237,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>285</v>
       </c>
@@ -6197,7 +6257,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>289</v>
       </c>
@@ -6217,7 +6277,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>292</v>
       </c>
@@ -6237,7 +6297,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>296</v>
       </c>
@@ -6257,7 +6317,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>248</v>
       </c>
@@ -6277,7 +6337,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>301</v>
       </c>
@@ -6297,7 +6357,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>304</v>
       </c>
@@ -6317,7 +6377,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>308</v>
       </c>
@@ -6337,7 +6397,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>310</v>
       </c>
@@ -6357,7 +6417,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>224</v>
       </c>
@@ -6377,7 +6437,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>222</v>
       </c>
@@ -6397,7 +6457,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>316</v>
       </c>
@@ -6417,7 +6477,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>318</v>
       </c>
@@ -6437,7 +6497,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>321</v>
       </c>
@@ -6457,7 +6517,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>324</v>
       </c>
@@ -6477,7 +6537,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>122</v>
       </c>
@@ -6497,7 +6557,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>330</v>
       </c>
@@ -6517,7 +6577,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>333</v>
       </c>
@@ -6537,7 +6597,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>337</v>
       </c>
@@ -6557,12 +6617,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -6579,7 +6639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>251</v>
       </c>
@@ -6599,7 +6659,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>530</v>
       </c>
@@ -6619,7 +6679,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>255</v>
       </c>
@@ -6639,7 +6699,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>535</v>
       </c>
@@ -6659,7 +6719,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>259</v>
       </c>
@@ -6679,7 +6739,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>538</v>
       </c>
@@ -6699,7 +6759,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>542</v>
       </c>
@@ -6719,7 +6779,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>545</v>
       </c>
@@ -6739,7 +6799,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>263</v>
       </c>
@@ -6759,7 +6819,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>267</v>
       </c>
@@ -6779,7 +6839,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>270</v>
       </c>
@@ -6799,7 +6859,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>549</v>
       </c>
@@ -6819,7 +6879,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>272</v>
       </c>
@@ -6839,7 +6899,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>276</v>
       </c>
@@ -6859,7 +6919,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>279</v>
       </c>
@@ -6879,7 +6939,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>554</v>
       </c>
@@ -6899,7 +6959,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>285</v>
       </c>
@@ -6919,7 +6979,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>289</v>
       </c>
@@ -6939,7 +6999,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>559</v>
       </c>
@@ -6959,7 +7019,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>292</v>
       </c>
@@ -6979,7 +7039,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>562</v>
       </c>
@@ -6999,7 +7059,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>296</v>
       </c>
@@ -7019,7 +7079,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>248</v>
       </c>
@@ -7036,7 +7096,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>301</v>
       </c>
@@ -7056,7 +7116,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>304</v>
       </c>
@@ -7076,7 +7136,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>308</v>
       </c>
@@ -7096,7 +7156,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>310</v>
       </c>
@@ -7116,7 +7176,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>316</v>
       </c>
@@ -7136,7 +7196,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>318</v>
       </c>
@@ -7153,7 +7213,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>568</v>
       </c>
@@ -7173,7 +7233,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>570</v>
       </c>
@@ -7193,7 +7253,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>574</v>
       </c>
@@ -7213,7 +7273,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>578</v>
       </c>
@@ -7233,7 +7293,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>581</v>
       </c>
@@ -7253,7 +7313,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>584</v>
       </c>
@@ -7273,7 +7333,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>321</v>
       </c>
@@ -7293,7 +7353,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>324</v>
       </c>
@@ -7313,7 +7373,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>590</v>
       </c>
@@ -7333,7 +7393,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>122</v>
       </c>
@@ -7353,7 +7413,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>593</v>
       </c>
@@ -7373,7 +7433,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>597</v>
       </c>
@@ -7393,7 +7453,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>599</v>
       </c>
@@ -7413,7 +7473,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>601</v>
       </c>
@@ -7433,7 +7493,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>330</v>
       </c>
@@ -7453,7 +7513,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>604</v>
       </c>
@@ -7470,7 +7530,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>513</v>
       </c>
@@ -7490,7 +7550,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>337</v>
       </c>
@@ -7510,12 +7570,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -7533,7 +7593,7 @@
       </c>
       <c r="F89"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>255</v>
       </c>
@@ -7553,7 +7613,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>692</v>
       </c>
@@ -7573,7 +7633,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>672</v>
       </c>
@@ -7593,7 +7653,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>697</v>
       </c>
@@ -7613,7 +7673,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>701</v>
       </c>
@@ -7633,7 +7693,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>705</v>
       </c>
@@ -7653,7 +7713,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>272</v>
       </c>
@@ -7673,7 +7733,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>708</v>
       </c>
@@ -7693,7 +7753,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>711</v>
       </c>
@@ -7713,7 +7773,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>554</v>
       </c>
@@ -7733,7 +7793,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>714</v>
       </c>
@@ -7753,7 +7813,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>289</v>
       </c>
@@ -7773,7 +7833,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>719</v>
       </c>
@@ -7793,7 +7853,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>562</v>
       </c>
@@ -7810,7 +7870,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>722</v>
       </c>
@@ -7830,7 +7890,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>688</v>
       </c>
@@ -7847,7 +7907,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>728</v>
       </c>
@@ -7867,7 +7927,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>570</v>
       </c>
@@ -7884,7 +7944,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>581</v>
       </c>
@@ -7901,7 +7961,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>732</v>
       </c>
@@ -7921,7 +7981,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>324</v>
       </c>
@@ -7941,7 +8001,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>736</v>
       </c>
@@ -7961,7 +8021,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>740</v>
       </c>
@@ -7978,7 +8038,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>742</v>
       </c>
@@ -7998,12 +8058,12 @@
         <v>252</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -8023,7 +8083,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>787</v>
       </c>
@@ -8039,8 +8099,11 @@
       <c r="E118" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="119" spans="1:6">
+      <c r="F118" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>736</v>
       </c>
@@ -8060,7 +8123,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>672</v>
       </c>
@@ -8076,8 +8139,11 @@
       <c r="E120" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="121" spans="1:6">
+      <c r="F120" s="2" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>697</v>
       </c>
@@ -8097,7 +8163,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>272</v>
       </c>
@@ -8117,7 +8183,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>791</v>
       </c>
@@ -8133,8 +8199,11 @@
       <c r="E123" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="124" spans="1:6">
+      <c r="F123" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>794</v>
       </c>
@@ -8150,8 +8219,11 @@
       <c r="E124" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="125" spans="1:6">
+      <c r="F124" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>742</v>
       </c>
@@ -8171,7 +8243,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>711</v>
       </c>
@@ -8191,7 +8263,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>797</v>
       </c>
@@ -8207,8 +8279,11 @@
       <c r="E127" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="128" spans="1:6">
+      <c r="F127" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>719</v>
       </c>
@@ -8228,7 +8303,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>562</v>
       </c>
@@ -8248,7 +8323,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>800</v>
       </c>
@@ -8264,8 +8339,11 @@
       <c r="E130" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="131" spans="1:6">
+      <c r="F130" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>802</v>
       </c>
@@ -8281,8 +8359,11 @@
       <c r="E131" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="132" spans="1:6">
+      <c r="F131" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>324</v>
       </c>
@@ -8302,7 +8383,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>805</v>
       </c>
@@ -8318,8 +8399,11 @@
       <c r="E133" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="134" spans="1:6">
+      <c r="F133" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>590</v>
       </c>
@@ -8339,7 +8423,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>807</v>
       </c>
@@ -8355,8 +8439,11 @@
       <c r="E135" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="136" spans="1:6">
+      <c r="F135" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>809</v>
       </c>
@@ -8372,8 +8459,11 @@
       <c r="E136" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="137" spans="1:6">
+      <c r="F136" s="2" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>812</v>
       </c>
@@ -8389,8 +8479,11 @@
       <c r="E137" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="138" spans="1:6">
+      <c r="F137" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F138"/>
     </row>
   </sheetData>
@@ -8405,10 +8498,10 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="2" width="42.83203125" customWidth="1"/>
@@ -8417,7 +8510,7 @@
     <col min="5" max="5" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -8434,7 +8527,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -8451,7 +8544,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -8468,7 +8561,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -8479,7 +8572,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -8490,7 +8583,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -8501,7 +8594,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -8512,7 +8605,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -8526,7 +8619,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -8537,7 +8630,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -8548,7 +8641,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -8565,7 +8658,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -8576,7 +8669,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>87</v>
       </c>
@@ -8593,15 +8686,15 @@
         <v>525</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D18" s="5"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>746</v>
       </c>
@@ -8612,7 +8705,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>613</v>
       </c>
@@ -8626,7 +8719,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>751</v>
       </c>
@@ -8637,7 +8730,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>748</v>
       </c>
@@ -8649,10 +8742,10 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -8669,7 +8762,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -8686,7 +8779,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -8700,7 +8793,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>621</v>
       </c>
@@ -8714,10 +8807,10 @@
         <v>762</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>334</v>
       </c>
@@ -8737,17 +8830,17 @@
         <v>867</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="3"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>866</v>
       </c>
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>751</v>
       </c>
@@ -8757,12 +8850,15 @@
       <c r="C36" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="E36" s="2" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
     </row>
@@ -8776,11 +8872,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
@@ -8790,7 +8886,7 @@
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -8805,7 +8901,7 @@
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>746</v>
       </c>
@@ -8820,7 +8916,7 @@
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>747</v>
       </c>
@@ -8835,7 +8931,7 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -8850,7 +8946,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -8865,7 +8961,7 @@
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -8880,7 +8976,7 @@
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -8895,7 +8991,7 @@
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -8910,7 +9006,7 @@
       </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>616</v>
       </c>
@@ -8925,7 +9021,7 @@
       </c>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>384</v>
       </c>
@@ -8940,7 +9036,7 @@
       </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -8955,7 +9051,7 @@
       </c>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -8970,7 +9066,7 @@
       </c>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -8985,7 +9081,7 @@
       </c>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>750</v>
       </c>
@@ -9000,7 +9096,7 @@
       </c>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -9015,7 +9111,7 @@
       </c>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -9030,7 +9126,7 @@
       </c>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -9045,7 +9141,7 @@
       </c>
       <c r="E17"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -9060,7 +9156,7 @@
       </c>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>861</v>
       </c>
@@ -9075,7 +9171,7 @@
       </c>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>853</v>
       </c>
@@ -9090,7 +9186,7 @@
       </c>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>390</v>
       </c>
@@ -9105,7 +9201,7 @@
       </c>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -9120,7 +9216,7 @@
       </c>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -9135,7 +9231,7 @@
       </c>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -9150,7 +9246,7 @@
       </c>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -9165,7 +9261,7 @@
       </c>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -9180,7 +9276,7 @@
       </c>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>393</v>
       </c>
@@ -9195,7 +9291,7 @@
       </c>
       <c r="E27"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>102</v>
       </c>
@@ -9210,7 +9306,7 @@
       </c>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>82</v>
       </c>
@@ -9225,7 +9321,7 @@
       </c>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -9240,7 +9336,7 @@
       </c>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -9255,7 +9351,7 @@
       </c>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -9270,7 +9366,7 @@
       </c>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -9285,7 +9381,7 @@
       </c>
       <c r="E33"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>399</v>
       </c>
@@ -9300,7 +9396,7 @@
       </c>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>401</v>
       </c>
@@ -9315,7 +9411,7 @@
       </c>
       <c r="E35"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -9330,7 +9426,7 @@
       </c>
       <c r="E36"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>403</v>
       </c>
@@ -9345,7 +9441,7 @@
       </c>
       <c r="E37"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>85</v>
       </c>
@@ -9360,7 +9456,7 @@
       </c>
       <c r="E38"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -9375,7 +9471,7 @@
       </c>
       <c r="E39"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>751</v>
       </c>
@@ -9390,7 +9486,7 @@
       </c>
       <c r="E40"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>67</v>
       </c>
@@ -9405,7 +9501,7 @@
       </c>
       <c r="E41"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>69</v>
       </c>
@@ -9420,7 +9516,7 @@
       </c>
       <c r="E42"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>407</v>
       </c>
@@ -9435,7 +9531,7 @@
       </c>
       <c r="E43"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -9450,7 +9546,7 @@
       </c>
       <c r="E44"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>623</v>
       </c>
@@ -9465,7 +9561,7 @@
       </c>
       <c r="E45"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>409</v>
       </c>
@@ -9480,7 +9576,7 @@
       </c>
       <c r="E46"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>73</v>
       </c>
@@ -9495,7 +9591,7 @@
       </c>
       <c r="E47"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>75</v>
       </c>
@@ -9510,7 +9606,7 @@
       </c>
       <c r="E48"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>77</v>
       </c>
@@ -9525,7 +9621,7 @@
       </c>
       <c r="E49"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>79</v>
       </c>
@@ -9540,7 +9636,7 @@
       </c>
       <c r="E50"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>98</v>
       </c>
@@ -9555,7 +9651,7 @@
       </c>
       <c r="E51"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -9570,7 +9666,7 @@
       </c>
       <c r="E52"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>413</v>
       </c>
@@ -9585,7 +9681,7 @@
       </c>
       <c r="E53"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>31</v>
       </c>
@@ -9600,7 +9696,7 @@
       </c>
       <c r="E54"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>396</v>
       </c>
@@ -9615,7 +9711,7 @@
       </c>
       <c r="E55"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>83</v>
       </c>
@@ -9630,7 +9726,7 @@
       </c>
       <c r="E56"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -9645,7 +9741,7 @@
       </c>
       <c r="E57"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>71</v>
       </c>
@@ -9660,7 +9756,7 @@
       </c>
       <c r="E58"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>86</v>
       </c>
@@ -9675,7 +9771,7 @@
       </c>
       <c r="E59"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>84</v>
       </c>
@@ -9690,7 +9786,7 @@
       </c>
       <c r="E60"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>87</v>
       </c>
@@ -9705,7 +9801,7 @@
       </c>
       <c r="E61"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>88</v>
       </c>
@@ -9737,12 +9833,12 @@
       <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -9753,7 +9849,7 @@
       <c r="F1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -9761,7 +9857,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>746</v>
       </c>
@@ -9769,7 +9865,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>747</v>
       </c>
@@ -9777,7 +9873,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -9785,7 +9881,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -9793,7 +9889,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -9801,7 +9897,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -9809,7 +9905,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -9817,7 +9913,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -9825,7 +9921,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>86</v>
       </c>
@@ -9833,7 +9929,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -9841,7 +9937,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>861</v>
       </c>
@@ -9849,7 +9945,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>853</v>
       </c>
@@ -9857,7 +9953,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -9865,7 +9961,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>390</v>
       </c>
@@ -9873,7 +9969,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -9881,7 +9977,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -9889,7 +9985,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -9897,7 +9993,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>413</v>
       </c>
@@ -9905,7 +10001,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -9913,7 +10009,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>616</v>
       </c>
@@ -9921,7 +10017,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -9929,7 +10025,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -9937,7 +10033,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -9945,7 +10041,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>384</v>
       </c>
@@ -9953,7 +10049,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>393</v>
       </c>
@@ -9961,7 +10057,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>102</v>
       </c>
@@ -9969,7 +10065,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>396</v>
       </c>
@@ -9977,7 +10073,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -9985,7 +10081,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>83</v>
       </c>
@@ -9993,7 +10089,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -10001,7 +10097,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -10009,7 +10105,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -10017,7 +10113,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -10025,7 +10121,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>399</v>
       </c>
@@ -10033,7 +10129,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>401</v>
       </c>
@@ -10041,7 +10137,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -10049,7 +10145,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -10057,7 +10153,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -10065,7 +10161,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>403</v>
       </c>
@@ -10073,7 +10169,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -10081,7 +10177,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -10089,12 +10185,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>67</v>
       </c>
@@ -10102,7 +10198,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>69</v>
       </c>
@@ -10110,7 +10206,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>407</v>
       </c>
@@ -10118,7 +10214,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>104</v>
       </c>
@@ -10126,7 +10222,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>30</v>
       </c>
@@ -10134,7 +10230,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -10142,7 +10238,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>32</v>
       </c>
@@ -10150,7 +10246,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>623</v>
       </c>
@@ -10159,7 +10255,7 @@
       </c>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>409</v>
       </c>
@@ -10169,7 +10265,7 @@
       <c r="C53" s="4"/>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -10178,7 +10274,7 @@
       </c>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>71</v>
       </c>
@@ -10187,7 +10283,7 @@
       </c>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -10196,7 +10292,7 @@
       </c>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>88</v>
       </c>
@@ -10204,7 +10300,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -10212,7 +10308,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -10220,7 +10316,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -10228,7 +10324,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>87</v>
       </c>

--- a/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
+++ b/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sshahsimpson/Documents/Git/ApiCommonData/Load/ontology/harmonization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezheng/Documents/VEuPathDB-git/ApiCommonData/Load/ontology/harmonization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF24A69B-59DE-384B-9535-5B9D78F0A0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E18E9E8-98FE-CE4F-861A-7D1FAF5B5587}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2500" windowWidth="26240" windowHeight="13380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2500" yWindow="1640" windowWidth="26240" windowHeight="13380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="termWithDifferentLabels" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="882">
   <si>
     <t>sid</t>
   </si>
@@ -2472,9 +2472,6 @@
     <t>Wrinkled skin</t>
   </si>
   <si>
-    <t>Checked on Aug 9th, still some inconsistency are found</t>
-  </si>
-  <si>
     <t>JZ based on existing comments</t>
   </si>
   <si>
@@ -2664,20 +2661,26 @@
     <t>Use EUPATH_0033152, should be under Breastfeeding. Remove Breastfeeding summary category</t>
   </si>
   <si>
-    <t>Shouldn't exist anymore. All variables should be moved under Breastfeeding EUPATH_0011730 instead</t>
-  </si>
-  <si>
     <t>Village observation details</t>
   </si>
   <si>
     <t>remove unit</t>
+  </si>
+  <si>
+    <t>Checked on Aug 10th, still some inconsistency are found</t>
+  </si>
+  <si>
+    <t>EUPATH_0010369</t>
+  </si>
+  <si>
+    <t>Enrollment month</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3543,13 +3546,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
@@ -3558,7 +3561,7 @@
     <col min="5" max="5" width="55.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3575,7 +3578,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -3595,7 +3598,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -3615,7 +3618,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -3635,7 +3638,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -3655,7 +3658,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>122</v>
       </c>
@@ -3675,7 +3678,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -3695,7 +3698,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>128</v>
       </c>
@@ -3715,7 +3718,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>131</v>
       </c>
@@ -3735,7 +3738,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>134</v>
       </c>
@@ -3755,7 +3758,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -3775,7 +3778,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>139</v>
       </c>
@@ -3795,7 +3798,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>141</v>
       </c>
@@ -3815,7 +3818,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>144</v>
       </c>
@@ -3832,7 +3835,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>147</v>
       </c>
@@ -3849,7 +3852,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>149</v>
       </c>
@@ -3866,7 +3869,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>152</v>
       </c>
@@ -3883,7 +3886,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>154</v>
       </c>
@@ -3900,7 +3903,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>156</v>
       </c>
@@ -3917,7 +3920,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>158</v>
       </c>
@@ -3934,7 +3937,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>160</v>
       </c>
@@ -3951,7 +3954,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>162</v>
       </c>
@@ -3968,7 +3971,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>164</v>
       </c>
@@ -3985,7 +3988,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>166</v>
       </c>
@@ -4002,7 +4005,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>168</v>
       </c>
@@ -4019,7 +4022,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>170</v>
       </c>
@@ -4036,7 +4039,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>172</v>
       </c>
@@ -4053,7 +4056,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>174</v>
       </c>
@@ -4070,7 +4073,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>176</v>
       </c>
@@ -4087,7 +4090,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>178</v>
       </c>
@@ -4104,7 +4107,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>180</v>
       </c>
@@ -4121,7 +4124,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>182</v>
       </c>
@@ -4138,7 +4141,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>184</v>
       </c>
@@ -4155,7 +4158,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>186</v>
       </c>
@@ -4172,7 +4175,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>188</v>
       </c>
@@ -4189,7 +4192,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>190</v>
       </c>
@@ -4206,7 +4209,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>192</v>
       </c>
@@ -4223,7 +4226,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>194</v>
       </c>
@@ -4240,7 +4243,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>196</v>
       </c>
@@ -4257,7 +4260,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>198</v>
       </c>
@@ -4274,7 +4277,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>200</v>
       </c>
@@ -4291,7 +4294,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>202</v>
       </c>
@@ -4308,7 +4311,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>204</v>
       </c>
@@ -4325,7 +4328,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>206</v>
       </c>
@@ -4342,7 +4345,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>208</v>
       </c>
@@ -4359,7 +4362,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>210</v>
       </c>
@@ -4376,7 +4379,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>213</v>
       </c>
@@ -4393,7 +4396,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>216</v>
       </c>
@@ -4410,7 +4413,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>219</v>
       </c>
@@ -4427,7 +4430,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>222</v>
       </c>
@@ -4444,7 +4447,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>224</v>
       </c>
@@ -4461,7 +4464,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>226</v>
       </c>
@@ -4478,7 +4481,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>229</v>
       </c>
@@ -4495,7 +4498,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>486</v>
       </c>
@@ -4512,7 +4515,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>492</v>
       </c>
@@ -4529,7 +4532,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>231</v>
       </c>
@@ -4546,7 +4549,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>234</v>
       </c>
@@ -4563,7 +4566,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>237</v>
       </c>
@@ -4580,7 +4583,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>240</v>
       </c>
@@ -4597,7 +4600,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>242</v>
       </c>
@@ -4614,7 +4617,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>245</v>
       </c>
@@ -4631,7 +4634,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>248</v>
       </c>
@@ -4648,15 +4651,15 @@
         <v>498</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="E63" s="6"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -4671,7 +4674,7 @@
       </c>
       <c r="E67"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>662</v>
       </c>
@@ -4688,7 +4691,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>664</v>
       </c>
@@ -4705,7 +4708,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>666</v>
       </c>
@@ -4722,7 +4725,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>669</v>
       </c>
@@ -4739,7 +4742,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>136</v>
       </c>
@@ -4756,7 +4759,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>180</v>
       </c>
@@ -4773,7 +4776,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>672</v>
       </c>
@@ -4790,7 +4793,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>216</v>
       </c>
@@ -4807,7 +4810,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>675</v>
       </c>
@@ -4824,7 +4827,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>678</v>
       </c>
@@ -4841,7 +4844,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>680</v>
       </c>
@@ -4858,7 +4861,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>683</v>
       </c>
@@ -4875,7 +4878,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>231</v>
       </c>
@@ -4889,7 +4892,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>685</v>
       </c>
@@ -4906,7 +4909,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>688</v>
       </c>
@@ -4920,7 +4923,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>610</v>
       </c>
@@ -4937,15 +4940,15 @@
         <v>775</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="E84"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86" s="1" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -4959,10 +4962,10 @@
         <v>3</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>662</v>
       </c>
@@ -4979,293 +4982,259 @@
         <v>764</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B90">
         <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>671</v>
+        <v>815</v>
       </c>
       <c r="D90" t="s">
-        <v>138</v>
+        <v>816</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="B91">
         <v>2</v>
       </c>
       <c r="C91" t="s">
-        <v>816</v>
+        <v>609</v>
       </c>
       <c r="D91" t="s">
+        <v>146</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
         <v>817</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>180</v>
-      </c>
       <c r="B92">
         <v>2</v>
       </c>
       <c r="C92" t="s">
-        <v>609</v>
+        <v>818</v>
       </c>
       <c r="D92" t="s">
-        <v>146</v>
+        <v>819</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B93">
         <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="D93" t="s">
-        <v>820</v>
+        <v>603</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>821</v>
+        <v>216</v>
       </c>
       <c r="B94">
         <v>2</v>
       </c>
       <c r="C94" t="s">
+        <v>217</v>
+      </c>
+      <c r="D94" t="s">
+        <v>218</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
         <v>822</v>
       </c>
-      <c r="D94" t="s">
-        <v>603</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>672</v>
-      </c>
       <c r="B95">
         <v>2</v>
       </c>
       <c r="C95" t="s">
-        <v>673</v>
+        <v>823</v>
       </c>
       <c r="D95" t="s">
-        <v>674</v>
+        <v>824</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>216</v>
+        <v>825</v>
       </c>
       <c r="B96">
         <v>2</v>
       </c>
       <c r="C96" t="s">
-        <v>217</v>
+        <v>826</v>
       </c>
       <c r="D96" t="s">
-        <v>218</v>
+        <v>824</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>823</v>
+        <v>680</v>
       </c>
       <c r="B97">
         <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>824</v>
+        <v>681</v>
       </c>
       <c r="D97" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>826</v>
+        <v>683</v>
       </c>
       <c r="B98">
         <v>2</v>
       </c>
       <c r="C98" t="s">
+        <v>684</v>
+      </c>
+      <c r="D98" t="s">
         <v>827</v>
       </c>
-      <c r="D98" t="s">
-        <v>825</v>
-      </c>
       <c r="E98" s="2" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>680</v>
+        <v>231</v>
       </c>
       <c r="B99">
         <v>2</v>
       </c>
       <c r="C99" t="s">
-        <v>681</v>
+        <v>828</v>
       </c>
       <c r="D99" t="s">
-        <v>828</v>
+        <v>233</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>683</v>
+        <v>829</v>
       </c>
       <c r="B100">
         <v>2</v>
       </c>
       <c r="C100" t="s">
-        <v>684</v>
+        <v>830</v>
       </c>
       <c r="D100" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C101" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="D101" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="B102">
         <v>2</v>
       </c>
       <c r="C102" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="D102" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>234</v>
+        <v>685</v>
       </c>
       <c r="B103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C103" t="s">
-        <v>833</v>
+        <v>686</v>
       </c>
       <c r="D103" t="s">
-        <v>236</v>
+        <v>687</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B104">
         <v>2</v>
       </c>
       <c r="C104" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="D104" t="s">
-        <v>836</v>
+        <v>592</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>685</v>
-      </c>
-      <c r="B105">
-        <v>2</v>
-      </c>
-      <c r="C105" t="s">
-        <v>686</v>
-      </c>
-      <c r="D105" t="s">
-        <v>687</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>837</v>
-      </c>
-      <c r="B106">
-        <v>2</v>
-      </c>
-      <c r="C106" t="s">
-        <v>838</v>
-      </c>
-      <c r="D106" t="s">
-        <v>592</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
   </sheetData>
@@ -5278,11 +5247,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="45.1640625" customWidth="1"/>
     <col min="3" max="3" width="42.83203125" customWidth="1"/>
@@ -5291,7 +5260,7 @@
     <col min="6" max="6" width="30.1640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -5311,7 +5280,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>340</v>
       </c>
@@ -5331,7 +5300,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>343</v>
       </c>
@@ -5351,7 +5320,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>346</v>
       </c>
@@ -5371,7 +5340,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>349</v>
       </c>
@@ -5391,7 +5360,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>351</v>
       </c>
@@ -5411,7 +5380,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -5431,7 +5400,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>355</v>
       </c>
@@ -5451,7 +5420,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>358</v>
       </c>
@@ -5471,7 +5440,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>361</v>
       </c>
@@ -5491,7 +5460,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>364</v>
       </c>
@@ -5511,7 +5480,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>366</v>
       </c>
@@ -5531,7 +5500,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>369</v>
       </c>
@@ -5551,7 +5520,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>371</v>
       </c>
@@ -5571,7 +5540,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>334</v>
       </c>
@@ -5591,7 +5560,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>378</v>
       </c>
@@ -5611,18 +5580,18 @@
         <v>528</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -5640,7 +5609,7 @@
       </c>
       <c r="F21"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>643</v>
       </c>
@@ -5660,7 +5629,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>646</v>
       </c>
@@ -5677,7 +5646,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>649</v>
       </c>
@@ -5697,7 +5666,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>652</v>
       </c>
@@ -5717,7 +5686,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>481</v>
       </c>
@@ -5737,7 +5706,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>656</v>
       </c>
@@ -5757,7 +5726,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>658</v>
       </c>
@@ -5777,19 +5746,19 @@
         <v>784</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>814</v>
+        <v>879</v>
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -5806,10 +5775,10 @@
         <v>8</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>346</v>
       </c>
@@ -5817,7 +5786,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
@@ -5826,10 +5795,10 @@
         <v>532</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>646</v>
       </c>
@@ -5846,9 +5815,9 @@
         <v>648</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -5863,7 +5832,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>482</v>
       </c>
@@ -5871,7 +5840,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
@@ -5880,7 +5849,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>481</v>
       </c>
@@ -5900,15 +5869,15 @@
         <v>783</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
+        <v>841</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
         <v>842</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38" t="s">
-        <v>843</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
@@ -5917,24 +5886,24 @@
         <v>569</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
+        <v>843</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
         <v>844</v>
-      </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="C39" t="s">
-        <v>845</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>656</v>
       </c>
@@ -5954,7 +5923,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>658</v>
       </c>
@@ -5974,7 +5943,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>378</v>
       </c>
@@ -5982,10 +5951,10 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
+        <v>846</v>
+      </c>
+      <c r="D42" t="s">
         <v>847</v>
-      </c>
-      <c r="D42" t="s">
-        <v>848</v>
       </c>
       <c r="E42" t="s">
         <v>381</v>
@@ -6004,11 +5973,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="F137" sqref="F137"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="34.5" customWidth="1"/>
@@ -6017,7 +5986,7 @@
     <col min="6" max="6" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6037,7 +6006,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>251</v>
       </c>
@@ -6057,7 +6026,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>255</v>
       </c>
@@ -6077,7 +6046,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>259</v>
       </c>
@@ -6097,7 +6066,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>263</v>
       </c>
@@ -6117,7 +6086,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>267</v>
       </c>
@@ -6137,7 +6106,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>270</v>
       </c>
@@ -6157,7 +6126,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>272</v>
       </c>
@@ -6177,7 +6146,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>276</v>
       </c>
@@ -6197,7 +6166,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>279</v>
       </c>
@@ -6217,7 +6186,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>282</v>
       </c>
@@ -6237,7 +6206,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>285</v>
       </c>
@@ -6257,7 +6226,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>289</v>
       </c>
@@ -6277,7 +6246,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>292</v>
       </c>
@@ -6297,7 +6266,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>296</v>
       </c>
@@ -6317,7 +6286,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>248</v>
       </c>
@@ -6337,7 +6306,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>301</v>
       </c>
@@ -6357,7 +6326,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>304</v>
       </c>
@@ -6377,7 +6346,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>308</v>
       </c>
@@ -6397,7 +6366,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>310</v>
       </c>
@@ -6417,7 +6386,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>224</v>
       </c>
@@ -6437,7 +6406,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>222</v>
       </c>
@@ -6457,7 +6426,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>316</v>
       </c>
@@ -6477,7 +6446,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>318</v>
       </c>
@@ -6497,7 +6466,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>321</v>
       </c>
@@ -6517,7 +6486,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>324</v>
       </c>
@@ -6537,7 +6506,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>122</v>
       </c>
@@ -6557,7 +6526,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>330</v>
       </c>
@@ -6577,7 +6546,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>333</v>
       </c>
@@ -6597,7 +6566,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>337</v>
       </c>
@@ -6617,12 +6586,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -6639,7 +6608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>251</v>
       </c>
@@ -6659,7 +6628,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>530</v>
       </c>
@@ -6679,7 +6648,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>255</v>
       </c>
@@ -6699,7 +6668,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>535</v>
       </c>
@@ -6719,7 +6688,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>259</v>
       </c>
@@ -6739,7 +6708,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>538</v>
       </c>
@@ -6759,7 +6728,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>542</v>
       </c>
@@ -6779,7 +6748,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>545</v>
       </c>
@@ -6799,7 +6768,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>263</v>
       </c>
@@ -6819,7 +6788,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>267</v>
       </c>
@@ -6839,7 +6808,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>270</v>
       </c>
@@ -6859,7 +6828,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>549</v>
       </c>
@@ -6879,7 +6848,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>272</v>
       </c>
@@ -6899,7 +6868,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>276</v>
       </c>
@@ -6919,7 +6888,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>279</v>
       </c>
@@ -6939,7 +6908,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>554</v>
       </c>
@@ -6959,7 +6928,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>285</v>
       </c>
@@ -6979,7 +6948,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>289</v>
       </c>
@@ -6999,7 +6968,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>559</v>
       </c>
@@ -7019,7 +6988,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>292</v>
       </c>
@@ -7039,7 +7008,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>562</v>
       </c>
@@ -7059,7 +7028,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>296</v>
       </c>
@@ -7079,7 +7048,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>248</v>
       </c>
@@ -7096,7 +7065,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>301</v>
       </c>
@@ -7116,7 +7085,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>304</v>
       </c>
@@ -7136,7 +7105,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>308</v>
       </c>
@@ -7156,7 +7125,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>310</v>
       </c>
@@ -7176,7 +7145,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>316</v>
       </c>
@@ -7196,7 +7165,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>318</v>
       </c>
@@ -7213,7 +7182,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>568</v>
       </c>
@@ -7233,7 +7202,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>570</v>
       </c>
@@ -7253,7 +7222,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>574</v>
       </c>
@@ -7273,7 +7242,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>578</v>
       </c>
@@ -7293,7 +7262,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>581</v>
       </c>
@@ -7313,7 +7282,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>584</v>
       </c>
@@ -7333,7 +7302,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>321</v>
       </c>
@@ -7353,7 +7322,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>324</v>
       </c>
@@ -7373,7 +7342,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>590</v>
       </c>
@@ -7393,7 +7362,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>122</v>
       </c>
@@ -7413,7 +7382,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>593</v>
       </c>
@@ -7433,7 +7402,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>597</v>
       </c>
@@ -7453,7 +7422,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>599</v>
       </c>
@@ -7473,7 +7442,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>601</v>
       </c>
@@ -7493,7 +7462,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>330</v>
       </c>
@@ -7513,7 +7482,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>604</v>
       </c>
@@ -7530,7 +7499,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>513</v>
       </c>
@@ -7550,7 +7519,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>337</v>
       </c>
@@ -7570,12 +7539,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -7593,7 +7562,7 @@
       </c>
       <c r="F89"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>255</v>
       </c>
@@ -7613,7 +7582,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>692</v>
       </c>
@@ -7633,7 +7602,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>672</v>
       </c>
@@ -7653,7 +7622,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>697</v>
       </c>
@@ -7673,7 +7642,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>701</v>
       </c>
@@ -7693,7 +7662,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>705</v>
       </c>
@@ -7713,7 +7682,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>272</v>
       </c>
@@ -7733,7 +7702,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>708</v>
       </c>
@@ -7753,7 +7722,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>711</v>
       </c>
@@ -7773,7 +7742,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>554</v>
       </c>
@@ -7793,7 +7762,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>714</v>
       </c>
@@ -7813,7 +7782,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>289</v>
       </c>
@@ -7833,7 +7802,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>719</v>
       </c>
@@ -7853,7 +7822,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>562</v>
       </c>
@@ -7870,7 +7839,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>722</v>
       </c>
@@ -7890,7 +7859,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>688</v>
       </c>
@@ -7907,7 +7876,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>728</v>
       </c>
@@ -7927,7 +7896,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>570</v>
       </c>
@@ -7944,7 +7913,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>581</v>
       </c>
@@ -7961,7 +7930,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>732</v>
       </c>
@@ -7981,7 +7950,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>324</v>
       </c>
@@ -8001,7 +7970,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
         <v>736</v>
       </c>
@@ -8021,7 +7990,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>740</v>
       </c>
@@ -8038,7 +8007,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>742</v>
       </c>
@@ -8058,12 +8027,12 @@
         <v>252</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6">
       <c r="A116" s="1" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -8080,10 +8049,10 @@
         <v>3</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>787</v>
       </c>
@@ -8103,7 +8072,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
         <v>736</v>
       </c>
@@ -8123,75 +8092,75 @@
         <v>252</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>672</v>
+        <v>697</v>
       </c>
       <c r="B120">
         <v>2</v>
       </c>
       <c r="C120" t="s">
-        <v>532</v>
+        <v>698</v>
       </c>
       <c r="D120" t="s">
-        <v>696</v>
+        <v>789</v>
       </c>
       <c r="E120" t="s">
-        <v>674</v>
+        <v>700</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>697</v>
+        <v>272</v>
       </c>
       <c r="B121">
         <v>2</v>
       </c>
       <c r="C121" t="s">
-        <v>698</v>
+        <v>273</v>
       </c>
       <c r="D121" t="s">
-        <v>789</v>
+        <v>274</v>
       </c>
       <c r="E121" t="s">
-        <v>700</v>
+        <v>275</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>272</v>
+        <v>791</v>
       </c>
       <c r="B122">
         <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>273</v>
+        <v>792</v>
       </c>
       <c r="D122" t="s">
-        <v>274</v>
+        <v>793</v>
       </c>
       <c r="E122" t="s">
-        <v>275</v>
+        <v>133</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="B123">
         <v>2</v>
       </c>
       <c r="C123" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="D123" t="s">
         <v>793</v>
@@ -8203,47 +8172,45 @@
         <v>641</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>794</v>
+        <v>742</v>
       </c>
       <c r="B124">
         <v>2</v>
       </c>
       <c r="C124" t="s">
-        <v>795</v>
+        <v>743</v>
       </c>
       <c r="D124" t="s">
-        <v>793</v>
+        <v>724</v>
       </c>
       <c r="E124" t="s">
-        <v>133</v>
+        <v>796</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>742</v>
+        <v>880</v>
       </c>
       <c r="B125">
         <v>2</v>
       </c>
       <c r="C125" t="s">
-        <v>743</v>
+        <v>881</v>
       </c>
       <c r="D125" t="s">
         <v>724</v>
       </c>
       <c r="E125" t="s">
-        <v>796</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="F125"/>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
         <v>711</v>
       </c>
@@ -8263,7 +8230,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
         <v>797</v>
       </c>
@@ -8283,7 +8250,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
         <v>719</v>
       </c>
@@ -8303,7 +8270,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
         <v>562</v>
       </c>
@@ -8323,7 +8290,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
         <v>800</v>
       </c>
@@ -8343,7 +8310,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
         <v>802</v>
       </c>
@@ -8363,7 +8330,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>324</v>
       </c>
@@ -8383,7 +8350,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>805</v>
       </c>
@@ -8403,7 +8370,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>590</v>
       </c>
@@ -8423,7 +8390,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
         <v>807</v>
       </c>
@@ -8443,7 +8410,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
         <v>809</v>
       </c>
@@ -8460,10 +8427,10 @@
         <v>228</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
         <v>812</v>
       </c>
@@ -8483,7 +8450,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6">
       <c r="F138"/>
     </row>
   </sheetData>
@@ -8498,10 +8465,10 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="2" width="42.83203125" customWidth="1"/>
@@ -8510,7 +8477,7 @@
     <col min="5" max="5" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -8527,7 +8494,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -8544,7 +8511,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -8561,7 +8528,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -8572,7 +8539,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -8583,7 +8550,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -8594,7 +8561,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -8605,7 +8572,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -8619,7 +8586,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -8630,7 +8597,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -8641,7 +8608,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -8658,7 +8625,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -8669,7 +8636,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>87</v>
       </c>
@@ -8686,15 +8653,15 @@
         <v>525</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="D18" s="5"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>746</v>
       </c>
@@ -8705,7 +8672,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="7" t="s">
         <v>613</v>
       </c>
@@ -8719,7 +8686,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>751</v>
       </c>
@@ -8730,7 +8697,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>748</v>
       </c>
@@ -8742,10 +8709,10 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -8759,10 +8726,10 @@
         <v>757</v>
       </c>
       <c r="F26" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -8776,10 +8743,10 @@
         <v>760</v>
       </c>
       <c r="F27" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -8790,10 +8757,10 @@
         <v>763</v>
       </c>
       <c r="F29" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>621</v>
       </c>
@@ -8807,10 +8774,10 @@
         <v>762</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>334</v>
       </c>
@@ -8827,20 +8794,20 @@
         <v>786</v>
       </c>
       <c r="F32" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="7"/>
       <c r="B33" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>751</v>
       </c>
@@ -8851,14 +8818,14 @@
         <v>423</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
     </row>
@@ -8876,7 +8843,7 @@
       <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
@@ -8886,7 +8853,7 @@
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -8901,7 +8868,7 @@
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>746</v>
       </c>
@@ -8909,14 +8876,14 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D2" t="s">
         <v>388</v>
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>747</v>
       </c>
@@ -8927,11 +8894,11 @@
         <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -8942,11 +8909,11 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -8957,11 +8924,11 @@
         <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -8976,7 +8943,7 @@
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -8991,7 +8958,7 @@
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -9006,7 +8973,7 @@
       </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>616</v>
       </c>
@@ -9021,7 +8988,7 @@
       </c>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>384</v>
       </c>
@@ -9036,7 +9003,7 @@
       </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -9051,7 +9018,7 @@
       </c>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -9066,7 +9033,7 @@
       </c>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -9081,7 +9048,7 @@
       </c>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>750</v>
       </c>
@@ -9092,11 +9059,11 @@
         <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -9111,7 +9078,7 @@
       </c>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -9126,7 +9093,7 @@
       </c>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -9137,11 +9104,11 @@
         <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E17"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -9156,9 +9123,9 @@
       </c>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -9171,9 +9138,9 @@
       </c>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -9186,7 +9153,7 @@
       </c>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>390</v>
       </c>
@@ -9201,7 +9168,7 @@
       </c>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -9212,11 +9179,11 @@
         <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -9227,11 +9194,11 @@
         <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -9242,11 +9209,11 @@
         <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -9261,7 +9228,7 @@
       </c>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -9276,7 +9243,7 @@
       </c>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>393</v>
       </c>
@@ -9291,7 +9258,7 @@
       </c>
       <c r="E27"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>102</v>
       </c>
@@ -9302,11 +9269,11 @@
         <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>82</v>
       </c>
@@ -9321,7 +9288,7 @@
       </c>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -9336,7 +9303,7 @@
       </c>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -9351,7 +9318,7 @@
       </c>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -9366,7 +9333,7 @@
       </c>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -9377,11 +9344,11 @@
         <v>56</v>
       </c>
       <c r="D33" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E33"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>399</v>
       </c>
@@ -9396,7 +9363,7 @@
       </c>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>401</v>
       </c>
@@ -9411,7 +9378,7 @@
       </c>
       <c r="E35"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -9422,11 +9389,11 @@
         <v>59</v>
       </c>
       <c r="D36" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E36"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>403</v>
       </c>
@@ -9441,7 +9408,7 @@
       </c>
       <c r="E37"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>85</v>
       </c>
@@ -9456,7 +9423,7 @@
       </c>
       <c r="E38"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -9471,7 +9438,7 @@
       </c>
       <c r="E39"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>751</v>
       </c>
@@ -9486,7 +9453,7 @@
       </c>
       <c r="E40"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>67</v>
       </c>
@@ -9501,7 +9468,7 @@
       </c>
       <c r="E41"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>69</v>
       </c>
@@ -9516,7 +9483,7 @@
       </c>
       <c r="E42"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>407</v>
       </c>
@@ -9531,7 +9498,7 @@
       </c>
       <c r="E43"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -9542,11 +9509,11 @@
         <v>105</v>
       </c>
       <c r="D44" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E44"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>623</v>
       </c>
@@ -9561,7 +9528,7 @@
       </c>
       <c r="E45"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>409</v>
       </c>
@@ -9576,7 +9543,7 @@
       </c>
       <c r="E46"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>73</v>
       </c>
@@ -9591,7 +9558,7 @@
       </c>
       <c r="E47"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>75</v>
       </c>
@@ -9606,7 +9573,7 @@
       </c>
       <c r="E48"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>77</v>
       </c>
@@ -9621,7 +9588,7 @@
       </c>
       <c r="E49"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>79</v>
       </c>
@@ -9636,7 +9603,7 @@
       </c>
       <c r="E50"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>98</v>
       </c>
@@ -9651,7 +9618,7 @@
       </c>
       <c r="E51"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -9662,11 +9629,11 @@
         <v>412</v>
       </c>
       <c r="D52" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E52"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>413</v>
       </c>
@@ -9681,7 +9648,7 @@
       </c>
       <c r="E53"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>31</v>
       </c>
@@ -9696,7 +9663,7 @@
       </c>
       <c r="E54"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>396</v>
       </c>
@@ -9711,7 +9678,7 @@
       </c>
       <c r="E55"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>83</v>
       </c>
@@ -9726,7 +9693,7 @@
       </c>
       <c r="E56"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -9741,7 +9708,7 @@
       </c>
       <c r="E57"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>71</v>
       </c>
@@ -9756,7 +9723,7 @@
       </c>
       <c r="E58"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>86</v>
       </c>
@@ -9764,14 +9731,14 @@
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D59" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E59"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>84</v>
       </c>
@@ -9782,11 +9749,11 @@
         <v>754</v>
       </c>
       <c r="D60" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E60"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>87</v>
       </c>
@@ -9797,11 +9764,11 @@
         <v>631</v>
       </c>
       <c r="D61" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E61"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>88</v>
       </c>
@@ -9833,12 +9800,12 @@
       <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -9849,7 +9816,7 @@
       <c r="F1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -9857,15 +9824,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>746</v>
       </c>
       <c r="B3" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>747</v>
       </c>
@@ -9873,7 +9840,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -9881,7 +9848,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -9889,7 +9856,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -9897,7 +9864,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -9905,7 +9872,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -9913,7 +9880,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -9921,7 +9888,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>86</v>
       </c>
@@ -9929,7 +9896,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -9937,23 +9904,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B13" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -9961,7 +9928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>390</v>
       </c>
@@ -9969,7 +9936,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -9977,7 +9944,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -9985,7 +9952,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -9993,7 +9960,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>413</v>
       </c>
@@ -10001,7 +9968,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -10009,7 +9976,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>616</v>
       </c>
@@ -10017,7 +9984,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -10025,7 +9992,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -10033,7 +10000,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -10041,7 +10008,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>384</v>
       </c>
@@ -10049,7 +10016,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>393</v>
       </c>
@@ -10057,7 +10024,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>102</v>
       </c>
@@ -10065,7 +10032,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>396</v>
       </c>
@@ -10073,7 +10040,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -10081,7 +10048,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>83</v>
       </c>
@@ -10089,7 +10056,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -10097,7 +10064,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -10105,7 +10072,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -10113,7 +10080,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -10121,7 +10088,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>399</v>
       </c>
@@ -10129,7 +10096,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>401</v>
       </c>
@@ -10137,7 +10104,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -10145,7 +10112,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -10153,7 +10120,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -10161,7 +10128,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>403</v>
       </c>
@@ -10169,7 +10136,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -10177,7 +10144,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -10185,12 +10152,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>67</v>
       </c>
@@ -10198,7 +10165,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>69</v>
       </c>
@@ -10206,7 +10173,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>407</v>
       </c>
@@ -10214,7 +10181,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>104</v>
       </c>
@@ -10222,7 +10189,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>30</v>
       </c>
@@ -10230,7 +10197,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -10238,7 +10205,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>32</v>
       </c>
@@ -10246,7 +10213,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>623</v>
       </c>
@@ -10255,7 +10222,7 @@
       </c>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>409</v>
       </c>
@@ -10265,7 +10232,7 @@
       <c r="C53" s="4"/>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -10274,7 +10241,7 @@
       </c>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>71</v>
       </c>
@@ -10283,7 +10250,7 @@
       </c>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -10292,7 +10259,7 @@
       </c>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>88</v>
       </c>
@@ -10300,7 +10267,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -10308,7 +10275,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -10316,7 +10283,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -10324,7 +10291,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>87</v>
       </c>

--- a/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
+++ b/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezheng/Documents/VEuPathDB-git/ApiCommonData/Load/ontology/harmonization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nupur/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E18E9E8-98FE-CE4F-861A-7D1FAF5B5587}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90416E32-9975-F649-B241-F4EC5CDFDE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="1640" windowWidth="26240" windowHeight="13380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="860" windowWidth="26240" windowHeight="13380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="termWithDifferentLabels" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="889">
   <si>
     <t>sid</t>
   </si>
@@ -2674,13 +2674,34 @@
   </si>
   <si>
     <t>Enrollment month</t>
+  </si>
+  <si>
+    <t>Use EUPATH_0000165 for all and update replaces annotation where needed</t>
+  </si>
+  <si>
+    <t>Sheena will address in PROMOTE at a later date</t>
+  </si>
+  <si>
+    <t>Occupation 2 salary' EUPATH_0000364 should be changed to 'Occupation salary'</t>
+  </si>
+  <si>
+    <t>EUPATH_0022264 should change to 'Plasmodium falciparum, by qPCR calculation'</t>
+  </si>
+  <si>
+    <t>EUPATH_0022247 should change to 'Plasmodium vivax, by qPCR calculation'</t>
+  </si>
+  <si>
+    <t>Look in PROVIDE an d MAL_ED and clean up. Has to do with log vs. linear scale. Check IgA titer as well.</t>
+  </si>
+  <si>
+    <t>Use IRI EUPATH_0030024 for this label</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3548,11 +3569,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
@@ -3561,7 +3582,7 @@
     <col min="5" max="5" width="55.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3578,7 +3599,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -3598,7 +3619,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -3618,7 +3639,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -3638,7 +3659,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -3658,7 +3679,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>122</v>
       </c>
@@ -3678,7 +3699,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -3698,7 +3719,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>128</v>
       </c>
@@ -3718,7 +3739,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>131</v>
       </c>
@@ -3738,7 +3759,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>134</v>
       </c>
@@ -3758,7 +3779,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -3778,7 +3799,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>139</v>
       </c>
@@ -3798,7 +3819,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>141</v>
       </c>
@@ -3818,7 +3839,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>144</v>
       </c>
@@ -3835,7 +3856,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>147</v>
       </c>
@@ -3852,7 +3873,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>149</v>
       </c>
@@ -3869,7 +3890,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>152</v>
       </c>
@@ -3886,7 +3907,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>154</v>
       </c>
@@ -3903,7 +3924,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>156</v>
       </c>
@@ -3920,7 +3941,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>158</v>
       </c>
@@ -3937,7 +3958,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>160</v>
       </c>
@@ -3954,7 +3975,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>162</v>
       </c>
@@ -3971,7 +3992,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>164</v>
       </c>
@@ -3988,7 +4009,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>166</v>
       </c>
@@ -4005,7 +4026,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>168</v>
       </c>
@@ -4022,7 +4043,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>170</v>
       </c>
@@ -4039,7 +4060,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>172</v>
       </c>
@@ -4056,7 +4077,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>174</v>
       </c>
@@ -4073,7 +4094,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>176</v>
       </c>
@@ -4090,7 +4111,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>178</v>
       </c>
@@ -4107,7 +4128,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>180</v>
       </c>
@@ -4124,7 +4145,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>182</v>
       </c>
@@ -4141,7 +4162,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>184</v>
       </c>
@@ -4158,7 +4179,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>186</v>
       </c>
@@ -4175,7 +4196,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>188</v>
       </c>
@@ -4192,7 +4213,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>190</v>
       </c>
@@ -4209,7 +4230,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>192</v>
       </c>
@@ -4226,7 +4247,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>194</v>
       </c>
@@ -4243,7 +4264,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>196</v>
       </c>
@@ -4260,7 +4281,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>198</v>
       </c>
@@ -4277,7 +4298,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>200</v>
       </c>
@@ -4294,7 +4315,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>202</v>
       </c>
@@ -4311,7 +4332,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>204</v>
       </c>
@@ -4328,7 +4349,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>206</v>
       </c>
@@ -4345,7 +4366,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>208</v>
       </c>
@@ -4362,7 +4383,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>210</v>
       </c>
@@ -4379,7 +4400,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>213</v>
       </c>
@@ -4396,7 +4417,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>216</v>
       </c>
@@ -4413,7 +4434,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>219</v>
       </c>
@@ -4430,7 +4451,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>222</v>
       </c>
@@ -4447,7 +4468,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>224</v>
       </c>
@@ -4464,7 +4485,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>226</v>
       </c>
@@ -4481,7 +4502,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>229</v>
       </c>
@@ -4498,7 +4519,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>486</v>
       </c>
@@ -4515,7 +4536,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>492</v>
       </c>
@@ -4532,7 +4553,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>231</v>
       </c>
@@ -4549,7 +4570,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>234</v>
       </c>
@@ -4566,7 +4587,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>237</v>
       </c>
@@ -4583,7 +4604,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>240</v>
       </c>
@@ -4600,7 +4621,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>242</v>
       </c>
@@ -4617,7 +4638,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>245</v>
       </c>
@@ -4634,7 +4655,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>248</v>
       </c>
@@ -4651,15 +4672,15 @@
         <v>498</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E63" s="6"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -4674,7 +4695,7 @@
       </c>
       <c r="E67"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>662</v>
       </c>
@@ -4691,7 +4712,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>664</v>
       </c>
@@ -4708,7 +4729,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>666</v>
       </c>
@@ -4725,7 +4746,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>669</v>
       </c>
@@ -4742,7 +4763,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>136</v>
       </c>
@@ -4759,7 +4780,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>180</v>
       </c>
@@ -4776,7 +4797,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>672</v>
       </c>
@@ -4793,7 +4814,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>216</v>
       </c>
@@ -4810,7 +4831,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>675</v>
       </c>
@@ -4827,7 +4848,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>678</v>
       </c>
@@ -4844,7 +4865,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>680</v>
       </c>
@@ -4861,7 +4882,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>683</v>
       </c>
@@ -4878,7 +4899,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>231</v>
       </c>
@@ -4892,7 +4913,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>685</v>
       </c>
@@ -4909,7 +4930,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>688</v>
       </c>
@@ -4923,7 +4944,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>610</v>
       </c>
@@ -4940,15 +4961,15 @@
         <v>775</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E84"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -4965,7 +4986,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>662</v>
       </c>
@@ -4982,7 +5003,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>141</v>
       </c>
@@ -4999,7 +5020,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>180</v>
       </c>
@@ -5016,7 +5037,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>817</v>
       </c>
@@ -5033,7 +5054,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>820</v>
       </c>
@@ -5050,7 +5071,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>216</v>
       </c>
@@ -5067,7 +5088,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>822</v>
       </c>
@@ -5084,7 +5105,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>825</v>
       </c>
@@ -5101,7 +5122,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>680</v>
       </c>
@@ -5118,7 +5139,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>683</v>
       </c>
@@ -5135,7 +5156,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>231</v>
       </c>
@@ -5152,7 +5173,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>829</v>
       </c>
@@ -5169,7 +5190,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>234</v>
       </c>
@@ -5186,7 +5207,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>833</v>
       </c>
@@ -5203,7 +5224,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>685</v>
       </c>
@@ -5220,7 +5241,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>836</v>
       </c>
@@ -5247,11 +5268,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.1640625" customWidth="1"/>
     <col min="3" max="3" width="42.83203125" customWidth="1"/>
@@ -5260,7 +5281,7 @@
     <col min="6" max="6" width="30.1640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -5280,7 +5301,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>340</v>
       </c>
@@ -5300,7 +5321,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>343</v>
       </c>
@@ -5320,7 +5341,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>346</v>
       </c>
@@ -5340,7 +5361,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>349</v>
       </c>
@@ -5360,7 +5381,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>351</v>
       </c>
@@ -5380,7 +5401,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -5400,7 +5421,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>355</v>
       </c>
@@ -5420,7 +5441,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>358</v>
       </c>
@@ -5440,7 +5461,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>361</v>
       </c>
@@ -5460,7 +5481,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>364</v>
       </c>
@@ -5480,7 +5501,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>366</v>
       </c>
@@ -5500,7 +5521,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>369</v>
       </c>
@@ -5520,7 +5541,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>371</v>
       </c>
@@ -5540,7 +5561,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>334</v>
       </c>
@@ -5560,7 +5581,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>378</v>
       </c>
@@ -5580,18 +5601,18 @@
         <v>528</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -5609,7 +5630,7 @@
       </c>
       <c r="F21"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>643</v>
       </c>
@@ -5629,7 +5650,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>646</v>
       </c>
@@ -5646,7 +5667,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>649</v>
       </c>
@@ -5666,7 +5687,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>652</v>
       </c>
@@ -5686,7 +5707,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>481</v>
       </c>
@@ -5706,7 +5727,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>656</v>
       </c>
@@ -5726,7 +5747,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>658</v>
       </c>
@@ -5746,19 +5767,19 @@
         <v>784</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>879</v>
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -5778,7 +5799,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>346</v>
       </c>
@@ -5798,7 +5819,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>646</v>
       </c>
@@ -5814,8 +5835,11 @@
       <c r="E34" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="F34" s="2" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>839</v>
       </c>
@@ -5831,8 +5855,11 @@
       <c r="E35" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="F35" s="8" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>482</v>
       </c>
@@ -5848,8 +5875,11 @@
       <c r="E36" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="F36" s="2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>481</v>
       </c>
@@ -5866,10 +5896,10 @@
         <v>522</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>841</v>
       </c>
@@ -5885,8 +5915,11 @@
       <c r="E38" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="F38" s="2" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>843</v>
       </c>
@@ -5902,8 +5935,11 @@
       <c r="E39" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="F39" s="2" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>656</v>
       </c>
@@ -5920,10 +5956,10 @@
         <v>322</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>658</v>
       </c>
@@ -5943,7 +5979,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>378</v>
       </c>
@@ -5973,11 +6009,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="D139" sqref="D139"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="F137" sqref="F137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="34.5" customWidth="1"/>
@@ -5986,7 +6022,7 @@
     <col min="6" max="6" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6006,7 +6042,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>251</v>
       </c>
@@ -6026,7 +6062,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>255</v>
       </c>
@@ -6046,7 +6082,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>259</v>
       </c>
@@ -6066,7 +6102,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>263</v>
       </c>
@@ -6086,7 +6122,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>267</v>
       </c>
@@ -6106,7 +6142,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>270</v>
       </c>
@@ -6126,7 +6162,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>272</v>
       </c>
@@ -6146,7 +6182,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>276</v>
       </c>
@@ -6166,7 +6202,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>279</v>
       </c>
@@ -6186,7 +6222,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>282</v>
       </c>
@@ -6206,7 +6242,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>285</v>
       </c>
@@ -6226,7 +6262,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>289</v>
       </c>
@@ -6246,7 +6282,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>292</v>
       </c>
@@ -6266,7 +6302,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>296</v>
       </c>
@@ -6286,7 +6322,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>248</v>
       </c>
@@ -6306,7 +6342,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>301</v>
       </c>
@@ -6326,7 +6362,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>304</v>
       </c>
@@ -6346,7 +6382,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>308</v>
       </c>
@@ -6366,7 +6402,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>310</v>
       </c>
@@ -6386,7 +6422,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>224</v>
       </c>
@@ -6406,7 +6442,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>222</v>
       </c>
@@ -6426,7 +6462,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>316</v>
       </c>
@@ -6446,7 +6482,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>318</v>
       </c>
@@ -6466,7 +6502,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>321</v>
       </c>
@@ -6486,7 +6522,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>324</v>
       </c>
@@ -6506,7 +6542,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>122</v>
       </c>
@@ -6526,7 +6562,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>330</v>
       </c>
@@ -6546,7 +6582,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>333</v>
       </c>
@@ -6566,7 +6602,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>337</v>
       </c>
@@ -6586,12 +6622,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -6608,7 +6644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>251</v>
       </c>
@@ -6628,7 +6664,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>530</v>
       </c>
@@ -6648,7 +6684,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>255</v>
       </c>
@@ -6668,7 +6704,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>535</v>
       </c>
@@ -6688,7 +6724,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>259</v>
       </c>
@@ -6708,7 +6744,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>538</v>
       </c>
@@ -6728,7 +6764,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>542</v>
       </c>
@@ -6748,7 +6784,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>545</v>
       </c>
@@ -6768,7 +6804,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>263</v>
       </c>
@@ -6788,7 +6824,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>267</v>
       </c>
@@ -6808,7 +6844,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>270</v>
       </c>
@@ -6828,7 +6864,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>549</v>
       </c>
@@ -6848,7 +6884,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>272</v>
       </c>
@@ -6868,7 +6904,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>276</v>
       </c>
@@ -6888,7 +6924,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>279</v>
       </c>
@@ -6908,7 +6944,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>554</v>
       </c>
@@ -6928,7 +6964,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>285</v>
       </c>
@@ -6948,7 +6984,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>289</v>
       </c>
@@ -6968,7 +7004,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>559</v>
       </c>
@@ -6988,7 +7024,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>292</v>
       </c>
@@ -7008,7 +7044,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>562</v>
       </c>
@@ -7028,7 +7064,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>296</v>
       </c>
@@ -7048,7 +7084,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>248</v>
       </c>
@@ -7065,7 +7101,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>301</v>
       </c>
@@ -7085,7 +7121,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>304</v>
       </c>
@@ -7105,7 +7141,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>308</v>
       </c>
@@ -7125,7 +7161,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>310</v>
       </c>
@@ -7145,7 +7181,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>316</v>
       </c>
@@ -7165,7 +7201,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>318</v>
       </c>
@@ -7182,7 +7218,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>568</v>
       </c>
@@ -7202,7 +7238,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>570</v>
       </c>
@@ -7222,7 +7258,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>574</v>
       </c>
@@ -7242,7 +7278,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>578</v>
       </c>
@@ -7262,7 +7298,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>581</v>
       </c>
@@ -7282,7 +7318,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>584</v>
       </c>
@@ -7302,7 +7338,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>321</v>
       </c>
@@ -7322,7 +7358,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>324</v>
       </c>
@@ -7342,7 +7378,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>590</v>
       </c>
@@ -7362,7 +7398,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>122</v>
       </c>
@@ -7382,7 +7418,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>593</v>
       </c>
@@ -7402,7 +7438,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>597</v>
       </c>
@@ -7422,7 +7458,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>599</v>
       </c>
@@ -7442,7 +7478,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>601</v>
       </c>
@@ -7462,7 +7498,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>330</v>
       </c>
@@ -7482,7 +7518,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>604</v>
       </c>
@@ -7499,7 +7535,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>513</v>
       </c>
@@ -7519,7 +7555,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>337</v>
       </c>
@@ -7539,12 +7575,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -7562,7 +7598,7 @@
       </c>
       <c r="F89"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>255</v>
       </c>
@@ -7582,7 +7618,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>692</v>
       </c>
@@ -7602,7 +7638,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>672</v>
       </c>
@@ -7622,7 +7658,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>697</v>
       </c>
@@ -7642,7 +7678,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>701</v>
       </c>
@@ -7662,7 +7698,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>705</v>
       </c>
@@ -7682,7 +7718,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>272</v>
       </c>
@@ -7702,7 +7738,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>708</v>
       </c>
@@ -7722,7 +7758,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>711</v>
       </c>
@@ -7742,7 +7778,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>554</v>
       </c>
@@ -7762,7 +7798,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>714</v>
       </c>
@@ -7782,7 +7818,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>289</v>
       </c>
@@ -7802,7 +7838,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>719</v>
       </c>
@@ -7822,7 +7858,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>562</v>
       </c>
@@ -7839,7 +7875,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>722</v>
       </c>
@@ -7859,7 +7895,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>688</v>
       </c>
@@ -7876,7 +7912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>728</v>
       </c>
@@ -7896,7 +7932,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>570</v>
       </c>
@@ -7913,7 +7949,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>581</v>
       </c>
@@ -7930,7 +7966,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>732</v>
       </c>
@@ -7950,7 +7986,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>324</v>
       </c>
@@ -7970,7 +8006,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>736</v>
       </c>
@@ -7990,7 +8026,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>740</v>
       </c>
@@ -8007,7 +8043,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>742</v>
       </c>
@@ -8027,12 +8063,12 @@
         <v>252</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -8052,7 +8088,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>787</v>
       </c>
@@ -8072,7 +8108,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>736</v>
       </c>
@@ -8092,7 +8128,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>697</v>
       </c>
@@ -8112,7 +8148,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>272</v>
       </c>
@@ -8132,7 +8168,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>791</v>
       </c>
@@ -8152,7 +8188,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>794</v>
       </c>
@@ -8172,7 +8208,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>742</v>
       </c>
@@ -8192,7 +8228,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>880</v>
       </c>
@@ -8208,9 +8244,11 @@
       <c r="E125" t="s">
         <v>151</v>
       </c>
-      <c r="F125"/>
-    </row>
-    <row r="126" spans="1:6">
+      <c r="F125" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>711</v>
       </c>
@@ -8230,7 +8268,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>797</v>
       </c>
@@ -8250,7 +8288,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>719</v>
       </c>
@@ -8270,7 +8308,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>562</v>
       </c>
@@ -8290,7 +8328,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>800</v>
       </c>
@@ -8310,7 +8348,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>802</v>
       </c>
@@ -8330,7 +8368,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>324</v>
       </c>
@@ -8350,7 +8388,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>805</v>
       </c>
@@ -8370,7 +8408,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>590</v>
       </c>
@@ -8390,7 +8428,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>807</v>
       </c>
@@ -8410,7 +8448,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>809</v>
       </c>
@@ -8430,7 +8468,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>812</v>
       </c>
@@ -8450,7 +8488,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F138"/>
     </row>
   </sheetData>
@@ -8464,11 +8502,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84351FC9-A5B2-F24D-8B55-E6051DA9E552}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="2" width="42.83203125" customWidth="1"/>
@@ -8477,7 +8515,7 @@
     <col min="5" max="5" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -8494,7 +8532,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -8511,7 +8549,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -8528,7 +8566,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -8539,7 +8577,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -8550,7 +8588,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -8561,7 +8599,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -8572,7 +8610,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -8586,7 +8624,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -8597,7 +8635,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -8608,7 +8646,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -8625,7 +8663,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -8636,7 +8674,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>87</v>
       </c>
@@ -8653,15 +8691,15 @@
         <v>525</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D18" s="5"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>746</v>
       </c>
@@ -8672,7 +8710,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>613</v>
       </c>
@@ -8686,7 +8724,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>751</v>
       </c>
@@ -8697,7 +8735,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>748</v>
       </c>
@@ -8709,10 +8747,10 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -8729,7 +8767,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -8746,7 +8784,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -8760,7 +8798,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>621</v>
       </c>
@@ -8774,10 +8812,10 @@
         <v>762</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>334</v>
       </c>
@@ -8797,17 +8835,17 @@
         <v>866</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="3"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>865</v>
       </c>
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>751</v>
       </c>
@@ -8821,11 +8859,11 @@
         <v>878</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
     </row>
@@ -8843,7 +8881,7 @@
       <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
@@ -8853,7 +8891,7 @@
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -8868,7 +8906,7 @@
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>746</v>
       </c>
@@ -8883,7 +8921,7 @@
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>747</v>
       </c>
@@ -8898,7 +8936,7 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -8913,7 +8951,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -8928,7 +8966,7 @@
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -8943,7 +8981,7 @@
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -8958,7 +8996,7 @@
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -8973,7 +9011,7 @@
       </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>616</v>
       </c>
@@ -8988,7 +9026,7 @@
       </c>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>384</v>
       </c>
@@ -9003,7 +9041,7 @@
       </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -9018,7 +9056,7 @@
       </c>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -9033,7 +9071,7 @@
       </c>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -9048,7 +9086,7 @@
       </c>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>750</v>
       </c>
@@ -9063,7 +9101,7 @@
       </c>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -9078,7 +9116,7 @@
       </c>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -9093,7 +9131,7 @@
       </c>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -9108,7 +9146,7 @@
       </c>
       <c r="E17"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -9123,7 +9161,7 @@
       </c>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>860</v>
       </c>
@@ -9138,7 +9176,7 @@
       </c>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>852</v>
       </c>
@@ -9153,7 +9191,7 @@
       </c>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>390</v>
       </c>
@@ -9168,7 +9206,7 @@
       </c>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -9183,7 +9221,7 @@
       </c>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -9198,7 +9236,7 @@
       </c>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -9213,7 +9251,7 @@
       </c>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -9228,7 +9266,7 @@
       </c>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -9243,7 +9281,7 @@
       </c>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>393</v>
       </c>
@@ -9258,7 +9296,7 @@
       </c>
       <c r="E27"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>102</v>
       </c>
@@ -9273,7 +9311,7 @@
       </c>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>82</v>
       </c>
@@ -9288,7 +9326,7 @@
       </c>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -9303,7 +9341,7 @@
       </c>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -9318,7 +9356,7 @@
       </c>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -9333,7 +9371,7 @@
       </c>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -9348,7 +9386,7 @@
       </c>
       <c r="E33"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>399</v>
       </c>
@@ -9363,7 +9401,7 @@
       </c>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>401</v>
       </c>
@@ -9378,7 +9416,7 @@
       </c>
       <c r="E35"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -9393,7 +9431,7 @@
       </c>
       <c r="E36"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>403</v>
       </c>
@@ -9408,7 +9446,7 @@
       </c>
       <c r="E37"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>85</v>
       </c>
@@ -9423,7 +9461,7 @@
       </c>
       <c r="E38"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -9438,7 +9476,7 @@
       </c>
       <c r="E39"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>751</v>
       </c>
@@ -9453,7 +9491,7 @@
       </c>
       <c r="E40"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>67</v>
       </c>
@@ -9468,7 +9506,7 @@
       </c>
       <c r="E41"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>69</v>
       </c>
@@ -9483,7 +9521,7 @@
       </c>
       <c r="E42"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>407</v>
       </c>
@@ -9498,7 +9536,7 @@
       </c>
       <c r="E43"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -9513,7 +9551,7 @@
       </c>
       <c r="E44"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>623</v>
       </c>
@@ -9528,7 +9566,7 @@
       </c>
       <c r="E45"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>409</v>
       </c>
@@ -9543,7 +9581,7 @@
       </c>
       <c r="E46"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>73</v>
       </c>
@@ -9558,7 +9596,7 @@
       </c>
       <c r="E47"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>75</v>
       </c>
@@ -9573,7 +9611,7 @@
       </c>
       <c r="E48"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>77</v>
       </c>
@@ -9588,7 +9626,7 @@
       </c>
       <c r="E49"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>79</v>
       </c>
@@ -9603,7 +9641,7 @@
       </c>
       <c r="E50"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>98</v>
       </c>
@@ -9618,7 +9656,7 @@
       </c>
       <c r="E51"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -9633,7 +9671,7 @@
       </c>
       <c r="E52"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>413</v>
       </c>
@@ -9648,7 +9686,7 @@
       </c>
       <c r="E53"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>31</v>
       </c>
@@ -9663,7 +9701,7 @@
       </c>
       <c r="E54"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>396</v>
       </c>
@@ -9678,7 +9716,7 @@
       </c>
       <c r="E55"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>83</v>
       </c>
@@ -9693,7 +9731,7 @@
       </c>
       <c r="E56"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -9708,7 +9746,7 @@
       </c>
       <c r="E57"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>71</v>
       </c>
@@ -9723,7 +9761,7 @@
       </c>
       <c r="E58"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>86</v>
       </c>
@@ -9738,7 +9776,7 @@
       </c>
       <c r="E59"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>84</v>
       </c>
@@ -9753,7 +9791,7 @@
       </c>
       <c r="E60"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>87</v>
       </c>
@@ -9768,7 +9806,7 @@
       </c>
       <c r="E61"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>88</v>
       </c>
@@ -9800,12 +9838,12 @@
       <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -9816,7 +9854,7 @@
       <c r="F1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -9824,7 +9862,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>746</v>
       </c>
@@ -9832,7 +9870,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>747</v>
       </c>
@@ -9840,7 +9878,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -9848,7 +9886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -9856,7 +9894,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -9864,7 +9902,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -9872,7 +9910,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -9880,7 +9918,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -9888,7 +9926,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>86</v>
       </c>
@@ -9896,7 +9934,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -9904,7 +9942,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>860</v>
       </c>
@@ -9912,7 +9950,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>852</v>
       </c>
@@ -9920,7 +9958,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -9928,7 +9966,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>390</v>
       </c>
@@ -9936,7 +9974,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -9944,7 +9982,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -9952,7 +9990,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -9960,7 +9998,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>413</v>
       </c>
@@ -9968,7 +10006,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -9976,7 +10014,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>616</v>
       </c>
@@ -9984,7 +10022,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -9992,7 +10030,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -10000,7 +10038,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -10008,7 +10046,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>384</v>
       </c>
@@ -10016,7 +10054,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>393</v>
       </c>
@@ -10024,7 +10062,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>102</v>
       </c>
@@ -10032,7 +10070,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>396</v>
       </c>
@@ -10040,7 +10078,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -10048,7 +10086,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>83</v>
       </c>
@@ -10056,7 +10094,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -10064,7 +10102,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -10072,7 +10110,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -10080,7 +10118,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -10088,7 +10126,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>399</v>
       </c>
@@ -10096,7 +10134,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>401</v>
       </c>
@@ -10104,7 +10142,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -10112,7 +10150,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -10120,7 +10158,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -10128,7 +10166,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>403</v>
       </c>
@@ -10136,7 +10174,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -10144,7 +10182,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -10152,12 +10190,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>67</v>
       </c>
@@ -10165,7 +10203,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>69</v>
       </c>
@@ -10173,7 +10211,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>407</v>
       </c>
@@ -10181,7 +10219,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>104</v>
       </c>
@@ -10189,7 +10227,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>30</v>
       </c>
@@ -10197,7 +10235,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -10205,7 +10243,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>32</v>
       </c>
@@ -10213,7 +10251,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>623</v>
       </c>
@@ -10222,7 +10260,7 @@
       </c>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>409</v>
       </c>
@@ -10232,7 +10270,7 @@
       <c r="C53" s="4"/>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -10241,7 +10279,7 @@
       </c>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>71</v>
       </c>
@@ -10250,7 +10288,7 @@
       </c>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -10259,7 +10297,7 @@
       </c>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>88</v>
       </c>
@@ -10267,7 +10305,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -10275,7 +10313,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -10283,7 +10321,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -10291,7 +10329,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>87</v>
       </c>

--- a/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
+++ b/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nupur/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezheng/Documents/VEuPathDB-git/ApiCommonData/Load/ontology/harmonization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90416E32-9975-F649-B241-F4EC5CDFDE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37FD5F5-58B2-4544-8A51-EC5DD91A67B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="860" windowWidth="26240" windowHeight="13380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2020" yWindow="3540" windowWidth="22420" windowHeight="11480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="termWithDifferentLabels" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="892">
   <si>
     <t>sid</t>
   </si>
@@ -1206,9 +1206,6 @@
     <t>http://purl.obolibrary.org/obo/UO_0000021</t>
   </si>
   <si>
-    <t>gates_gems1a | gates_gems | gates_vida | gates_provide</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
@@ -1887,12 +1884,6 @@
     <t>gates_maled</t>
   </si>
   <si>
-    <t>icemr_prism2_border_cohort | gates_gems1a | gates_gems | icemr_southAsia | gates_vida | gates_perch | general/general_promote | gates_sip | icemr_prism2 | gates_maled | general/general_crompton</t>
-  </si>
-  <si>
-    <t>gates_gems1a | gates_vida | gates_maled</t>
-  </si>
-  <si>
     <t>hrs</t>
   </si>
   <si>
@@ -2580,12 +2571,6 @@
     <t>icemr_amazoniaPeru</t>
   </si>
   <si>
-    <t>icemr_india_gujarat | icemr_prism2_border_cohort | gates_gems1a | gates_gems | icemr_southAsia | gates_vida | icemr_southernAfrica | icemr_india_cx | gates_perch | icemr_malawi | general/general_promote | icemr_india_cohort | icemr_india_feverSurv | gates_sip | icemr_southeastAsia | icemr_prism2 | icemr_meghalaya | icemr_prism | gates_provide | icemr_amazoniaPeru | icemr_westAfrica | gates_maled | general/general_crompton</t>
-  </si>
-  <si>
-    <t>icemr_india_gujarat | icemr_prism2_border_cohort | gates_gems1a | general/general_umsp | gates_gems | gates_vida | gates_elicit | icemr_india_cx | gates_perch | general/general_promote | icemr_india_cohort | icemr_india_feverSurv | gates_sip | gates_washbKenya | icemr_prism2 | icemr_meghalaya | icemr_prism | gates_provide | gates_scoreSmCohort | gates_maled | gates_washbBangladesh | general/general_crompton</t>
-  </si>
-  <si>
     <t>eggs per gram</t>
   </si>
   <si>
@@ -2595,9 +2580,6 @@
     <t>gates_sip | gates_provide | icemr_amazoniaPeru | gates_maled</t>
   </si>
   <si>
-    <t>icemr_india_gujarat | icemr_prism2_border_cohort | gates_gems1a | icemr_amazoniaBrazil | general/general_umsp | gates_gems | gates_vida | gates_elicit | icemr_southernAfrica | icemr_india_cx | gates_perch | general/general_promote | icemr_india_cohort | icemr_india_feverSurv | gates_sip | icemr_prism2 | icemr_meghalaya | icemr_prism | gates_provide | gates_scoreSmCohort | icemr_westAfrica | gates_maled | gates_washbBangladesh | general/general_crompton</t>
-  </si>
-  <si>
     <t>gates_perch | gates_sip | gates_washbKenya | icemr_meghalaya | icemr_india_behavior | gates_provide | gates_washbBangladesh</t>
   </si>
   <si>
@@ -2607,27 +2589,15 @@
     <t>icemr_prism2_border_cohort | icemr_amazoniaBrazil | icemr_southAsia | icemr_india_cx | icemr_malawi | general/general_promote | icemr_india_cohort | icemr_india_feverSurv | icemr_prism2 | icemr_india_behavior | icemr_prism | icemr_amazoniaPeru | gates_llineup | icemr_westAfrica | general/general_crompton</t>
   </si>
   <si>
-    <t>gates_gems | gates_vida | gates_perch | gates_provide | icemr_amazoniaPeru | gates_maled</t>
-  </si>
-  <si>
     <t>eggs per 10 ml</t>
   </si>
   <si>
-    <t>gates_gems_huas | gates_gems1a | icemr_amazoniaBrazil | gates_gems | gates_vida | gates_elicit | icemr_southernAfrica | gates_gems1a_huas | gates_perch | icemr_malawi | general/general_promote | gates_vida_hucs_kenya | icemr_india_behavior | gates_vida_hucs_gambia_mali</t>
-  </si>
-  <si>
     <t>icemr_india_gujarat | icemr_prism2_border_cohort | icemr_amazoniaBrazil | general/general_umsp | icemr_southAsia | gates_scoreBurundi | gates_scoreMoz | gates_elicit | icemr_southernAfrica | icemr_india_cx | gates_scoreRwanda | general/general_promote | icemr_india_cohort | icemr_india_feverSurv | gates_sip | gates_washbKenya | icemr_prism2 | icemr_meghalaya | icemr_india_behavior | gates_scoreSeasonal | gates_provide | icemr_amazoniaPeru | gates_scoreNig | gates_scoreFiveCountry | gates_scoreZanzibar | gates_llineup | gates_scoreSmCohort | icemr_westAfrica | gates_maled | gates_washbBangladesh | general/general_crompton</t>
   </si>
   <si>
-    <t>gates_gems_huas | icemr_prism2_border_cohort | gates_gems1a | icemr_amazoniaBrazil | gates_gems | gates_vida | gates_elicit | icemr_southernAfrica | icemr_india_cx | gates_gems1a_huas | gates_perch | icemr_malawi | gates_scoreCrosssect | general/general_promote | icemr_india_cohort | icemr_india_feverSurv | gates_vida_hucs_kenya | gates_sip | gates_washbKenya | icemr_prism2 | icemr_meghalaya | icemr_india_behavior | icemr_prism | gates_provide | icemr_amazoniaPeru | gates_llineup | gates_vida_hucs_gambia_mali | gates_maled | gates_washbBangladesh | general/general_crompton</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/UO_0000033|http://purl.obolibrary.org/obo/UO_0000036|http://purl.obolibrary.org/obo/UO_0000035</t>
   </si>
   <si>
-    <t>Checked on Aug9th, one remaining issue</t>
-  </si>
-  <si>
     <t>Fixed</t>
   </si>
   <si>
@@ -2695,13 +2665,52 @@
   </si>
   <si>
     <t>Use IRI EUPATH_0030024 for this label</t>
+  </si>
+  <si>
+    <t>Checked on Aug 11th, still some inconsistency are found</t>
+  </si>
+  <si>
+    <t>Checked on Aug 11th, all known issues are fixed</t>
+  </si>
+  <si>
+    <t>Newly found issue</t>
+  </si>
+  <si>
+    <t>icemr_india_gujarat | icemr_prism2_border_cohort | gates_gems1a | gates_gems | icemr_southAsia | icemr_southernAfrica | icemr_india_cx | gates_perch | icemr_malawi | general/general_promote | icemr_india_cohort | icemr_india_feverSurv | gates_sip | icemr_southeastAsia | icemr_prism2 | icemr_meghalaya | icemr_prism | gates_provide | icemr_amazoniaPeru | icemr_westAfrica | gates_maled | general/general_crompton</t>
+  </si>
+  <si>
+    <t>gates_gems | gates_perch | gates_provide | icemr_amazoniaPeru | gates_maled</t>
+  </si>
+  <si>
+    <t>icemr_prism2_border_cohort | gates_gems1a | gates_gems | icemr_southAsia | gates_perch | general/general_promote | gates_sip | icemr_prism2 | gates_maled | general/general_crompton</t>
+  </si>
+  <si>
+    <t>icemr_india_gujarat | icemr_prism2_border_cohort | gates_gems1a | general/general_umsp | gates_gems | gates_elicit | icemr_india_cx | gates_perch | general/general_promote | icemr_india_cohort | icemr_india_feverSurv | gates_sip | gates_washbKenya | icemr_prism2 | icemr_meghalaya | icemr_prism | gates_provide | gates_scoreSmCohort | gates_maled | gates_washbBangladesh | general/general_crompton</t>
+  </si>
+  <si>
+    <t>gates_gems1a | gates_maled</t>
+  </si>
+  <si>
+    <t>icemr_india_gujarat | icemr_prism2_border_cohort | gates_gems1a | icemr_amazoniaBrazil | general/general_umsp | gates_gems | gates_elicit | icemr_southernAfrica | icemr_india_cx | gates_perch | general/general_promote | icemr_india_cohort | icemr_india_feverSurv | gates_sip | icemr_prism2 | icemr_meghalaya | icemr_prism | gates_provide | gates_scoreSmCohort | icemr_westAfrica | gates_maled | gates_washbBangladesh | general/general_crompton</t>
+  </si>
+  <si>
+    <t>gates_gems1a | gates_gems | gates_provide</t>
+  </si>
+  <si>
+    <t>gates_gems_huas | icemr_prism2_border_cohort | gates_gems1a | icemr_amazoniaBrazil | gates_gems | gates_elicit | icemr_southernAfrica | icemr_india_cx | gates_gems1a_huas | gates_perch | icemr_malawi | gates_scoreCrosssect | general/general_promote | icemr_india_cohort | icemr_india_feverSurv | gates_vida_hucs_kenya | gates_sip | gates_washbKenya | icemr_prism2 | icemr_meghalaya | icemr_india_behavior | icemr_prism | gates_provide | icemr_amazoniaPeru | gates_llineup | gates_maled | gates_washbBangladesh | general/general_crompton</t>
+  </si>
+  <si>
+    <t>gates_gems_huas | gates_gems1a | icemr_amazoniaBrazil | gates_gems | gates_elicit | icemr_southernAfrica | gates_gems1a_huas | gates_perch | icemr_malawi | general/general_promote | gates_vida_hucs_kenya | icemr_india_behavior</t>
+  </si>
+  <si>
+    <t>Checked on Aug 11th, one remaining issue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2852,6 +2861,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -3201,7 +3218,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3211,6 +3228,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3567,13 +3587,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" topLeftCell="D99" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
@@ -3582,7 +3602,7 @@
     <col min="5" max="5" width="55.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3596,10 +3616,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -3613,13 +3633,13 @@
         <v>112</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -3633,13 +3653,13 @@
         <v>115</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -3653,13 +3673,13 @@
         <v>118</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F4" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -3673,13 +3693,13 @@
         <v>121</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F5" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>122</v>
       </c>
@@ -3693,13 +3713,13 @@
         <v>124</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F6" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -3713,13 +3733,13 @@
         <v>127</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F7" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>128</v>
       </c>
@@ -3733,13 +3753,13 @@
         <v>130</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F8" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>131</v>
       </c>
@@ -3753,13 +3773,13 @@
         <v>133</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F9" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>134</v>
       </c>
@@ -3773,13 +3793,13 @@
         <v>133</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F10" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -3793,13 +3813,13 @@
         <v>138</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F11" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>139</v>
       </c>
@@ -3813,13 +3833,13 @@
         <v>133</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F12" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>141</v>
       </c>
@@ -3833,13 +3853,13 @@
         <v>143</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F13" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>144</v>
       </c>
@@ -3853,10 +3873,10 @@
         <v>146</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>147</v>
       </c>
@@ -3870,10 +3890,10 @@
         <v>146</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>149</v>
       </c>
@@ -3887,10 +3907,10 @@
         <v>151</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>152</v>
       </c>
@@ -3904,10 +3924,10 @@
         <v>146</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>154</v>
       </c>
@@ -3921,10 +3941,10 @@
         <v>146</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>156</v>
       </c>
@@ -3938,10 +3958,10 @@
         <v>146</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>158</v>
       </c>
@@ -3955,10 +3975,10 @@
         <v>146</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>160</v>
       </c>
@@ -3972,10 +3992,10 @@
         <v>146</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>162</v>
       </c>
@@ -3989,10 +4009,10 @@
         <v>146</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>164</v>
       </c>
@@ -4006,10 +4026,10 @@
         <v>146</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>166</v>
       </c>
@@ -4023,10 +4043,10 @@
         <v>146</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>168</v>
       </c>
@@ -4040,10 +4060,10 @@
         <v>146</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>170</v>
       </c>
@@ -4057,10 +4077,10 @@
         <v>146</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>172</v>
       </c>
@@ -4074,10 +4094,10 @@
         <v>146</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>174</v>
       </c>
@@ -4091,10 +4111,10 @@
         <v>146</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>176</v>
       </c>
@@ -4108,10 +4128,10 @@
         <v>146</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>178</v>
       </c>
@@ -4125,10 +4145,10 @@
         <v>146</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>180</v>
       </c>
@@ -4142,10 +4162,10 @@
         <v>146</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>182</v>
       </c>
@@ -4159,10 +4179,10 @@
         <v>151</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>184</v>
       </c>
@@ -4176,10 +4196,10 @@
         <v>151</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>186</v>
       </c>
@@ -4193,10 +4213,10 @@
         <v>151</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>188</v>
       </c>
@@ -4210,10 +4230,10 @@
         <v>151</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>190</v>
       </c>
@@ -4227,10 +4247,10 @@
         <v>151</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>192</v>
       </c>
@@ -4244,10 +4264,10 @@
         <v>151</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>194</v>
       </c>
@@ -4261,10 +4281,10 @@
         <v>151</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>196</v>
       </c>
@@ -4278,10 +4298,10 @@
         <v>151</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>198</v>
       </c>
@@ -4295,10 +4315,10 @@
         <v>151</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>200</v>
       </c>
@@ -4312,10 +4332,10 @@
         <v>151</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>202</v>
       </c>
@@ -4329,10 +4349,10 @@
         <v>151</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>204</v>
       </c>
@@ -4346,10 +4366,10 @@
         <v>151</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>206</v>
       </c>
@@ -4363,10 +4383,10 @@
         <v>151</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>208</v>
       </c>
@@ -4380,10 +4400,10 @@
         <v>151</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>210</v>
       </c>
@@ -4397,10 +4417,10 @@
         <v>212</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>213</v>
       </c>
@@ -4414,10 +4434,10 @@
         <v>215</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>216</v>
       </c>
@@ -4431,10 +4451,10 @@
         <v>218</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>219</v>
       </c>
@@ -4448,10 +4468,10 @@
         <v>221</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>222</v>
       </c>
@@ -4465,10 +4485,10 @@
         <v>124</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>224</v>
       </c>
@@ -4482,10 +4502,10 @@
         <v>124</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>226</v>
       </c>
@@ -4499,10 +4519,10 @@
         <v>228</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>229</v>
       </c>
@@ -4516,44 +4536,44 @@
         <v>228</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54" t="s">
+        <v>486</v>
+      </c>
+      <c r="D54" t="s">
+        <v>488</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="D54" t="s">
-        <v>489</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55" t="s">
+        <v>489</v>
+      </c>
+      <c r="D55" t="s">
+        <v>488</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="D55" t="s">
-        <v>489</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>231</v>
       </c>
@@ -4567,10 +4587,10 @@
         <v>233</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>234</v>
       </c>
@@ -4584,10 +4604,10 @@
         <v>236</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>237</v>
       </c>
@@ -4601,10 +4621,10 @@
         <v>239</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>240</v>
       </c>
@@ -4618,10 +4638,10 @@
         <v>239</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>242</v>
       </c>
@@ -4635,10 +4655,10 @@
         <v>244</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>245</v>
       </c>
@@ -4652,10 +4672,10 @@
         <v>247</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>248</v>
       </c>
@@ -4669,18 +4689,18 @@
         <v>250</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="E63" s="6"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -4695,75 +4715,75 @@
       </c>
       <c r="E67"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
+        <v>659</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>660</v>
+      </c>
+      <c r="D68" t="s">
+        <v>551</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>661</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
         <v>662</v>
-      </c>
-      <c r="B68">
-        <v>2</v>
-      </c>
-      <c r="C68" t="s">
-        <v>663</v>
-      </c>
-      <c r="D68" t="s">
-        <v>552</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>664</v>
-      </c>
-      <c r="B69">
-        <v>2</v>
-      </c>
-      <c r="C69" t="s">
-        <v>665</v>
       </c>
       <c r="D69" t="s">
         <v>124</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
+        <v>663</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>664</v>
+      </c>
+      <c r="D70" t="s">
+        <v>665</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
         <v>666</v>
       </c>
-      <c r="B70">
-        <v>2</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
         <v>667</v>
       </c>
-      <c r="D70" t="s">
-        <v>668</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>669</v>
-      </c>
-      <c r="B71">
-        <v>2</v>
-      </c>
-      <c r="C71" t="s">
-        <v>670</v>
-      </c>
       <c r="D71" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>136</v>
       </c>
@@ -4771,16 +4791,16 @@
         <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D72" t="s">
         <v>138</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>180</v>
       </c>
@@ -4788,33 +4808,33 @@
         <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D73" t="s">
         <v>146</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B74">
         <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D74" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>216</v>
       </c>
@@ -4828,78 +4848,78 @@
         <v>218</v>
       </c>
       <c r="E75" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>672</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>673</v>
+      </c>
+      <c r="D76" t="s">
+        <v>674</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>675</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>676</v>
+      </c>
+      <c r="D77" t="s">
+        <v>674</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>677</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>678</v>
+      </c>
+      <c r="D78" t="s">
+        <v>679</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>675</v>
-      </c>
-      <c r="B76">
-        <v>2</v>
-      </c>
-      <c r="C76" t="s">
-        <v>676</v>
-      </c>
-      <c r="D76" t="s">
-        <v>677</v>
-      </c>
-      <c r="E76" s="2" t="s">
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>680</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>681</v>
+      </c>
+      <c r="D79" t="s">
+        <v>679</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>678</v>
-      </c>
-      <c r="B77">
-        <v>2</v>
-      </c>
-      <c r="C77" t="s">
-        <v>679</v>
-      </c>
-      <c r="D77" t="s">
-        <v>677</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>680</v>
-      </c>
-      <c r="B78">
-        <v>2</v>
-      </c>
-      <c r="C78" t="s">
-        <v>681</v>
-      </c>
-      <c r="D78" t="s">
-        <v>682</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>683</v>
-      </c>
-      <c r="B79">
-        <v>2</v>
-      </c>
-      <c r="C79" t="s">
-        <v>684</v>
-      </c>
-      <c r="D79" t="s">
-        <v>682</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>231</v>
       </c>
@@ -4913,63 +4933,63 @@
         <v>233</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
+        <v>682</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81" t="s">
+        <v>683</v>
+      </c>
+      <c r="D81" t="s">
+        <v>684</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
         <v>685</v>
       </c>
-      <c r="B81">
-        <v>2</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82" t="s">
         <v>686</v>
-      </c>
-      <c r="D81" t="s">
-        <v>687</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>688</v>
-      </c>
-      <c r="B82">
-        <v>2</v>
-      </c>
-      <c r="C82" t="s">
-        <v>689</v>
       </c>
       <c r="D82" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
+        <v>609</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83" t="s">
         <v>610</v>
       </c>
-      <c r="B83">
-        <v>2</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>611</v>
       </c>
-      <c r="D83" t="s">
-        <v>612</v>
-      </c>
       <c r="E83" s="2" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="E84"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86" s="1" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -4986,24 +5006,24 @@
         <v>110</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B89">
         <v>2</v>
       </c>
       <c r="C89" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D89" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>141</v>
       </c>
@@ -5011,16 +5031,16 @@
         <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="D90" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>180</v>
       </c>
@@ -5028,50 +5048,50 @@
         <v>2</v>
       </c>
       <c r="C91" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D91" t="s">
         <v>146</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
+        <v>814</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92" t="s">
+        <v>815</v>
+      </c>
+      <c r="D92" t="s">
+        <v>816</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
         <v>817</v>
       </c>
-      <c r="B92">
-        <v>2</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93" t="s">
         <v>818</v>
       </c>
-      <c r="D92" t="s">
-        <v>819</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>820</v>
-      </c>
-      <c r="B93">
-        <v>2</v>
-      </c>
-      <c r="C93" t="s">
-        <v>821</v>
-      </c>
       <c r="D93" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>216</v>
       </c>
@@ -5085,78 +5105,78 @@
         <v>218</v>
       </c>
       <c r="E94" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>819</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95" t="s">
+        <v>820</v>
+      </c>
+      <c r="D95" t="s">
+        <v>821</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>822</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96" t="s">
+        <v>823</v>
+      </c>
+      <c r="D96" t="s">
+        <v>821</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>677</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97" t="s">
+        <v>678</v>
+      </c>
+      <c r="D97" t="s">
+        <v>824</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>822</v>
-      </c>
-      <c r="B95">
-        <v>2</v>
-      </c>
-      <c r="C95" t="s">
-        <v>823</v>
-      </c>
-      <c r="D95" t="s">
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>680</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98" t="s">
+        <v>681</v>
+      </c>
+      <c r="D98" t="s">
         <v>824</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>825</v>
-      </c>
-      <c r="B96">
-        <v>2</v>
-      </c>
-      <c r="C96" t="s">
-        <v>826</v>
-      </c>
-      <c r="D96" t="s">
-        <v>824</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>680</v>
-      </c>
-      <c r="B97">
-        <v>2</v>
-      </c>
-      <c r="C97" t="s">
-        <v>681</v>
-      </c>
-      <c r="D97" t="s">
-        <v>827</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>683</v>
-      </c>
-      <c r="B98">
-        <v>2</v>
-      </c>
-      <c r="C98" t="s">
-        <v>684</v>
-      </c>
-      <c r="D98" t="s">
-        <v>827</v>
-      </c>
       <c r="E98" s="2" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>231</v>
       </c>
@@ -5164,33 +5184,33 @@
         <v>2</v>
       </c>
       <c r="C99" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D99" t="s">
         <v>233</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B100">
         <v>2</v>
       </c>
       <c r="C100" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D100" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>234</v>
       </c>
@@ -5198,65 +5218,91 @@
         <v>3</v>
       </c>
       <c r="C101" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D101" t="s">
         <v>236</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
+        <v>830</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102" t="s">
+        <v>831</v>
+      </c>
+      <c r="D102" t="s">
+        <v>832</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>682</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103" t="s">
+        <v>683</v>
+      </c>
+      <c r="D103" t="s">
+        <v>684</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
         <v>833</v>
       </c>
-      <c r="B102">
-        <v>2</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104" t="s">
         <v>834</v>
       </c>
-      <c r="D102" t="s">
-        <v>835</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>685</v>
-      </c>
-      <c r="B103">
-        <v>2</v>
-      </c>
-      <c r="C103" t="s">
-        <v>686</v>
-      </c>
-      <c r="D103" t="s">
-        <v>687</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>836</v>
-      </c>
-      <c r="B104">
-        <v>2</v>
-      </c>
-      <c r="C104" t="s">
-        <v>837</v>
-      </c>
       <c r="D104" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>872</v>
-      </c>
+        <v>862</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="D107" s="11" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2</v>
+      </c>
+      <c r="E108"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="E109"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="E110"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="E111"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5266,13 +5312,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="45.1640625" customWidth="1"/>
     <col min="3" max="3" width="42.83203125" customWidth="1"/>
@@ -5281,7 +5327,7 @@
     <col min="6" max="6" width="30.1640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -5301,7 +5347,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>340</v>
       </c>
@@ -5318,10 +5364,10 @@
         <v>342</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>343</v>
       </c>
@@ -5338,10 +5384,10 @@
         <v>345</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>346</v>
       </c>
@@ -5358,10 +5404,10 @@
         <v>348</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>349</v>
       </c>
@@ -5378,10 +5424,10 @@
         <v>322</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>351</v>
       </c>
@@ -5398,10 +5444,10 @@
         <v>322</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -5418,10 +5464,10 @@
         <v>311</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>355</v>
       </c>
@@ -5438,10 +5484,10 @@
         <v>357</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>358</v>
       </c>
@@ -5458,10 +5504,10 @@
         <v>360</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>361</v>
       </c>
@@ -5478,10 +5524,10 @@
         <v>363</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>364</v>
       </c>
@@ -5498,10 +5544,10 @@
         <v>311</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>366</v>
       </c>
@@ -5518,10 +5564,10 @@
         <v>368</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>369</v>
       </c>
@@ -5538,10 +5584,10 @@
         <v>345</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>371</v>
       </c>
@@ -5558,10 +5604,10 @@
         <v>374</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>334</v>
       </c>
@@ -5578,10 +5624,10 @@
         <v>377</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>378</v>
       </c>
@@ -5598,21 +5644,21 @@
         <v>381</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -5630,112 +5676,112 @@
       </c>
       <c r="F21"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
@@ -5744,42 +5790,42 @@
         <v>322</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
+        <v>655</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>656</v>
+      </c>
+      <c r="D28" t="s">
+        <v>657</v>
+      </c>
+      <c r="E28" t="s">
         <v>658</v>
       </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>659</v>
-      </c>
-      <c r="D28" t="s">
-        <v>660</v>
-      </c>
-      <c r="E28" t="s">
-        <v>661</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -5796,10 +5842,10 @@
         <v>8</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>346</v>
       </c>
@@ -5807,197 +5853,278 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F33" s="2" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="3" customFormat="1">
+      <c r="A34" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="B34" s="3">
+        <v>2</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="3" customFormat="1">
+      <c r="A35" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="B35" s="3">
+        <v>2</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="3" customFormat="1">
+      <c r="A36" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="3" customFormat="1">
+      <c r="A37" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B37" s="3">
+        <v>2</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="38" spans="1:6" s="3" customFormat="1">
+      <c r="A38" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="3" customFormat="1">
+      <c r="A39" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="B39" s="3">
+        <v>2</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="3" customFormat="1">
+      <c r="A40" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="B40" s="3">
+        <v>2</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="3" customFormat="1">
+      <c r="A41" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="B41" s="3">
+        <v>2</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="3" customFormat="1">
+      <c r="A42" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B42" s="3">
+        <v>2</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="3" customFormat="1">
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:6" s="3" customFormat="1">
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" s="3" customFormat="1">
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:6" s="3" customFormat="1">
+      <c r="A46" s="10" t="s">
+        <v>879</v>
+      </c>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:6" s="3" customFormat="1">
+      <c r="A47" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="B47" s="3">
+        <v>2</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="3" customFormat="1">
+      <c r="A48" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="B48" s="3">
+        <v>2</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="3" customFormat="1">
+      <c r="A49" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B49" s="3">
+        <v>2</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D49" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E49" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>839</v>
-      </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>653</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" t="s">
-        <v>654</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>482</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36" t="s">
-        <v>840</v>
-      </c>
-      <c r="D36" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" t="s">
-        <v>522</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>481</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>655</v>
-      </c>
-      <c r="D37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" t="s">
-        <v>522</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>841</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38" t="s">
-        <v>842</v>
-      </c>
-      <c r="D38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" t="s">
-        <v>569</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>843</v>
-      </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="C39" t="s">
-        <v>844</v>
-      </c>
-      <c r="D39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" t="s">
-        <v>845</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>656</v>
-      </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40" t="s">
-        <v>657</v>
-      </c>
-      <c r="D40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" t="s">
-        <v>322</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>658</v>
-      </c>
-      <c r="B41">
-        <v>2</v>
-      </c>
-      <c r="C41" t="s">
-        <v>659</v>
-      </c>
-      <c r="D41" t="s">
-        <v>660</v>
-      </c>
-      <c r="E41" t="s">
-        <v>661</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>378</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-      <c r="C42" t="s">
-        <v>846</v>
-      </c>
-      <c r="D42" t="s">
-        <v>847</v>
-      </c>
-      <c r="E42" t="s">
-        <v>381</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>528</v>
-      </c>
+      <c r="F49" s="3" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="3" customFormat="1">
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6007,13 +6134,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F138"/>
+  <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="F137" sqref="F137"/>
+    <sheetView topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="34.5" customWidth="1"/>
@@ -6022,7 +6149,7 @@
     <col min="6" max="6" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6042,7 +6169,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>251</v>
       </c>
@@ -6059,10 +6186,10 @@
         <v>254</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>255</v>
       </c>
@@ -6079,10 +6206,10 @@
         <v>258</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>259</v>
       </c>
@@ -6099,10 +6226,10 @@
         <v>262</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>263</v>
       </c>
@@ -6122,7 +6249,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>267</v>
       </c>
@@ -6139,10 +6266,10 @@
         <v>151</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>270</v>
       </c>
@@ -6159,10 +6286,10 @@
         <v>151</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>272</v>
       </c>
@@ -6179,10 +6306,10 @@
         <v>275</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>276</v>
       </c>
@@ -6199,10 +6326,10 @@
         <v>278</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>279</v>
       </c>
@@ -6219,10 +6346,10 @@
         <v>281</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>282</v>
       </c>
@@ -6239,10 +6366,10 @@
         <v>258</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>285</v>
       </c>
@@ -6259,10 +6386,10 @@
         <v>288</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>289</v>
       </c>
@@ -6279,10 +6406,10 @@
         <v>291</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>292</v>
       </c>
@@ -6299,10 +6426,10 @@
         <v>295</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>296</v>
       </c>
@@ -6319,10 +6446,10 @@
         <v>298</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>248</v>
       </c>
@@ -6339,10 +6466,10 @@
         <v>250</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>301</v>
       </c>
@@ -6359,10 +6486,10 @@
         <v>303</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>304</v>
       </c>
@@ -6382,7 +6509,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>308</v>
       </c>
@@ -6399,10 +6526,10 @@
         <v>262</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>310</v>
       </c>
@@ -6419,10 +6546,10 @@
         <v>312</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>224</v>
       </c>
@@ -6439,10 +6566,10 @@
         <v>124</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>222</v>
       </c>
@@ -6459,10 +6586,10 @@
         <v>124</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>316</v>
       </c>
@@ -6479,10 +6606,10 @@
         <v>151</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>318</v>
       </c>
@@ -6499,10 +6626,10 @@
         <v>133</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>321</v>
       </c>
@@ -6519,10 +6646,10 @@
         <v>323</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>324</v>
       </c>
@@ -6542,7 +6669,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>122</v>
       </c>
@@ -6559,10 +6686,10 @@
         <v>124</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>330</v>
       </c>
@@ -6579,10 +6706,10 @@
         <v>332</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>333</v>
       </c>
@@ -6602,7 +6729,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>337</v>
       </c>
@@ -6622,12 +6749,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -6644,7 +6771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>251</v>
       </c>
@@ -6658,33 +6785,33 @@
         <v>253</v>
       </c>
       <c r="E36" t="s">
+        <v>528</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
         <v>529</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
         <v>530</v>
       </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>531</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>532</v>
       </c>
-      <c r="E37" t="s">
-        <v>533</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>255</v>
       </c>
@@ -6695,36 +6822,36 @@
         <v>256</v>
       </c>
       <c r="D38" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E38" t="s">
         <v>258</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
+        <v>534</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
         <v>535</v>
       </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>536</v>
       </c>
-      <c r="D39" t="s">
-        <v>537</v>
-      </c>
       <c r="E39" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>259</v>
       </c>
@@ -6741,70 +6868,70 @@
         <v>262</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
+        <v>537</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
         <v>538</v>
       </c>
-      <c r="B41">
-        <v>2</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>539</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>540</v>
-      </c>
-      <c r="E41" t="s">
-        <v>541</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
+        <v>541</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
         <v>542</v>
       </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>539</v>
+      </c>
+      <c r="E42" t="s">
         <v>543</v>
-      </c>
-      <c r="D42" t="s">
-        <v>540</v>
-      </c>
-      <c r="E42" t="s">
-        <v>544</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
+        <v>544</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
         <v>545</v>
       </c>
-      <c r="B43">
-        <v>2</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>546</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>547</v>
       </c>
-      <c r="E43" t="s">
-        <v>548</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>263</v>
       </c>
@@ -6824,7 +6951,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>267</v>
       </c>
@@ -6841,10 +6968,10 @@
         <v>151</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>270</v>
       </c>
@@ -6861,30 +6988,30 @@
         <v>151</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
+        <v>548</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
         <v>549</v>
       </c>
-      <c r="B47">
-        <v>2</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>550</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>551</v>
       </c>
-      <c r="E47" t="s">
-        <v>552</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>272</v>
       </c>
@@ -6901,10 +7028,10 @@
         <v>275</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>276</v>
       </c>
@@ -6918,13 +7045,13 @@
         <v>253</v>
       </c>
       <c r="E49" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>279</v>
       </c>
@@ -6941,30 +7068,30 @@
         <v>281</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
+        <v>553</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
         <v>554</v>
       </c>
-      <c r="B51">
-        <v>2</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>555</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>556</v>
       </c>
-      <c r="E51" t="s">
-        <v>557</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>285</v>
       </c>
@@ -6978,13 +7105,13 @@
         <v>287</v>
       </c>
       <c r="E52" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>289</v>
       </c>
@@ -7001,30 +7128,30 @@
         <v>291</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
+        <v>558</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
         <v>559</v>
-      </c>
-      <c r="B54">
-        <v>2</v>
-      </c>
-      <c r="C54" t="s">
-        <v>560</v>
       </c>
       <c r="D54" t="s">
         <v>287</v>
       </c>
       <c r="E54" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>292</v>
       </c>
@@ -7041,30 +7168,30 @@
         <v>295</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
+        <v>561</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
         <v>562</v>
       </c>
-      <c r="B56">
-        <v>2</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>563</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>564</v>
       </c>
-      <c r="E56" t="s">
-        <v>565</v>
-      </c>
       <c r="F56" s="2" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>296</v>
       </c>
@@ -7078,13 +7205,13 @@
         <v>253</v>
       </c>
       <c r="E57" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>248</v>
       </c>
@@ -7092,7 +7219,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D58" t="s">
         <v>300</v>
@@ -7101,7 +7228,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>301</v>
       </c>
@@ -7115,13 +7242,13 @@
         <v>253</v>
       </c>
       <c r="E59" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>304</v>
       </c>
@@ -7141,7 +7268,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>308</v>
       </c>
@@ -7158,10 +7285,10 @@
         <v>262</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>310</v>
       </c>
@@ -7178,10 +7305,10 @@
         <v>312</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>316</v>
       </c>
@@ -7198,10 +7325,10 @@
         <v>151</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>318</v>
       </c>
@@ -7218,127 +7345,127 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
+        <v>567</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
         <v>568</v>
       </c>
-      <c r="B65">
-        <v>2</v>
-      </c>
-      <c r="C65" t="s">
-        <v>569</v>
-      </c>
       <c r="D65" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E65" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
+        <v>569</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
         <v>570</v>
       </c>
-      <c r="B66">
-        <v>2</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>571</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>572</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
         <v>573</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
         <v>574</v>
       </c>
-      <c r="B67">
-        <v>2</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>575</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>576</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
         <v>577</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>578</v>
+      </c>
+      <c r="D68" t="s">
+        <v>575</v>
+      </c>
+      <c r="E68" t="s">
+        <v>579</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>580</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>581</v>
+      </c>
+      <c r="D69" t="s">
+        <v>571</v>
+      </c>
+      <c r="E69" t="s">
+        <v>582</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>578</v>
-      </c>
-      <c r="B68">
-        <v>2</v>
-      </c>
-      <c r="C68" t="s">
-        <v>579</v>
-      </c>
-      <c r="D68" t="s">
-        <v>576</v>
-      </c>
-      <c r="E68" t="s">
-        <v>580</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>581</v>
-      </c>
-      <c r="B69">
-        <v>2</v>
-      </c>
-      <c r="C69" t="s">
-        <v>582</v>
-      </c>
-      <c r="D69" t="s">
-        <v>572</v>
-      </c>
-      <c r="E69" t="s">
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
         <v>583</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
         <v>584</v>
       </c>
-      <c r="B70">
-        <v>2</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>585</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>586</v>
-      </c>
-      <c r="E70" t="s">
-        <v>587</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>321</v>
       </c>
@@ -7352,13 +7479,13 @@
         <v>253</v>
       </c>
       <c r="E71" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>324</v>
       </c>
@@ -7372,33 +7499,33 @@
         <v>326</v>
       </c>
       <c r="E72" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
+        <v>589</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
         <v>590</v>
-      </c>
-      <c r="B73">
-        <v>2</v>
-      </c>
-      <c r="C73" t="s">
-        <v>591</v>
       </c>
       <c r="D73" t="s">
         <v>253</v>
       </c>
       <c r="E73" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>122</v>
       </c>
@@ -7415,90 +7542,90 @@
         <v>124</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
+        <v>592</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
         <v>593</v>
       </c>
-      <c r="B75">
-        <v>2</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>594</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>595</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
         <v>596</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s">
         <v>597</v>
       </c>
-      <c r="B76">
-        <v>2</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
+        <v>594</v>
+      </c>
+      <c r="E76" t="s">
+        <v>595</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
         <v>598</v>
       </c>
-      <c r="D76" t="s">
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>599</v>
+      </c>
+      <c r="D77" t="s">
+        <v>594</v>
+      </c>
+      <c r="E77" t="s">
         <v>595</v>
       </c>
-      <c r="E76" t="s">
-        <v>596</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>599</v>
-      </c>
-      <c r="B77">
-        <v>2</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="F77" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
         <v>600</v>
       </c>
-      <c r="D77" t="s">
-        <v>595</v>
-      </c>
-      <c r="E77" t="s">
-        <v>596</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s">
         <v>601</v>
       </c>
-      <c r="B78">
-        <v>2</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
+        <v>594</v>
+      </c>
+      <c r="E78" t="s">
         <v>602</v>
       </c>
-      <c r="D78" t="s">
-        <v>595</v>
-      </c>
-      <c r="E78" t="s">
-        <v>603</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>330</v>
       </c>
@@ -7515,29 +7642,29 @@
         <v>332</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
+        <v>603</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80" t="s">
         <v>604</v>
       </c>
-      <c r="B80">
-        <v>2</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>605</v>
       </c>
-      <c r="D80" t="s">
-        <v>606</v>
-      </c>
       <c r="E80" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B81">
         <v>3</v>
@@ -7549,13 +7676,13 @@
         <v>335</v>
       </c>
       <c r="E81" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>337</v>
       </c>
@@ -7575,12 +7702,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -7598,7 +7725,7 @@
       </c>
       <c r="F89"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>255</v>
       </c>
@@ -7609,116 +7736,116 @@
         <v>256</v>
       </c>
       <c r="D90" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E90" t="s">
         <v>258</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
+        <v>689</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91" t="s">
+        <v>690</v>
+      </c>
+      <c r="D91" t="s">
+        <v>691</v>
+      </c>
+      <c r="E91" t="s">
         <v>692</v>
       </c>
-      <c r="B91">
-        <v>2</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="F91" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>669</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92" t="s">
+        <v>531</v>
+      </c>
+      <c r="D92" t="s">
         <v>693</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E92" t="s">
+        <v>671</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
         <v>694</v>
       </c>
-      <c r="E91" t="s">
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93" t="s">
         <v>695</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>672</v>
-      </c>
-      <c r="B92">
-        <v>2</v>
-      </c>
-      <c r="C92" t="s">
-        <v>532</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="D93" t="s">
         <v>696</v>
       </c>
-      <c r="E92" t="s">
-        <v>674</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="E93" t="s">
         <v>697</v>
-      </c>
-      <c r="B93">
-        <v>2</v>
-      </c>
-      <c r="C93" t="s">
-        <v>698</v>
-      </c>
-      <c r="D93" t="s">
-        <v>699</v>
-      </c>
-      <c r="E93" t="s">
-        <v>700</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
+        <v>698</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94" t="s">
+        <v>699</v>
+      </c>
+      <c r="D94" t="s">
+        <v>700</v>
+      </c>
+      <c r="E94" t="s">
         <v>701</v>
       </c>
-      <c r="B94">
-        <v>2</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="F94" s="2" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
         <v>702</v>
       </c>
-      <c r="D94" t="s">
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95" t="s">
         <v>703</v>
       </c>
-      <c r="E94" t="s">
+      <c r="D95" t="s">
+        <v>700</v>
+      </c>
+      <c r="E95" t="s">
         <v>704</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>705</v>
-      </c>
-      <c r="B95">
-        <v>2</v>
-      </c>
-      <c r="C95" t="s">
-        <v>706</v>
-      </c>
-      <c r="D95" t="s">
-        <v>703</v>
-      </c>
-      <c r="E95" t="s">
-        <v>707</v>
-      </c>
       <c r="F95" s="2" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>272</v>
       </c>
@@ -7735,90 +7862,90 @@
         <v>275</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
+        <v>705</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97" t="s">
+        <v>706</v>
+      </c>
+      <c r="D97" t="s">
+        <v>688</v>
+      </c>
+      <c r="E97" t="s">
+        <v>707</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
         <v>708</v>
       </c>
-      <c r="B97">
-        <v>2</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98" t="s">
         <v>709</v>
       </c>
-      <c r="D97" t="s">
-        <v>691</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="D98" t="s">
+        <v>696</v>
+      </c>
+      <c r="E98" t="s">
         <v>710</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>711</v>
-      </c>
-      <c r="B98">
-        <v>2</v>
-      </c>
-      <c r="C98" t="s">
-        <v>712</v>
-      </c>
-      <c r="D98" t="s">
-        <v>699</v>
-      </c>
-      <c r="E98" t="s">
-        <v>713</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
+        <v>553</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99" t="s">
         <v>554</v>
       </c>
-      <c r="B99">
-        <v>2</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>555</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>556</v>
       </c>
-      <c r="E99" t="s">
-        <v>557</v>
-      </c>
       <c r="F99" s="2" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
+        <v>711</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100" t="s">
+        <v>712</v>
+      </c>
+      <c r="D100" t="s">
+        <v>713</v>
+      </c>
+      <c r="E100" t="s">
         <v>714</v>
-      </c>
-      <c r="B100">
-        <v>2</v>
-      </c>
-      <c r="C100" t="s">
-        <v>715</v>
-      </c>
-      <c r="D100" t="s">
-        <v>716</v>
-      </c>
-      <c r="E100" t="s">
-        <v>717</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>289</v>
       </c>
@@ -7829,164 +7956,164 @@
         <v>290</v>
       </c>
       <c r="D101" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E101" t="s">
         <v>291</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B102">
         <v>2</v>
       </c>
       <c r="C102" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D102" t="s">
         <v>294</v>
       </c>
       <c r="E102" t="s">
+        <v>718</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>561</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103" t="s">
+        <v>562</v>
+      </c>
+      <c r="D103" t="s">
+        <v>563</v>
+      </c>
+      <c r="E103" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>719</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104" t="s">
+        <v>720</v>
+      </c>
+      <c r="D104" t="s">
         <v>721</v>
       </c>
-      <c r="F102" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>562</v>
-      </c>
-      <c r="B103">
-        <v>2</v>
-      </c>
-      <c r="C103" t="s">
-        <v>563</v>
-      </c>
-      <c r="D103" t="s">
-        <v>564</v>
-      </c>
-      <c r="E103" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="E104" t="s">
         <v>722</v>
-      </c>
-      <c r="B104">
-        <v>2</v>
-      </c>
-      <c r="C104" t="s">
-        <v>723</v>
-      </c>
-      <c r="D104" t="s">
-        <v>724</v>
-      </c>
-      <c r="E104" t="s">
-        <v>725</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B105">
         <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D105" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E105" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
+        <v>725</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106" t="s">
+        <v>726</v>
+      </c>
+      <c r="D106" t="s">
+        <v>645</v>
+      </c>
+      <c r="E106" t="s">
+        <v>727</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>569</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107" t="s">
+        <v>570</v>
+      </c>
+      <c r="D107" t="s">
+        <v>571</v>
+      </c>
+      <c r="E107" t="s">
         <v>728</v>
       </c>
-      <c r="B106">
-        <v>2</v>
-      </c>
-      <c r="C106" t="s">
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>580</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108" t="s">
+        <v>581</v>
+      </c>
+      <c r="D108" t="s">
+        <v>571</v>
+      </c>
+      <c r="E108" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
         <v>729</v>
       </c>
-      <c r="D106" t="s">
-        <v>648</v>
-      </c>
-      <c r="E106" t="s">
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109" t="s">
         <v>730</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>570</v>
-      </c>
-      <c r="B107">
-        <v>2</v>
-      </c>
-      <c r="C107" t="s">
-        <v>571</v>
-      </c>
-      <c r="D107" t="s">
-        <v>572</v>
-      </c>
-      <c r="E107" t="s">
+      <c r="D109" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>581</v>
-      </c>
-      <c r="B108">
-        <v>2</v>
-      </c>
-      <c r="C108" t="s">
-        <v>582</v>
-      </c>
-      <c r="D108" t="s">
-        <v>572</v>
-      </c>
-      <c r="E108" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+      <c r="E109" t="s">
         <v>732</v>
-      </c>
-      <c r="B109">
-        <v>2</v>
-      </c>
-      <c r="C109" t="s">
-        <v>733</v>
-      </c>
-      <c r="D109" t="s">
-        <v>734</v>
-      </c>
-      <c r="E109" t="s">
-        <v>735</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>324</v>
       </c>
@@ -8000,75 +8127,75 @@
         <v>326</v>
       </c>
       <c r="E110" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B111">
         <v>3</v>
       </c>
       <c r="C111" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D111" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E111" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B112">
         <v>3</v>
       </c>
       <c r="C112" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D112" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E112" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B113">
         <v>3</v>
       </c>
       <c r="C113" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="D113" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E113" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6">
       <c r="A116" s="1" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -8085,21 +8212,21 @@
         <v>3</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B118">
         <v>2</v>
       </c>
       <c r="C118" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="D118" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="E118" t="s">
         <v>133</v>
@@ -8108,47 +8235,47 @@
         <v>252</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B119">
         <v>2</v>
       </c>
       <c r="C119" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D119" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E119" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
+        <v>694</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120" t="s">
+        <v>695</v>
+      </c>
+      <c r="D120" t="s">
+        <v>786</v>
+      </c>
+      <c r="E120" t="s">
         <v>697</v>
-      </c>
-      <c r="B120">
-        <v>2</v>
-      </c>
-      <c r="C120" t="s">
-        <v>698</v>
-      </c>
-      <c r="D120" t="s">
-        <v>789</v>
-      </c>
-      <c r="E120" t="s">
-        <v>700</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>272</v>
       </c>
@@ -8165,81 +8292,81 @@
         <v>275</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B122">
         <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D122" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="E122" t="s">
         <v>133</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B123">
         <v>2</v>
       </c>
       <c r="C123" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D123" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="E123" t="s">
         <v>133</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B124">
         <v>2</v>
       </c>
       <c r="C124" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="D124" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E124" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="B125">
         <v>2</v>
       </c>
       <c r="C125" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="D125" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E125" t="s">
         <v>151</v>
@@ -8248,127 +8375,127 @@
         <v>252</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B126">
         <v>2</v>
       </c>
       <c r="C126" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D126" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="E126" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B127">
         <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D127" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="E127" t="s">
         <v>133</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B128">
         <v>2</v>
       </c>
       <c r="C128" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D128" t="s">
         <v>294</v>
       </c>
       <c r="E128" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
+        <v>561</v>
+      </c>
+      <c r="B129">
+        <v>2</v>
+      </c>
+      <c r="C129" t="s">
         <v>562</v>
       </c>
-      <c r="B129">
-        <v>2</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>563</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
         <v>564</v>
       </c>
-      <c r="E129" t="s">
-        <v>565</v>
-      </c>
       <c r="F129" s="2" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B130">
         <v>2</v>
       </c>
       <c r="C130" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="D130" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="E130" t="s">
         <v>133</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B131">
         <v>2</v>
       </c>
       <c r="C131" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D131" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="E131" t="s">
         <v>133</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>324</v>
       </c>
@@ -8382,114 +8509,119 @@
         <v>326</v>
       </c>
       <c r="E132" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B133">
         <v>2</v>
       </c>
       <c r="C133" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D133" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="E133" t="s">
         <v>133</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
+        <v>589</v>
+      </c>
+      <c r="B134">
+        <v>2</v>
+      </c>
+      <c r="C134" t="s">
         <v>590</v>
       </c>
-      <c r="B134">
-        <v>2</v>
-      </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
+        <v>731</v>
+      </c>
+      <c r="E134" t="s">
         <v>591</v>
-      </c>
-      <c r="D134" t="s">
-        <v>734</v>
-      </c>
-      <c r="E134" t="s">
-        <v>592</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B135">
         <v>2</v>
       </c>
       <c r="C135" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D135" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="E135" t="s">
         <v>133</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B136">
         <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D136" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E136" t="s">
         <v>228</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B137">
         <v>2</v>
       </c>
       <c r="C137" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="D137" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="E137" t="s">
         <v>133</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="F138"/>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1" t="s">
+        <v>880</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F30" xr:uid="{3F2C9002-1B0A-C348-905C-32E2D16BAD66}"/>
@@ -8502,11 +8634,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84351FC9-A5B2-F24D-8B55-E6051DA9E552}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="2" width="42.83203125" customWidth="1"/>
@@ -8515,7 +8647,7 @@
     <col min="5" max="5" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -8532,7 +8664,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -8543,41 +8675,41 @@
         <v>383</v>
       </c>
       <c r="D2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -8585,10 +8717,10 @@
         <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -8596,10 +8728,10 @@
         <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -8607,24 +8739,24 @@
         <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C10" t="s">
         <v>383</v>
       </c>
       <c r="D10" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -8635,7 +8767,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -8646,7 +8778,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -8657,24 +8789,24 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C15" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>87</v>
       </c>
@@ -8682,75 +8814,75 @@
         <v>99</v>
       </c>
       <c r="C17" t="s">
+        <v>431</v>
+      </c>
+      <c r="D17" t="s">
         <v>432</v>
       </c>
-      <c r="D17" t="s">
-        <v>433</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="D18" s="5"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B21" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C21" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B22" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C22" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B23" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C23" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B24" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C24" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -8758,16 +8890,16 @@
         <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D26" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="F26" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -8775,16 +8907,16 @@
         <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D27" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="F27" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -8792,78 +8924,78 @@
         <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="F29" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B30" t="s">
         <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D30" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>334</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C32" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D32" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="F32" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="7"/>
       <c r="B33" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>865</v>
+        <v>891</v>
       </c>
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B36" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C36" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
     </row>
@@ -8875,13 +9007,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection sqref="A1:D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
@@ -8891,935 +9023,941 @@
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>746</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:5">
+      <c r="A2" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>882</v>
+      </c>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>886</v>
+      </c>
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>848</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="7">
+        <v>1</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="7">
+        <v>1</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="B27" s="7">
+        <v>1</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="7">
+        <v>1</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="7">
+        <v>1</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="7">
+        <v>1</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="7">
+        <v>1</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="7">
+        <v>1</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="7">
+        <v>1</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="B34" s="7">
+        <v>1</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="E2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>747</v>
-      </c>
-      <c r="B3">
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="B35" s="7">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" t="s">
-        <v>849</v>
-      </c>
-      <c r="E3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4">
+      <c r="C35" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="7">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>850</v>
-      </c>
-      <c r="E4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5">
+      <c r="C36" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B37" s="7">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" t="s">
-        <v>859</v>
-      </c>
-      <c r="E5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6">
+      <c r="C37" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="E37"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="7">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C38" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="7">
+        <v>1</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="B40" s="7">
+        <v>1</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="7">
+        <v>1</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="7">
+        <v>1</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7">
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B43" s="7">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C43" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" s="7">
+        <v>1</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="B45" s="7">
+        <v>1</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B46" s="7">
+        <v>1</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="7">
+        <v>1</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E7"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8">
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="7">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>616</v>
-      </c>
-      <c r="B9">
+      <c r="C48" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="E48"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" s="7">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>617</v>
-      </c>
-      <c r="D9" t="s">
-        <v>618</v>
-      </c>
-      <c r="E9"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>384</v>
-      </c>
-      <c r="B10">
+      <c r="C49" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" s="7">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>385</v>
-      </c>
-      <c r="D10" t="s">
-        <v>386</v>
-      </c>
-      <c r="E10"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C50" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="7">
+        <v>2</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="7">
+        <v>2</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="B53" s="7">
+        <v>2</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="E53"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="7">
+        <v>2</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E11"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>533</v>
-      </c>
-      <c r="E12"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B55" s="7">
+        <v>2</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E55"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" s="7">
+        <v>2</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="E56"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="7">
+        <v>2</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="E57"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="7">
+        <v>2</v>
+      </c>
+      <c r="C58" s="7" t="s">
         <v>750</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" t="s">
-        <v>849</v>
-      </c>
-      <c r="E14"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>387</v>
-      </c>
-      <c r="E15"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" t="s">
-        <v>619</v>
-      </c>
-      <c r="E16"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" t="s">
-        <v>851</v>
-      </c>
-      <c r="E17"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" t="s">
-        <v>389</v>
-      </c>
-      <c r="E18"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>860</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>422</v>
-      </c>
-      <c r="D19" t="s">
-        <v>236</v>
-      </c>
-      <c r="E19"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>852</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" t="s">
-        <v>415</v>
-      </c>
-      <c r="E20"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>390</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>391</v>
-      </c>
-      <c r="D21" t="s">
-        <v>620</v>
-      </c>
-      <c r="E21"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" t="s">
-        <v>853</v>
-      </c>
-      <c r="E22"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="D58" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="E58"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59" s="7">
+        <v>3</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="E59"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="7">
+        <v>3</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>890</v>
+      </c>
+      <c r="E60"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" s="7">
+        <v>3</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>854</v>
       </c>
-      <c r="E23"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" t="s">
-        <v>855</v>
-      </c>
-      <c r="E24"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" t="s">
-        <v>392</v>
-      </c>
-      <c r="E25"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" t="s">
-        <v>416</v>
-      </c>
-      <c r="E26"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>393</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>394</v>
-      </c>
-      <c r="D27" t="s">
-        <v>395</v>
-      </c>
-      <c r="E27"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" t="s">
-        <v>849</v>
-      </c>
-      <c r="E28"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" t="s">
-        <v>627</v>
-      </c>
-      <c r="E29"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" t="s">
-        <v>533</v>
-      </c>
-      <c r="E30"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" t="s">
-        <v>398</v>
-      </c>
-      <c r="E31"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" t="s">
-        <v>533</v>
-      </c>
-      <c r="E32"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" t="s">
-        <v>856</v>
-      </c>
-      <c r="E33"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>399</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>400</v>
-      </c>
-      <c r="D34" t="s">
-        <v>388</v>
-      </c>
-      <c r="E34"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>401</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>402</v>
-      </c>
-      <c r="D35" t="s">
-        <v>383</v>
-      </c>
-      <c r="E35"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" t="s">
-        <v>857</v>
-      </c>
-      <c r="E36"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>403</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>404</v>
-      </c>
-      <c r="D37" t="s">
-        <v>405</v>
-      </c>
-      <c r="E37"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" t="s">
-        <v>622</v>
-      </c>
-      <c r="E38"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" t="s">
-        <v>533</v>
-      </c>
-      <c r="E39"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>751</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
-        <v>614</v>
-      </c>
-      <c r="D40" t="s">
-        <v>405</v>
-      </c>
-      <c r="E40"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>421</v>
-      </c>
-      <c r="D41" t="s">
-        <v>406</v>
-      </c>
-      <c r="E41"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>407</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
-        <v>408</v>
-      </c>
-      <c r="D43" t="s">
-        <v>386</v>
-      </c>
-      <c r="E43"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>104</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
-        <v>105</v>
-      </c>
-      <c r="D44" t="s">
-        <v>849</v>
-      </c>
-      <c r="E44"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>623</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>624</v>
-      </c>
-      <c r="D45" t="s">
-        <v>618</v>
-      </c>
-      <c r="E45"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>409</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
-        <v>632</v>
-      </c>
-      <c r="D46" t="s">
-        <v>629</v>
-      </c>
-      <c r="E46"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>74</v>
-      </c>
-      <c r="D47" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>75</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48" t="s">
-        <v>533</v>
-      </c>
-      <c r="E48"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>77</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>78</v>
-      </c>
-      <c r="D49" t="s">
-        <v>410</v>
-      </c>
-      <c r="E49"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>79</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" t="s">
-        <v>411</v>
-      </c>
-      <c r="E50"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51">
-        <v>2</v>
-      </c>
-      <c r="C51" t="s">
-        <v>412</v>
-      </c>
-      <c r="D51" t="s">
-        <v>66</v>
-      </c>
-      <c r="E51"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B52">
-        <v>2</v>
-      </c>
-      <c r="C52" t="s">
-        <v>412</v>
-      </c>
-      <c r="D52" t="s">
-        <v>858</v>
-      </c>
-      <c r="E52"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>413</v>
-      </c>
-      <c r="B53">
-        <v>2</v>
-      </c>
-      <c r="C53" t="s">
-        <v>414</v>
-      </c>
-      <c r="D53" t="s">
-        <v>625</v>
-      </c>
-      <c r="E53"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>31</v>
-      </c>
-      <c r="B54">
-        <v>2</v>
-      </c>
-      <c r="C54" t="s">
-        <v>414</v>
-      </c>
-      <c r="D54" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>396</v>
-      </c>
-      <c r="B55">
-        <v>2</v>
-      </c>
-      <c r="C55" t="s">
-        <v>626</v>
-      </c>
-      <c r="D55" t="s">
-        <v>383</v>
-      </c>
-      <c r="E55"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>83</v>
-      </c>
-      <c r="B56">
-        <v>2</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="E61"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" s="7">
+        <v>5</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>752</v>
       </c>
-      <c r="D56" t="s">
-        <v>630</v>
-      </c>
-      <c r="E56"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57">
-        <v>2</v>
-      </c>
-      <c r="C57" t="s">
-        <v>417</v>
-      </c>
-      <c r="D57" t="s">
-        <v>628</v>
-      </c>
-      <c r="E57"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>71</v>
-      </c>
-      <c r="B58">
-        <v>2</v>
-      </c>
-      <c r="C58" t="s">
-        <v>753</v>
-      </c>
-      <c r="D58" t="s">
-        <v>533</v>
-      </c>
-      <c r="E58"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>86</v>
-      </c>
-      <c r="B59">
-        <v>3</v>
-      </c>
-      <c r="C59" t="s">
-        <v>864</v>
-      </c>
-      <c r="D59" t="s">
-        <v>863</v>
-      </c>
-      <c r="E59"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>84</v>
-      </c>
-      <c r="B60">
-        <v>3</v>
-      </c>
-      <c r="C60" t="s">
-        <v>754</v>
-      </c>
-      <c r="D60" t="s">
-        <v>861</v>
-      </c>
-      <c r="E60"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>87</v>
-      </c>
-      <c r="B61">
-        <v>3</v>
-      </c>
-      <c r="C61" t="s">
-        <v>631</v>
-      </c>
-      <c r="D61" t="s">
-        <v>862</v>
-      </c>
-      <c r="E61"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>88</v>
-      </c>
-      <c r="B62">
-        <v>5</v>
-      </c>
-      <c r="C62" t="s">
-        <v>755</v>
-      </c>
-      <c r="D62" t="s">
-        <v>565</v>
+      <c r="D62" s="7" t="s">
+        <v>564</v>
       </c>
       <c r="E62"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D66">
@@ -9832,29 +9970,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E96E553-B9B7-3A43-9A19-9B2DEFC1133B}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="I1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -9862,23 +9997,23 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B3" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -9886,7 +10021,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -9894,7 +10029,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -9902,7 +10037,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -9910,7 +10045,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -9918,7 +10053,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -9926,7 +10061,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>86</v>
       </c>
@@ -9934,7 +10069,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -9942,23 +10077,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="B13" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="B14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -9966,7 +10101,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>390</v>
       </c>
@@ -9974,7 +10109,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -9982,7 +10117,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -9990,7 +10125,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -9998,15 +10133,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B20" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -10014,15 +10149,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>615</v>
+      </c>
+      <c r="B22" t="s">
         <v>616</v>
       </c>
-      <c r="B22" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -10030,7 +10165,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -10038,7 +10173,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -10046,7 +10181,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>384</v>
       </c>
@@ -10054,15 +10189,15 @@
         <v>385</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
+        <v>392</v>
+      </c>
+      <c r="B27" t="s">
         <v>393</v>
       </c>
-      <c r="B27" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>102</v>
       </c>
@@ -10070,15 +10205,15 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
+        <v>395</v>
+      </c>
+      <c r="B29" t="s">
         <v>396</v>
       </c>
-      <c r="B29" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -10086,15 +10221,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -10102,7 +10237,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -10110,7 +10245,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -10118,7 +10253,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -10126,23 +10261,23 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
+        <v>398</v>
+      </c>
+      <c r="B36" t="s">
         <v>399</v>
       </c>
-      <c r="B36" t="s">
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
         <v>401</v>
       </c>
-      <c r="B37" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -10150,7 +10285,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -10158,7 +10293,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -10166,15 +10301,15 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
+        <v>402</v>
+      </c>
+      <c r="B41" t="s">
         <v>403</v>
       </c>
-      <c r="B41" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -10182,7 +10317,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -10190,20 +10325,20 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>69</v>
       </c>
@@ -10211,15 +10346,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
+        <v>406</v>
+      </c>
+      <c r="B47" t="s">
         <v>407</v>
       </c>
-      <c r="B47" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>104</v>
       </c>
@@ -10227,7 +10362,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>30</v>
       </c>
@@ -10235,7 +10370,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -10243,7 +10378,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>32</v>
       </c>
@@ -10251,26 +10386,26 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B52" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B53" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -10279,7 +10414,7 @@
       </c>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>71</v>
       </c>
@@ -10288,7 +10423,7 @@
       </c>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -10297,7 +10432,7 @@
       </c>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>88</v>
       </c>
@@ -10305,7 +10440,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -10313,7 +10448,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -10321,7 +10456,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -10329,7 +10464,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>87</v>
       </c>

--- a/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
+++ b/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezheng/Documents/VEuPathDB-git/ApiCommonData/Load/ontology/harmonization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheena/Documents/GitHub/ApiCommonData/Load/ontology/harmonization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37FD5F5-58B2-4544-8A51-EC5DD91A67B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E5014A-17DF-1342-AE96-3B793C2F58D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="3540" windowWidth="22420" windowHeight="11480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2020" yWindow="3540" windowWidth="22420" windowHeight="11480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="termWithDifferentLabels" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="893">
   <si>
     <t>sid</t>
   </si>
@@ -2673,9 +2673,6 @@
     <t>Checked on Aug 11th, all known issues are fixed</t>
   </si>
   <si>
-    <t>Newly found issue</t>
-  </si>
-  <si>
     <t>icemr_india_gujarat | icemr_prism2_border_cohort | gates_gems1a | gates_gems | icemr_southAsia | icemr_southernAfrica | icemr_india_cx | gates_perch | icemr_malawi | general/general_promote | icemr_india_cohort | icemr_india_feverSurv | gates_sip | icemr_southeastAsia | icemr_prism2 | icemr_meghalaya | icemr_prism | gates_provide | icemr_amazoniaPeru | icemr_westAfrica | gates_maled | general/general_crompton</t>
   </si>
   <si>
@@ -2704,13 +2701,19 @@
   </si>
   <si>
     <t>Checked on Aug 11th, one remaining issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Label for EUPATH_0011991 shou+A49ld be updated to Norovirus </t>
+  </si>
+  <si>
+    <t>Label for EUPATH_0011991 should be updated to "Norovirus genogroup, by qRT-PCR result"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3589,11 +3592,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D99" workbookViewId="0">
+    <sheetView topLeftCell="A100" workbookViewId="0">
       <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
@@ -3602,7 +3605,7 @@
     <col min="5" max="5" width="55.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3619,7 +3622,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -3639,7 +3642,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -3659,7 +3662,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -3679,7 +3682,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -3699,7 +3702,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>122</v>
       </c>
@@ -3719,7 +3722,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -3739,7 +3742,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>128</v>
       </c>
@@ -3759,7 +3762,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>131</v>
       </c>
@@ -3779,7 +3782,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>134</v>
       </c>
@@ -3799,7 +3802,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -3819,7 +3822,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>139</v>
       </c>
@@ -3839,7 +3842,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>141</v>
       </c>
@@ -3859,7 +3862,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>144</v>
       </c>
@@ -3876,7 +3879,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>147</v>
       </c>
@@ -3893,7 +3896,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>149</v>
       </c>
@@ -3910,7 +3913,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>152</v>
       </c>
@@ -3927,7 +3930,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>154</v>
       </c>
@@ -3944,7 +3947,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>156</v>
       </c>
@@ -3961,7 +3964,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>158</v>
       </c>
@@ -3978,7 +3981,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>160</v>
       </c>
@@ -3995,7 +3998,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>162</v>
       </c>
@@ -4012,7 +4015,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>164</v>
       </c>
@@ -4029,7 +4032,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>166</v>
       </c>
@@ -4046,7 +4049,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>168</v>
       </c>
@@ -4063,7 +4066,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>170</v>
       </c>
@@ -4080,7 +4083,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>172</v>
       </c>
@@ -4097,7 +4100,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>174</v>
       </c>
@@ -4114,7 +4117,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>176</v>
       </c>
@@ -4131,7 +4134,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>178</v>
       </c>
@@ -4148,7 +4151,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>180</v>
       </c>
@@ -4165,7 +4168,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>182</v>
       </c>
@@ -4182,7 +4185,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>184</v>
       </c>
@@ -4199,7 +4202,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>186</v>
       </c>
@@ -4216,7 +4219,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>188</v>
       </c>
@@ -4233,7 +4236,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>190</v>
       </c>
@@ -4250,7 +4253,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>192</v>
       </c>
@@ -4267,7 +4270,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>194</v>
       </c>
@@ -4284,7 +4287,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>196</v>
       </c>
@@ -4301,7 +4304,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>198</v>
       </c>
@@ -4318,7 +4321,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>200</v>
       </c>
@@ -4335,7 +4338,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>202</v>
       </c>
@@ -4352,7 +4355,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>204</v>
       </c>
@@ -4369,7 +4372,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>206</v>
       </c>
@@ -4386,7 +4389,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>208</v>
       </c>
@@ -4403,7 +4406,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>210</v>
       </c>
@@ -4420,7 +4423,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>213</v>
       </c>
@@ -4437,7 +4440,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>216</v>
       </c>
@@ -4454,7 +4457,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>219</v>
       </c>
@@ -4471,7 +4474,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>222</v>
       </c>
@@ -4488,7 +4491,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>224</v>
       </c>
@@ -4505,7 +4508,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>226</v>
       </c>
@@ -4522,7 +4525,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>229</v>
       </c>
@@ -4539,7 +4542,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>485</v>
       </c>
@@ -4556,7 +4559,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>491</v>
       </c>
@@ -4573,7 +4576,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>231</v>
       </c>
@@ -4590,7 +4593,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>234</v>
       </c>
@@ -4607,7 +4610,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>237</v>
       </c>
@@ -4624,7 +4627,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>240</v>
       </c>
@@ -4641,7 +4644,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>242</v>
       </c>
@@ -4658,7 +4661,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>245</v>
       </c>
@@ -4675,7 +4678,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>248</v>
       </c>
@@ -4692,15 +4695,15 @@
         <v>497</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E63" s="6"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -4715,7 +4718,7 @@
       </c>
       <c r="E67"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>659</v>
       </c>
@@ -4732,7 +4735,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>661</v>
       </c>
@@ -4749,7 +4752,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>663</v>
       </c>
@@ -4766,7 +4769,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>666</v>
       </c>
@@ -4783,7 +4786,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>136</v>
       </c>
@@ -4800,7 +4803,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>180</v>
       </c>
@@ -4817,7 +4820,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>669</v>
       </c>
@@ -4834,7 +4837,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>216</v>
       </c>
@@ -4851,7 +4854,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>672</v>
       </c>
@@ -4868,7 +4871,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>675</v>
       </c>
@@ -4885,7 +4888,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>677</v>
       </c>
@@ -4902,7 +4905,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>680</v>
       </c>
@@ -4919,7 +4922,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>231</v>
       </c>
@@ -4933,7 +4936,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>682</v>
       </c>
@@ -4950,7 +4953,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>685</v>
       </c>
@@ -4964,7 +4967,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>609</v>
       </c>
@@ -4981,15 +4984,15 @@
         <v>772</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E84"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -5006,7 +5009,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>659</v>
       </c>
@@ -5023,7 +5026,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>141</v>
       </c>
@@ -5040,7 +5043,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>180</v>
       </c>
@@ -5057,7 +5060,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>814</v>
       </c>
@@ -5074,7 +5077,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>817</v>
       </c>
@@ -5091,7 +5094,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>216</v>
       </c>
@@ -5108,7 +5111,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>819</v>
       </c>
@@ -5125,7 +5128,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>822</v>
       </c>
@@ -5142,7 +5145,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>677</v>
       </c>
@@ -5159,7 +5162,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>680</v>
       </c>
@@ -5176,7 +5179,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>231</v>
       </c>
@@ -5193,7 +5196,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>826</v>
       </c>
@@ -5210,7 +5213,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>234</v>
       </c>
@@ -5227,7 +5230,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>830</v>
       </c>
@@ -5244,7 +5247,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>682</v>
       </c>
@@ -5261,7 +5264,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>833</v>
       </c>
@@ -5278,12 +5281,12 @@
         <v>862</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D107" s="11" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -5295,13 +5298,13 @@
       </c>
       <c r="E108"/>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E109"/>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E110"/>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E111"/>
     </row>
   </sheetData>
@@ -5314,11 +5317,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.1640625" customWidth="1"/>
     <col min="3" max="3" width="42.83203125" customWidth="1"/>
@@ -5327,7 +5330,7 @@
     <col min="6" max="6" width="30.1640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -5347,7 +5350,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>340</v>
       </c>
@@ -5367,7 +5370,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>343</v>
       </c>
@@ -5387,7 +5390,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>346</v>
       </c>
@@ -5407,7 +5410,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>349</v>
       </c>
@@ -5427,7 +5430,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>351</v>
       </c>
@@ -5447,7 +5450,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -5467,7 +5470,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>355</v>
       </c>
@@ -5487,7 +5490,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>358</v>
       </c>
@@ -5507,7 +5510,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>361</v>
       </c>
@@ -5527,7 +5530,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>364</v>
       </c>
@@ -5547,7 +5550,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>366</v>
       </c>
@@ -5567,7 +5570,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>369</v>
       </c>
@@ -5587,7 +5590,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>371</v>
       </c>
@@ -5607,7 +5610,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>334</v>
       </c>
@@ -5627,7 +5630,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>378</v>
       </c>
@@ -5647,18 +5650,18 @@
         <v>527</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -5676,7 +5679,7 @@
       </c>
       <c r="F21"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>640</v>
       </c>
@@ -5696,7 +5699,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>643</v>
       </c>
@@ -5713,7 +5716,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>646</v>
       </c>
@@ -5733,7 +5736,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>649</v>
       </c>
@@ -5753,7 +5756,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>480</v>
       </c>
@@ -5773,7 +5776,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>653</v>
       </c>
@@ -5793,7 +5796,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>655</v>
       </c>
@@ -5813,19 +5816,19 @@
         <v>781</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>869</v>
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -5845,7 +5848,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>346</v>
       </c>
@@ -5865,7 +5868,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="3" customFormat="1">
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>643</v>
       </c>
@@ -5885,7 +5888,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="3" customFormat="1">
+    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>836</v>
       </c>
@@ -5905,7 +5908,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="3" customFormat="1">
+    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>481</v>
       </c>
@@ -5925,7 +5928,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1">
+    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>480</v>
       </c>
@@ -5945,7 +5948,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="3" customFormat="1">
+    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>838</v>
       </c>
@@ -5965,7 +5968,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="3" customFormat="1">
+    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>840</v>
       </c>
@@ -5985,7 +5988,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="3" customFormat="1">
+    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>653</v>
       </c>
@@ -6005,7 +6008,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="3" customFormat="1">
+    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>655</v>
       </c>
@@ -6025,7 +6028,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="3" customFormat="1">
+    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>378</v>
       </c>
@@ -6045,22 +6048,22 @@
         <v>527</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="3" customFormat="1">
+    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="1:6" s="3" customFormat="1">
+    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="1:6" s="3" customFormat="1">
+    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="1:6" s="3" customFormat="1">
+    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>879</v>
       </c>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="1:6" s="3" customFormat="1">
+    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>643</v>
       </c>
@@ -6080,7 +6083,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="3" customFormat="1">
+    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>838</v>
       </c>
@@ -6100,7 +6103,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="3" customFormat="1">
+    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>646</v>
       </c>
@@ -6108,7 +6111,7 @@
         <v>2</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>647</v>
+        <v>891</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>9</v>
@@ -6117,13 +6120,13 @@
         <v>648</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="3" customFormat="1">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
     </row>
   </sheetData>
@@ -6136,11 +6139,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" workbookViewId="0">
+    <sheetView topLeftCell="A124" workbookViewId="0">
       <selection activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="34.5" customWidth="1"/>
@@ -6149,7 +6152,7 @@
     <col min="6" max="6" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6169,7 +6172,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>251</v>
       </c>
@@ -6189,7 +6192,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>255</v>
       </c>
@@ -6209,7 +6212,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>259</v>
       </c>
@@ -6229,7 +6232,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>263</v>
       </c>
@@ -6249,7 +6252,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>267</v>
       </c>
@@ -6269,7 +6272,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>270</v>
       </c>
@@ -6289,7 +6292,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>272</v>
       </c>
@@ -6309,7 +6312,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>276</v>
       </c>
@@ -6329,7 +6332,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>279</v>
       </c>
@@ -6349,7 +6352,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>282</v>
       </c>
@@ -6369,7 +6372,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>285</v>
       </c>
@@ -6389,7 +6392,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>289</v>
       </c>
@@ -6409,7 +6412,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>292</v>
       </c>
@@ -6429,7 +6432,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>296</v>
       </c>
@@ -6449,7 +6452,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>248</v>
       </c>
@@ -6469,7 +6472,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>301</v>
       </c>
@@ -6489,7 +6492,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>304</v>
       </c>
@@ -6509,7 +6512,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>308</v>
       </c>
@@ -6529,7 +6532,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>310</v>
       </c>
@@ -6549,7 +6552,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>224</v>
       </c>
@@ -6569,7 +6572,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>222</v>
       </c>
@@ -6589,7 +6592,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>316</v>
       </c>
@@ -6609,7 +6612,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>318</v>
       </c>
@@ -6629,7 +6632,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>321</v>
       </c>
@@ -6649,7 +6652,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>324</v>
       </c>
@@ -6669,7 +6672,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>122</v>
       </c>
@@ -6689,7 +6692,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>330</v>
       </c>
@@ -6709,7 +6712,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>333</v>
       </c>
@@ -6729,7 +6732,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>337</v>
       </c>
@@ -6749,12 +6752,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -6771,7 +6774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>251</v>
       </c>
@@ -6791,7 +6794,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>529</v>
       </c>
@@ -6811,7 +6814,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>255</v>
       </c>
@@ -6831,7 +6834,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>534</v>
       </c>
@@ -6851,7 +6854,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>259</v>
       </c>
@@ -6871,7 +6874,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>537</v>
       </c>
@@ -6891,7 +6894,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>541</v>
       </c>
@@ -6911,7 +6914,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>544</v>
       </c>
@@ -6931,7 +6934,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>263</v>
       </c>
@@ -6951,7 +6954,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>267</v>
       </c>
@@ -6971,7 +6974,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>270</v>
       </c>
@@ -6991,7 +6994,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>548</v>
       </c>
@@ -7011,7 +7014,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>272</v>
       </c>
@@ -7031,7 +7034,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>276</v>
       </c>
@@ -7051,7 +7054,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>279</v>
       </c>
@@ -7071,7 +7074,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>553</v>
       </c>
@@ -7091,7 +7094,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>285</v>
       </c>
@@ -7111,7 +7114,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>289</v>
       </c>
@@ -7131,7 +7134,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>558</v>
       </c>
@@ -7151,7 +7154,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>292</v>
       </c>
@@ -7171,7 +7174,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>561</v>
       </c>
@@ -7191,7 +7194,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>296</v>
       </c>
@@ -7211,7 +7214,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>248</v>
       </c>
@@ -7228,7 +7231,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>301</v>
       </c>
@@ -7248,7 +7251,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>304</v>
       </c>
@@ -7268,7 +7271,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>308</v>
       </c>
@@ -7288,7 +7291,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>310</v>
       </c>
@@ -7308,7 +7311,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>316</v>
       </c>
@@ -7328,7 +7331,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>318</v>
       </c>
@@ -7345,7 +7348,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>567</v>
       </c>
@@ -7365,7 +7368,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>569</v>
       </c>
@@ -7385,7 +7388,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>573</v>
       </c>
@@ -7405,7 +7408,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>577</v>
       </c>
@@ -7425,7 +7428,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>580</v>
       </c>
@@ -7445,7 +7448,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>583</v>
       </c>
@@ -7465,7 +7468,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>321</v>
       </c>
@@ -7485,7 +7488,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>324</v>
       </c>
@@ -7505,7 +7508,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>589</v>
       </c>
@@ -7525,7 +7528,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>122</v>
       </c>
@@ -7545,7 +7548,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>592</v>
       </c>
@@ -7565,7 +7568,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>596</v>
       </c>
@@ -7585,7 +7588,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>598</v>
       </c>
@@ -7605,7 +7608,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>600</v>
       </c>
@@ -7625,7 +7628,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>330</v>
       </c>
@@ -7645,7 +7648,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>603</v>
       </c>
@@ -7662,7 +7665,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>512</v>
       </c>
@@ -7682,7 +7685,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>337</v>
       </c>
@@ -7702,12 +7705,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -7725,7 +7728,7 @@
       </c>
       <c r="F89"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>255</v>
       </c>
@@ -7745,7 +7748,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>689</v>
       </c>
@@ -7765,7 +7768,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>669</v>
       </c>
@@ -7785,7 +7788,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>694</v>
       </c>
@@ -7805,7 +7808,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>698</v>
       </c>
@@ -7825,7 +7828,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>702</v>
       </c>
@@ -7845,7 +7848,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>272</v>
       </c>
@@ -7865,7 +7868,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>705</v>
       </c>
@@ -7885,7 +7888,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>708</v>
       </c>
@@ -7905,7 +7908,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>553</v>
       </c>
@@ -7925,7 +7928,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>711</v>
       </c>
@@ -7945,7 +7948,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>289</v>
       </c>
@@ -7965,7 +7968,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>716</v>
       </c>
@@ -7985,7 +7988,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>561</v>
       </c>
@@ -8002,7 +8005,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>719</v>
       </c>
@@ -8022,7 +8025,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>685</v>
       </c>
@@ -8039,7 +8042,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>725</v>
       </c>
@@ -8059,7 +8062,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>569</v>
       </c>
@@ -8076,7 +8079,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>580</v>
       </c>
@@ -8093,7 +8096,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>729</v>
       </c>
@@ -8113,7 +8116,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>324</v>
       </c>
@@ -8133,7 +8136,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>733</v>
       </c>
@@ -8153,7 +8156,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>737</v>
       </c>
@@ -8170,7 +8173,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>739</v>
       </c>
@@ -8190,12 +8193,12 @@
         <v>252</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -8215,7 +8218,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>784</v>
       </c>
@@ -8235,7 +8238,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>733</v>
       </c>
@@ -8255,7 +8258,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>694</v>
       </c>
@@ -8275,7 +8278,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>272</v>
       </c>
@@ -8295,7 +8298,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>788</v>
       </c>
@@ -8315,7 +8318,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>791</v>
       </c>
@@ -8335,7 +8338,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>739</v>
       </c>
@@ -8355,7 +8358,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>870</v>
       </c>
@@ -8375,7 +8378,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>708</v>
       </c>
@@ -8395,7 +8398,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>794</v>
       </c>
@@ -8415,7 +8418,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>716</v>
       </c>
@@ -8435,7 +8438,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>561</v>
       </c>
@@ -8455,7 +8458,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>797</v>
       </c>
@@ -8475,7 +8478,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>799</v>
       </c>
@@ -8495,7 +8498,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>324</v>
       </c>
@@ -8515,7 +8518,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>802</v>
       </c>
@@ -8535,7 +8538,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>589</v>
       </c>
@@ -8555,7 +8558,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>804</v>
       </c>
@@ -8575,7 +8578,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>806</v>
       </c>
@@ -8595,7 +8598,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>809</v>
       </c>
@@ -8615,10 +8618,10 @@
         <v>638</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F138"/>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>880</v>
       </c>
@@ -8638,7 +8641,7 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="2" width="42.83203125" customWidth="1"/>
@@ -8647,7 +8650,7 @@
     <col min="5" max="5" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -8664,7 +8667,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -8681,7 +8684,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -8698,7 +8701,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -8709,7 +8712,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -8720,7 +8723,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -8731,7 +8734,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -8742,7 +8745,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -8756,7 +8759,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -8767,7 +8770,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -8778,7 +8781,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -8795,7 +8798,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -8806,7 +8809,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>87</v>
       </c>
@@ -8823,15 +8826,15 @@
         <v>524</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D18" s="5"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>743</v>
       </c>
@@ -8842,7 +8845,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>612</v>
       </c>
@@ -8856,7 +8859,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>748</v>
       </c>
@@ -8867,7 +8870,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>745</v>
       </c>
@@ -8879,10 +8882,10 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -8899,7 +8902,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -8916,7 +8919,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -8930,7 +8933,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>618</v>
       </c>
@@ -8944,10 +8947,10 @@
         <v>759</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>334</v>
       </c>
@@ -8967,17 +8970,17 @@
         <v>856</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="3"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>748</v>
       </c>
@@ -8991,11 +8994,11 @@
         <v>868</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
     </row>
@@ -9013,7 +9016,7 @@
       <selection sqref="A1:D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
@@ -9023,7 +9026,7 @@
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
@@ -9038,7 +9041,7 @@
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>743</v>
       </c>
@@ -9053,7 +9056,7 @@
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>744</v>
       </c>
@@ -9068,7 +9071,7 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
@@ -9079,11 +9082,11 @@
         <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
@@ -9094,11 +9097,11 @@
         <v>106</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
@@ -9113,7 +9116,7 @@
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>26</v>
       </c>
@@ -9128,7 +9131,7 @@
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>28</v>
       </c>
@@ -9143,7 +9146,7 @@
       </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>615</v>
       </c>
@@ -9158,7 +9161,7 @@
       </c>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>384</v>
       </c>
@@ -9173,7 +9176,7 @@
       </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>30</v>
       </c>
@@ -9188,7 +9191,7 @@
       </c>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>32</v>
       </c>
@@ -9203,7 +9206,7 @@
       </c>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>34</v>
       </c>
@@ -9218,7 +9221,7 @@
       </c>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>747</v>
       </c>
@@ -9233,7 +9236,7 @@
       </c>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>35</v>
       </c>
@@ -9248,7 +9251,7 @@
       </c>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>37</v>
       </c>
@@ -9259,11 +9262,11 @@
         <v>38</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>80</v>
       </c>
@@ -9274,11 +9277,11 @@
         <v>94</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E17"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>39</v>
       </c>
@@ -9293,7 +9296,7 @@
       </c>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>853</v>
       </c>
@@ -9308,7 +9311,7 @@
       </c>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>847</v>
       </c>
@@ -9323,7 +9326,7 @@
       </c>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>390</v>
       </c>
@@ -9334,11 +9337,11 @@
         <v>391</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>41</v>
       </c>
@@ -9353,7 +9356,7 @@
       </c>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>43</v>
       </c>
@@ -9368,7 +9371,7 @@
       </c>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>81</v>
       </c>
@@ -9379,11 +9382,11 @@
         <v>95</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>45</v>
       </c>
@@ -9394,11 +9397,11 @@
         <v>46</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>47</v>
       </c>
@@ -9413,7 +9416,7 @@
       </c>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>392</v>
       </c>
@@ -9428,7 +9431,7 @@
       </c>
       <c r="E27"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>102</v>
       </c>
@@ -9443,7 +9446,7 @@
       </c>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>82</v>
       </c>
@@ -9458,7 +9461,7 @@
       </c>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>49</v>
       </c>
@@ -9473,7 +9476,7 @@
       </c>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>51</v>
       </c>
@@ -9488,7 +9491,7 @@
       </c>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>53</v>
       </c>
@@ -9503,7 +9506,7 @@
       </c>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>55</v>
       </c>
@@ -9518,7 +9521,7 @@
       </c>
       <c r="E33"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>398</v>
       </c>
@@ -9533,7 +9536,7 @@
       </c>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>400</v>
       </c>
@@ -9548,7 +9551,7 @@
       </c>
       <c r="E35"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>58</v>
       </c>
@@ -9563,7 +9566,7 @@
       </c>
       <c r="E36"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>402</v>
       </c>
@@ -9578,7 +9581,7 @@
       </c>
       <c r="E37"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>85</v>
       </c>
@@ -9593,7 +9596,7 @@
       </c>
       <c r="E38"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>63</v>
       </c>
@@ -9608,7 +9611,7 @@
       </c>
       <c r="E39"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>748</v>
       </c>
@@ -9623,7 +9626,7 @@
       </c>
       <c r="E40"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>67</v>
       </c>
@@ -9638,7 +9641,7 @@
       </c>
       <c r="E41"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>69</v>
       </c>
@@ -9653,7 +9656,7 @@
       </c>
       <c r="E42"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>406</v>
       </c>
@@ -9668,7 +9671,7 @@
       </c>
       <c r="E43"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>104</v>
       </c>
@@ -9683,7 +9686,7 @@
       </c>
       <c r="E44"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>620</v>
       </c>
@@ -9698,7 +9701,7 @@
       </c>
       <c r="E45"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>408</v>
       </c>
@@ -9713,7 +9716,7 @@
       </c>
       <c r="E46"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>73</v>
       </c>
@@ -9728,7 +9731,7 @@
       </c>
       <c r="E47"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>75</v>
       </c>
@@ -9743,7 +9746,7 @@
       </c>
       <c r="E48"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>77</v>
       </c>
@@ -9758,7 +9761,7 @@
       </c>
       <c r="E49"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>79</v>
       </c>
@@ -9773,7 +9776,7 @@
       </c>
       <c r="E50"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>98</v>
       </c>
@@ -9788,7 +9791,7 @@
       </c>
       <c r="E51"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>17</v>
       </c>
@@ -9803,7 +9806,7 @@
       </c>
       <c r="E52"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>412</v>
       </c>
@@ -9818,7 +9821,7 @@
       </c>
       <c r="E53"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>31</v>
       </c>
@@ -9833,7 +9836,7 @@
       </c>
       <c r="E54"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>395</v>
       </c>
@@ -9848,7 +9851,7 @@
       </c>
       <c r="E55"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>83</v>
       </c>
@@ -9863,7 +9866,7 @@
       </c>
       <c r="E56"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>60</v>
       </c>
@@ -9878,7 +9881,7 @@
       </c>
       <c r="E57"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>71</v>
       </c>
@@ -9893,7 +9896,7 @@
       </c>
       <c r="E58"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>86</v>
       </c>
@@ -9904,11 +9907,11 @@
         <v>855</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E59"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>84</v>
       </c>
@@ -9919,11 +9922,11 @@
         <v>751</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E60"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>87</v>
       </c>
@@ -9938,7 +9941,7 @@
       </c>
       <c r="E61"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>88</v>
       </c>
@@ -9953,7 +9956,7 @@
       </c>
       <c r="E62"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -9976,12 +9979,12 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -9989,7 +9992,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -9997,7 +10000,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>743</v>
       </c>
@@ -10005,7 +10008,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>744</v>
       </c>
@@ -10013,7 +10016,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -10021,7 +10024,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -10029,7 +10032,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -10037,7 +10040,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -10045,7 +10048,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -10053,7 +10056,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -10061,7 +10064,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>86</v>
       </c>
@@ -10069,7 +10072,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -10077,7 +10080,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>853</v>
       </c>
@@ -10085,7 +10088,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>847</v>
       </c>
@@ -10093,7 +10096,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -10101,7 +10104,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>390</v>
       </c>
@@ -10109,7 +10112,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -10117,7 +10120,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -10125,7 +10128,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -10133,7 +10136,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>412</v>
       </c>
@@ -10141,7 +10144,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -10149,7 +10152,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>615</v>
       </c>
@@ -10157,7 +10160,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -10165,7 +10168,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -10173,7 +10176,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -10181,7 +10184,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>384</v>
       </c>
@@ -10189,7 +10192,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>392</v>
       </c>
@@ -10197,7 +10200,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>102</v>
       </c>
@@ -10205,7 +10208,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>395</v>
       </c>
@@ -10213,7 +10216,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -10221,7 +10224,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>83</v>
       </c>
@@ -10229,7 +10232,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -10237,7 +10240,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -10245,7 +10248,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -10253,7 +10256,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -10261,7 +10264,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>398</v>
       </c>
@@ -10269,7 +10272,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>400</v>
       </c>
@@ -10277,7 +10280,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -10285,7 +10288,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -10293,7 +10296,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -10301,7 +10304,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>402</v>
       </c>
@@ -10309,7 +10312,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -10317,7 +10320,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -10325,12 +10328,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>67</v>
       </c>
@@ -10338,7 +10341,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>69</v>
       </c>
@@ -10346,7 +10349,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>406</v>
       </c>
@@ -10354,7 +10357,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>104</v>
       </c>
@@ -10362,7 +10365,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>30</v>
       </c>
@@ -10370,7 +10373,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -10378,7 +10381,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>32</v>
       </c>
@@ -10386,7 +10389,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>620</v>
       </c>
@@ -10395,7 +10398,7 @@
       </c>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>408</v>
       </c>
@@ -10405,7 +10408,7 @@
       <c r="C53" s="4"/>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -10414,7 +10417,7 @@
       </c>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>71</v>
       </c>
@@ -10423,7 +10426,7 @@
       </c>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -10432,7 +10435,7 @@
       </c>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>88</v>
       </c>
@@ -10440,7 +10443,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -10448,7 +10451,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -10456,7 +10459,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -10464,7 +10467,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>87</v>
       </c>

--- a/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
+++ b/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheena/Documents/GitHub/ApiCommonData/Load/ontology/harmonization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezheng/Documents/VEuPathDB-git/ApiCommonData/Load/ontology/harmonization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E5014A-17DF-1342-AE96-3B793C2F58D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D539E4-FCDD-BB42-9951-3D998E6F2BD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="3540" windowWidth="22420" windowHeight="11480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1660" yWindow="1260" windowWidth="22420" windowHeight="11480" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="termWithDifferentLabels" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="893">
   <si>
     <t>sid</t>
   </si>
@@ -1869,9 +1869,6 @@
     <t>HHS</t>
   </si>
   <si>
-    <t>NO_IRI</t>
-  </si>
-  <si>
     <t>gates_washbKenya</t>
   </si>
   <si>
@@ -2667,9 +2664,6 @@
     <t>Use IRI EUPATH_0030024 for this label</t>
   </si>
   <si>
-    <t>Checked on Aug 11th, still some inconsistency are found</t>
-  </si>
-  <si>
     <t>Checked on Aug 11th, all known issues are fixed</t>
   </si>
   <si>
@@ -2707,13 +2701,19 @@
   </si>
   <si>
     <t>Label for EUPATH_0011991 should be updated to "Norovirus genogroup, by qRT-PCR result"</t>
+  </si>
+  <si>
+    <t>Checked on Aug 11th, two remaining issues need to be addressed in the future.</t>
+  </si>
+  <si>
+    <t>Removed and no unit issues left.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3596,7 +3596,7 @@
       <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
@@ -3605,7 +3605,7 @@
     <col min="5" max="5" width="55.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>122</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>128</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>131</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>134</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>139</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>141</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>144</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>147</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>149</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>152</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>154</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>156</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>158</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>160</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>162</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>164</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>166</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>168</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>170</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>172</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>174</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>176</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>178</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>180</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>182</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>184</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>186</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>188</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>190</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>192</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>194</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>196</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>198</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>200</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>202</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>204</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>206</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>208</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>210</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>213</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>216</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>219</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>222</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>224</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>226</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>229</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>485</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>491</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>231</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>234</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>237</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>240</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>242</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>245</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>248</v>
       </c>
@@ -4695,15 +4695,15 @@
         <v>497</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="E63" s="6"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -4718,75 +4718,75 @@
       </c>
       <c r="E67"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
+        <v>658</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
         <v>659</v>
-      </c>
-      <c r="B68">
-        <v>2</v>
-      </c>
-      <c r="C68" t="s">
-        <v>660</v>
       </c>
       <c r="D68" t="s">
         <v>551</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
+        <v>660</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
         <v>661</v>
-      </c>
-      <c r="B69">
-        <v>2</v>
-      </c>
-      <c r="C69" t="s">
-        <v>662</v>
       </c>
       <c r="D69" t="s">
         <v>124</v>
       </c>
       <c r="E69" s="2" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>662</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>663</v>
+      </c>
+      <c r="D70" t="s">
+        <v>664</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>663</v>
-      </c>
-      <c r="B70">
-        <v>2</v>
-      </c>
-      <c r="C70" t="s">
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>665</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>666</v>
+      </c>
+      <c r="D71" t="s">
         <v>664</v>
       </c>
-      <c r="D70" t="s">
-        <v>665</v>
-      </c>
-      <c r="E70" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>666</v>
-      </c>
-      <c r="B71">
-        <v>2</v>
-      </c>
-      <c r="C71" t="s">
-        <v>667</v>
-      </c>
-      <c r="D71" t="s">
-        <v>665</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>136</v>
       </c>
@@ -4794,16 +4794,16 @@
         <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D72" t="s">
         <v>138</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>180</v>
       </c>
@@ -4820,24 +4820,24 @@
         <v>462</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
+        <v>668</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
         <v>669</v>
       </c>
-      <c r="B74">
-        <v>2</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>670</v>
-      </c>
-      <c r="D74" t="s">
-        <v>671</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>216</v>
       </c>
@@ -4851,78 +4851,78 @@
         <v>218</v>
       </c>
       <c r="E75" s="2" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>671</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>672</v>
+      </c>
+      <c r="D76" t="s">
+        <v>673</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>672</v>
-      </c>
-      <c r="B76">
-        <v>2</v>
-      </c>
-      <c r="C76" t="s">
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>674</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>675</v>
+      </c>
+      <c r="D77" t="s">
         <v>673</v>
       </c>
-      <c r="D76" t="s">
-        <v>674</v>
-      </c>
-      <c r="E76" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>675</v>
-      </c>
-      <c r="B77">
-        <v>2</v>
-      </c>
-      <c r="C77" t="s">
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
         <v>676</v>
       </c>
-      <c r="D77" t="s">
-        <v>674</v>
-      </c>
-      <c r="E77" s="2" t="s">
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>677</v>
+      </c>
+      <c r="D78" t="s">
+        <v>678</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>677</v>
-      </c>
-      <c r="B78">
-        <v>2</v>
-      </c>
-      <c r="C78" t="s">
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>679</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>680</v>
+      </c>
+      <c r="D79" t="s">
         <v>678</v>
       </c>
-      <c r="D78" t="s">
-        <v>679</v>
-      </c>
-      <c r="E78" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>680</v>
-      </c>
-      <c r="B79">
-        <v>2</v>
-      </c>
-      <c r="C79" t="s">
-        <v>681</v>
-      </c>
-      <c r="D79" t="s">
-        <v>679</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>231</v>
       </c>
@@ -4936,38 +4936,38 @@
         <v>233</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
+        <v>681</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81" t="s">
         <v>682</v>
       </c>
-      <c r="B81">
-        <v>2</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>683</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" s="2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
         <v>684</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82" t="s">
         <v>685</v>
-      </c>
-      <c r="B82">
-        <v>2</v>
-      </c>
-      <c r="C82" t="s">
-        <v>686</v>
       </c>
       <c r="D82" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>609</v>
       </c>
@@ -4981,18 +4981,18 @@
         <v>611</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="E84"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86" s="1" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -5009,24 +5009,24 @@
         <v>110</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
+        <v>658</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89" t="s">
         <v>659</v>
-      </c>
-      <c r="B89">
-        <v>2</v>
-      </c>
-      <c r="C89" t="s">
-        <v>660</v>
       </c>
       <c r="D89" t="s">
         <v>551</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>141</v>
       </c>
@@ -5034,16 +5034,16 @@
         <v>2</v>
       </c>
       <c r="C90" t="s">
+        <v>811</v>
+      </c>
+      <c r="D90" t="s">
         <v>812</v>
       </c>
-      <c r="D90" t="s">
-        <v>813</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>180</v>
       </c>
@@ -5060,41 +5060,41 @@
         <v>462</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
+        <v>813</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92" t="s">
         <v>814</v>
       </c>
-      <c r="B92">
-        <v>2</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>815</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
         <v>816</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93" t="s">
         <v>817</v>
-      </c>
-      <c r="B93">
-        <v>2</v>
-      </c>
-      <c r="C93" t="s">
-        <v>818</v>
       </c>
       <c r="D93" t="s">
         <v>602</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>216</v>
       </c>
@@ -5108,78 +5108,78 @@
         <v>218</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
+        <v>818</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95" t="s">
         <v>819</v>
       </c>
-      <c r="B95">
-        <v>2</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>820</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
         <v>821</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96" t="s">
+        <v>822</v>
+      </c>
+      <c r="D96" t="s">
+        <v>820</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>822</v>
-      </c>
-      <c r="B96">
-        <v>2</v>
-      </c>
-      <c r="C96" t="s">
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>676</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97" t="s">
+        <v>677</v>
+      </c>
+      <c r="D97" t="s">
         <v>823</v>
       </c>
-      <c r="D96" t="s">
-        <v>821</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>677</v>
-      </c>
-      <c r="B97">
-        <v>2</v>
-      </c>
-      <c r="C97" t="s">
-        <v>678</v>
-      </c>
-      <c r="D97" t="s">
-        <v>824</v>
-      </c>
       <c r="E97" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>679</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98" t="s">
+        <v>680</v>
+      </c>
+      <c r="D98" t="s">
+        <v>823</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>680</v>
-      </c>
-      <c r="B98">
-        <v>2</v>
-      </c>
-      <c r="C98" t="s">
-        <v>681</v>
-      </c>
-      <c r="D98" t="s">
-        <v>824</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>231</v>
       </c>
@@ -5187,33 +5187,33 @@
         <v>2</v>
       </c>
       <c r="C99" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D99" t="s">
         <v>233</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
+        <v>825</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100" t="s">
         <v>826</v>
       </c>
-      <c r="B100">
-        <v>2</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>827</v>
       </c>
-      <c r="D100" t="s">
-        <v>828</v>
-      </c>
       <c r="E100" s="2" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>234</v>
       </c>
@@ -5221,72 +5221,72 @@
         <v>3</v>
       </c>
       <c r="C101" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D101" t="s">
         <v>236</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
+        <v>829</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102" t="s">
         <v>830</v>
       </c>
-      <c r="B102">
-        <v>2</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>831</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" s="2" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>681</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103" t="s">
+        <v>682</v>
+      </c>
+      <c r="D103" t="s">
+        <v>683</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
         <v>832</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>682</v>
-      </c>
-      <c r="B103">
-        <v>2</v>
-      </c>
-      <c r="C103" t="s">
-        <v>683</v>
-      </c>
-      <c r="D103" t="s">
-        <v>684</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104" t="s">
         <v>833</v>
-      </c>
-      <c r="B104">
-        <v>2</v>
-      </c>
-      <c r="C104" t="s">
-        <v>834</v>
       </c>
       <c r="D104" t="s">
         <v>591</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="D107" s="11" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -5298,13 +5298,13 @@
       </c>
       <c r="E108"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5">
       <c r="E109"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5">
       <c r="E110"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5">
       <c r="E111"/>
     </row>
   </sheetData>
@@ -5317,11 +5317,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="45.1640625" customWidth="1"/>
     <col min="3" max="3" width="42.83203125" customWidth="1"/>
@@ -5330,7 +5330,7 @@
     <col min="6" max="6" width="30.1640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>340</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>343</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>346</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>349</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>351</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>355</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>358</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>361</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>364</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>366</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>369</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>371</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>334</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>378</v>
       </c>
@@ -5650,18 +5650,18 @@
         <v>527</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -5679,84 +5679,84 @@
       </c>
       <c r="F21"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>639</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
         <v>640</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>641</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
       <c r="E22" t="s">
+        <v>641</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
         <v>642</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
         <v>643</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>644</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
       </c>
       <c r="E23" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
         <v>646</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>647</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
       </c>
       <c r="E24" t="s">
+        <v>647</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
         <v>648</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
         <v>649</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>650</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>480</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
@@ -5773,18 +5773,18 @@
         <v>521</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
+        <v>652</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
         <v>653</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>654</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
@@ -5793,42 +5793,42 @@
         <v>322</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
+        <v>654</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
         <v>655</v>
       </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>656</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>657</v>
       </c>
-      <c r="E28" t="s">
-        <v>658</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -5845,10 +5845,10 @@
         <v>8</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>346</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
@@ -5865,50 +5865,50 @@
         <v>531</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="3" customFormat="1">
       <c r="A34" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="B34" s="3">
+        <v>2</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>643</v>
-      </c>
-      <c r="B34" s="3">
-        <v>2</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>644</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="3" customFormat="1">
       <c r="A35" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B35" s="3">
         <v>2</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="3" customFormat="1">
       <c r="A36" s="3" t="s">
         <v>481</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>9</v>
@@ -5925,10 +5925,10 @@
         <v>521</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="3" customFormat="1">
       <c r="A37" s="3" t="s">
         <v>480</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>9</v>
@@ -5945,18 +5945,18 @@
         <v>521</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="3" customFormat="1">
       <c r="A38" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>838</v>
-      </c>
-      <c r="B38" s="3">
-        <v>2</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>839</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>9</v>
@@ -5965,38 +5965,38 @@
         <v>568</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="3" customFormat="1">
       <c r="A39" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="B39" s="3">
+        <v>2</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>840</v>
-      </c>
-      <c r="B39" s="3">
-        <v>2</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>841</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="3" customFormat="1">
       <c r="A40" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="B40" s="3">
+        <v>2</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>653</v>
-      </c>
-      <c r="B40" s="3">
-        <v>2</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>654</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>9</v>
@@ -6005,30 +6005,30 @@
         <v>322</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="3" customFormat="1">
       <c r="A41" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="B41" s="3">
+        <v>2</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="B41" s="3">
-        <v>2</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>658</v>
-      </c>
       <c r="F41" s="6" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="3" customFormat="1">
       <c r="A42" s="3" t="s">
         <v>378</v>
       </c>
@@ -6036,10 +6036,10 @@
         <v>2</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>843</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>844</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>381</v>
@@ -6048,50 +6048,67 @@
         <v>527</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" s="3" customFormat="1">
+      <c r="A43" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="B43" s="3">
+        <v>2</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="3" customFormat="1">
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" s="3" customFormat="1">
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" s="3" customFormat="1">
       <c r="A46" s="10" t="s">
-        <v>879</v>
+        <v>891</v>
       </c>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" s="3" customFormat="1">
       <c r="A47" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="B47" s="3">
+        <v>2</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>643</v>
-      </c>
-      <c r="B47" s="3">
-        <v>2</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>644</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="3" customFormat="1">
       <c r="A48" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="B48" s="3">
+        <v>2</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>838</v>
-      </c>
-      <c r="B48" s="3">
-        <v>2</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>839</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>9</v>
@@ -6100,33 +6117,13 @@
         <v>568</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="B49" s="3">
-        <v>2</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>891</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="3" customFormat="1">
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" s="3"/>
     </row>
   </sheetData>
@@ -6143,7 +6140,7 @@
       <selection activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="34.5" customWidth="1"/>
@@ -6152,7 +6149,7 @@
     <col min="6" max="6" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6172,7 +6169,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>251</v>
       </c>
@@ -6192,7 +6189,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>255</v>
       </c>
@@ -6209,10 +6206,10 @@
         <v>258</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>259</v>
       </c>
@@ -6232,7 +6229,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>263</v>
       </c>
@@ -6252,7 +6249,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>267</v>
       </c>
@@ -6272,7 +6269,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>270</v>
       </c>
@@ -6292,7 +6289,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>272</v>
       </c>
@@ -6312,7 +6309,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>276</v>
       </c>
@@ -6332,7 +6329,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>279</v>
       </c>
@@ -6352,7 +6349,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>282</v>
       </c>
@@ -6369,10 +6366,10 @@
         <v>258</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>285</v>
       </c>
@@ -6392,7 +6389,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>289</v>
       </c>
@@ -6412,7 +6409,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>292</v>
       </c>
@@ -6432,7 +6429,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>296</v>
       </c>
@@ -6452,7 +6449,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>248</v>
       </c>
@@ -6472,7 +6469,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>301</v>
       </c>
@@ -6492,7 +6489,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>304</v>
       </c>
@@ -6512,7 +6509,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>308</v>
       </c>
@@ -6532,7 +6529,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>310</v>
       </c>
@@ -6552,7 +6549,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>224</v>
       </c>
@@ -6572,7 +6569,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>222</v>
       </c>
@@ -6592,7 +6589,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>316</v>
       </c>
@@ -6612,7 +6609,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>318</v>
       </c>
@@ -6632,7 +6629,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>321</v>
       </c>
@@ -6652,7 +6649,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>324</v>
       </c>
@@ -6672,7 +6669,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>122</v>
       </c>
@@ -6692,7 +6689,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>330</v>
       </c>
@@ -6712,7 +6709,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>333</v>
       </c>
@@ -6732,7 +6729,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>337</v>
       </c>
@@ -6752,12 +6749,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -6774,7 +6771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>251</v>
       </c>
@@ -6794,7 +6791,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>529</v>
       </c>
@@ -6814,7 +6811,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>255</v>
       </c>
@@ -6831,10 +6828,10 @@
         <v>258</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>534</v>
       </c>
@@ -6854,7 +6851,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>259</v>
       </c>
@@ -6874,7 +6871,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>537</v>
       </c>
@@ -6894,7 +6891,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>541</v>
       </c>
@@ -6914,7 +6911,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>544</v>
       </c>
@@ -6931,10 +6928,10 @@
         <v>547</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>263</v>
       </c>
@@ -6954,7 +6951,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>267</v>
       </c>
@@ -6974,7 +6971,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>270</v>
       </c>
@@ -6994,7 +6991,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>548</v>
       </c>
@@ -7011,10 +7008,10 @@
         <v>551</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>272</v>
       </c>
@@ -7034,7 +7031,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>276</v>
       </c>
@@ -7054,7 +7051,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>279</v>
       </c>
@@ -7074,7 +7071,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>553</v>
       </c>
@@ -7091,10 +7088,10 @@
         <v>556</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>285</v>
       </c>
@@ -7114,7 +7111,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>289</v>
       </c>
@@ -7134,7 +7131,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>558</v>
       </c>
@@ -7154,7 +7151,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>292</v>
       </c>
@@ -7174,7 +7171,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>561</v>
       </c>
@@ -7191,10 +7188,10 @@
         <v>564</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>296</v>
       </c>
@@ -7214,7 +7211,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>248</v>
       </c>
@@ -7231,7 +7228,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>301</v>
       </c>
@@ -7251,7 +7248,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>304</v>
       </c>
@@ -7271,7 +7268,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>308</v>
       </c>
@@ -7291,7 +7288,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>310</v>
       </c>
@@ -7311,7 +7308,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>316</v>
       </c>
@@ -7331,7 +7328,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>318</v>
       </c>
@@ -7348,7 +7345,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>567</v>
       </c>
@@ -7368,7 +7365,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>569</v>
       </c>
@@ -7385,10 +7382,10 @@
         <v>572</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>573</v>
       </c>
@@ -7405,10 +7402,10 @@
         <v>576</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>577</v>
       </c>
@@ -7425,10 +7422,10 @@
         <v>579</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>580</v>
       </c>
@@ -7445,10 +7442,10 @@
         <v>582</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>583</v>
       </c>
@@ -7468,7 +7465,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>321</v>
       </c>
@@ -7488,7 +7485,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>324</v>
       </c>
@@ -7508,7 +7505,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>589</v>
       </c>
@@ -7528,7 +7525,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>122</v>
       </c>
@@ -7548,7 +7545,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>592</v>
       </c>
@@ -7565,10 +7562,10 @@
         <v>595</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>596</v>
       </c>
@@ -7585,10 +7582,10 @@
         <v>595</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>598</v>
       </c>
@@ -7605,10 +7602,10 @@
         <v>595</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>600</v>
       </c>
@@ -7625,10 +7622,10 @@
         <v>602</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>330</v>
       </c>
@@ -7648,7 +7645,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>603</v>
       </c>
@@ -7665,7 +7662,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>512</v>
       </c>
@@ -7685,7 +7682,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>337</v>
       </c>
@@ -7705,12 +7702,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -7728,7 +7725,7 @@
       </c>
       <c r="F89"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>255</v>
       </c>
@@ -7739,38 +7736,38 @@
         <v>256</v>
       </c>
       <c r="D90" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E90" t="s">
         <v>258</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
+        <v>688</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91" t="s">
         <v>689</v>
       </c>
-      <c r="B91">
-        <v>2</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>690</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>691</v>
       </c>
-      <c r="E91" t="s">
-        <v>692</v>
-      </c>
       <c r="F91" s="2" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -7779,76 +7776,76 @@
         <v>531</v>
       </c>
       <c r="D92" t="s">
+        <v>692</v>
+      </c>
+      <c r="E92" t="s">
+        <v>670</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
         <v>693</v>
       </c>
-      <c r="E92" t="s">
-        <v>671</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93" t="s">
         <v>694</v>
       </c>
-      <c r="B93">
-        <v>2</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>695</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>696</v>
-      </c>
-      <c r="E93" t="s">
-        <v>697</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
+        <v>697</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94" t="s">
         <v>698</v>
       </c>
-      <c r="B94">
-        <v>2</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>699</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>700</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
         <v>701</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95" t="s">
         <v>702</v>
       </c>
-      <c r="B95">
-        <v>2</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
+        <v>699</v>
+      </c>
+      <c r="E95" t="s">
         <v>703</v>
       </c>
-      <c r="D95" t="s">
-        <v>700</v>
-      </c>
-      <c r="E95" t="s">
-        <v>704</v>
-      </c>
       <c r="F95" s="2" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>272</v>
       </c>
@@ -7868,47 +7865,47 @@
         <v>519</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
+        <v>704</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97" t="s">
         <v>705</v>
       </c>
-      <c r="B97">
-        <v>2</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
+        <v>687</v>
+      </c>
+      <c r="E97" t="s">
         <v>706</v>
       </c>
-      <c r="D97" t="s">
-        <v>688</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="F97" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
         <v>707</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98" t="s">
         <v>708</v>
       </c>
-      <c r="B98">
-        <v>2</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
+        <v>695</v>
+      </c>
+      <c r="E98" t="s">
         <v>709</v>
-      </c>
-      <c r="D98" t="s">
-        <v>696</v>
-      </c>
-      <c r="E98" t="s">
-        <v>710</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>553</v>
       </c>
@@ -7925,30 +7922,30 @@
         <v>556</v>
       </c>
       <c r="F99" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>710</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100" t="s">
+        <v>711</v>
+      </c>
+      <c r="D100" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>711</v>
-      </c>
-      <c r="B100">
-        <v>2</v>
-      </c>
-      <c r="C100" t="s">
-        <v>712</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>713</v>
-      </c>
-      <c r="E100" t="s">
-        <v>714</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>289</v>
       </c>
@@ -7959,7 +7956,7 @@
         <v>290</v>
       </c>
       <c r="D101" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E101" t="s">
         <v>291</v>
@@ -7968,27 +7965,27 @@
         <v>514</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
+        <v>715</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102" t="s">
         <v>716</v>
-      </c>
-      <c r="B102">
-        <v>2</v>
-      </c>
-      <c r="C102" t="s">
-        <v>717</v>
       </c>
       <c r="D102" t="s">
         <v>294</v>
       </c>
       <c r="E102" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>561</v>
       </c>
@@ -8005,64 +8002,64 @@
         <v>564</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
+        <v>718</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104" t="s">
         <v>719</v>
       </c>
-      <c r="B104">
-        <v>2</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>720</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>721</v>
-      </c>
-      <c r="E104" t="s">
-        <v>722</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B105">
         <v>2</v>
       </c>
       <c r="C105" t="s">
+        <v>722</v>
+      </c>
+      <c r="D105" t="s">
         <v>723</v>
-      </c>
-      <c r="D105" t="s">
-        <v>724</v>
       </c>
       <c r="E105" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
+        <v>724</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106" t="s">
         <v>725</v>
       </c>
-      <c r="B106">
-        <v>2</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
+        <v>644</v>
+      </c>
+      <c r="E106" t="s">
         <v>726</v>
       </c>
-      <c r="D106" t="s">
-        <v>645</v>
-      </c>
-      <c r="E106" t="s">
-        <v>727</v>
-      </c>
       <c r="F106" s="2" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>569</v>
       </c>
@@ -8076,10 +8073,10 @@
         <v>571</v>
       </c>
       <c r="E107" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>580</v>
       </c>
@@ -8096,27 +8093,27 @@
         <v>582</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
+        <v>728</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109" t="s">
         <v>729</v>
       </c>
-      <c r="B109">
-        <v>2</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>730</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>731</v>
-      </c>
-      <c r="E109" t="s">
-        <v>732</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>324</v>
       </c>
@@ -8136,69 +8133,69 @@
         <v>302</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B111">
         <v>3</v>
       </c>
       <c r="C111" t="s">
+        <v>733</v>
+      </c>
+      <c r="D111" t="s">
         <v>734</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>735</v>
-      </c>
-      <c r="E111" t="s">
-        <v>736</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B112">
         <v>3</v>
       </c>
       <c r="C112" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D112" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E112" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B113">
         <v>3</v>
       </c>
       <c r="C113" t="s">
+        <v>739</v>
+      </c>
+      <c r="D113" t="s">
         <v>740</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>741</v>
-      </c>
-      <c r="E113" t="s">
-        <v>742</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6">
       <c r="A116" s="1" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -8215,21 +8212,21 @@
         <v>3</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
+        <v>783</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+      <c r="C118" t="s">
         <v>784</v>
       </c>
-      <c r="B118">
-        <v>2</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>785</v>
-      </c>
-      <c r="D118" t="s">
-        <v>786</v>
       </c>
       <c r="E118" t="s">
         <v>133</v>
@@ -8238,47 +8235,47 @@
         <v>252</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
+        <v>732</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+      <c r="C119" t="s">
         <v>733</v>
       </c>
-      <c r="B119">
-        <v>2</v>
-      </c>
-      <c r="C119" t="s">
-        <v>734</v>
-      </c>
       <c r="D119" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E119" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
+        <v>693</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120" t="s">
         <v>694</v>
       </c>
-      <c r="B120">
-        <v>2</v>
-      </c>
-      <c r="C120" t="s">
-        <v>695</v>
-      </c>
       <c r="D120" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E120" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>272</v>
       </c>
@@ -8298,78 +8295,78 @@
         <v>519</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
+        <v>787</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122" t="s">
         <v>788</v>
       </c>
-      <c r="B122">
-        <v>2</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>789</v>
-      </c>
-      <c r="D122" t="s">
-        <v>790</v>
       </c>
       <c r="E122" t="s">
         <v>133</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
+        <v>790</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123" t="s">
         <v>791</v>
       </c>
-      <c r="B123">
-        <v>2</v>
-      </c>
-      <c r="C123" t="s">
-        <v>792</v>
-      </c>
       <c r="D123" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E123" t="s">
         <v>133</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
+        <v>738</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124" t="s">
         <v>739</v>
       </c>
-      <c r="B124">
-        <v>2</v>
-      </c>
-      <c r="C124" t="s">
-        <v>740</v>
-      </c>
       <c r="D124" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E124" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
+        <v>869</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125" t="s">
         <v>870</v>
       </c>
-      <c r="B125">
-        <v>2</v>
-      </c>
-      <c r="C125" t="s">
-        <v>871</v>
-      </c>
       <c r="D125" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E125" t="s">
         <v>151</v>
@@ -8378,67 +8375,67 @@
         <v>252</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
+        <v>707</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="C126" t="s">
         <v>708</v>
       </c>
-      <c r="B126">
-        <v>2</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
+        <v>785</v>
+      </c>
+      <c r="E126" t="s">
         <v>709</v>
-      </c>
-      <c r="D126" t="s">
-        <v>786</v>
-      </c>
-      <c r="E126" t="s">
-        <v>710</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
+        <v>793</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127" t="s">
         <v>794</v>
       </c>
-      <c r="B127">
-        <v>2</v>
-      </c>
-      <c r="C127" t="s">
-        <v>795</v>
-      </c>
       <c r="D127" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E127" t="s">
         <v>133</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
+        <v>715</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+      <c r="C128" t="s">
         <v>716</v>
-      </c>
-      <c r="B128">
-        <v>2</v>
-      </c>
-      <c r="C128" t="s">
-        <v>717</v>
       </c>
       <c r="D128" t="s">
         <v>294</v>
       </c>
       <c r="E128" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
         <v>561</v>
       </c>
@@ -8455,50 +8452,50 @@
         <v>564</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
+        <v>796</v>
+      </c>
+      <c r="B130">
+        <v>2</v>
+      </c>
+      <c r="C130" t="s">
         <v>797</v>
       </c>
-      <c r="B130">
-        <v>2</v>
-      </c>
-      <c r="C130" t="s">
-        <v>798</v>
-      </c>
       <c r="D130" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E130" t="s">
         <v>133</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
+        <v>798</v>
+      </c>
+      <c r="B131">
+        <v>2</v>
+      </c>
+      <c r="C131" t="s">
         <v>799</v>
       </c>
-      <c r="B131">
-        <v>2</v>
-      </c>
-      <c r="C131" t="s">
-        <v>800</v>
-      </c>
       <c r="D131" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E131" t="s">
         <v>133</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>324</v>
       </c>
@@ -8512,33 +8509,33 @@
         <v>326</v>
       </c>
       <c r="E132" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
+        <v>801</v>
+      </c>
+      <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="C133" t="s">
         <v>802</v>
       </c>
-      <c r="B133">
-        <v>2</v>
-      </c>
-      <c r="C133" t="s">
-        <v>803</v>
-      </c>
       <c r="D133" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E133" t="s">
         <v>133</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>589</v>
       </c>
@@ -8549,7 +8546,7 @@
         <v>590</v>
       </c>
       <c r="D134" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E134" t="s">
         <v>591</v>
@@ -8558,72 +8555,72 @@
         <v>302</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
+        <v>803</v>
+      </c>
+      <c r="B135">
+        <v>2</v>
+      </c>
+      <c r="C135" t="s">
         <v>804</v>
       </c>
-      <c r="B135">
-        <v>2</v>
-      </c>
-      <c r="C135" t="s">
-        <v>805</v>
-      </c>
       <c r="D135" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E135" t="s">
         <v>133</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
+        <v>805</v>
+      </c>
+      <c r="B136">
+        <v>2</v>
+      </c>
+      <c r="C136" t="s">
         <v>806</v>
       </c>
-      <c r="B136">
-        <v>2</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>807</v>
-      </c>
-      <c r="D136" t="s">
-        <v>808</v>
       </c>
       <c r="E136" t="s">
         <v>228</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
+        <v>808</v>
+      </c>
+      <c r="B137">
+        <v>2</v>
+      </c>
+      <c r="C137" t="s">
         <v>809</v>
       </c>
-      <c r="B137">
-        <v>2</v>
-      </c>
-      <c r="C137" t="s">
-        <v>810</v>
-      </c>
       <c r="D137" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E137" t="s">
         <v>133</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="F138"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6">
       <c r="A139" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
   </sheetData>
@@ -8637,11 +8634,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84351FC9-A5B2-F24D-8B55-E6051DA9E552}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="2" width="42.83203125" customWidth="1"/>
@@ -8650,7 +8647,7 @@
     <col min="5" max="5" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -8667,7 +8664,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -8684,7 +8681,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -8701,7 +8698,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -8712,7 +8709,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -8723,7 +8720,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -8734,7 +8731,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -8745,7 +8742,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -8759,7 +8756,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -8770,7 +8767,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -8781,7 +8778,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -8798,7 +8795,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -8809,7 +8806,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>87</v>
       </c>
@@ -8826,66 +8823,66 @@
         <v>524</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="D18" s="5"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B21" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C21" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="7" t="s">
         <v>612</v>
       </c>
       <c r="B22" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C22" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B23" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C23" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
+        <v>744</v>
+      </c>
+      <c r="B24" t="s">
+        <v>629</v>
+      </c>
+      <c r="C24" t="s">
         <v>745</v>
       </c>
-      <c r="B24" t="s">
-        <v>630</v>
-      </c>
-      <c r="C24" t="s">
-        <v>746</v>
-      </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -8893,16 +8890,16 @@
         <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D26" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F26" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -8910,16 +8907,16 @@
         <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D27" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F27" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -8927,30 +8924,30 @@
         <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F29" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B30" t="s">
         <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D30" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>334</v>
       </c>
@@ -8958,47 +8955,49 @@
         <v>512</v>
       </c>
       <c r="C32" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D32" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F32" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="7"/>
       <c r="B33" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B36" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C36" t="s">
         <v>422</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
+        <v>867</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="7" t="s">
+        <v>892</v>
+      </c>
       <c r="B38" s="7"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
     </row>
@@ -9010,957 +9009,936 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection sqref="A1:D63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="50.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="52.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="2"/>
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>844</v>
+      </c>
+      <c r="D2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>743</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" t="s">
         <v>845</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>879</v>
+      </c>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" t="s">
+        <v>880</v>
+      </c>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>614</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>615</v>
+      </c>
+      <c r="D9" t="s">
+        <v>616</v>
+      </c>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>384</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>385</v>
+      </c>
+      <c r="D10" t="s">
+        <v>386</v>
+      </c>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>532</v>
+      </c>
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>746</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" t="s">
+        <v>845</v>
+      </c>
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>387</v>
+      </c>
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>881</v>
+      </c>
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" t="s">
+        <v>882</v>
+      </c>
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>389</v>
+      </c>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>852</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>421</v>
+      </c>
+      <c r="D19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>846</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" t="s">
+        <v>414</v>
+      </c>
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>390</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>391</v>
+      </c>
+      <c r="D21" t="s">
+        <v>883</v>
+      </c>
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>847</v>
+      </c>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" t="s">
+        <v>848</v>
+      </c>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" t="s">
+        <v>884</v>
+      </c>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>885</v>
+      </c>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" t="s">
+        <v>415</v>
+      </c>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>392</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>393</v>
+      </c>
+      <c r="D27" t="s">
+        <v>394</v>
+      </c>
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" t="s">
+        <v>845</v>
+      </c>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" t="s">
+        <v>623</v>
+      </c>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>532</v>
+      </c>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" t="s">
+        <v>397</v>
+      </c>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" t="s">
+        <v>532</v>
+      </c>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" t="s">
+        <v>849</v>
+      </c>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>398</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>399</v>
+      </c>
+      <c r="D34" t="s">
         <v>388</v>
       </c>
-      <c r="E2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>744</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>400</v>
+      </c>
+      <c r="B35">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>846</v>
-      </c>
-      <c r="E3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="7">
+      <c r="C35" t="s">
+        <v>401</v>
+      </c>
+      <c r="D35" t="s">
+        <v>383</v>
+      </c>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>881</v>
-      </c>
-      <c r="E4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="7">
+      <c r="C36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" t="s">
+        <v>850</v>
+      </c>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>402</v>
+      </c>
+      <c r="B37">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>882</v>
-      </c>
-      <c r="E5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="7">
+      <c r="C37" t="s">
+        <v>403</v>
+      </c>
+      <c r="D37" t="s">
+        <v>404</v>
+      </c>
+      <c r="E37"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38">
         <v>1</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" t="s">
+        <v>618</v>
+      </c>
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" t="s">
+        <v>532</v>
+      </c>
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>420</v>
+      </c>
+      <c r="D40" t="s">
+        <v>405</v>
+      </c>
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" t="s">
         <v>25</v>
       </c>
-      <c r="E6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="7">
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>406</v>
+      </c>
+      <c r="B42">
         <v>1</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C42" t="s">
+        <v>407</v>
+      </c>
+      <c r="D42" t="s">
+        <v>386</v>
+      </c>
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" t="s">
+        <v>845</v>
+      </c>
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>619</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>620</v>
+      </c>
+      <c r="D44" t="s">
+        <v>616</v>
+      </c>
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>408</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>628</v>
+      </c>
+      <c r="D45" t="s">
+        <v>625</v>
+      </c>
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" t="s">
         <v>25</v>
       </c>
-      <c r="E7"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="7">
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47">
         <v>1</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>615</v>
-      </c>
-      <c r="B9" s="7">
+      <c r="C47" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" t="s">
+        <v>532</v>
+      </c>
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48">
         <v>1</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="E9"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="B10" s="7">
+      <c r="C48" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" t="s">
+        <v>409</v>
+      </c>
+      <c r="E48"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49">
         <v>1</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E10"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="7">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" t="s">
+        <v>410</v>
+      </c>
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>411</v>
+      </c>
+      <c r="D50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>411</v>
+      </c>
+      <c r="D51" t="s">
+        <v>851</v>
+      </c>
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>412</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>413</v>
+      </c>
+      <c r="D52" t="s">
+        <v>621</v>
+      </c>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>413</v>
+      </c>
+      <c r="D53" t="s">
         <v>16</v>
       </c>
-      <c r="E11"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="7">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="E53"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>395</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>622</v>
+      </c>
+      <c r="D54" t="s">
+        <v>383</v>
+      </c>
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>748</v>
+      </c>
+      <c r="D55" t="s">
+        <v>626</v>
+      </c>
+      <c r="E55"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>416</v>
+      </c>
+      <c r="D56" t="s">
+        <v>624</v>
+      </c>
+      <c r="E56"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>749</v>
+      </c>
+      <c r="D57" t="s">
         <v>532</v>
       </c>
-      <c r="E12"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="7">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>747</v>
-      </c>
-      <c r="B14" s="7">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>846</v>
-      </c>
-      <c r="E14"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="7">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E15"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>883</v>
-      </c>
-      <c r="E16"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="7">
-        <v>1</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>884</v>
-      </c>
-      <c r="E17"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="7">
-        <v>1</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="E18"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="E57"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>854</v>
+      </c>
+      <c r="D58" t="s">
+        <v>886</v>
+      </c>
+      <c r="E58"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>750</v>
+      </c>
+      <c r="D59" t="s">
+        <v>887</v>
+      </c>
+      <c r="E59"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>87</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>627</v>
+      </c>
+      <c r="D60" t="s">
         <v>853</v>
       </c>
-      <c r="B19" s="7">
-        <v>1</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="E19"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="B20" s="7">
-        <v>1</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="E20"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="B21" s="7">
-        <v>1</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>885</v>
-      </c>
-      <c r="E21"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="7">
-        <v>1</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>848</v>
-      </c>
-      <c r="E22"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="7">
-        <v>1</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>849</v>
-      </c>
-      <c r="E23"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="7">
-        <v>1</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>886</v>
-      </c>
-      <c r="E24"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="7">
-        <v>1</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>887</v>
-      </c>
-      <c r="E25"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="7">
-        <v>1</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="E26"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="B27" s="7">
-        <v>1</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="E27"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="7">
-        <v>1</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>846</v>
-      </c>
-      <c r="E28"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="7">
-        <v>1</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="E29"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="7">
-        <v>1</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="E30"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="7">
-        <v>1</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="E31"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="7">
-        <v>1</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="E32"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="7">
-        <v>1</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>850</v>
-      </c>
-      <c r="E33"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="B34" s="7">
-        <v>1</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="E34"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="B35" s="7">
-        <v>1</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="E35"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="7">
-        <v>1</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>851</v>
-      </c>
-      <c r="E36"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="B37" s="7">
-        <v>1</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="E37"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="7">
-        <v>1</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="E38"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="7">
-        <v>1</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="E39"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>748</v>
-      </c>
-      <c r="B40" s="7">
-        <v>1</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="E40"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="7">
-        <v>1</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="E41"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" s="7">
-        <v>1</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="B43" s="7">
-        <v>1</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E43"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B44" s="7">
-        <v>1</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>846</v>
-      </c>
-      <c r="E44"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="B45" s="7">
-        <v>1</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="E45"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="B46" s="7">
-        <v>1</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="E46"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" s="7">
-        <v>1</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B48" s="7">
-        <v>1</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="E48"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B49" s="7">
-        <v>1</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="E49"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B50" s="7">
-        <v>1</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="E50"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51" s="7">
-        <v>2</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E51"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B52" s="7">
-        <v>2</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>852</v>
-      </c>
-      <c r="E52"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="B53" s="7">
-        <v>2</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="E53"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B54" s="7">
-        <v>2</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="B55" s="7">
-        <v>2</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="E55"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B56" s="7">
-        <v>2</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>749</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="E56"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57" s="7">
-        <v>2</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="E57"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B58" s="7">
-        <v>2</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>750</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="E58"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B59" s="7">
-        <v>3</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>855</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>888</v>
-      </c>
-      <c r="E59"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B60" s="7">
-        <v>3</v>
-      </c>
-      <c r="C60" s="7" t="s">
+      <c r="E60"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
         <v>751</v>
       </c>
-      <c r="D60" s="7" t="s">
-        <v>889</v>
-      </c>
-      <c r="E60"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B61" s="7">
-        <v>3</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>628</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>854</v>
+      <c r="D61" t="s">
+        <v>564</v>
       </c>
       <c r="E61"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B62" s="7">
-        <v>5</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>752</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>564</v>
-      </c>
+    <row r="62" spans="1:5">
       <c r="E62"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D66">
@@ -9973,18 +9951,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E96E553-B9B7-3A43-9A19-9B2DEFC1133B}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -9992,7 +9970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -10000,23 +9978,23 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B3" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>743</v>
-      </c>
-      <c r="B3" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>744</v>
       </c>
       <c r="B4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -10024,7 +10002,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -10032,7 +10010,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -10040,7 +10018,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -10048,7 +10026,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -10056,7 +10034,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -10064,7 +10042,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>86</v>
       </c>
@@ -10072,7 +10050,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -10080,23 +10058,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B13" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -10104,7 +10082,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>390</v>
       </c>
@@ -10112,7 +10090,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -10120,7 +10098,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -10128,7 +10106,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -10136,7 +10114,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>412</v>
       </c>
@@ -10144,7 +10122,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -10152,15 +10130,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>614</v>
+      </c>
+      <c r="B22" t="s">
         <v>615</v>
       </c>
-      <c r="B22" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -10168,7 +10146,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -10176,7 +10154,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -10184,7 +10162,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>384</v>
       </c>
@@ -10192,7 +10170,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>392</v>
       </c>
@@ -10200,7 +10178,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>102</v>
       </c>
@@ -10208,7 +10186,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>395</v>
       </c>
@@ -10216,7 +10194,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -10224,7 +10202,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>83</v>
       </c>
@@ -10232,7 +10210,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -10240,7 +10218,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -10248,7 +10226,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -10256,7 +10234,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -10264,7 +10242,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>398</v>
       </c>
@@ -10272,7 +10250,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>400</v>
       </c>
@@ -10280,7 +10258,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -10288,7 +10266,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -10296,7 +10274,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -10304,7 +10282,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>402</v>
       </c>
@@ -10312,7 +10290,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -10320,7 +10298,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -10328,150 +10306,145 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="B44" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B45" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>406</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>406</v>
+        <v>104</v>
       </c>
       <c r="B47" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>32</v>
+        <v>619</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>620</v>
+        <v>408</v>
       </c>
       <c r="B52" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>408</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>629</v>
+        <v>74</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="B58" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>87</v>
-      </c>
-      <c r="B61" t="s">
         <v>100</v>
       </c>
     </row>

--- a/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
+++ b/Load/ontology/harmonization/clinEpi_eda_inconsistencyIssues.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezheng/Documents/VEuPathDB-git/ApiCommonData/Load/ontology/harmonization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D539E4-FCDD-BB42-9951-3D998E6F2BD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E182A5-B64F-B14E-B313-3139E358CC2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="1260" windowWidth="22420" windowHeight="11480" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="2620" windowWidth="22420" windowHeight="11480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="termWithDifferentLabels" sheetId="1" r:id="rId1"/>
+    <sheet name="termsWithMulitpleLabels" sheetId="1" r:id="rId1"/>
     <sheet name="LabelsUsedMultipleTerms" sheetId="2" r:id="rId2"/>
     <sheet name="termWithDifferentParent" sheetId="3" r:id="rId3"/>
     <sheet name="units_issues" sheetId="6" r:id="rId4"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="896">
   <si>
     <t>sid</t>
   </si>
@@ -2664,9 +2664,6 @@
     <t>Use IRI EUPATH_0030024 for this label</t>
   </si>
   <si>
-    <t>Checked on Aug 11th, all known issues are fixed</t>
-  </si>
-  <si>
     <t>icemr_india_gujarat | icemr_prism2_border_cohort | gates_gems1a | gates_gems | icemr_southAsia | icemr_southernAfrica | icemr_india_cx | gates_perch | icemr_malawi | general/general_promote | icemr_india_cohort | icemr_india_feverSurv | gates_sip | icemr_southeastAsia | icemr_prism2 | icemr_meghalaya | icemr_prism | gates_provide | icemr_amazoniaPeru | icemr_westAfrica | gates_maled | general/general_crompton</t>
   </si>
   <si>
@@ -2707,6 +2704,18 @@
   </si>
   <si>
     <t>Removed and no unit issues left.</t>
+  </si>
+  <si>
+    <t>Checked on Aug 19th, all known issues are fixed</t>
+  </si>
+  <si>
+    <t>Checked on Aug 19th, two remaining issues need to be addressed in the future.</t>
+  </si>
+  <si>
+    <t>Rotavirus IgA titer, by ELISA result</t>
+  </si>
+  <si>
+    <t>EUPATH_0036335|EUPATH_0011516|EUPATH_0036490</t>
   </si>
 </sst>
 </file>
@@ -3592,8 +3601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5282,20 +5291,11 @@
       </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="D107" s="11" t="s">
-        <v>878</v>
+      <c r="A107" s="11" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" t="s">
-        <v>0</v>
-      </c>
-      <c r="B108" t="s">
-        <v>1</v>
-      </c>
-      <c r="C108" t="s">
-        <v>2</v>
-      </c>
       <c r="E108"/>
     </row>
     <row r="109" spans="1:5">
@@ -5315,10 +5315,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6056,7 +6056,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>9</v>
@@ -6065,7 +6065,7 @@
         <v>647</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="3" customFormat="1">
@@ -6076,7 +6076,7 @@
     </row>
     <row r="46" spans="1:6" s="3" customFormat="1">
       <c r="A46" s="10" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F46" s="6"/>
     </row>
@@ -6121,10 +6121,48 @@
       </c>
     </row>
     <row r="50" spans="1:6" s="3" customFormat="1">
+      <c r="A50" s="10" t="s">
+        <v>893</v>
+      </c>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="3"/>
+    <row r="51" spans="1:6" s="3" customFormat="1">
+      <c r="A51" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="B51" s="3">
+        <v>2</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>894</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>895</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>568</v>
+      </c>
+      <c r="F52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6137,7 +6175,7 @@
   <dimension ref="A1:F139"/>
   <sheetViews>
     <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="A139" sqref="A139"/>
+      <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8620,7 +8658,7 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1" t="s">
-        <v>878</v>
+        <v>892</v>
       </c>
     </row>
   </sheetData>
@@ -8632,10 +8670,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84351FC9-A5B2-F24D-8B55-E6051DA9E552}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8973,7 +9011,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B35" s="3"/>
     </row>
@@ -8993,13 +9031,18 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="7" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B38" s="7"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="11" t="s">
+        <v>892</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9078,7 +9121,7 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E4"/>
     </row>
@@ -9093,7 +9136,7 @@
         <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E5"/>
     </row>
@@ -9258,7 +9301,7 @@
         <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E16"/>
     </row>
@@ -9273,7 +9316,7 @@
         <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E17"/>
     </row>
@@ -9333,7 +9376,7 @@
         <v>391</v>
       </c>
       <c r="D21" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E21"/>